--- a/£TEG.xlsx
+++ b/£TEG.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD35E5D9-8709-42BE-AA26-1A6ACA13FF9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A366BC10-EA3A-40B0-B89C-CA2534819E51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="825" windowWidth="28800" windowHeight="12225" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
   <si>
     <t>£TEG</t>
   </si>
@@ -106,16 +107,297 @@
   </si>
   <si>
     <t>Dundee &amp; Milton Keynes site due to open in 2023</t>
+  </si>
+  <si>
+    <t>Valuation Metrics</t>
+  </si>
+  <si>
+    <t>P/B</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>EV/S</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>EV/E</t>
+  </si>
+  <si>
+    <t>ROCE</t>
+  </si>
+  <si>
+    <t>H122</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>Loss on JV</t>
+  </si>
+  <si>
+    <t>Reversal of Impairment</t>
+  </si>
+  <si>
+    <t>Exceptional Income</t>
+  </si>
+  <si>
+    <t>Operating Profit</t>
+  </si>
+  <si>
+    <t>Finance Costs</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>H121</t>
+  </si>
+  <si>
+    <t>Revenue Y/Y</t>
+  </si>
+  <si>
+    <t>Revenue H/H</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Non-Finance Metrics</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Joint Ventures</t>
+  </si>
+  <si>
+    <t>H221</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>FY32</t>
+  </si>
+  <si>
+    <t>FY33</t>
+  </si>
+  <si>
+    <t>£310k in 50:50 at end of FY19</t>
+  </si>
+  <si>
+    <t>Houdini's Escape Room Ltd.</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Goodwill+Intangibles</t>
+  </si>
+  <si>
+    <t>Investments in JV</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Deferred Taxes</t>
+  </si>
+  <si>
+    <t>Total NCA</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Trade &amp; A/R</t>
+  </si>
+  <si>
+    <t>Tax Receivables</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Trade &amp; A/P</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Liabiltiies</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>S/E+L</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>Book Value per Share</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>Cashflow Statement</t>
+  </si>
+  <si>
+    <t>Cash from Operations</t>
+  </si>
+  <si>
+    <t>Corporation Tax Received</t>
+  </si>
+  <si>
+    <t>Finance Costs Paid</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Acquisition of Sites</t>
+  </si>
+  <si>
+    <t>Purchase of PP&amp;E</t>
+  </si>
+  <si>
+    <t>Purchase of Software</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Lease Principal Payments</t>
+  </si>
+  <si>
+    <t>Drawdown of Bank Borrowings</t>
+  </si>
+  <si>
+    <t>Repayment of Borrowings</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Bank Borrowings &amp; Lease</t>
+  </si>
+  <si>
+    <t>Businesses</t>
+  </si>
+  <si>
+    <t>H220</t>
+  </si>
+  <si>
+    <t>H219</t>
+  </si>
+  <si>
+    <t>H218</t>
+  </si>
+  <si>
+    <t>H118</t>
+  </si>
+  <si>
+    <t>H119</t>
+  </si>
+  <si>
+    <t>H120</t>
+  </si>
+  <si>
+    <t>Employees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +440,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +492,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,30 +595,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,12 +613,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,8 +642,83 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -418,6 +798,111 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159D08D9-148C-4C12-8747-FCB7F528FFED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="0"/>
+          <a:ext cx="0" cy="18078450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDB451A-2F43-4C9A-89BC-76E93336F7D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11372850" y="0"/>
+          <a:ext cx="0" cy="18078450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -720,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904FFB80-2819-4CCA-9F78-6AC8529FFC68}">
-  <dimension ref="B2:M28"/>
+  <dimension ref="B2:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:M6"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -731,217 +1216,1589 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="G5" s="21" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="G5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="Q5" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>2.27</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="G6" s="18">
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="G6" s="12">
         <v>2023</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
-        <v>68.5</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="41">
+        <f>'Financial Model'!K17</f>
+        <v>68.381495999999999</v>
+      </c>
+      <c r="D7" s="26" t="str">
+        <f>$C$28</f>
+        <v>H122</v>
+      </c>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <f>C6*C7</f>
-        <v>155.495</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+        <v>186.06605061600001</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="7">
+        <f>'Financial Model'!K60</f>
+        <v>7.734</v>
+      </c>
+      <c r="D9" s="26" t="str">
+        <f t="shared" ref="D9:D10" si="0">$C$28</f>
+        <v>H122</v>
+      </c>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="7">
+        <f>'Financial Model'!K61</f>
+        <v>207.95099999999999</v>
+      </c>
+      <c r="D10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>H122</v>
+      </c>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <f>C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
+        <v>-200.21699999999998</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <f>C8-C11</f>
-        <v>155.495</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
+        <v>386.28305061599997</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q13" s="53"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q14" s="53"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="D16" s="21"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="21" t="s">
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="60"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="Q19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="R19" s="18"/>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q20" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="10"/>
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q21" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" s="10"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="16"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="20">
         <v>2009</v>
       </c>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
+      <c r="C25" s="20">
+        <f>'Financial Model'!K30</f>
+        <v>47</v>
+      </c>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="18" t="s">
+      <c r="C26" s="65">
+        <f>'Financial Model'!K31</f>
+        <v>1500</v>
+      </c>
+      <c r="D26" s="66"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="13" t="str">
+        <f>'Financial Model'!K1</f>
+        <v>H122</v>
+      </c>
+      <c r="D28" s="42">
+        <f>'Financial Model'!K3</f>
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C29" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="57">
+        <f>C6/'Financial Model'!K58</f>
+        <v>3.5367722369936718</v>
+      </c>
+      <c r="D33" s="58"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
+  <mergeCells count="21">
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{872569F1-2E0E-45DC-998D-58DC741E9E51}"/>
+    <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{872569F1-2E0E-45DC-998D-58DC741E9E51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C83F-EC03-4F38-8C2B-BF6F054B4FFD}">
+  <dimension ref="B1:AD92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="49"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="49"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="49"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="49"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="2:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="33"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="35">
+        <v>43645</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="35">
+        <v>44010</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="I2" s="35">
+        <v>44374</v>
+      </c>
+      <c r="J2" s="64">
+        <f>R2</f>
+        <v>44556</v>
+      </c>
+      <c r="K2" s="35">
+        <v>44738</v>
+      </c>
+      <c r="R2" s="35">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="33"/>
+      <c r="D3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="32">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="43">
+        <v>10.61</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="K4" s="43">
+        <v>63.238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="44">
+        <v>4.1539999999999999</v>
+      </c>
+      <c r="K5" s="44">
+        <v>19.707000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="43">
+        <f>I4-I5</f>
+        <v>6.4559999999999995</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="43">
+        <f>K4-K5</f>
+        <v>43.530999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="44">
+        <v>14.558999999999999</v>
+      </c>
+      <c r="K7" s="44">
+        <v>24.021999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="44">
+        <v>0</v>
+      </c>
+      <c r="K8" s="44">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="44">
+        <v>0</v>
+      </c>
+      <c r="K9" s="44">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="44">
+        <v>0</v>
+      </c>
+      <c r="K10" s="44">
+        <v>4.601</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="43">
+        <f>I6-I7-I8+I9+I10</f>
+        <v>-8.1029999999999998</v>
+      </c>
+      <c r="J11" s="48"/>
+      <c r="K11" s="43">
+        <f>K6-K7-K8+K9+K10</f>
+        <v>24.547000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="44">
+        <v>-2.6659999999999999</v>
+      </c>
+      <c r="K12" s="44">
+        <v>-3.532</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="44">
+        <f>I11+I12</f>
+        <v>-10.769</v>
+      </c>
+      <c r="K13" s="44">
+        <f>K11+K12</f>
+        <v>21.015000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="44">
+        <v>-1.97</v>
+      </c>
+      <c r="K14" s="44">
+        <v>2.7210000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="43">
+        <f>I13-I14</f>
+        <v>-8.7989999999999995</v>
+      </c>
+      <c r="J15" s="48"/>
+      <c r="K15" s="43">
+        <f>K13-K14</f>
+        <v>18.294</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="44">
+        <f>I15/I17</f>
+        <v>-0.12873671520202257</v>
+      </c>
+      <c r="J16" s="50"/>
+      <c r="K16" s="39">
+        <f>K15/K17</f>
+        <v>0.26752851385409882</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="44">
+        <v>68.348799999999997</v>
+      </c>
+      <c r="J17" s="51"/>
+      <c r="K17" s="40">
+        <v>68.381495999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="36">
+        <f>K4/I4-1</f>
+        <v>4.9602262016965133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="38">
+        <f>I6/I4</f>
+        <v>0.60848256361922715</v>
+      </c>
+      <c r="K22" s="38">
+        <f>K6/K4</f>
+        <v>0.68836775356589386</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="38">
+        <f>I11/I4</f>
+        <v>-0.7637134778510839</v>
+      </c>
+      <c r="K23" s="38">
+        <f>K11/K4</f>
+        <v>0.38816850627787092</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="38">
+        <f>I15/I4</f>
+        <v>-0.82931196983977384</v>
+      </c>
+      <c r="K24" s="38">
+        <f>K15/K4</f>
+        <v>0.2892880862772384</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="38">
+        <f>I24/I14/I13</f>
+        <v>-3.9090959519535243E-2</v>
+      </c>
+      <c r="K25" s="38">
+        <f>K24/K14/K13</f>
+        <v>5.0590924103622523E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="J29" s="48"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45</v>
+      </c>
+      <c r="I30" s="1">
+        <v>46</v>
+      </c>
+      <c r="K30" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="67">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="44">
+        <f>29.35+0.355</f>
+        <v>29.705000000000002</v>
+      </c>
+      <c r="K35" s="44">
+        <f>29.74+0.195</f>
+        <v>29.934999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="44">
+        <v>0.31</v>
+      </c>
+      <c r="K36" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="44">
+        <v>38.566000000000003</v>
+      </c>
+      <c r="K37" s="44">
+        <v>42.151000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="44">
+        <v>156.559</v>
+      </c>
+      <c r="K38" s="44">
+        <v>173.00899999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="44">
+        <v>6.0880000000000001</v>
+      </c>
+      <c r="K39" s="44">
+        <v>4.2320000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" ref="C40:J40" si="0">SUM(C35:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="44">
+        <f t="shared" si="0"/>
+        <v>231.22799999999998</v>
+      </c>
+      <c r="J40" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="44">
+        <f>SUM(K35:K39)</f>
+        <v>249.32699999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="43">
+        <v>1.05</v>
+      </c>
+      <c r="J41" s="48"/>
+      <c r="K41" s="43">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="44">
+        <v>1.194</v>
+      </c>
+      <c r="K42" s="44">
+        <v>14.776999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="43">
+        <v>17.103000000000002</v>
+      </c>
+      <c r="J43" s="48"/>
+      <c r="K43" s="43">
+        <v>7.734</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="K44" s="44">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" ref="C45:J45" si="1">C40+SUM(C41:C44)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="44">
+        <f t="shared" si="1"/>
+        <v>250.58499999999998</v>
+      </c>
+      <c r="J45" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="44">
+        <f>K40+SUM(K41:K44)</f>
+        <v>273.40199999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I46" s="44"/>
+      <c r="K46" s="44"/>
+    </row>
+    <row r="47" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="43">
+        <v>43.871000000000002</v>
+      </c>
+      <c r="J47" s="48"/>
+      <c r="K47" s="43">
+        <v>17.963999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I48" s="44">
+        <v>12.833</v>
+      </c>
+      <c r="K48" s="44">
+        <v>10.568</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" ref="C49:J49" si="2">C47+C48</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="44">
+        <f t="shared" si="2"/>
+        <v>56.704000000000001</v>
+      </c>
+      <c r="J49" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="44">
+        <f>K47+K48</f>
+        <v>28.531999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="43">
+        <v>171.18199999999999</v>
+      </c>
+      <c r="J50" s="48"/>
+      <c r="K50" s="43">
+        <v>189.98699999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="44">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="K51" s="44">
+        <v>2.274</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" ref="C52:J52" si="3">C49+SUM(C50:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="44">
+        <f t="shared" si="3"/>
+        <v>229.46799999999999</v>
+      </c>
+      <c r="J52" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="44">
+        <f>K49+SUM(K50:K51)</f>
+        <v>220.79300000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I53" s="44"/>
+      <c r="K53" s="44"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" s="44">
+        <v>21.117000000000001</v>
+      </c>
+      <c r="K54" s="44">
+        <v>52.609000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="44">
+        <f>I54+I52</f>
+        <v>250.58499999999998</v>
+      </c>
+      <c r="K55" s="44">
+        <f>K54+K52</f>
+        <v>273.40199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57" s="44">
+        <f>I45-I52</f>
+        <v>21.11699999999999</v>
+      </c>
+      <c r="K57" s="44">
+        <f>K45-K52</f>
+        <v>52.60899999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" s="1">
+        <f>I57/I17</f>
+        <v>0.30895933798398789</v>
+      </c>
+      <c r="K58" s="1">
+        <f>K57/K17</f>
+        <v>0.7693455551191799</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="56">
+        <f>I43</f>
+        <v>17.103000000000002</v>
+      </c>
+      <c r="J60" s="55"/>
+      <c r="K60" s="56">
+        <f>K43</f>
+        <v>7.734</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="56">
+        <f>+I47+I50</f>
+        <v>215.053</v>
+      </c>
+      <c r="J61" s="55"/>
+      <c r="K61" s="56">
+        <f>+K47+K50</f>
+        <v>207.95099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="44">
+        <f>I60-I61</f>
+        <v>-197.95</v>
+      </c>
+      <c r="K62" s="44">
+        <f>K60-K61</f>
+        <v>-200.21699999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B75" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" s="44">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="J76" s="61">
+        <f>R76-I76</f>
+        <v>25.619</v>
+      </c>
+      <c r="K76" s="44">
+        <v>31.850999999999999</v>
+      </c>
+      <c r="R76" s="44">
+        <v>30.827000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I77" s="44">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="J77" s="61">
+        <f t="shared" ref="J77:J78" si="4">R77-I77</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="44">
+        <v>-2.8780000000000001</v>
+      </c>
+      <c r="R77" s="44">
+        <v>2.2919999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I78" s="44">
+        <v>-2.6509999999999998</v>
+      </c>
+      <c r="J78" s="61">
+        <f t="shared" si="4"/>
+        <v>-3.0350000000000001</v>
+      </c>
+      <c r="K78" s="44">
+        <v>-3.4740000000000002</v>
+      </c>
+      <c r="R78" s="44">
+        <v>-5.6859999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="43">
+        <f>SUM(I76:I78)</f>
+        <v>4.8490000000000002</v>
+      </c>
+      <c r="J79" s="62">
+        <f>SUM(J76:J78)</f>
+        <v>22.584</v>
+      </c>
+      <c r="K79" s="43">
+        <f>SUM(K76:K78)</f>
+        <v>25.498999999999999</v>
+      </c>
+      <c r="R79" s="43">
+        <f>SUM(R76:R78)</f>
+        <v>27.433</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I80" s="44"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="44"/>
+      <c r="R80" s="44"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I81" s="44">
+        <v>0</v>
+      </c>
+      <c r="J81" s="61">
+        <f t="shared" ref="J81:J83" si="5">R81-I81</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="44">
+        <v>-0.45400000000000001</v>
+      </c>
+      <c r="R81" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I82" s="44">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="J82" s="61">
+        <f t="shared" si="5"/>
+        <v>-6.9029999999999996</v>
+      </c>
+      <c r="K82" s="44">
+        <v>-16.632000000000001</v>
+      </c>
+      <c r="R82" s="44">
+        <v>-7.1079999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I83" s="44">
+        <v>0</v>
+      </c>
+      <c r="J83" s="61">
+        <f t="shared" si="5"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="K83" s="44">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="R83" s="44">
+        <v>-2.4E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="43">
+        <f>SUM(I81:I83)</f>
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="J84" s="62">
+        <f>SUM(J81:J83)</f>
+        <v>-6.9269999999999996</v>
+      </c>
+      <c r="K84" s="43">
+        <f>SUM(K81:K83)</f>
+        <v>-17.099000000000004</v>
+      </c>
+      <c r="R84" s="43">
+        <f>SUM(R81:R83)</f>
+        <v>-7.1319999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I85" s="44"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="44"/>
+      <c r="R85" s="44"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I86" s="44">
+        <v>-2.9350000000000001</v>
+      </c>
+      <c r="J86" s="61">
+        <f t="shared" ref="J86:J88" si="6">R86-I86</f>
+        <v>-7.0670000000000002</v>
+      </c>
+      <c r="K86" s="44">
+        <v>-5.1769999999999996</v>
+      </c>
+      <c r="R86" s="44">
+        <v>-10.002000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I87" s="44">
+        <v>18</v>
+      </c>
+      <c r="J87" s="61">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K87" s="44">
+        <v>0</v>
+      </c>
+      <c r="R87" s="44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I88" s="44">
+        <v>-10</v>
+      </c>
+      <c r="J88" s="61">
+        <f t="shared" si="6"/>
+        <v>-18</v>
+      </c>
+      <c r="K88" s="44">
+        <v>-7</v>
+      </c>
+      <c r="R88" s="44">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="43">
+        <f>SUM(I86:I88)</f>
+        <v>5.0649999999999995</v>
+      </c>
+      <c r="J89" s="62">
+        <f>SUM(J86:J88)</f>
+        <v>-21.067</v>
+      </c>
+      <c r="K89" s="43">
+        <f>SUM(K86:K88)</f>
+        <v>-12.177</v>
+      </c>
+      <c r="R89" s="43">
+        <f>SUM(R86:R88)</f>
+        <v>-16.002000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I91" s="44">
+        <f>+I81+I82+I83</f>
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="J91" s="61">
+        <f t="shared" ref="J91" si="7">+J81+J82+J83</f>
+        <v>-6.9269999999999996</v>
+      </c>
+      <c r="K91" s="44">
+        <f>+K81+K82+K83</f>
+        <v>-17.099000000000004</v>
+      </c>
+      <c r="R91" s="44">
+        <f>+R81+R82+R83</f>
+        <v>-7.1319999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I92" s="44">
+        <f>+I79+I91</f>
+        <v>4.6440000000000001</v>
+      </c>
+      <c r="J92" s="61">
+        <f t="shared" ref="J92" si="8">+J79+J91</f>
+        <v>15.657</v>
+      </c>
+      <c r="K92" s="44">
+        <f>+K79+K91</f>
+        <v>8.399999999999995</v>
+      </c>
+      <c r="R92" s="44">
+        <f>+R79+R91</f>
+        <v>20.301000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{4AF70136-1990-41FC-9821-A532866EF9F7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/£TEG.xlsx
+++ b/£TEG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A366BC10-EA3A-40B0-B89C-CA2534819E51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30448B0F-896E-49F8-8DAE-0B7420C5C2A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="825" windowWidth="28800" windowHeight="12225" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
+    <workbookView xWindow="1440" yWindow="825" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
   <si>
     <t>£TEG</t>
   </si>
@@ -127,9 +127,6 @@
     <t>EV/E</t>
   </si>
   <si>
-    <t>ROCE</t>
-  </si>
-  <si>
     <t>H122</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>FY21</t>
   </si>
   <si>
-    <t>FY22</t>
-  </si>
-  <si>
     <t>FY23</t>
   </si>
   <si>
@@ -386,6 +380,48 @@
   </si>
   <si>
     <t>Employees</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Centres</t>
+  </si>
+  <si>
+    <t>Site Staff</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Unit Management</t>
+  </si>
+  <si>
+    <t>Proceeds from Share Issue</t>
+  </si>
+  <si>
+    <t>Costs from Share Issue</t>
+  </si>
+  <si>
+    <t>Dividends Paid</t>
+  </si>
+  <si>
+    <t>Bowling</t>
+  </si>
+  <si>
+    <t>Food &amp; Drink</t>
+  </si>
+  <si>
+    <t>Machines &amp; Amusements</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Investment in Joint Venture</t>
+  </si>
+  <si>
+    <t>Cash costs from New Borrowing</t>
   </si>
 </sst>
 </file>
@@ -394,8 +430,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -595,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -621,41 +657,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -670,8 +677,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,7 +692,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -693,12 +700,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,14 +712,65 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -815,7 +867,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -865,7 +917,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1207,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904FFB80-2819-4CCA-9F78-6AC8529FFC68}">
   <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1228,25 +1280,25 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="G5" s="17" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="G5" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="Q5" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="Q5" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1255,7 +1307,7 @@
       <c r="C6" s="5">
         <v>2.7210000000000001</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="17"/>
       <c r="G6" s="12">
         <v>2023</v>
       </c>
@@ -1267,7 +1319,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="16"/>
-      <c r="Q6" s="53"/>
+      <c r="Q6" s="42"/>
       <c r="R6" s="10"/>
       <c r="S6" s="11"/>
     </row>
@@ -1275,15 +1327,15 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="41">
-        <f>'Financial Model'!K17</f>
+      <c r="C7" s="30">
+        <f>'Financial Model'!K21</f>
         <v>68.381495999999999</v>
       </c>
-      <c r="D7" s="26" t="str">
+      <c r="D7" s="17" t="str">
         <f>$C$28</f>
         <v>H122</v>
       </c>
-      <c r="Q7" s="53"/>
+      <c r="Q7" s="42"/>
       <c r="R7" s="10"/>
       <c r="S7" s="11"/>
     </row>
@@ -1295,8 +1347,8 @@
         <f>C6*C7</f>
         <v>186.06605061600001</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="Q8" s="53"/>
+      <c r="D8" s="17"/>
+      <c r="Q8" s="42"/>
       <c r="R8" s="10"/>
       <c r="S8" s="11"/>
     </row>
@@ -1305,14 +1357,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="7">
-        <f>'Financial Model'!K60</f>
+        <f>'Financial Model'!K67</f>
         <v>7.734</v>
       </c>
-      <c r="D9" s="26" t="str">
+      <c r="D9" s="17" t="str">
         <f t="shared" ref="D9:D10" si="0">$C$28</f>
         <v>H122</v>
       </c>
-      <c r="Q9" s="53"/>
+      <c r="Q9" s="42"/>
       <c r="R9" s="10"/>
       <c r="S9" s="11"/>
     </row>
@@ -1321,14 +1373,14 @@
         <v>7</v>
       </c>
       <c r="C10" s="7">
-        <f>'Financial Model'!K61</f>
+        <f>'Financial Model'!K68</f>
         <v>207.95099999999999</v>
       </c>
-      <c r="D10" s="26" t="str">
+      <c r="D10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>H122</v>
       </c>
-      <c r="Q10" s="53"/>
+      <c r="Q10" s="42"/>
       <c r="R10" s="10"/>
       <c r="S10" s="11"/>
     </row>
@@ -1340,8 +1392,8 @@
         <f>C9-C10</f>
         <v>-200.21699999999998</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="Q11" s="53"/>
+      <c r="D11" s="17"/>
+      <c r="Q11" s="42"/>
       <c r="R11" s="10"/>
       <c r="S11" s="11"/>
     </row>
@@ -1353,92 +1405,92 @@
         <f>C8-C11</f>
         <v>386.28305061599997</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="Q12" s="53"/>
+      <c r="D12" s="18"/>
+      <c r="Q12" s="42"/>
       <c r="R12" s="10"/>
       <c r="S12" s="11"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="Q13" s="53"/>
+      <c r="Q13" s="42"/>
       <c r="R13" s="10"/>
       <c r="S13" s="11"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="Q14" s="53"/>
+      <c r="Q14" s="42"/>
       <c r="R14" s="10"/>
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="Q15" s="53"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="Q15" s="42"/>
       <c r="R15" s="10"/>
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="Q16" s="63"/>
+      <c r="D16" s="73"/>
+      <c r="Q16" s="50"/>
       <c r="R16" s="15"/>
       <c r="S16" s="16"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="73"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="73"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="60"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="Q19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="R19" s="18"/>
-      <c r="S19" s="19"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="Q19" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="62"/>
+      <c r="S19" s="63"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="Q20" s="52" t="s">
-        <v>76</v>
+      <c r="Q20" s="41" t="s">
+        <v>74</v>
       </c>
       <c r="R20" s="10"/>
       <c r="S20" s="11"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="Q21" s="53" t="s">
-        <v>75</v>
+      <c r="Q21" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="R21" s="10"/>
       <c r="S21" s="11"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="Q22" s="45"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="Q22" s="34"/>
       <c r="R22" s="15"/>
       <c r="S22" s="16"/>
     </row>
@@ -1446,39 +1498,39 @@
       <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="73"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="72">
         <v>2009</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="73"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="20">
-        <f>'Financial Model'!K30</f>
-        <v>47</v>
-      </c>
-      <c r="D25" s="21"/>
+      <c r="C25" s="72">
+        <f>'Financial Model'!S34</f>
+        <v>48</v>
+      </c>
+      <c r="D25" s="73"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="65">
-        <f>'Financial Model'!K31</f>
+      <c r="C26" s="64">
+        <f>'Financial Model'!K38</f>
         <v>1500</v>
       </c>
-      <c r="D26" s="66"/>
+      <c r="D26" s="65"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
@@ -1487,13 +1539,13 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="13" t="str">
         <f>'Financial Model'!K1</f>
         <v>H122</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="31">
         <f>'Financial Model'!K3</f>
         <v>45190</v>
       </c>
@@ -1502,75 +1554,86 @@
       <c r="B29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="71"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="57">
-        <f>C6/'Financial Model'!K58</f>
+      <c r="C33" s="66">
+        <f>C6/'Financial Model'!K65</f>
         <v>3.5367722369936718</v>
       </c>
-      <c r="D33" s="58"/>
+      <c r="D33" s="67"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
+      <c r="C34" s="66">
+        <f>C8/SUM('Financial Model'!J8:K8)</f>
+        <v>1.5486275426012701</v>
+      </c>
+      <c r="D34" s="67"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="66">
+        <f>C12/SUM('Financial Model'!J8:K8)</f>
+        <v>3.215033421967723</v>
+      </c>
+      <c r="D35" s="67"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
+      <c r="C36" s="66">
+        <f>C6/SUM('Financial Model'!J20:K20)</f>
+        <v>5.9823787638134727</v>
+      </c>
+      <c r="D36" s="67"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="66">
+        <f>C12/SUM('Financial Model'!J19:K19)</f>
+        <v>12.421475677406907</v>
+      </c>
+      <c r="D37" s="67"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
@@ -1593,13 +1656,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C83F-EC03-4F38-8C2B-BF6F054B4FFD}">
-  <dimension ref="B1:AD92"/>
+  <dimension ref="B1:AD104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1607,1198 +1670,2543 @@
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="49"/>
+    <col min="4" max="4" width="9.140625" style="38"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="49"/>
+    <col min="6" max="6" width="9.140625" style="38"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="49"/>
+    <col min="8" max="8" width="9.140625" style="38"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="49"/>
+    <col min="10" max="10" width="9.140625" style="38"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="30" t="s">
+    <row r="1" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="30" t="s">
+      <c r="P1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="Q1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="R1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="S1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="T1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="V1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="W1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="X1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="Y1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="Z1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="AA1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AB1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AC1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD1" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="2:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="35">
+    </row>
+    <row r="2" spans="2:30" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="22"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="24">
         <v>43645</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="35">
+      <c r="F2" s="51">
+        <f>P2</f>
+        <v>43828</v>
+      </c>
+      <c r="G2" s="24">
         <v>44010</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="35">
+      <c r="H2" s="51">
+        <f>Q2</f>
+        <v>44192</v>
+      </c>
+      <c r="I2" s="24">
         <v>44374</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="51">
         <f>R2</f>
         <v>44556</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="24">
         <v>44738</v>
       </c>
-      <c r="R2" s="35">
+      <c r="O2" s="24">
+        <v>43464</v>
+      </c>
+      <c r="P2" s="24">
+        <v>43828</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>44192</v>
+      </c>
+      <c r="R2" s="24">
         <v>44556</v>
       </c>
     </row>
-    <row r="3" spans="2:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="33"/>
-      <c r="D3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="32">
+    <row r="3" spans="2:30" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22"/>
+      <c r="D3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="21">
+        <v>45192</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="21">
         <v>45190</v>
       </c>
-    </row>
-    <row r="4" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="43">
-        <v>10.61</v>
-      </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="43">
+      <c r="P3" s="21">
+        <v>45059</v>
+      </c>
+      <c r="R3" s="21">
+        <v>45014</v>
+      </c>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="2:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="45">
+        <v>20.218</v>
+      </c>
+      <c r="F4" s="60">
+        <f>P4-E4</f>
+        <v>19.693999999999999</v>
+      </c>
+      <c r="G4" s="45">
+        <v>10.555</v>
+      </c>
+      <c r="H4" s="60">
+        <f>Q4-G4</f>
+        <v>6.2749999999999986</v>
+      </c>
+      <c r="I4" s="45">
+        <v>4.8330000000000002</v>
+      </c>
+      <c r="J4" s="60">
+        <f>R4-I4</f>
+        <v>24.942999999999998</v>
+      </c>
+      <c r="K4" s="45">
+        <v>28.266999999999999</v>
+      </c>
+      <c r="O4" s="45">
+        <v>36.578000000000003</v>
+      </c>
+      <c r="P4" s="45">
+        <v>39.911999999999999</v>
+      </c>
+      <c r="Q4" s="45">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="R4" s="45">
+        <v>29.776</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="45">
+        <v>10.119</v>
+      </c>
+      <c r="F5" s="60">
+        <f t="shared" ref="F5:F7" si="0">P5-E5</f>
+        <v>11.306999999999999</v>
+      </c>
+      <c r="G5" s="45">
+        <v>5.9260000000000002</v>
+      </c>
+      <c r="H5" s="60">
+        <f t="shared" ref="H5:H7" si="1">Q5-G5</f>
+        <v>3.9719999999999995</v>
+      </c>
+      <c r="I5" s="45">
+        <v>2.875</v>
+      </c>
+      <c r="J5" s="60">
+        <f t="shared" ref="J5:J7" si="2">R5-I5</f>
+        <v>16.219000000000001</v>
+      </c>
+      <c r="K5" s="45">
+        <v>17.276</v>
+      </c>
+      <c r="O5" s="45">
+        <v>19.811</v>
+      </c>
+      <c r="P5" s="45">
+        <v>21.425999999999998</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>9.8979999999999997</v>
+      </c>
+      <c r="R5" s="45">
+        <v>19.094000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="45">
+        <v>9.5030000000000001</v>
+      </c>
+      <c r="F6" s="60">
+        <f t="shared" si="0"/>
+        <v>10.146000000000001</v>
+      </c>
+      <c r="G6" s="45">
+        <v>5.1689999999999996</v>
+      </c>
+      <c r="H6" s="60">
+        <f t="shared" si="1"/>
+        <v>3.1290000000000004</v>
+      </c>
+      <c r="I6" s="45">
+        <v>2.5790000000000002</v>
+      </c>
+      <c r="J6" s="60">
+        <f t="shared" si="2"/>
+        <v>13.701000000000001</v>
+      </c>
+      <c r="K6" s="45">
+        <v>15.143000000000001</v>
+      </c>
+      <c r="O6" s="45">
+        <v>16.986999999999998</v>
+      </c>
+      <c r="P6" s="45">
+        <v>19.649000000000001</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>8.298</v>
+      </c>
+      <c r="R6" s="45">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="45">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="F7" s="60">
+        <f t="shared" si="0"/>
+        <v>1.5309999999999997</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H7" s="60">
+        <f t="shared" si="1"/>
+        <v>0.42200000000000015</v>
+      </c>
+      <c r="I7" s="45">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="J7" s="60">
+        <f t="shared" si="2"/>
+        <v>2.048</v>
+      </c>
+      <c r="K7" s="45">
+        <v>2.552</v>
+      </c>
+      <c r="O7" s="45">
+        <v>2.9740000000000002</v>
+      </c>
+      <c r="P7" s="45">
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="R7" s="45">
+        <v>2.371</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="32">
+        <f>SUM(E4:E7)</f>
+        <v>41.444000000000003</v>
+      </c>
+      <c r="F8" s="49">
+        <f>SUM(F4:F7)</f>
+        <v>42.677999999999997</v>
+      </c>
+      <c r="G8" s="32">
+        <f>SUM(G4:G7)</f>
+        <v>22.471000000000004</v>
+      </c>
+      <c r="H8" s="49">
+        <f>SUM(H4:H7)</f>
+        <v>13.797999999999998</v>
+      </c>
+      <c r="I8" s="32">
+        <f>SUM(I4:I7)</f>
+        <v>10.610000000000001</v>
+      </c>
+      <c r="J8" s="49">
+        <f>SUM(J4:J7)</f>
+        <v>56.911000000000001</v>
+      </c>
+      <c r="K8" s="32">
+        <f>SUM(K4:K7)</f>
         <v>63.238</v>
       </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="44">
-        <v>4.1539999999999999</v>
-      </c>
-      <c r="K5" s="44">
-        <v>19.707000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="43">
-        <f>I4-I5</f>
-        <v>6.4559999999999995</v>
-      </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="43">
-        <f>K4-K5</f>
-        <v>43.530999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="44">
-        <v>14.558999999999999</v>
-      </c>
-      <c r="K7" s="44">
-        <v>24.021999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="44">
-        <v>0</v>
-      </c>
-      <c r="K8" s="44">
-        <v>0.31</v>
+      <c r="O8" s="32">
+        <f>SUM(O4:O7)</f>
+        <v>76.350000000000009</v>
+      </c>
+      <c r="P8" s="32">
+        <f>SUM(P4:P7)</f>
+        <v>84.122</v>
+      </c>
+      <c r="Q8" s="32">
+        <f>SUM(Q4:Q7)</f>
+        <v>36.268999999999998</v>
+      </c>
+      <c r="R8" s="32">
+        <f>SUM(R4:R7)</f>
+        <v>67.521000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="44">
-        <v>0</v>
-      </c>
-      <c r="K9" s="44">
-        <v>0.747</v>
-      </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="44">
-        <v>0</v>
-      </c>
-      <c r="K10" s="44">
-        <v>4.601</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="43">
-        <f>I6-I7-I8+I9+I10</f>
-        <v>-8.1029999999999998</v>
-      </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="43">
-        <f>K6-K7-K8+K9+K10</f>
-        <v>24.547000000000001</v>
+        <v>35</v>
+      </c>
+      <c r="E9" s="33">
+        <v>12.081</v>
+      </c>
+      <c r="F9" s="48">
+        <f>P9-E9</f>
+        <v>12.849</v>
+      </c>
+      <c r="G9" s="33">
+        <v>7.4809999999999999</v>
+      </c>
+      <c r="H9" s="48">
+        <f>Q9-G9</f>
+        <v>6.6140000000000008</v>
+      </c>
+      <c r="I9" s="33">
+        <v>4.1539999999999999</v>
+      </c>
+      <c r="J9" s="48">
+        <f>R9-I9</f>
+        <v>18.356999999999999</v>
+      </c>
+      <c r="K9" s="33">
+        <v>19.707000000000001</v>
+      </c>
+      <c r="O9" s="33">
+        <v>22.422999999999998</v>
+      </c>
+      <c r="P9" s="33">
+        <v>24.93</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>14.095000000000001</v>
+      </c>
+      <c r="R9" s="33">
+        <v>22.510999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="32">
+        <f>E8-E9</f>
+        <v>29.363000000000003</v>
+      </c>
+      <c r="F10" s="49">
+        <f>F8-F9</f>
+        <v>29.828999999999997</v>
+      </c>
+      <c r="G10" s="32">
+        <f>G8-G9</f>
+        <v>14.990000000000004</v>
+      </c>
+      <c r="H10" s="49">
+        <f>H8-H9</f>
+        <v>7.1839999999999975</v>
+      </c>
+      <c r="I10" s="32">
+        <f>I8-I9</f>
+        <v>6.4560000000000013</v>
+      </c>
+      <c r="J10" s="49">
+        <f>J8-J9</f>
+        <v>38.554000000000002</v>
+      </c>
+      <c r="K10" s="32">
+        <f>K8-K9</f>
+        <v>43.530999999999999</v>
+      </c>
+      <c r="O10" s="32">
+        <f t="shared" ref="O10:Q10" si="3">O8-O9</f>
+        <v>53.927000000000007</v>
+      </c>
+      <c r="P10" s="32">
+        <f t="shared" si="3"/>
+        <v>59.192</v>
+      </c>
+      <c r="Q10" s="32">
+        <f t="shared" si="3"/>
+        <v>22.173999999999999</v>
+      </c>
+      <c r="R10" s="32">
+        <f>R8-R9</f>
+        <v>45.010000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="33">
+        <v>23.027999999999999</v>
+      </c>
+      <c r="F11" s="48">
+        <f t="shared" ref="F11:F14" si="4">P11-E11</f>
+        <v>23.581000000000003</v>
+      </c>
+      <c r="G11" s="33">
+        <v>19.861000000000001</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" ref="H11:H14" si="5">Q11-G11</f>
+        <v>15.642999999999997</v>
+      </c>
+      <c r="I11" s="33">
+        <v>14.558999999999999</v>
+      </c>
+      <c r="J11" s="48">
+        <f t="shared" ref="J11:J18" si="6">R11-I11</f>
+        <v>21.152000000000001</v>
+      </c>
+      <c r="K11" s="33">
+        <v>24.021999999999998</v>
+      </c>
+      <c r="O11" s="33">
+        <v>42.564999999999998</v>
+      </c>
+      <c r="P11" s="33">
+        <v>46.609000000000002</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>35.503999999999998</v>
+      </c>
+      <c r="R11" s="33">
+        <v>35.710999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="44">
-        <v>-2.6659999999999999</v>
-      </c>
-      <c r="K12" s="44">
-        <v>-3.532</v>
+        <v>38</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0</v>
+      </c>
+      <c r="F12" s="48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="33">
+        <v>0</v>
+      </c>
+      <c r="J12" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="33">
+        <v>0.31</v>
+      </c>
+      <c r="O12" s="33">
+        <v>0</v>
+      </c>
+      <c r="P12" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>0</v>
+      </c>
+      <c r="R12" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="44">
-        <f>I11+I12</f>
-        <v>-10.769</v>
-      </c>
-      <c r="K13" s="44">
-        <f>K11+K12</f>
-        <v>21.015000000000001</v>
+        <v>39</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
+      <c r="F13" s="48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" si="5"/>
+        <v>-2.5209999999999999</v>
+      </c>
+      <c r="I13" s="33">
+        <v>0</v>
+      </c>
+      <c r="J13" s="48">
+        <f t="shared" si="6"/>
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="K13" s="33">
+        <v>0.747</v>
+      </c>
+      <c r="O13" s="33">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>-2.5209999999999999</v>
+      </c>
+      <c r="R13" s="33">
+        <v>1.1240000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="44">
-        <v>-1.97</v>
-      </c>
-      <c r="K14" s="44">
-        <v>2.7210000000000001</v>
+        <v>40</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
+      <c r="F14" s="48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="33">
+        <v>0</v>
+      </c>
+      <c r="J14" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="33">
+        <v>4.601</v>
+      </c>
+      <c r="O14" s="33">
+        <v>0</v>
+      </c>
+      <c r="P14" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>0</v>
+      </c>
+      <c r="R14" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="32">
+        <f>E10-E11-E12+E13+E14</f>
+        <v>6.3350000000000044</v>
+      </c>
+      <c r="F15" s="49">
+        <f>F10-F11-F12+F13+F14</f>
+        <v>6.247999999999994</v>
+      </c>
+      <c r="G15" s="32">
+        <f>G10-G11-G12+G13+G14</f>
+        <v>-4.8709999999999969</v>
+      </c>
+      <c r="H15" s="49">
+        <f>H10-H11-H12+H13+H14</f>
+        <v>-10.98</v>
+      </c>
+      <c r="I15" s="32">
+        <f>I10-I11-I12+I13+I14</f>
+        <v>-8.102999999999998</v>
+      </c>
+      <c r="J15" s="49">
+        <f>J10-J11-J12+J13+J14</f>
+        <v>18.526</v>
+      </c>
+      <c r="K15" s="32">
+        <f>K10-K11-K12+K13+K14</f>
+        <v>24.547000000000001</v>
+      </c>
+      <c r="O15" s="32">
+        <f t="shared" ref="O15:Q15" si="7">O10-O11-O12+O13+O14</f>
+        <v>11.362000000000009</v>
+      </c>
+      <c r="P15" s="32">
+        <f t="shared" si="7"/>
+        <v>12.582999999999998</v>
+      </c>
+      <c r="Q15" s="32">
+        <f t="shared" si="7"/>
+        <v>-15.850999999999999</v>
+      </c>
+      <c r="R15" s="32">
+        <f>R10-R11-R12+R13+R14</f>
+        <v>10.423000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="33">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="F16" s="48">
+        <f>P16-E16</f>
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="G16" s="33">
+        <v>-2.1230000000000002</v>
+      </c>
+      <c r="H16" s="48">
+        <f>Q16-G16</f>
+        <v>-3.6920000000000002</v>
+      </c>
+      <c r="I16" s="33">
+        <v>-2.6659999999999999</v>
+      </c>
+      <c r="J16" s="48">
+        <f t="shared" si="6"/>
+        <v>-3.32</v>
+      </c>
+      <c r="K16" s="33">
+        <v>-3.532</v>
+      </c>
+      <c r="O16" s="33">
+        <v>-0.69299999999999995</v>
+      </c>
+      <c r="P16" s="33">
+        <v>-0.78800000000000003</v>
+      </c>
+      <c r="Q16" s="33">
+        <v>-5.8150000000000004</v>
+      </c>
+      <c r="R16" s="33">
+        <v>-5.9859999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="33">
+        <f>E15+E16</f>
+        <v>5.9340000000000046</v>
+      </c>
+      <c r="F17" s="48">
+        <f>F15+F16</f>
+        <v>5.8609999999999935</v>
+      </c>
+      <c r="G17" s="33">
+        <f>G15+G16</f>
+        <v>-6.9939999999999971</v>
+      </c>
+      <c r="H17" s="48">
+        <f>H15+H16</f>
+        <v>-14.672000000000001</v>
+      </c>
+      <c r="I17" s="33">
+        <f>I15+I16</f>
+        <v>-10.768999999999998</v>
+      </c>
+      <c r="J17" s="48">
+        <f>J15+J16</f>
+        <v>15.206</v>
+      </c>
+      <c r="K17" s="33">
+        <f>K15+K16</f>
+        <v>21.015000000000001</v>
+      </c>
+      <c r="O17" s="33">
+        <f t="shared" ref="O17" si="8">O15+O16</f>
+        <v>10.669000000000009</v>
+      </c>
+      <c r="P17" s="33">
+        <f t="shared" ref="P17" si="9">P15+P16</f>
+        <v>11.794999999999998</v>
+      </c>
+      <c r="Q17" s="33">
+        <f>Q15+Q16</f>
+        <v>-21.666</v>
+      </c>
+      <c r="R17" s="33">
+        <f>R15+R16</f>
+        <v>4.4370000000000074</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="33">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="F18" s="48">
+        <f>P18-E18</f>
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="G18" s="33">
+        <v>-0.69599999999999995</v>
+      </c>
+      <c r="H18" s="48">
+        <f>Q18-G18</f>
+        <v>-3.2229999999999999</v>
+      </c>
+      <c r="I18" s="33">
+        <v>-1.97</v>
+      </c>
+      <c r="J18" s="48">
+        <f t="shared" si="6"/>
+        <v>2.4020000000000001</v>
+      </c>
+      <c r="K18" s="33">
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="O18" s="33">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="P18" s="33">
+        <v>2.758</v>
+      </c>
+      <c r="Q18" s="33">
+        <v>-3.919</v>
+      </c>
+      <c r="R18" s="33">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="32">
+        <f>E17-E18</f>
+        <v>4.6730000000000045</v>
+      </c>
+      <c r="F19" s="49">
+        <f>F17-F18</f>
+        <v>4.3639999999999937</v>
+      </c>
+      <c r="G19" s="32">
+        <f>G17-G18</f>
+        <v>-6.2979999999999974</v>
+      </c>
+      <c r="H19" s="49">
+        <f>H17-H18</f>
+        <v>-11.449000000000002</v>
+      </c>
+      <c r="I19" s="32">
+        <f>I17-I18</f>
+        <v>-8.7989999999999977</v>
+      </c>
+      <c r="J19" s="49">
+        <f>J17-J18</f>
+        <v>12.803999999999998</v>
+      </c>
+      <c r="K19" s="32">
+        <f>K17-K18</f>
+        <v>18.294</v>
+      </c>
+      <c r="O19" s="32">
+        <f t="shared" ref="O19:Q19" si="10">O17-O18</f>
+        <v>8.1420000000000101</v>
+      </c>
+      <c r="P19" s="32">
+        <f t="shared" si="10"/>
+        <v>9.036999999999999</v>
+      </c>
+      <c r="Q19" s="32">
+        <f t="shared" si="10"/>
+        <v>-17.747</v>
+      </c>
+      <c r="R19" s="32">
+        <f>R17-R18</f>
+        <v>4.005000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="43">
-        <f>I13-I14</f>
-        <v>-8.7989999999999995</v>
-      </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="43">
-        <f>K13-K14</f>
-        <v>18.294</v>
-      </c>
-    </row>
-    <row r="16" spans="2:30" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="39" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="76">
+        <f>E19/E21</f>
+        <v>6.8371721526206714E-2</v>
+      </c>
+      <c r="F20" s="77">
+        <f>F19/F21</f>
+        <v>6.7138461538461439E-2</v>
+      </c>
+      <c r="G20" s="76">
+        <f>G19/G21</f>
+        <v>-9.4539171002551534E-2</v>
+      </c>
+      <c r="H20" s="77">
+        <f>H19/H21</f>
+        <v>-0.16942622710892444</v>
+      </c>
+      <c r="I20" s="76">
+        <f>I19/I21</f>
+        <v>-0.12873671520202254</v>
+      </c>
+      <c r="J20" s="39">
+        <f>J19/J21</f>
+        <v>0.1873072809736924</v>
+      </c>
+      <c r="K20" s="28">
+        <f>K19/K21</f>
+        <v>0.26752851385409882</v>
+      </c>
+      <c r="O20" s="28">
+        <f t="shared" ref="O20:P20" si="11">O19/O21</f>
+        <v>0.12526153846153862</v>
+      </c>
+      <c r="P20" s="28">
+        <f t="shared" si="11"/>
+        <v>0.13903076923076921</v>
+      </c>
+      <c r="Q20" s="28">
+        <f>Q19/Q21</f>
+        <v>-0.26262619027880874</v>
+      </c>
+      <c r="R20" s="28">
+        <f>R19/R21</f>
+        <v>5.8588383341115234E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="29">
+        <v>68.346969999999999</v>
+      </c>
+      <c r="F21" s="40">
+        <f>P21</f>
+        <v>65</v>
+      </c>
+      <c r="G21" s="29">
+        <v>66.617889000000005</v>
+      </c>
+      <c r="H21" s="40">
+        <f>Q21</f>
+        <v>67.575134000000006</v>
+      </c>
+      <c r="I21" s="33">
+        <v>68.348799999999997</v>
+      </c>
+      <c r="J21" s="40">
+        <f>R21</f>
+        <v>68.358260999999999</v>
+      </c>
+      <c r="K21" s="29">
+        <v>68.381495999999999</v>
+      </c>
+      <c r="O21" s="29">
+        <v>65</v>
+      </c>
+      <c r="P21" s="29">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>67.575134000000006</v>
+      </c>
+      <c r="R21" s="29">
+        <v>68.358260999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="25">
+        <f>G8/E8-1</f>
+        <v>-0.45779847505067073</v>
+      </c>
+      <c r="H23" s="78">
+        <f>H8/F8-1</f>
+        <v>-0.67669525282346876</v>
+      </c>
+      <c r="I23" s="25">
+        <f>I8/G8-1</f>
+        <v>-0.52783587735303283</v>
+      </c>
+      <c r="J23" s="78">
+        <f>J8/H8-1</f>
+        <v>3.124583272938108</v>
+      </c>
+      <c r="K23" s="25">
+        <f>K8/I8-1</f>
+        <v>4.9602262016965124</v>
+      </c>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25">
+        <f t="shared" ref="P23:Q23" si="12">P8/O8-1</f>
+        <v>0.10179436804191222</v>
+      </c>
+      <c r="Q23" s="25">
+        <f t="shared" si="12"/>
+        <v>-0.56885238106559521</v>
+      </c>
+      <c r="R23" s="25">
+        <f>R8/Q8-1</f>
+        <v>0.86167250268824636</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="F24" s="52">
+        <f>F8/E8-1</f>
+        <v>2.9775118231830877E-2</v>
+      </c>
+      <c r="G24" s="27">
+        <f>G8/F8-1</f>
+        <v>-0.47347579549182239</v>
+      </c>
+      <c r="H24" s="52">
+        <f>H8/G8-1</f>
+        <v>-0.38596413154732789</v>
+      </c>
+      <c r="I24" s="27">
+        <f>I8/H8-1</f>
+        <v>-0.23104797796782128</v>
+      </c>
+      <c r="J24" s="52">
+        <f>J8/I8-1</f>
+        <v>4.3639019792648437</v>
+      </c>
+      <c r="K24" s="27">
+        <f>K8/J8-1</f>
+        <v>0.11117358682855683</v>
+      </c>
+      <c r="O24" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q24" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="R24" s="53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="27">
+        <f>E10/E8</f>
+        <v>0.70849821445806394</v>
+      </c>
+      <c r="F26" s="52">
+        <f>F10/F8</f>
+        <v>0.69893153381133133</v>
+      </c>
+      <c r="G26" s="27">
+        <f>G10/G8</f>
+        <v>0.66708201682168133</v>
+      </c>
+      <c r="H26" s="52">
+        <f>H10/H8</f>
+        <v>0.52065516741556739</v>
+      </c>
+      <c r="I26" s="27">
+        <f>I10/I8</f>
+        <v>0.60848256361922715</v>
+      </c>
+      <c r="J26" s="52">
+        <f>J10/J8</f>
+        <v>0.67744372792606</v>
+      </c>
+      <c r="K26" s="27">
+        <f>K10/K8</f>
+        <v>0.68836775356589386</v>
+      </c>
+      <c r="O26" s="27">
+        <f t="shared" ref="O26:P26" si="13">O10/O8</f>
+        <v>0.70631303208906349</v>
+      </c>
+      <c r="P26" s="27">
+        <f t="shared" si="13"/>
+        <v>0.70364470649770572</v>
+      </c>
+      <c r="Q26" s="27">
+        <f t="shared" ref="Q26" si="14">Q10/Q8</f>
+        <v>0.61137610631668915</v>
+      </c>
+      <c r="R26" s="27">
+        <f>R10/R8</f>
+        <v>0.66660742583788757</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="27">
+        <f>E15/E8</f>
+        <v>0.15285686709777058</v>
+      </c>
+      <c r="F27" s="52">
+        <f>F15/F8</f>
+        <v>0.14639861286845668</v>
+      </c>
+      <c r="G27" s="27">
+        <f>G15/G8</f>
+        <v>-0.216768279115304</v>
+      </c>
+      <c r="H27" s="52">
+        <f>H15/H8</f>
+        <v>-0.79576750253659967</v>
+      </c>
+      <c r="I27" s="27">
+        <f>I15/I8</f>
+        <v>-0.76371347785108357</v>
+      </c>
+      <c r="J27" s="52">
+        <f>J15/J8</f>
+        <v>0.32552582101878369</v>
+      </c>
+      <c r="K27" s="27">
+        <f>K15/K8</f>
+        <v>0.38816850627787092</v>
+      </c>
+      <c r="O27" s="27">
+        <f t="shared" ref="O27:P27" si="15">O15/O8</f>
+        <v>0.14881466928618214</v>
+      </c>
+      <c r="P27" s="27">
+        <f t="shared" si="15"/>
+        <v>0.14958037136539787</v>
+      </c>
+      <c r="Q27" s="27">
+        <f t="shared" ref="Q27" si="16">Q15/Q8</f>
+        <v>-0.43703989633019935</v>
+      </c>
+      <c r="R27" s="27">
+        <f>R15/R8</f>
+        <v>0.1543667895913865</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="27">
+        <f>E19/E8</f>
+        <v>0.1127545603706207</v>
+      </c>
+      <c r="F28" s="52">
+        <f>F19/F8</f>
+        <v>0.1022540887576736</v>
+      </c>
+      <c r="G28" s="27">
+        <f>G19/G8</f>
+        <v>-0.28027235103021658</v>
+      </c>
+      <c r="H28" s="52">
+        <f>H19/H8</f>
+        <v>-0.82975793593274405</v>
+      </c>
+      <c r="I28" s="27">
+        <f>I19/I8</f>
+        <v>-0.82931196983977351</v>
+      </c>
+      <c r="J28" s="52">
+        <f>J19/J8</f>
+        <v>0.22498286798685663</v>
+      </c>
+      <c r="K28" s="27">
+        <f>K19/K8</f>
+        <v>0.2892880862772384</v>
+      </c>
+      <c r="O28" s="27">
+        <f t="shared" ref="O28:P28" si="17">O19/O8</f>
+        <v>0.10664047151277026</v>
+      </c>
+      <c r="P28" s="27">
+        <f t="shared" si="17"/>
+        <v>0.1074273079574903</v>
+      </c>
+      <c r="Q28" s="27">
+        <f t="shared" ref="Q28" si="18">Q19/Q8</f>
+        <v>-0.48931594474620199</v>
+      </c>
+      <c r="R28" s="27">
+        <f>R19/R8</f>
+        <v>5.9314879815168718E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="27">
+        <f>E28/E18/E17</f>
+        <v>1.5068550830296441E-2</v>
+      </c>
+      <c r="F29" s="52">
+        <f>F28/F18/F17</f>
+        <v>1.1654325970678055E-2</v>
+      </c>
+      <c r="G29" s="27">
+        <f>G28/G18/G17</f>
+        <v>-5.7576516946836347E-2</v>
+      </c>
+      <c r="H29" s="52">
+        <f>H28/H18/H17</f>
+        <v>-1.7546956155778008E-2</v>
+      </c>
+      <c r="I29" s="27">
+        <f>I28/I18/I17</f>
+        <v>-3.9090959519535236E-2</v>
+      </c>
+      <c r="J29" s="52">
+        <f>J28/J18/J17</f>
+        <v>6.1597269271873771E-3</v>
+      </c>
+      <c r="K29" s="27">
+        <f>K28/K18/K17</f>
+        <v>5.0590924103622523E-3</v>
+      </c>
+      <c r="O29" s="27">
+        <f>O28/O18/O17</f>
+        <v>3.9554245032928335E-3</v>
+      </c>
+      <c r="P29" s="27">
+        <f>P28/P18/P17</f>
+        <v>3.3023453282151893E-3</v>
+      </c>
+      <c r="Q29" s="27">
+        <f>Q28/Q18/Q17</f>
+        <v>-5.7628241241057991E-3</v>
+      </c>
+      <c r="R29" s="27">
+        <f>R28/R18/R17</f>
+        <v>3.0944999444469812E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="J33" s="37"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="38">
+        <f>O34</f>
+        <v>43</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44</v>
+      </c>
+      <c r="F34" s="38">
+        <f>P34</f>
+        <v>45</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45</v>
+      </c>
+      <c r="H34" s="38">
+        <f>Q34</f>
+        <v>46</v>
+      </c>
+      <c r="I34" s="1">
+        <v>46</v>
+      </c>
+      <c r="J34" s="38">
+        <f>R34</f>
+        <v>46</v>
+      </c>
+      <c r="K34" s="1">
         <v>47</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="44">
-        <f>I15/I17</f>
-        <v>-0.12873671520202257</v>
-      </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="39">
-        <f>K15/K17</f>
-        <v>0.26752851385409882</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="44">
-        <v>68.348799999999997</v>
-      </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="40">
-        <v>68.381495999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="36">
-        <f>K4/I4-1</f>
-        <v>4.9602262016965133</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="38">
-        <f>I6/I4</f>
-        <v>0.60848256361922715</v>
-      </c>
-      <c r="K22" s="38">
-        <f>K6/K4</f>
-        <v>0.68836775356589386</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="38">
-        <f>I11/I4</f>
-        <v>-0.7637134778510839</v>
-      </c>
-      <c r="K23" s="38">
-        <f>K11/K4</f>
-        <v>0.38816850627787092</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="38">
-        <f>I15/I4</f>
-        <v>-0.82931196983977384</v>
-      </c>
-      <c r="K24" s="38">
-        <f>K15/K4</f>
-        <v>0.2892880862772384</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="38">
-        <f>I24/I14/I13</f>
-        <v>-3.9090959519535243E-2</v>
-      </c>
-      <c r="K25" s="38">
-        <f>K24/K14/K13</f>
-        <v>5.0590924103622523E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="J29" s="48"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1">
-        <v>44</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="O34" s="1">
+        <v>43</v>
+      </c>
+      <c r="P34" s="1">
         <v>45</v>
       </c>
-      <c r="I30" s="1">
+      <c r="Q34" s="1">
         <v>46</v>
       </c>
-      <c r="K30" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="67">
+      <c r="R34" s="1">
+        <v>46</v>
+      </c>
+      <c r="S34" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="J35" s="56">
+        <f t="shared" ref="J35:J36" si="19">R35</f>
+        <v>1275</v>
+      </c>
+      <c r="O35" s="55">
+        <v>899</v>
+      </c>
+      <c r="P35" s="55">
+        <v>978</v>
+      </c>
+      <c r="Q35" s="55">
+        <v>931</v>
+      </c>
+      <c r="R35" s="55">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="J36" s="56">
+        <f t="shared" si="19"/>
+        <v>58</v>
+      </c>
+      <c r="O36" s="55">
+        <v>56</v>
+      </c>
+      <c r="P36" s="55">
+        <v>56</v>
+      </c>
+      <c r="Q36" s="55">
+        <v>45</v>
+      </c>
+      <c r="R36" s="55">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="J37" s="56">
+        <f>R37</f>
+        <v>157</v>
+      </c>
+      <c r="O37" s="55">
+        <v>127</v>
+      </c>
+      <c r="P37" s="55">
+        <v>153</v>
+      </c>
+      <c r="Q37" s="55">
+        <v>150</v>
+      </c>
+      <c r="R37" s="55">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="58">
+        <f>O38</f>
+        <v>1082</v>
+      </c>
+      <c r="F38" s="58">
+        <f>P38</f>
+        <v>1187</v>
+      </c>
+      <c r="H38" s="58">
+        <f>Q38</f>
+        <v>1126</v>
+      </c>
+      <c r="J38" s="58">
+        <f>R38</f>
+        <v>1490</v>
+      </c>
+      <c r="K38" s="57">
         <v>1500</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" s="44">
+      <c r="O38" s="57">
+        <f t="shared" ref="O38:P38" si="20">SUM(O35:O37)</f>
+        <v>1082</v>
+      </c>
+      <c r="P38" s="57">
+        <f t="shared" si="20"/>
+        <v>1187</v>
+      </c>
+      <c r="Q38" s="57">
+        <f>SUM(Q35:Q37)</f>
+        <v>1126</v>
+      </c>
+      <c r="R38" s="57">
+        <f>SUM(R35:R37)</f>
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B41" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="33">
         <f>29.35+0.355</f>
         <v>29.705000000000002</v>
       </c>
-      <c r="K35" s="44">
+      <c r="K42" s="33">
         <f>29.74+0.195</f>
         <v>29.934999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43" s="33">
+        <v>0.31</v>
+      </c>
+      <c r="K43" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" s="33">
+        <v>38.566000000000003</v>
+      </c>
+      <c r="K44" s="33">
+        <v>42.151000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="44">
-        <v>0.31</v>
-      </c>
-      <c r="K36" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+      <c r="I45" s="33">
+        <v>156.559</v>
+      </c>
+      <c r="K45" s="33">
+        <v>173.00899999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="44">
-        <v>38.566000000000003</v>
-      </c>
-      <c r="K37" s="44">
-        <v>42.151000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="I46" s="33">
+        <v>6.0880000000000001</v>
+      </c>
+      <c r="K46" s="33">
+        <v>4.2320000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="44">
-        <v>156.559</v>
-      </c>
-      <c r="K38" s="44">
-        <v>173.00899999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+      <c r="C47" s="1">
+        <f t="shared" ref="C47:J47" si="21">SUM(C42:C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="38">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="38">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="38">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="33">
+        <f t="shared" si="21"/>
+        <v>231.22799999999998</v>
+      </c>
+      <c r="J47" s="38">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="33">
+        <f>SUM(K42:K46)</f>
+        <v>249.32699999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="44">
-        <v>6.0880000000000001</v>
-      </c>
-      <c r="K39" s="44">
-        <v>4.2320000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" ref="C40:J40" si="0">SUM(C35:C39)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="44">
-        <f t="shared" si="0"/>
-        <v>231.22799999999998</v>
-      </c>
-      <c r="J40" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="44">
-        <f>SUM(K35:K39)</f>
-        <v>249.32699999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="43">
+      <c r="D48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="32">
         <v>1.05</v>
       </c>
-      <c r="J41" s="48"/>
-      <c r="K41" s="43">
+      <c r="J48" s="37"/>
+      <c r="K48" s="32">
         <v>1.25</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="44">
-        <v>1.194</v>
-      </c>
-      <c r="K42" s="44">
-        <v>14.776999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="43">
-        <v>17.103000000000002</v>
-      </c>
-      <c r="J43" s="48"/>
-      <c r="K43" s="43">
-        <v>7.734</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I44" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="K44" s="44">
-        <v>0.314</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" ref="C45:J45" si="1">C40+SUM(C41:C44)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="44">
-        <f t="shared" si="1"/>
-        <v>250.58499999999998</v>
-      </c>
-      <c r="J45" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="44">
-        <f>K40+SUM(K41:K44)</f>
-        <v>273.40199999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I46" s="44"/>
-      <c r="K46" s="44"/>
-    </row>
-    <row r="47" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="43">
-        <v>43.871000000000002</v>
-      </c>
-      <c r="J47" s="48"/>
-      <c r="K47" s="43">
-        <v>17.963999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I48" s="44">
-        <v>12.833</v>
-      </c>
-      <c r="K48" s="44">
-        <v>10.568</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" ref="C49:J49" si="2">C47+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="44">
-        <f t="shared" si="2"/>
-        <v>56.704000000000001</v>
-      </c>
-      <c r="J49" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="44">
-        <f>K47+K48</f>
-        <v>28.531999999999996</v>
+        <v>83</v>
+      </c>
+      <c r="I49" s="33">
+        <v>1.194</v>
+      </c>
+      <c r="K49" s="33">
+        <v>14.776999999999999</v>
       </c>
     </row>
     <row r="50" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="43">
-        <v>171.18199999999999</v>
-      </c>
-      <c r="J50" s="48"/>
-      <c r="K50" s="43">
-        <v>189.98699999999999</v>
+        <v>6</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="32">
+        <v>17.103000000000002</v>
+      </c>
+      <c r="J50" s="37"/>
+      <c r="K50" s="32">
+        <v>7.734</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I51" s="44">
-        <v>1.5820000000000001</v>
-      </c>
-      <c r="K51" s="44">
-        <v>2.274</v>
+        <v>84</v>
+      </c>
+      <c r="I51" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="K51" s="33">
+        <v>0.314</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" ref="C52:J52" si="3">C49+SUM(C50:C51)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C52:J52" si="22">C47+SUM(C48:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="38">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="38">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="44">
-        <f t="shared" si="3"/>
-        <v>229.46799999999999</v>
-      </c>
-      <c r="J52" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="44">
-        <f>K49+SUM(K50:K51)</f>
-        <v>220.79300000000001</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="38">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="33">
+        <f t="shared" si="22"/>
+        <v>250.58499999999998</v>
+      </c>
+      <c r="J52" s="38">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="33">
+        <f>K47+SUM(K48:K51)</f>
+        <v>273.40199999999999</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I53" s="44"/>
-      <c r="K53" s="44"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I54" s="44">
-        <v>21.117000000000001</v>
-      </c>
-      <c r="K54" s="44">
-        <v>52.609000000000002</v>
+      <c r="I53" s="33"/>
+      <c r="K53" s="33"/>
+    </row>
+    <row r="54" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="32">
+        <v>43.871000000000002</v>
+      </c>
+      <c r="J54" s="37"/>
+      <c r="K54" s="32">
+        <v>17.963999999999999</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I55" s="44">
-        <f>I54+I52</f>
-        <v>250.58499999999998</v>
-      </c>
-      <c r="K55" s="44">
-        <f>K54+K52</f>
-        <v>273.40199999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I57" s="44">
-        <f>I45-I52</f>
-        <v>21.11699999999999</v>
-      </c>
-      <c r="K57" s="44">
-        <f>K45-K52</f>
-        <v>52.60899999999998</v>
+        <v>86</v>
+      </c>
+      <c r="I55" s="33">
+        <v>12.833</v>
+      </c>
+      <c r="K55" s="33">
+        <v>10.568</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" ref="C56:J56" si="23">C54+C55</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="38">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="38">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="38">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="33">
+        <f t="shared" si="23"/>
+        <v>56.704000000000001</v>
+      </c>
+      <c r="J56" s="38">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="33">
+        <f>K54+K55</f>
+        <v>28.531999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="32">
+        <v>171.18199999999999</v>
+      </c>
+      <c r="J57" s="37"/>
+      <c r="K57" s="32">
+        <v>189.98699999999999</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I58" s="1">
-        <f>I57/I17</f>
-        <v>0.30895933798398789</v>
-      </c>
-      <c r="K58" s="1">
-        <f>K57/K17</f>
-        <v>0.7693455551191799</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="56">
-        <f>I43</f>
-        <v>17.103000000000002</v>
-      </c>
-      <c r="J60" s="55"/>
-      <c r="K60" s="56">
-        <f>K43</f>
-        <v>7.734</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="56">
-        <f>+I47+I50</f>
-        <v>215.053</v>
-      </c>
-      <c r="J61" s="55"/>
-      <c r="K61" s="56">
-        <f>+K47+K50</f>
-        <v>207.95099999999999</v>
+        <v>80</v>
+      </c>
+      <c r="I58" s="33">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="K58" s="33">
+        <v>2.274</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" ref="C59:J59" si="24">C56+SUM(C57:C58)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="38">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="38">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="38">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="33">
+        <f t="shared" si="24"/>
+        <v>229.46799999999999</v>
+      </c>
+      <c r="J59" s="38">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="33">
+        <f>K56+SUM(K57:K58)</f>
+        <v>220.79300000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I60" s="33"/>
+      <c r="K60" s="33"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61" s="33">
+        <v>21.117000000000001</v>
+      </c>
+      <c r="K61" s="33">
+        <v>52.609000000000002</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="44">
-        <f>I60-I61</f>
-        <v>-197.95</v>
-      </c>
-      <c r="K62" s="44">
-        <f>K60-K61</f>
-        <v>-200.21699999999998</v>
+        <v>90</v>
+      </c>
+      <c r="I62" s="33">
+        <f>I61+I59</f>
+        <v>250.58499999999998</v>
+      </c>
+      <c r="K62" s="33">
+        <f>K61+K59</f>
+        <v>273.40199999999999</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="I64" s="33">
+        <f>I52-I59</f>
+        <v>21.11699999999999</v>
+      </c>
+      <c r="K64" s="33">
+        <f>K52-K59</f>
+        <v>52.60899999999998</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
+      </c>
+      <c r="I65" s="1">
+        <f>I64/I21</f>
+        <v>0.30895933798398789</v>
+      </c>
+      <c r="K65" s="1">
+        <f>K64/K21</f>
+        <v>0.7693455551191799</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="45">
+        <f>I50</f>
+        <v>17.103000000000002</v>
+      </c>
+      <c r="J67" s="44"/>
+      <c r="K67" s="45">
+        <f>K50</f>
+        <v>7.734</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="45">
+        <f>+I54+I57</f>
+        <v>215.053</v>
+      </c>
+      <c r="J68" s="44"/>
+      <c r="K68" s="45">
+        <f>+K54+K57</f>
+        <v>207.95099999999999</v>
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="37" t="s">
-        <v>96</v>
+        <v>8</v>
+      </c>
+      <c r="I69" s="33">
+        <f>I67-I68</f>
+        <v>-197.95</v>
+      </c>
+      <c r="K69" s="33">
+        <f>K67-K68</f>
+        <v>-200.21699999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="39">
+        <f>O71</f>
+        <v>2.1429</v>
+      </c>
+      <c r="F71" s="39">
+        <f>P71</f>
+        <v>2.968</v>
+      </c>
+      <c r="H71" s="39">
+        <f>Q71</f>
+        <v>2.0017</v>
+      </c>
+      <c r="I71" s="28">
+        <v>2.3468</v>
+      </c>
+      <c r="J71" s="39">
+        <f>R71</f>
+        <v>2.3468</v>
+      </c>
+      <c r="K71" s="28">
+        <v>2.0657999999999999</v>
+      </c>
+      <c r="O71" s="28">
+        <v>2.1429</v>
+      </c>
+      <c r="P71" s="28">
+        <v>2.968</v>
+      </c>
+      <c r="Q71" s="28">
+        <v>2.0017</v>
+      </c>
+      <c r="R71" s="28">
+        <v>2.3468</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="33">
+        <f>I71*I21</f>
+        <v>160.40096384</v>
+      </c>
+      <c r="J72" s="48"/>
+      <c r="K72" s="33">
+        <f>K71*K21</f>
+        <v>141.26249443679998</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="33">
+        <f>I72-I69</f>
+        <v>358.35096383999996</v>
+      </c>
+      <c r="J73" s="48"/>
+      <c r="K73" s="33">
+        <f>K72-K69</f>
+        <v>341.4794944368</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="74">
+        <f>I71/I65</f>
+        <v>7.5958215579864596</v>
+      </c>
+      <c r="J75" s="75"/>
+      <c r="K75" s="74">
+        <f>K71/K65</f>
+        <v>2.6851393190670807</v>
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I76" s="44">
-        <v>5.2080000000000002</v>
-      </c>
-      <c r="J76" s="61">
-        <f>R76-I76</f>
-        <v>25.619</v>
-      </c>
-      <c r="K76" s="44">
-        <v>31.850999999999999</v>
-      </c>
-      <c r="R76" s="44">
-        <v>30.827000000000002</v>
+        <v>29</v>
+      </c>
+      <c r="K76" s="74">
+        <f>K72/SUM(J8:K8)</f>
+        <v>1.175727591880082</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I77" s="44">
-        <v>2.2919999999999998</v>
-      </c>
-      <c r="J77" s="61">
-        <f t="shared" ref="J77:J78" si="4">R77-I77</f>
-        <v>0</v>
-      </c>
-      <c r="K77" s="44">
-        <v>-2.8780000000000001</v>
-      </c>
-      <c r="R77" s="44">
-        <v>2.2919999999999998</v>
+        <v>30</v>
+      </c>
+      <c r="K77" s="74">
+        <f>K73/SUM(J8:K8)</f>
+        <v>2.8421334712465356</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I78" s="44">
-        <v>-2.6509999999999998</v>
-      </c>
-      <c r="J78" s="61">
-        <f t="shared" si="4"/>
-        <v>-3.0350000000000001</v>
-      </c>
-      <c r="K78" s="44">
-        <v>-3.4740000000000002</v>
-      </c>
-      <c r="R78" s="44">
-        <v>-5.6859999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="43">
-        <f>SUM(I76:I78)</f>
-        <v>4.8490000000000002</v>
-      </c>
-      <c r="J79" s="62">
-        <f>SUM(J76:J78)</f>
-        <v>22.584</v>
-      </c>
-      <c r="K79" s="43">
-        <f>SUM(K76:K78)</f>
-        <v>25.498999999999999</v>
-      </c>
-      <c r="R79" s="43">
-        <f>SUM(R76:R78)</f>
-        <v>27.433</v>
-      </c>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I80" s="44"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="44"/>
-      <c r="R80" s="44"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I81" s="44">
-        <v>0</v>
-      </c>
-      <c r="J81" s="61">
-        <f t="shared" ref="J81:J83" si="5">R81-I81</f>
-        <v>0</v>
-      </c>
-      <c r="K81" s="44">
-        <v>-0.45400000000000001</v>
-      </c>
-      <c r="R81" s="44">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="K78" s="74">
+        <f>K71/SUM(J20:K20)</f>
+        <v>4.5418588938941094</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="74">
+        <f>K73/SUM(J19:K19)</f>
+        <v>10.980754210457265</v>
       </c>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I82" s="44">
-        <v>-0.20499999999999999</v>
-      </c>
-      <c r="J82" s="61">
-        <f t="shared" si="5"/>
-        <v>-6.9029999999999996</v>
-      </c>
-      <c r="K82" s="44">
-        <v>-16.632000000000001</v>
-      </c>
-      <c r="R82" s="44">
-        <v>-7.1079999999999997</v>
+      <c r="B82" s="26" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I83" s="44">
-        <v>0</v>
-      </c>
-      <c r="J83" s="61">
-        <f t="shared" si="5"/>
-        <v>-2.4E-2</v>
-      </c>
-      <c r="K83" s="44">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="R83" s="44">
-        <v>-2.4E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="43">
-        <f>SUM(I81:I83)</f>
-        <v>-0.20499999999999999</v>
-      </c>
-      <c r="J84" s="62">
-        <f>SUM(J81:J83)</f>
-        <v>-6.9269999999999996</v>
-      </c>
-      <c r="K84" s="43">
-        <f>SUM(K81:K83)</f>
-        <v>-17.099000000000004</v>
-      </c>
-      <c r="R84" s="43">
-        <f>SUM(R81:R83)</f>
-        <v>-7.1319999999999997</v>
+        <v>95</v>
+      </c>
+      <c r="I83" s="33">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="J83" s="48">
+        <f>R83-I83</f>
+        <v>25.619</v>
+      </c>
+      <c r="K83" s="33">
+        <v>31.850999999999999</v>
+      </c>
+      <c r="O83" s="33">
+        <v>20.846</v>
+      </c>
+      <c r="P83" s="33">
+        <v>23.917000000000002</v>
+      </c>
+      <c r="Q83" s="33">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="R83" s="33">
+        <v>30.827000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I84" s="33">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="J84" s="48">
+        <f t="shared" ref="J84:J85" si="25">R84-I84</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="33">
+        <v>-2.8780000000000001</v>
+      </c>
+      <c r="O84" s="33">
+        <v>-2.472</v>
+      </c>
+      <c r="P84" s="33">
+        <v>-2.6160000000000001</v>
+      </c>
+      <c r="Q84" s="33">
+        <v>-0.71499999999999997</v>
+      </c>
+      <c r="R84" s="33">
+        <v>2.2919999999999998</v>
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I85" s="44"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="44"/>
-      <c r="R85" s="44"/>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I86" s="44">
-        <v>-2.9350000000000001</v>
-      </c>
-      <c r="J86" s="61">
-        <f t="shared" ref="J86:J88" si="6">R86-I86</f>
-        <v>-7.0670000000000002</v>
-      </c>
-      <c r="K86" s="44">
-        <v>-5.1769999999999996</v>
-      </c>
-      <c r="R86" s="44">
-        <v>-10.002000000000001</v>
+      <c r="B85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I85" s="33">
+        <v>-2.6509999999999998</v>
+      </c>
+      <c r="J85" s="48">
+        <f t="shared" si="25"/>
+        <v>-3.0350000000000001</v>
+      </c>
+      <c r="K85" s="33">
+        <v>-3.4740000000000002</v>
+      </c>
+      <c r="O85" s="33">
+        <v>-0.61899999999999999</v>
+      </c>
+      <c r="P85" s="33">
+        <v>-0.68100000000000005</v>
+      </c>
+      <c r="Q85" s="33">
+        <v>-5.766</v>
+      </c>
+      <c r="R85" s="33">
+        <v>-5.6859999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="32">
+        <f>SUM(I83:I85)</f>
+        <v>4.8490000000000002</v>
+      </c>
+      <c r="J86" s="49">
+        <f>SUM(J83:J85)</f>
+        <v>22.584</v>
+      </c>
+      <c r="K86" s="32">
+        <f>SUM(K83:K85)</f>
+        <v>25.498999999999999</v>
+      </c>
+      <c r="O86" s="32">
+        <f t="shared" ref="O86:Q86" si="26">SUM(O83:O85)</f>
+        <v>17.754999999999999</v>
+      </c>
+      <c r="P86" s="32">
+        <f t="shared" si="26"/>
+        <v>20.62</v>
+      </c>
+      <c r="Q86" s="32">
+        <f t="shared" si="26"/>
+        <v>-2.0009999999999994</v>
+      </c>
+      <c r="R86" s="32">
+        <f>SUM(R83:R85)</f>
+        <v>27.433</v>
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I87" s="44">
-        <v>18</v>
-      </c>
-      <c r="J87" s="61">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="K87" s="44">
-        <v>0</v>
-      </c>
-      <c r="R87" s="44">
-        <v>22</v>
-      </c>
+      <c r="I87" s="33"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="33"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I88" s="44">
-        <v>-10</v>
-      </c>
-      <c r="J88" s="61">
-        <f t="shared" si="6"/>
-        <v>-18</v>
-      </c>
-      <c r="K88" s="44">
-        <v>-7</v>
-      </c>
-      <c r="R88" s="44">
-        <v>-28</v>
-      </c>
-    </row>
-    <row r="89" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="43">
-        <f>SUM(I86:I88)</f>
-        <v>5.0649999999999995</v>
-      </c>
-      <c r="J89" s="62">
-        <f>SUM(J86:J88)</f>
-        <v>-21.067</v>
-      </c>
-      <c r="K89" s="43">
-        <f>SUM(K86:K88)</f>
-        <v>-12.177</v>
-      </c>
-      <c r="R89" s="43">
-        <f>SUM(R86:R88)</f>
-        <v>-16.002000000000002</v>
+        <v>130</v>
+      </c>
+      <c r="I88" s="33">
+        <v>0</v>
+      </c>
+      <c r="J88" s="48">
+        <v>0</v>
+      </c>
+      <c r="K88" s="33">
+        <v>0</v>
+      </c>
+      <c r="O88" s="33">
+        <v>0</v>
+      </c>
+      <c r="P88" s="33">
+        <v>-0.3</v>
+      </c>
+      <c r="Q88" s="33">
+        <v>0</v>
+      </c>
+      <c r="R88" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I89" s="33">
+        <v>0</v>
+      </c>
+      <c r="J89" s="48">
+        <f t="shared" ref="J89:J91" si="27">R89-I89</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="33">
+        <v>-0.45400000000000001</v>
+      </c>
+      <c r="O89" s="33">
+        <v>-3.9079999999999999</v>
+      </c>
+      <c r="P89" s="33">
+        <v>-1.4</v>
+      </c>
+      <c r="Q89" s="33">
+        <v>0</v>
+      </c>
+      <c r="R89" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I90" s="33">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="J90" s="48">
+        <f t="shared" si="27"/>
+        <v>-6.9029999999999996</v>
+      </c>
+      <c r="K90" s="33">
+        <v>-16.632000000000001</v>
+      </c>
+      <c r="O90" s="33">
+        <v>-8.7080000000000002</v>
+      </c>
+      <c r="P90" s="33">
+        <v>-8.5559999999999992</v>
+      </c>
+      <c r="Q90" s="33">
+        <v>-6.0439999999999996</v>
+      </c>
+      <c r="R90" s="33">
+        <v>-7.1079999999999997</v>
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I91" s="44">
-        <f>+I81+I82+I83</f>
+        <v>101</v>
+      </c>
+      <c r="I91" s="33">
+        <v>0</v>
+      </c>
+      <c r="J91" s="48">
+        <f t="shared" si="27"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="K91" s="33">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="O91" s="33">
+        <v>-0.19</v>
+      </c>
+      <c r="P91" s="33">
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="Q91" s="33">
+        <v>-0.11899999999999999</v>
+      </c>
+      <c r="R91" s="33">
+        <v>-2.4E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="32">
+        <f t="shared" ref="I92" si="28">SUM(I88:I91)</f>
         <v>-0.20499999999999999</v>
       </c>
-      <c r="J91" s="61">
-        <f t="shared" ref="J91" si="7">+J81+J82+J83</f>
+      <c r="J92" s="49">
+        <f t="shared" ref="J92" si="29">SUM(J88:J91)</f>
         <v>-6.9269999999999996</v>
       </c>
-      <c r="K91" s="44">
-        <f>+K81+K82+K83</f>
+      <c r="K92" s="32">
+        <f t="shared" ref="K92" si="30">SUM(K88:K91)</f>
         <v>-17.099000000000004</v>
       </c>
-      <c r="R91" s="44">
-        <f>+R81+R82+R83</f>
+      <c r="O92" s="32">
+        <f t="shared" ref="O92" si="31">SUM(O88:O91)</f>
+        <v>-12.805999999999999</v>
+      </c>
+      <c r="P92" s="32">
+        <f t="shared" ref="P92" si="32">SUM(P88:P91)</f>
+        <v>-10.467999999999998</v>
+      </c>
+      <c r="Q92" s="32">
+        <f t="shared" ref="Q92" si="33">SUM(Q88:Q91)</f>
+        <v>-6.1629999999999994</v>
+      </c>
+      <c r="R92" s="32">
+        <f t="shared" ref="R92" si="34">SUM(R88:R91)</f>
         <v>-7.1319999999999997</v>
       </c>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I92" s="44">
-        <f>+I79+I91</f>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I93" s="33"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="33"/>
+      <c r="O93" s="33"/>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="33"/>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I94" s="33">
+        <v>0</v>
+      </c>
+      <c r="J94" s="48">
+        <v>0</v>
+      </c>
+      <c r="K94" s="33">
+        <v>0</v>
+      </c>
+      <c r="O94" s="33">
+        <v>0</v>
+      </c>
+      <c r="P94" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="33">
+        <v>5.0380000000000003</v>
+      </c>
+      <c r="R94" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I95" s="33">
+        <v>0</v>
+      </c>
+      <c r="J95" s="48">
+        <v>0</v>
+      </c>
+      <c r="K95" s="33">
+        <v>0</v>
+      </c>
+      <c r="O95" s="33">
+        <v>0</v>
+      </c>
+      <c r="P95" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="33">
+        <v>-0.16</v>
+      </c>
+      <c r="R95" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I96" s="33">
+        <v>0</v>
+      </c>
+      <c r="J96" s="48">
+        <v>0</v>
+      </c>
+      <c r="K96" s="33">
+        <v>0</v>
+      </c>
+      <c r="O96" s="33">
+        <v>0</v>
+      </c>
+      <c r="P96" s="33">
+        <v>-0.153</v>
+      </c>
+      <c r="Q96" s="33">
+        <v>0</v>
+      </c>
+      <c r="R96" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I97" s="33">
+        <v>-2.9350000000000001</v>
+      </c>
+      <c r="J97" s="48">
+        <f t="shared" ref="J97:J100" si="35">R97-I97</f>
+        <v>-7.0670000000000002</v>
+      </c>
+      <c r="K97" s="33">
+        <v>-5.1769999999999996</v>
+      </c>
+      <c r="O97" s="33">
+        <v>-2.222</v>
+      </c>
+      <c r="P97" s="33">
+        <v>-2.7090000000000001</v>
+      </c>
+      <c r="Q97" s="33">
+        <v>-2.8530000000000002</v>
+      </c>
+      <c r="R97" s="33">
+        <v>-10.002000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I98" s="33">
+        <v>0</v>
+      </c>
+      <c r="J98" s="48">
+        <v>0</v>
+      </c>
+      <c r="K98" s="33">
+        <v>0</v>
+      </c>
+      <c r="O98" s="33">
+        <v>-6.5</v>
+      </c>
+      <c r="P98" s="33">
+        <v>-7.15</v>
+      </c>
+      <c r="Q98" s="33">
+        <v>-2.4049999999999998</v>
+      </c>
+      <c r="R98" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I99" s="33">
+        <v>18</v>
+      </c>
+      <c r="J99" s="48">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="K99" s="33">
+        <v>0</v>
+      </c>
+      <c r="O99" s="33">
+        <v>8.5</v>
+      </c>
+      <c r="P99" s="33">
+        <v>17</v>
+      </c>
+      <c r="Q99" s="33">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="R99" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I100" s="33">
+        <v>-10</v>
+      </c>
+      <c r="J100" s="48">
+        <f t="shared" si="35"/>
+        <v>-18</v>
+      </c>
+      <c r="K100" s="33">
+        <v>-7</v>
+      </c>
+      <c r="O100" s="33">
+        <v>-5</v>
+      </c>
+      <c r="P100" s="33">
+        <v>-20.25</v>
+      </c>
+      <c r="Q100" s="33">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="R100" s="33">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="101" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="32">
+        <f t="shared" ref="I101" si="36">SUM(I94:I100)</f>
+        <v>5.0649999999999995</v>
+      </c>
+      <c r="J101" s="49">
+        <f t="shared" ref="J101" si="37">SUM(J94:J100)</f>
+        <v>-21.067</v>
+      </c>
+      <c r="K101" s="32">
+        <f t="shared" ref="K101" si="38">SUM(K94:K100)</f>
+        <v>-12.177</v>
+      </c>
+      <c r="O101" s="32">
+        <f t="shared" ref="O101" si="39">SUM(O94:O100)</f>
+        <v>-5.2219999999999995</v>
+      </c>
+      <c r="P101" s="32">
+        <f>SUM(P94:P100)</f>
+        <v>-13.262</v>
+      </c>
+      <c r="Q101" s="32">
+        <f t="shared" ref="Q101:R101" si="40">SUM(Q94:Q100)</f>
+        <v>13.370000000000003</v>
+      </c>
+      <c r="R101" s="32">
+        <f t="shared" si="40"/>
+        <v>-16.002000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q102" s="33"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I103" s="33">
+        <f>+I89+I90+I91</f>
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="J103" s="48">
+        <f>+J89+J90+J91</f>
+        <v>-6.9269999999999996</v>
+      </c>
+      <c r="K103" s="33">
+        <f>+K89+K90+K91</f>
+        <v>-17.099000000000004</v>
+      </c>
+      <c r="O103" s="33">
+        <f t="shared" ref="O103:P103" si="41">+O89+O90+O91</f>
+        <v>-12.805999999999999</v>
+      </c>
+      <c r="P103" s="33">
+        <f t="shared" ref="P103:Q103" si="42">+P89+P90+P91</f>
+        <v>-10.167999999999999</v>
+      </c>
+      <c r="Q103" s="33">
+        <f t="shared" si="42"/>
+        <v>-6.1629999999999994</v>
+      </c>
+      <c r="R103" s="33">
+        <f>+R89+R90+R91</f>
+        <v>-7.1319999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I104" s="33">
+        <f>+I86+I103</f>
         <v>4.6440000000000001</v>
       </c>
-      <c r="J92" s="61">
-        <f t="shared" ref="J92" si="8">+J79+J91</f>
+      <c r="J104" s="48">
+        <f>+J86+J103</f>
         <v>15.657</v>
       </c>
-      <c r="K92" s="44">
-        <f>+K79+K91</f>
+      <c r="K104" s="33">
+        <f>+K86+K103</f>
         <v>8.399999999999995</v>
       </c>
-      <c r="R92" s="44">
-        <f>+R79+R91</f>
+      <c r="O104" s="33">
+        <f t="shared" ref="O104:P104" si="43">+O86+O103</f>
+        <v>4.9489999999999998</v>
+      </c>
+      <c r="P104" s="33">
+        <f t="shared" ref="P104:Q104" si="44">+P86+P103</f>
+        <v>10.452000000000002</v>
+      </c>
+      <c r="Q104" s="33">
+        <f t="shared" si="44"/>
+        <v>-8.1639999999999979</v>
+      </c>
+      <c r="R104" s="33">
+        <f>+R86+R103</f>
         <v>20.301000000000002</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K1" r:id="rId1" xr:uid="{4AF70136-1990-41FC-9821-A532866EF9F7}"/>
+    <hyperlink ref="R1" r:id="rId2" xr:uid="{554E5D0D-5054-42D6-BF8F-B3F5BCA52C04}"/>
+    <hyperlink ref="P1" r:id="rId3" xr:uid="{216FF58D-FA70-405C-A407-B5B577849372}"/>
+    <hyperlink ref="G1" r:id="rId4" xr:uid="{20DB45A5-5C67-486B-8291-3D46BC1B644A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
+  <ignoredErrors>
+    <ignoredError sqref="J10 J15:J18 H5:H7 H10 H17 H15 F10 F15 F17 F19 F8 J8 H8" formula="1"/>
+    <ignoredError sqref="Q97:Q100 P8 R8 O38:R38 Q94:Q95 E8 K8" formulaRange="1"/>
+    <ignoredError sqref="I8 G8" formula="1" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/£TEG.xlsx
+++ b/£TEG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30448B0F-896E-49F8-8DAE-0B7420C5C2A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38ADEF1-D3F4-4DE2-9D12-09736E661B91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="825" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
+    <workbookView xWindow="1440" yWindow="825" windowWidth="31320" windowHeight="18585" activeTab="1" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
   <si>
     <t>£TEG</t>
   </si>
@@ -422,6 +422,30 @@
   </si>
   <si>
     <t>Cash costs from New Borrowing</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>Corporation Tax Payable</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Other Non-Current Liabilities</t>
+  </si>
+  <si>
+    <t>Shareholder Loan Notes</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>IPO</t>
   </si>
 </sst>
 </file>
@@ -631,28 +655,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -678,12 +698,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -727,6 +745,26 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,41 +774,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -867,7 +886,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -909,15 +928,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1260,7 +1279,7 @@
   <dimension ref="B2:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1280,355 +1299,354 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="G5" s="61" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="G5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
-      <c r="Q5" s="61" t="s">
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
+      <c r="Q5" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <v>2.7210000000000001</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="G6" s="12">
+      <c r="D6" s="15"/>
+      <c r="G6" s="11">
         <v>2023</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <f>'Financial Model'!K21</f>
         <v>68.381495999999999</v>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="15" t="str">
         <f>$C$28</f>
         <v>H122</v>
       </c>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f>C6*C7</f>
         <v>186.06605061600001</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
+      <c r="D8" s="15"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="10"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
-        <f>'Financial Model'!K67</f>
+      <c r="C9" s="6">
+        <f>'Financial Model'!K71</f>
         <v>7.734</v>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="15" t="str">
         <f t="shared" ref="D9:D10" si="0">$C$28</f>
         <v>H122</v>
       </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="10"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7">
-        <f>'Financial Model'!K68</f>
+      <c r="C10" s="6">
+        <f>'Financial Model'!K72</f>
         <v>207.95099999999999</v>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>H122</v>
       </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="11"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <f>C9-C10</f>
         <v>-200.21699999999998</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
+      <c r="D11" s="15"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="10"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f>C8-C11</f>
         <v>386.28305061599997</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="11"/>
+      <c r="D12" s="16"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="Q13" s="42"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="11"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="Q14" s="42"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="11"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="16"/>
+      <c r="D16" s="71"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="71"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="71"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="47"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="Q19" s="61" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="Q19" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="62"/>
-      <c r="S19" s="63"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="67"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="Q20" s="41" t="s">
+      <c r="Q20" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="R20" s="10"/>
-      <c r="S20" s="11"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="10"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="Q21" s="42" t="s">
+      <c r="Q21" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="11"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="16"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="14"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="73"/>
+      <c r="D23" s="71"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="70">
         <v>2009</v>
       </c>
-      <c r="D24" s="73"/>
+      <c r="D24" s="71"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="72">
-        <f>'Financial Model'!S34</f>
+      <c r="C25" s="70">
+        <f>'Financial Model'!T34</f>
         <v>48</v>
       </c>
-      <c r="D25" s="73"/>
+      <c r="D25" s="71"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="68">
         <f>'Financial Model'!K38</f>
         <v>1500</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="69"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="73">
+        <v>42837</v>
+      </c>
+      <c r="D27" s="71"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="13" t="str">
+      <c r="C28" s="12" t="str">
         <f>'Financial Model'!K1</f>
         <v>H122</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="28">
         <f>'Financial Model'!K3</f>
         <v>45190</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="71"/>
+      <c r="D29" s="64"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="66">
-        <f>C6/'Financial Model'!K65</f>
+      <c r="C33" s="61">
+        <f>C6/'Financial Model'!K69</f>
         <v>3.5367722369936718</v>
       </c>
-      <c r="D33" s="67"/>
+      <c r="D33" s="62"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="66">
+      <c r="C34" s="61">
         <f>C8/SUM('Financial Model'!J8:K8)</f>
         <v>1.5486275426012701</v>
       </c>
-      <c r="D34" s="67"/>
+      <c r="D34" s="62"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="61">
         <f>C12/SUM('Financial Model'!J8:K8)</f>
         <v>3.215033421967723</v>
       </c>
-      <c r="D35" s="67"/>
+      <c r="D35" s="62"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="61">
         <f>C6/SUM('Financial Model'!J20:K20)</f>
         <v>5.9823787638134727</v>
       </c>
-      <c r="D36" s="67"/>
+      <c r="D36" s="62"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="66">
+      <c r="C37" s="61">
         <f>C12/SUM('Financial Model'!J19:K19)</f>
         <v>12.421475677406907</v>
       </c>
-      <c r="D37" s="67"/>
+      <c r="D37" s="62"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="12"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="69"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C36:D36"/>
+  <mergeCells count="23">
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="C26:D26"/>
@@ -1645,6 +1663,12 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{872569F1-2E0E-45DC-998D-58DC741E9E51}"/>
@@ -1656,1473 +1680,1357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C83F-EC03-4F38-8C2B-BF6F054B4FFD}">
-  <dimension ref="B1:AD104"/>
+  <dimension ref="B1:AE108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
+      <selection pane="bottomRight" activeCell="O107" sqref="N107:O108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="38"/>
+    <col min="4" max="4" width="9.140625" style="34"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="38"/>
+    <col min="6" max="6" width="9.140625" style="34"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="38"/>
+    <col min="8" max="8" width="9.140625" style="34"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="38"/>
+    <col min="10" max="10" width="9.140625" style="34"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="2:31" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="W1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Y1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Z1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AA1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AB1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AC1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AD1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AE1" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="2:30" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="22"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="24">
+    <row r="2" spans="2:31" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="22">
         <v>43645</v>
       </c>
-      <c r="F2" s="51">
-        <f>P2</f>
+      <c r="F2" s="32"/>
+      <c r="G2" s="22">
+        <v>44010</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="22">
+        <v>44374</v>
+      </c>
+      <c r="J2" s="47">
+        <f>S2</f>
+        <v>44556</v>
+      </c>
+      <c r="K2" s="22">
+        <v>44738</v>
+      </c>
+      <c r="N2" s="22">
+        <v>42736</v>
+      </c>
+      <c r="O2" s="22">
+        <v>43100</v>
+      </c>
+      <c r="P2" s="22">
+        <v>43464</v>
+      </c>
+      <c r="Q2" s="22">
         <v>43828</v>
       </c>
-      <c r="G2" s="24">
-        <v>44010</v>
-      </c>
-      <c r="H2" s="51">
-        <f>Q2</f>
+      <c r="R2" s="22">
         <v>44192</v>
       </c>
-      <c r="I2" s="24">
-        <v>44374</v>
-      </c>
-      <c r="J2" s="51">
-        <f>R2</f>
+      <c r="S2" s="22">
         <v>44556</v>
       </c>
-      <c r="K2" s="24">
-        <v>44738</v>
-      </c>
-      <c r="O2" s="24">
-        <v>43464</v>
-      </c>
-      <c r="P2" s="24">
-        <v>43828</v>
-      </c>
-      <c r="Q2" s="24">
-        <v>44192</v>
-      </c>
-      <c r="R2" s="24">
-        <v>44556</v>
-      </c>
-    </row>
-    <row r="3" spans="2:30" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22"/>
-      <c r="D3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="21">
-        <v>45192</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="21">
+    </row>
+    <row r="3" spans="2:31" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="20"/>
+      <c r="D3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="19">
         <v>45190</v>
       </c>
-      <c r="P3" s="21">
+      <c r="O3" s="19">
+        <v>45006</v>
+      </c>
+      <c r="Q3" s="19">
         <v>45059</v>
       </c>
-      <c r="R3" s="21">
+      <c r="S3" s="19">
         <v>45014</v>
       </c>
-      <c r="S3" s="21"/>
-    </row>
-    <row r="4" spans="2:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="59" t="s">
+      <c r="T3" s="19"/>
+    </row>
+    <row r="4" spans="2:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="45">
-        <v>20.218</v>
-      </c>
-      <c r="F4" s="60">
-        <f>P4-E4</f>
-        <v>19.693999999999999</v>
-      </c>
-      <c r="G4" s="45">
-        <v>10.555</v>
-      </c>
-      <c r="H4" s="60">
-        <f>Q4-G4</f>
-        <v>6.2749999999999986</v>
-      </c>
-      <c r="I4" s="45">
+      <c r="D4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="41">
         <v>4.8330000000000002</v>
       </c>
-      <c r="J4" s="60">
-        <f>R4-I4</f>
+      <c r="J4" s="56">
+        <f>S4-I4</f>
         <v>24.942999999999998</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="41">
         <v>28.266999999999999</v>
       </c>
-      <c r="O4" s="45">
+      <c r="P4" s="41">
         <v>36.578000000000003</v>
       </c>
-      <c r="P4" s="45">
+      <c r="Q4" s="41">
         <v>39.911999999999999</v>
       </c>
-      <c r="Q4" s="45">
+      <c r="R4" s="41">
         <v>16.829999999999998</v>
       </c>
-      <c r="R4" s="45">
+      <c r="S4" s="41">
         <v>29.776</v>
       </c>
     </row>
-    <row r="5" spans="2:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="59" t="s">
+    <row r="5" spans="2:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="45">
-        <v>10.119</v>
-      </c>
-      <c r="F5" s="60">
-        <f t="shared" ref="F5:F7" si="0">P5-E5</f>
-        <v>11.306999999999999</v>
-      </c>
-      <c r="G5" s="45">
-        <v>5.9260000000000002</v>
-      </c>
-      <c r="H5" s="60">
-        <f t="shared" ref="H5:H7" si="1">Q5-G5</f>
-        <v>3.9719999999999995</v>
-      </c>
-      <c r="I5" s="45">
+      <c r="D5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="41">
         <v>2.875</v>
       </c>
-      <c r="J5" s="60">
-        <f t="shared" ref="J5:J7" si="2">R5-I5</f>
+      <c r="J5" s="56">
+        <f t="shared" ref="J5:J7" si="0">S5-I5</f>
         <v>16.219000000000001</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="41">
         <v>17.276</v>
       </c>
-      <c r="O5" s="45">
+      <c r="P5" s="41">
         <v>19.811</v>
       </c>
-      <c r="P5" s="45">
+      <c r="Q5" s="41">
         <v>21.425999999999998</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="R5" s="41">
         <v>9.8979999999999997</v>
       </c>
-      <c r="R5" s="45">
+      <c r="S5" s="41">
         <v>19.094000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="59" t="s">
+    <row r="6" spans="2:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="45">
-        <v>9.5030000000000001</v>
-      </c>
-      <c r="F6" s="60">
+      <c r="D6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="41">
+        <v>2.5790000000000002</v>
+      </c>
+      <c r="J6" s="56">
         <f t="shared" si="0"/>
-        <v>10.146000000000001</v>
-      </c>
-      <c r="G6" s="45">
-        <v>5.1689999999999996</v>
-      </c>
-      <c r="H6" s="60">
-        <f t="shared" si="1"/>
-        <v>3.1290000000000004</v>
-      </c>
-      <c r="I6" s="45">
-        <v>2.5790000000000002</v>
-      </c>
-      <c r="J6" s="60">
-        <f t="shared" si="2"/>
         <v>13.701000000000001</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="41">
         <v>15.143000000000001</v>
       </c>
-      <c r="O6" s="45">
+      <c r="P6" s="41">
         <v>16.986999999999998</v>
       </c>
-      <c r="P6" s="45">
+      <c r="Q6" s="41">
         <v>19.649000000000001</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="R6" s="41">
         <v>8.298</v>
       </c>
-      <c r="R6" s="45">
+      <c r="S6" s="41">
         <v>16.28</v>
       </c>
     </row>
-    <row r="7" spans="2:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="59" t="s">
+    <row r="7" spans="2:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="45">
-        <v>1.6040000000000001</v>
-      </c>
-      <c r="F7" s="60">
+      <c r="D7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="41">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="J7" s="56">
         <f t="shared" si="0"/>
-        <v>1.5309999999999997</v>
-      </c>
-      <c r="G7" s="45">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="H7" s="60">
-        <f t="shared" si="1"/>
-        <v>0.42200000000000015</v>
-      </c>
-      <c r="I7" s="45">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="J7" s="60">
-        <f t="shared" si="2"/>
         <v>2.048</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="41">
         <v>2.552</v>
       </c>
-      <c r="O7" s="45">
+      <c r="P7" s="41">
         <v>2.9740000000000002</v>
       </c>
-      <c r="P7" s="45">
+      <c r="Q7" s="41">
         <v>3.1349999999999998</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="R7" s="41">
         <v>1.2430000000000001</v>
       </c>
-      <c r="R7" s="45">
+      <c r="S7" s="41">
         <v>2.371</v>
       </c>
     </row>
-    <row r="8" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="32">
-        <f>SUM(E4:E7)</f>
-        <v>41.444000000000003</v>
-      </c>
-      <c r="F8" s="49">
-        <f>SUM(F4:F7)</f>
-        <v>42.677999999999997</v>
-      </c>
-      <c r="G8" s="32">
-        <f>SUM(G4:G7)</f>
-        <v>22.471000000000004</v>
-      </c>
-      <c r="H8" s="49">
-        <f>SUM(H4:H7)</f>
-        <v>13.797999999999998</v>
-      </c>
-      <c r="I8" s="32">
-        <f>SUM(I4:I7)</f>
-        <v>10.610000000000001</v>
-      </c>
-      <c r="J8" s="49">
-        <f>SUM(J4:J7)</f>
+      <c r="D8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="29">
+        <v>10.61</v>
+      </c>
+      <c r="J8" s="45">
+        <f>S8-I8</f>
         <v>56.911000000000001</v>
       </c>
-      <c r="K8" s="32">
-        <f>SUM(K4:K7)</f>
+      <c r="K8" s="29">
         <v>63.238</v>
       </c>
-      <c r="O8" s="32">
-        <f>SUM(O4:O7)</f>
+      <c r="N8" s="29">
+        <v>67.319000000000003</v>
+      </c>
+      <c r="O8" s="29">
+        <v>71.040000000000006</v>
+      </c>
+      <c r="P8" s="29">
+        <f>SUM(P4:P7)</f>
         <v>76.350000000000009</v>
       </c>
-      <c r="P8" s="32">
-        <f>SUM(P4:P7)</f>
+      <c r="Q8" s="29">
+        <f>SUM(Q4:Q7)</f>
         <v>84.122</v>
       </c>
-      <c r="Q8" s="32">
-        <f>SUM(Q4:Q7)</f>
+      <c r="R8" s="29">
+        <f>SUM(R4:R7)</f>
         <v>36.268999999999998</v>
       </c>
-      <c r="R8" s="32">
-        <f>SUM(R4:R7)</f>
+      <c r="S8" s="29">
+        <f>SUM(S4:S7)</f>
         <v>67.521000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="33">
-        <v>12.081</v>
-      </c>
-      <c r="F9" s="48">
-        <f>P9-E9</f>
-        <v>12.849</v>
-      </c>
-      <c r="G9" s="33">
-        <v>7.4809999999999999</v>
-      </c>
-      <c r="H9" s="48">
-        <f>Q9-G9</f>
-        <v>6.6140000000000008</v>
-      </c>
-      <c r="I9" s="33">
+      <c r="I9" s="6">
         <v>4.1539999999999999</v>
       </c>
-      <c r="J9" s="48">
-        <f>R9-I9</f>
+      <c r="J9" s="44">
+        <f>S9-I9</f>
         <v>18.356999999999999</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="6">
         <v>19.707000000000001</v>
       </c>
-      <c r="O9" s="33">
+      <c r="N9" s="6">
+        <v>20.638999999999999</v>
+      </c>
+      <c r="O9" s="6">
+        <v>21.478000000000002</v>
+      </c>
+      <c r="P9" s="6">
         <v>22.422999999999998</v>
       </c>
-      <c r="P9" s="33">
+      <c r="Q9" s="6">
         <v>24.93</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="R9" s="6">
         <v>14.095000000000001</v>
       </c>
-      <c r="R9" s="33">
+      <c r="S9" s="6">
         <v>22.510999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="32">
-        <f>E8-E9</f>
-        <v>29.363000000000003</v>
-      </c>
-      <c r="F10" s="49">
-        <f>F8-F9</f>
-        <v>29.828999999999997</v>
-      </c>
-      <c r="G10" s="32">
-        <f>G8-G9</f>
-        <v>14.990000000000004</v>
-      </c>
-      <c r="H10" s="49">
-        <f>H8-H9</f>
-        <v>7.1839999999999975</v>
-      </c>
-      <c r="I10" s="32">
+      <c r="D10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="29">
         <f>I8-I9</f>
-        <v>6.4560000000000013</v>
-      </c>
-      <c r="J10" s="49">
+        <v>6.4559999999999995</v>
+      </c>
+      <c r="J10" s="45">
         <f>J8-J9</f>
         <v>38.554000000000002</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="29">
         <f>K8-K9</f>
         <v>43.530999999999999</v>
       </c>
-      <c r="O10" s="32">
-        <f t="shared" ref="O10:Q10" si="3">O8-O9</f>
+      <c r="N10" s="29">
+        <f t="shared" ref="N10:R10" si="1">N8-N9</f>
+        <v>46.680000000000007</v>
+      </c>
+      <c r="O10" s="29">
+        <f t="shared" si="1"/>
+        <v>49.562000000000005</v>
+      </c>
+      <c r="P10" s="29">
+        <f t="shared" si="1"/>
         <v>53.927000000000007</v>
       </c>
-      <c r="P10" s="32">
-        <f t="shared" si="3"/>
+      <c r="Q10" s="29">
+        <f t="shared" si="1"/>
         <v>59.192</v>
       </c>
-      <c r="Q10" s="32">
-        <f t="shared" si="3"/>
+      <c r="R10" s="29">
+        <f t="shared" si="1"/>
         <v>22.173999999999999</v>
       </c>
-      <c r="R10" s="32">
-        <f>R8-R9</f>
+      <c r="S10" s="29">
+        <f>S8-S9</f>
         <v>45.010000000000005</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="33">
-        <v>23.027999999999999</v>
-      </c>
-      <c r="F11" s="48">
-        <f t="shared" ref="F11:F14" si="4">P11-E11</f>
-        <v>23.581000000000003</v>
-      </c>
-      <c r="G11" s="33">
-        <v>19.861000000000001</v>
-      </c>
-      <c r="H11" s="48">
-        <f t="shared" ref="H11:H14" si="5">Q11-G11</f>
-        <v>15.642999999999997</v>
-      </c>
-      <c r="I11" s="33">
+      <c r="I11" s="6">
         <v>14.558999999999999</v>
       </c>
-      <c r="J11" s="48">
-        <f t="shared" ref="J11:J18" si="6">R11-I11</f>
+      <c r="J11" s="44">
+        <f t="shared" ref="J11:J18" si="2">S11-I11</f>
         <v>21.152000000000001</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="6">
         <v>24.021999999999998</v>
       </c>
-      <c r="O11" s="33">
+      <c r="N11" s="6">
+        <v>36.923999999999999</v>
+      </c>
+      <c r="O11" s="6">
+        <v>39.64</v>
+      </c>
+      <c r="P11" s="6">
         <v>42.564999999999998</v>
       </c>
-      <c r="P11" s="33">
+      <c r="Q11" s="6">
         <v>46.609000000000002</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="R11" s="6">
         <v>35.503999999999998</v>
       </c>
-      <c r="R11" s="33">
+      <c r="S11" s="6">
         <v>35.710999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="33">
-        <v>0</v>
-      </c>
-      <c r="F12" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="33">
-        <v>0</v>
-      </c>
-      <c r="H12" s="48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="33">
-        <v>0</v>
-      </c>
-      <c r="J12" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="33">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
         <v>0.31</v>
       </c>
-      <c r="O12" s="33">
-        <v>0</v>
-      </c>
-      <c r="P12" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="33">
-        <v>0</v>
-      </c>
-      <c r="R12" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="33">
-        <v>0</v>
-      </c>
-      <c r="F13" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="33">
-        <v>0</v>
-      </c>
-      <c r="H13" s="48">
-        <f t="shared" si="5"/>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="44">
+        <f t="shared" si="2"/>
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.747</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
         <v>-2.5209999999999999</v>
       </c>
-      <c r="I13" s="33">
-        <v>0</v>
-      </c>
-      <c r="J13" s="48">
-        <f t="shared" si="6"/>
+      <c r="S13" s="6">
         <v>1.1240000000000001</v>
       </c>
-      <c r="K13" s="33">
-        <v>0.747</v>
-      </c>
-      <c r="O13" s="33">
-        <v>0</v>
-      </c>
-      <c r="P13" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="33">
-        <v>-2.5209999999999999</v>
-      </c>
-      <c r="R13" s="33">
-        <v>1.1240000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="33">
-        <v>0</v>
-      </c>
-      <c r="F14" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="33">
-        <v>0</v>
-      </c>
-      <c r="H14" s="48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="33">
-        <v>0</v>
-      </c>
-      <c r="J14" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="33">
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
         <v>4.601</v>
       </c>
-      <c r="O14" s="33">
-        <v>0</v>
-      </c>
-      <c r="P14" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="33">
-        <v>0</v>
-      </c>
-      <c r="R14" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="32">
-        <f>E10-E11-E12+E13+E14</f>
-        <v>6.3350000000000044</v>
-      </c>
-      <c r="F15" s="49">
-        <f>F10-F11-F12+F13+F14</f>
-        <v>6.247999999999994</v>
-      </c>
-      <c r="G15" s="32">
-        <f>G10-G11-G12+G13+G14</f>
-        <v>-4.8709999999999969</v>
-      </c>
-      <c r="H15" s="49">
-        <f>H10-H11-H12+H13+H14</f>
-        <v>-10.98</v>
-      </c>
-      <c r="I15" s="32">
+      <c r="D15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="29">
         <f>I10-I11-I12+I13+I14</f>
-        <v>-8.102999999999998</v>
-      </c>
-      <c r="J15" s="49">
+        <v>-8.1029999999999998</v>
+      </c>
+      <c r="J15" s="45">
         <f>J10-J11-J12+J13+J14</f>
         <v>18.526</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="29">
         <f>K10-K11-K12+K13+K14</f>
         <v>24.547000000000001</v>
       </c>
-      <c r="O15" s="32">
-        <f t="shared" ref="O15:Q15" si="7">O10-O11-O12+O13+O14</f>
+      <c r="N15" s="29">
+        <f t="shared" ref="N15:R15" si="3">N10-N11-N12+N13+N14</f>
+        <v>9.7560000000000073</v>
+      </c>
+      <c r="O15" s="29">
+        <f t="shared" si="3"/>
+        <v>9.9220000000000041</v>
+      </c>
+      <c r="P15" s="29">
+        <f t="shared" si="3"/>
         <v>11.362000000000009</v>
       </c>
-      <c r="P15" s="32">
-        <f t="shared" si="7"/>
+      <c r="Q15" s="29">
+        <f t="shared" si="3"/>
         <v>12.582999999999998</v>
       </c>
-      <c r="Q15" s="32">
-        <f t="shared" si="7"/>
+      <c r="R15" s="29">
+        <f t="shared" si="3"/>
         <v>-15.850999999999999</v>
       </c>
-      <c r="R15" s="32">
-        <f>R10-R11-R12+R13+R14</f>
+      <c r="S15" s="29">
+        <f>S10-S11-S12+S13+S14</f>
         <v>10.423000000000007</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="33">
-        <v>-0.40100000000000002</v>
-      </c>
-      <c r="F16" s="48">
-        <f>P16-E16</f>
-        <v>-0.38700000000000001</v>
-      </c>
-      <c r="G16" s="33">
-        <v>-2.1230000000000002</v>
-      </c>
-      <c r="H16" s="48">
-        <f>Q16-G16</f>
-        <v>-3.6920000000000002</v>
-      </c>
-      <c r="I16" s="33">
+      <c r="I16" s="6">
         <v>-2.6659999999999999</v>
       </c>
-      <c r="J16" s="48">
-        <f t="shared" si="6"/>
+      <c r="J16" s="44">
+        <f t="shared" si="2"/>
         <v>-3.32</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="6">
         <v>-3.532</v>
       </c>
-      <c r="O16" s="33">
+      <c r="N16" s="6">
+        <f>0.904-5.224</f>
+        <v>-4.32</v>
+      </c>
+      <c r="O16" s="6">
+        <f>-0.703-1.927</f>
+        <v>-2.63</v>
+      </c>
+      <c r="P16" s="6">
         <v>-0.69299999999999995</v>
       </c>
-      <c r="P16" s="33">
+      <c r="Q16" s="6">
         <v>-0.78800000000000003</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="R16" s="6">
         <v>-5.8150000000000004</v>
       </c>
-      <c r="R16" s="33">
+      <c r="S16" s="6">
         <v>-5.9859999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="33">
-        <f>E15+E16</f>
-        <v>5.9340000000000046</v>
-      </c>
-      <c r="F17" s="48">
-        <f>F15+F16</f>
-        <v>5.8609999999999935</v>
-      </c>
-      <c r="G17" s="33">
-        <f>G15+G16</f>
-        <v>-6.9939999999999971</v>
-      </c>
-      <c r="H17" s="48">
-        <f>H15+H16</f>
-        <v>-14.672000000000001</v>
-      </c>
-      <c r="I17" s="33">
+      <c r="I17" s="6">
         <f>I15+I16</f>
-        <v>-10.768999999999998</v>
-      </c>
-      <c r="J17" s="48">
+        <v>-10.769</v>
+      </c>
+      <c r="J17" s="44">
         <f>J15+J16</f>
         <v>15.206</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="6">
         <f>K15+K16</f>
         <v>21.015000000000001</v>
       </c>
-      <c r="O17" s="33">
-        <f t="shared" ref="O17" si="8">O15+O16</f>
+      <c r="N17" s="6">
+        <f t="shared" ref="N17:P17" si="4">N15+N16</f>
+        <v>5.436000000000007</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="4"/>
+        <v>7.2920000000000043</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="4"/>
         <v>10.669000000000009</v>
       </c>
-      <c r="P17" s="33">
-        <f t="shared" ref="P17" si="9">P15+P16</f>
+      <c r="Q17" s="6">
+        <f t="shared" ref="Q17" si="5">Q15+Q16</f>
         <v>11.794999999999998</v>
       </c>
-      <c r="Q17" s="33">
-        <f>Q15+Q16</f>
+      <c r="R17" s="6">
+        <f>R15+R16</f>
         <v>-21.666</v>
       </c>
-      <c r="R17" s="33">
-        <f>R15+R16</f>
+      <c r="S17" s="6">
+        <f>S15+S16</f>
         <v>4.4370000000000074</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="33">
-        <v>1.2609999999999999</v>
-      </c>
-      <c r="F18" s="48">
-        <f>P18-E18</f>
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="G18" s="33">
-        <v>-0.69599999999999995</v>
-      </c>
-      <c r="H18" s="48">
-        <f>Q18-G18</f>
-        <v>-3.2229999999999999</v>
-      </c>
-      <c r="I18" s="33">
+      <c r="I18" s="6">
         <v>-1.97</v>
       </c>
-      <c r="J18" s="48">
-        <f t="shared" si="6"/>
+      <c r="J18" s="44">
+        <f t="shared" si="2"/>
         <v>2.4020000000000001</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="6">
         <v>2.7210000000000001</v>
       </c>
-      <c r="O18" s="33">
+      <c r="N18" s="6">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="O18" s="6">
+        <v>2.1110000000000002</v>
+      </c>
+      <c r="P18" s="6">
         <v>2.5270000000000001</v>
       </c>
-      <c r="P18" s="33">
+      <c r="Q18" s="6">
         <v>2.758</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="R18" s="6">
         <v>-3.919</v>
       </c>
-      <c r="R18" s="33">
+      <c r="S18" s="6">
         <v>0.432</v>
       </c>
     </row>
-    <row r="19" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="32">
-        <f>E17-E18</f>
-        <v>4.6730000000000045</v>
-      </c>
-      <c r="F19" s="49">
-        <f>F17-F18</f>
-        <v>4.3639999999999937</v>
-      </c>
-      <c r="G19" s="32">
-        <f>G17-G18</f>
-        <v>-6.2979999999999974</v>
-      </c>
-      <c r="H19" s="49">
-        <f>H17-H18</f>
-        <v>-11.449000000000002</v>
-      </c>
-      <c r="I19" s="32">
+      <c r="D19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="29">
         <f>I17-I18</f>
-        <v>-8.7989999999999977</v>
-      </c>
-      <c r="J19" s="49">
+        <v>-8.7989999999999995</v>
+      </c>
+      <c r="J19" s="45">
         <f>J17-J18</f>
         <v>12.803999999999998</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="29">
         <f>K17-K18</f>
         <v>18.294</v>
       </c>
-      <c r="O19" s="32">
-        <f t="shared" ref="O19:Q19" si="10">O17-O18</f>
+      <c r="N19" s="29">
+        <f t="shared" ref="N19:R19" si="6">N17-N18</f>
+        <v>3.6310000000000073</v>
+      </c>
+      <c r="O19" s="29">
+        <f t="shared" si="6"/>
+        <v>5.1810000000000045</v>
+      </c>
+      <c r="P19" s="29">
+        <f t="shared" si="6"/>
         <v>8.1420000000000101</v>
       </c>
-      <c r="P19" s="32">
-        <f t="shared" si="10"/>
+      <c r="Q19" s="29">
+        <f t="shared" si="6"/>
         <v>9.036999999999999</v>
       </c>
-      <c r="Q19" s="32">
-        <f t="shared" si="10"/>
+      <c r="R19" s="29">
+        <f t="shared" si="6"/>
         <v>-17.747</v>
       </c>
-      <c r="R19" s="32">
-        <f>R17-R18</f>
+      <c r="S19" s="29">
+        <f>S17-S18</f>
         <v>4.005000000000007</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="2:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="76">
-        <f>E19/E21</f>
-        <v>6.8371721526206714E-2</v>
-      </c>
-      <c r="F20" s="77">
-        <f>F19/F21</f>
-        <v>6.7138461538461439E-2</v>
-      </c>
-      <c r="G20" s="76">
-        <f>G19/G21</f>
-        <v>-9.4539171002551534E-2</v>
-      </c>
-      <c r="H20" s="77">
-        <f>H19/H21</f>
-        <v>-0.16942622710892444</v>
-      </c>
-      <c r="I20" s="76">
+      <c r="D20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="6">
         <f>I19/I21</f>
-        <v>-0.12873671520202254</v>
-      </c>
-      <c r="J20" s="39">
+        <v>-0.12873671520202257</v>
+      </c>
+      <c r="J20" s="35">
         <f>J19/J21</f>
         <v>0.1873072809736924</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="26">
         <f>K19/K21</f>
         <v>0.26752851385409882</v>
       </c>
-      <c r="O20" s="28">
-        <f t="shared" ref="O20:P20" si="11">O19/O21</f>
+      <c r="N20" s="26">
+        <f t="shared" ref="N20:Q20" si="7">N19/N21</f>
+        <v>5.5861538461538573E-2</v>
+      </c>
+      <c r="O20" s="26">
+        <f t="shared" si="7"/>
+        <v>7.9707692307692382E-2</v>
+      </c>
+      <c r="P20" s="26">
+        <f t="shared" si="7"/>
         <v>0.12526153846153862</v>
       </c>
-      <c r="P20" s="28">
-        <f t="shared" si="11"/>
+      <c r="Q20" s="26">
+        <f t="shared" si="7"/>
         <v>0.13903076923076921</v>
       </c>
-      <c r="Q20" s="28">
-        <f>Q19/Q21</f>
+      <c r="R20" s="26">
+        <f>R19/R21</f>
         <v>-0.26262619027880874</v>
       </c>
-      <c r="R20" s="28">
-        <f>R19/R21</f>
+      <c r="S20" s="26">
+        <f>S19/S21</f>
         <v>5.8588383341115234E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="29" t="s">
+    <row r="21" spans="2:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="29">
-        <v>68.346969999999999</v>
-      </c>
-      <c r="F21" s="40">
-        <f>P21</f>
+      <c r="D21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="6">
+        <v>68.348799999999997</v>
+      </c>
+      <c r="J21" s="36">
+        <f>S21</f>
+        <v>68.358260999999999</v>
+      </c>
+      <c r="K21" s="27">
+        <v>68.381495999999999</v>
+      </c>
+      <c r="N21" s="27">
         <v>65</v>
       </c>
-      <c r="G21" s="29">
-        <v>66.617889000000005</v>
-      </c>
-      <c r="H21" s="40">
-        <f>Q21</f>
+      <c r="O21" s="27">
+        <v>65</v>
+      </c>
+      <c r="P21" s="27">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>65</v>
+      </c>
+      <c r="R21" s="27">
         <v>67.575134000000006</v>
       </c>
-      <c r="I21" s="33">
-        <v>68.348799999999997</v>
-      </c>
-      <c r="J21" s="40">
-        <f>R21</f>
+      <c r="S21" s="27">
         <v>68.358260999999999</v>
       </c>
-      <c r="K21" s="29">
-        <v>68.381495999999999</v>
-      </c>
-      <c r="O21" s="29">
-        <v>65</v>
-      </c>
-      <c r="P21" s="29">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="29">
-        <v>67.575134000000006</v>
-      </c>
-      <c r="R21" s="29">
-        <v>68.358260999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="25">
-        <f>G8/E8-1</f>
-        <v>-0.45779847505067073</v>
-      </c>
-      <c r="H23" s="78">
-        <f>H8/F8-1</f>
-        <v>-0.67669525282346876</v>
-      </c>
-      <c r="I23" s="25">
-        <f>I8/G8-1</f>
-        <v>-0.52783587735303283</v>
-      </c>
-      <c r="J23" s="78">
-        <f>J8/H8-1</f>
-        <v>3.124583272938108</v>
-      </c>
-      <c r="K23" s="25">
+      <c r="D23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="23">
         <f>K8/I8-1</f>
-        <v>4.9602262016965124</v>
-      </c>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25">
-        <f t="shared" ref="P23:Q23" si="12">P8/O8-1</f>
+        <v>4.9602262016965133</v>
+      </c>
+      <c r="O23" s="23">
+        <f t="shared" ref="O23:R23" si="8">O8/N8-1</f>
+        <v>5.5274142515486124E-2</v>
+      </c>
+      <c r="P23" s="23">
+        <f t="shared" si="8"/>
+        <v>7.4746621621621712E-2</v>
+      </c>
+      <c r="Q23" s="23">
+        <f t="shared" si="8"/>
         <v>0.10179436804191222</v>
       </c>
-      <c r="Q23" s="25">
-        <f t="shared" si="12"/>
+      <c r="R23" s="23">
+        <f t="shared" si="8"/>
         <v>-0.56885238106559521</v>
       </c>
-      <c r="R23" s="25">
-        <f>R8/Q8-1</f>
+      <c r="S23" s="23">
+        <f>S8/R8-1</f>
         <v>0.86167250268824636</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="27" t="s">
+    <row r="24" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="F24" s="52">
-        <f>F8/E8-1</f>
-        <v>2.9775118231830877E-2</v>
-      </c>
-      <c r="G24" s="27">
-        <f>G8/F8-1</f>
-        <v>-0.47347579549182239</v>
-      </c>
-      <c r="H24" s="52">
-        <f>H8/G8-1</f>
-        <v>-0.38596413154732789</v>
-      </c>
-      <c r="I24" s="27">
-        <f>I8/H8-1</f>
-        <v>-0.23104797796782128</v>
-      </c>
-      <c r="J24" s="52">
+      <c r="D24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="J24" s="48">
         <f>J8/I8-1</f>
-        <v>4.3639019792648437</v>
-      </c>
-      <c r="K24" s="27">
+        <v>4.3639019792648446</v>
+      </c>
+      <c r="K24" s="25">
         <f>K8/J8-1</f>
         <v>0.11117358682855683</v>
       </c>
-      <c r="O24" s="53" t="s">
+      <c r="N24" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="P24" s="53" t="s">
+      <c r="O24" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="Q24" s="53" t="s">
+      <c r="P24" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="R24" s="53" t="s">
+      <c r="Q24" s="49" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="S24" s="49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="27">
-        <f>E10/E8</f>
-        <v>0.70849821445806394</v>
-      </c>
-      <c r="F26" s="52">
-        <f>F10/F8</f>
-        <v>0.69893153381133133</v>
-      </c>
-      <c r="G26" s="27">
-        <f>G10/G8</f>
-        <v>0.66708201682168133</v>
-      </c>
-      <c r="H26" s="52">
-        <f>H10/H8</f>
-        <v>0.52065516741556739</v>
-      </c>
-      <c r="I26" s="27">
+      <c r="I26" s="25">
         <f>I10/I8</f>
         <v>0.60848256361922715</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="48">
         <f>J10/J8</f>
         <v>0.67744372792606</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="25">
         <f>K10/K8</f>
         <v>0.68836775356589386</v>
       </c>
-      <c r="O26" s="27">
-        <f t="shared" ref="O26:P26" si="13">O10/O8</f>
+      <c r="N26" s="25">
+        <f t="shared" ref="N26:P26" si="9">N10/N8</f>
+        <v>0.69341493486237171</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" si="9"/>
+        <v>0.69766328828828827</v>
+      </c>
+      <c r="P26" s="25">
+        <f t="shared" ref="P26:Q26" si="10">P10/P8</f>
         <v>0.70631303208906349</v>
       </c>
-      <c r="P26" s="27">
-        <f t="shared" si="13"/>
+      <c r="Q26" s="25">
+        <f t="shared" si="10"/>
         <v>0.70364470649770572</v>
       </c>
-      <c r="Q26" s="27">
-        <f t="shared" ref="Q26" si="14">Q10/Q8</f>
+      <c r="R26" s="25">
+        <f t="shared" ref="R26" si="11">R10/R8</f>
         <v>0.61137610631668915</v>
       </c>
-      <c r="R26" s="27">
-        <f>R10/R8</f>
+      <c r="S26" s="25">
+        <f>S10/S8</f>
         <v>0.66660742583788757</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="27">
-        <f>E15/E8</f>
-        <v>0.15285686709777058</v>
-      </c>
-      <c r="F27" s="52">
-        <f>F15/F8</f>
-        <v>0.14639861286845668</v>
-      </c>
-      <c r="G27" s="27">
-        <f>G15/G8</f>
-        <v>-0.216768279115304</v>
-      </c>
-      <c r="H27" s="52">
-        <f>H15/H8</f>
-        <v>-0.79576750253659967</v>
-      </c>
-      <c r="I27" s="27">
+      <c r="I27" s="25">
         <f>I15/I8</f>
-        <v>-0.76371347785108357</v>
-      </c>
-      <c r="J27" s="52">
+        <v>-0.7637134778510839</v>
+      </c>
+      <c r="J27" s="48">
         <f>J15/J8</f>
         <v>0.32552582101878369</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="25">
         <f>K15/K8</f>
         <v>0.38816850627787092</v>
       </c>
-      <c r="O27" s="27">
-        <f t="shared" ref="O27:P27" si="15">O15/O8</f>
+      <c r="N27" s="25">
+        <f t="shared" ref="N27:P27" si="12">N15/N8</f>
+        <v>0.14492193882856261</v>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" si="12"/>
+        <v>0.13966779279279284</v>
+      </c>
+      <c r="P27" s="25">
+        <f t="shared" ref="P27:Q27" si="13">P15/P8</f>
         <v>0.14881466928618214</v>
       </c>
-      <c r="P27" s="27">
-        <f t="shared" si="15"/>
+      <c r="Q27" s="25">
+        <f t="shared" si="13"/>
         <v>0.14958037136539787</v>
       </c>
-      <c r="Q27" s="27">
-        <f t="shared" ref="Q27" si="16">Q15/Q8</f>
+      <c r="R27" s="25">
+        <f t="shared" ref="R27" si="14">R15/R8</f>
         <v>-0.43703989633019935</v>
       </c>
-      <c r="R27" s="27">
-        <f>R15/R8</f>
+      <c r="S27" s="25">
+        <f>S15/S8</f>
         <v>0.1543667895913865</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="27">
-        <f>E19/E8</f>
-        <v>0.1127545603706207</v>
-      </c>
-      <c r="F28" s="52">
-        <f>F19/F8</f>
-        <v>0.1022540887576736</v>
-      </c>
-      <c r="G28" s="27">
-        <f>G19/G8</f>
-        <v>-0.28027235103021658</v>
-      </c>
-      <c r="H28" s="52">
-        <f>H19/H8</f>
-        <v>-0.82975793593274405</v>
-      </c>
-      <c r="I28" s="27">
+      <c r="I28" s="25">
         <f>I19/I8</f>
-        <v>-0.82931196983977351</v>
-      </c>
-      <c r="J28" s="52">
+        <v>-0.82931196983977384</v>
+      </c>
+      <c r="J28" s="48">
         <f>J19/J8</f>
         <v>0.22498286798685663</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="25">
         <f>K19/K8</f>
         <v>0.2892880862772384</v>
       </c>
-      <c r="O28" s="27">
-        <f t="shared" ref="O28:P28" si="17">O19/O8</f>
+      <c r="N28" s="25">
+        <f t="shared" ref="N28:P28" si="15">N19/N8</f>
+        <v>5.3937224260610039E-2</v>
+      </c>
+      <c r="O28" s="25">
+        <f t="shared" si="15"/>
+        <v>7.2930743243243307E-2</v>
+      </c>
+      <c r="P28" s="25">
+        <f t="shared" ref="P28:Q28" si="16">P19/P8</f>
         <v>0.10664047151277026</v>
       </c>
-      <c r="P28" s="27">
-        <f t="shared" si="17"/>
+      <c r="Q28" s="25">
+        <f t="shared" si="16"/>
         <v>0.1074273079574903</v>
       </c>
-      <c r="Q28" s="27">
-        <f t="shared" ref="Q28" si="18">Q19/Q8</f>
+      <c r="R28" s="25">
+        <f t="shared" ref="R28" si="17">R19/R8</f>
         <v>-0.48931594474620199</v>
       </c>
-      <c r="R28" s="27">
-        <f>R19/R8</f>
+      <c r="S28" s="25">
+        <f>S19/S8</f>
         <v>5.9314879815168718E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="27">
-        <f>E28/E18/E17</f>
-        <v>1.5068550830296441E-2</v>
-      </c>
-      <c r="F29" s="52">
-        <f>F28/F18/F17</f>
-        <v>1.1654325970678055E-2</v>
-      </c>
-      <c r="G29" s="27">
-        <f>G28/G18/G17</f>
-        <v>-5.7576516946836347E-2</v>
-      </c>
-      <c r="H29" s="52">
-        <f>H28/H18/H17</f>
-        <v>-1.7546956155778008E-2</v>
-      </c>
-      <c r="I29" s="27">
+      <c r="I29" s="25">
         <f>I28/I18/I17</f>
-        <v>-3.9090959519535236E-2</v>
-      </c>
-      <c r="J29" s="52">
+        <v>-3.9090959519535243E-2</v>
+      </c>
+      <c r="J29" s="48">
         <f>J28/J18/J17</f>
         <v>6.1597269271873771E-3</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="25">
         <f>K28/K18/K17</f>
         <v>5.0590924103622523E-3</v>
       </c>
-      <c r="O29" s="27">
-        <f>O28/O18/O17</f>
+      <c r="N29" s="25">
+        <f t="shared" ref="N29:O29" si="18">N28/N18/N17</f>
+        <v>5.497078495941693E-3</v>
+      </c>
+      <c r="O29" s="25">
+        <f t="shared" si="18"/>
+        <v>4.7377893376233451E-3</v>
+      </c>
+      <c r="P29" s="25">
+        <f>P28/P18/P17</f>
         <v>3.9554245032928335E-3</v>
       </c>
-      <c r="P29" s="27">
-        <f>P28/P18/P17</f>
+      <c r="Q29" s="25">
+        <f>Q28/Q18/Q17</f>
         <v>3.3023453282151893E-3</v>
       </c>
-      <c r="Q29" s="27">
-        <f>Q28/Q18/Q17</f>
+      <c r="R29" s="25">
+        <f>R28/R18/R17</f>
         <v>-5.7628241241057991E-3</v>
       </c>
-      <c r="R29" s="27">
-        <f>R28/R18/R17</f>
+      <c r="S29" s="25">
+        <f>S28/S18/S17</f>
         <v>3.0944999444469812E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="26" t="s">
+    <row r="33" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="J33" s="37"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="38">
-        <f>O34</f>
-        <v>43</v>
-      </c>
       <c r="E34" s="1">
         <v>44</v>
       </c>
-      <c r="F34" s="38">
-        <f>P34</f>
-        <v>45</v>
-      </c>
       <c r="G34" s="1">
         <v>45</v>
       </c>
-      <c r="H34" s="38">
-        <f>Q34</f>
-        <v>46</v>
-      </c>
       <c r="I34" s="1">
         <v>46</v>
       </c>
-      <c r="J34" s="38">
-        <f>R34</f>
+      <c r="J34" s="34">
+        <f>S34</f>
         <v>46</v>
       </c>
       <c r="K34" s="1">
         <v>47</v>
       </c>
+      <c r="N34" s="1">
+        <v>38</v>
+      </c>
       <c r="O34" s="1">
+        <v>40</v>
+      </c>
+      <c r="P34" s="1">
         <v>43</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <v>45</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>46</v>
       </c>
       <c r="R34" s="1">
         <v>46</v>
       </c>
       <c r="S34" s="1">
+        <v>46</v>
+      </c>
+      <c r="T34" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:19" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="54" t="s">
+    <row r="35" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="J35" s="56">
-        <f t="shared" ref="J35:J36" si="19">R35</f>
+      <c r="D35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="J35" s="52">
+        <f t="shared" ref="J35:J36" si="19">S35</f>
         <v>1275</v>
       </c>
-      <c r="O35" s="55">
+      <c r="N35" s="51">
+        <v>812</v>
+      </c>
+      <c r="O35" s="51">
+        <v>953</v>
+      </c>
+      <c r="P35" s="51">
         <v>899</v>
       </c>
-      <c r="P35" s="55">
+      <c r="Q35" s="51">
         <v>978</v>
       </c>
-      <c r="Q35" s="55">
+      <c r="R35" s="51">
         <v>931</v>
       </c>
-      <c r="R35" s="55">
+      <c r="S35" s="51">
         <v>1275</v>
       </c>
     </row>
-    <row r="36" spans="2:19" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="54" t="s">
+    <row r="36" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="J36" s="56">
+      <c r="D36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="J36" s="52">
         <f t="shared" si="19"/>
         <v>58</v>
       </c>
-      <c r="O36" s="55">
+      <c r="N36" s="51">
+        <v>38</v>
+      </c>
+      <c r="O36" s="51">
+        <v>47</v>
+      </c>
+      <c r="P36" s="51">
         <v>56</v>
       </c>
-      <c r="P36" s="55">
+      <c r="Q36" s="51">
         <v>56</v>
       </c>
-      <c r="Q36" s="55">
+      <c r="R36" s="51">
         <v>45</v>
       </c>
-      <c r="R36" s="55">
+      <c r="S36" s="51">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:19" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="54" t="s">
+    <row r="37" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="J37" s="56">
-        <f>R37</f>
+      <c r="D37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="J37" s="52">
+        <f>S37</f>
         <v>157</v>
       </c>
-      <c r="O37" s="55">
+      <c r="N37" s="51">
+        <v>210</v>
+      </c>
+      <c r="O37" s="51">
+        <v>134</v>
+      </c>
+      <c r="P37" s="51">
         <v>127</v>
       </c>
-      <c r="P37" s="55">
+      <c r="Q37" s="51">
         <v>153</v>
       </c>
-      <c r="Q37" s="55">
+      <c r="R37" s="51">
         <v>150</v>
       </c>
-      <c r="R37" s="55">
+      <c r="S37" s="51">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="2:19" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="57" t="s">
+    <row r="38" spans="2:20" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="58">
-        <f>O38</f>
+      <c r="D38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="J38" s="54">
+        <f>S38</f>
+        <v>1490</v>
+      </c>
+      <c r="K38" s="53">
+        <v>1500</v>
+      </c>
+      <c r="N38" s="53">
+        <f t="shared" ref="N38:Q38" si="20">SUM(N35:N37)</f>
+        <v>1060</v>
+      </c>
+      <c r="O38" s="53">
+        <f t="shared" si="20"/>
+        <v>1134</v>
+      </c>
+      <c r="P38" s="53">
+        <f t="shared" si="20"/>
         <v>1082</v>
       </c>
-      <c r="F38" s="58">
-        <f>P38</f>
-        <v>1187</v>
-      </c>
-      <c r="H38" s="58">
-        <f>Q38</f>
-        <v>1126</v>
-      </c>
-      <c r="J38" s="58">
-        <f>R38</f>
-        <v>1490</v>
-      </c>
-      <c r="K38" s="57">
-        <v>1500</v>
-      </c>
-      <c r="O38" s="57">
-        <f t="shared" ref="O38:P38" si="20">SUM(O35:O37)</f>
-        <v>1082</v>
-      </c>
-      <c r="P38" s="57">
+      <c r="Q38" s="53">
         <f t="shared" si="20"/>
         <v>1187</v>
       </c>
-      <c r="Q38" s="57">
-        <f>SUM(Q35:Q37)</f>
+      <c r="R38" s="53">
+        <f>SUM(R35:R37)</f>
         <v>1126</v>
       </c>
-      <c r="R38" s="57">
-        <f>SUM(R35:R37)</f>
+      <c r="S38" s="53">
+        <f>SUM(S35:S37)</f>
         <v>1490</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B41" s="26" t="s">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="6">
         <f>29.35+0.355</f>
         <v>29.705000000000002</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="6">
         <f>29.74+0.195</f>
         <v>29.934999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="N42" s="6">
+        <f>23.552+2.19</f>
+        <v>25.742000000000001</v>
+      </c>
+      <c r="O42" s="27">
+        <f>25.171+1.49</f>
+        <v>26.660999999999998</v>
+      </c>
+      <c r="R42" s="6">
+        <f>29.35+0.279</f>
+        <v>29.629000000000001</v>
+      </c>
+      <c r="S42" s="6">
+        <f>29.35+0.279</f>
+        <v>29.629000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="6">
         <v>0.31</v>
       </c>
-      <c r="K43" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="27">
+        <v>0</v>
+      </c>
+      <c r="R43" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="S43" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="6">
         <v>38.566000000000003</v>
       </c>
-      <c r="K44" s="33">
+      <c r="K44" s="6">
         <v>42.151000000000003</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="N44" s="6">
+        <v>34.72</v>
+      </c>
+      <c r="O44" s="27">
+        <v>34.890999999999998</v>
+      </c>
+      <c r="R44" s="6">
+        <v>41.453000000000003</v>
+      </c>
+      <c r="S44" s="6">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="6">
         <v>156.559</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="6">
         <v>173.00899999999999</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="27">
+        <v>0</v>
+      </c>
+      <c r="R45" s="6">
+        <v>157.14500000000001</v>
+      </c>
+      <c r="S45" s="6">
+        <v>167.32400000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="6">
         <v>6.0880000000000001</v>
       </c>
-      <c r="K46" s="33">
+      <c r="K46" s="6">
         <v>4.2320000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="27">
+        <v>0</v>
+      </c>
+      <c r="R46" s="6">
+        <v>4.1180000000000003</v>
+      </c>
+      <c r="S46" s="6">
+        <v>4.3739999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>81</v>
       </c>
@@ -3130,7 +3038,7 @@
         <f t="shared" ref="C47:J47" si="21">SUM(C42:C46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="34">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -3138,7 +3046,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="34">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -3146,1066 +3054,1743 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H47" s="38">
+      <c r="H47" s="34">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="6">
         <f t="shared" si="21"/>
         <v>231.22799999999998</v>
       </c>
-      <c r="J47" s="38">
+      <c r="J47" s="34">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="6">
         <f>SUM(K42:K46)</f>
         <v>249.32699999999997</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N47" s="6">
+        <f t="shared" ref="N47:R47" si="22">SUM(N42:N46)</f>
+        <v>60.462000000000003</v>
+      </c>
+      <c r="O47" s="27">
+        <f t="shared" si="22"/>
+        <v>61.551999999999992</v>
+      </c>
+      <c r="P47" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="6">
+        <f t="shared" si="22"/>
+        <v>232.655</v>
+      </c>
+      <c r="S47" s="6">
+        <f>SUM(S42:S46)</f>
+        <v>241.167</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="32">
+      <c r="D48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="29">
         <v>1.05</v>
       </c>
-      <c r="J48" s="37"/>
-      <c r="K48" s="32">
+      <c r="J48" s="33"/>
+      <c r="K48" s="29">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="N48" s="29">
+        <v>1.339</v>
+      </c>
+      <c r="O48" s="72">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="R48" s="29">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="S48" s="29">
+        <v>1.226</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="6">
         <v>1.194</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="6">
         <v>14.776999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N49" s="6">
+        <v>3.3460000000000001</v>
+      </c>
+      <c r="O49" s="27">
+        <v>3.5209999999999999</v>
+      </c>
+      <c r="R49" s="6">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="S49" s="6">
+        <v>5.4260000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="32">
+      <c r="D50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="29">
         <v>17.103000000000002</v>
       </c>
-      <c r="J50" s="37"/>
-      <c r="K50" s="32">
+      <c r="J50" s="33"/>
+      <c r="K50" s="29">
         <v>7.734</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="N50" s="29">
+        <v>10.185</v>
+      </c>
+      <c r="O50" s="72">
+        <v>5.5709999999999997</v>
+      </c>
+      <c r="R50" s="29">
+        <v>2.302</v>
+      </c>
+      <c r="S50" s="29">
+        <v>11.510999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="6">
         <v>0.01</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="6">
         <v>0.314</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="27">
+        <v>0</v>
+      </c>
+      <c r="R51" s="6">
+        <v>7.3940000000000001</v>
+      </c>
+      <c r="S51" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" ref="C52:J52" si="22">C47+SUM(C48:C51)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="C52:J52" si="23">C47+SUM(C48:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="34">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="34">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="38">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="34">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="23"/>
         <v>250.58499999999998</v>
       </c>
-      <c r="J52" s="38">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="33">
+      <c r="J52" s="34">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
         <f>K47+SUM(K48:K51)</f>
         <v>273.40199999999999</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I53" s="33"/>
-      <c r="K53" s="33"/>
-    </row>
-    <row r="54" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N52" s="6">
+        <f t="shared" ref="N52:S52" si="24">N47+SUM(N48:N51)</f>
+        <v>75.332000000000008</v>
+      </c>
+      <c r="O52" s="27">
+        <f t="shared" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="P52" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="6">
+        <f t="shared" si="24"/>
+        <v>244.53100000000001</v>
+      </c>
+      <c r="S52" s="6">
+        <f t="shared" si="24"/>
+        <v>259.34000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+    </row>
+    <row r="54" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="32">
+      <c r="D54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="29">
         <v>43.871000000000002</v>
       </c>
-      <c r="J54" s="37"/>
-      <c r="K54" s="32">
+      <c r="J54" s="33"/>
+      <c r="K54" s="29">
         <v>17.963999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="N54" s="29">
+        <v>4.1109999999999998</v>
+      </c>
+      <c r="O54" s="29">
+        <v>7.8460000000000001</v>
+      </c>
+      <c r="R54" s="29">
+        <v>34.030999999999999</v>
+      </c>
+      <c r="S54" s="29">
+        <v>16.661000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="6">
         <v>12.833</v>
       </c>
-      <c r="K55" s="33">
+      <c r="K55" s="6">
         <v>10.568</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="N55" s="6">
+        <v>7.093</v>
+      </c>
+      <c r="O55" s="6">
+        <v>5.5019999999999998</v>
+      </c>
+      <c r="R55" s="6">
+        <v>8.282</v>
+      </c>
+      <c r="S55" s="6">
+        <v>13.513</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="34">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="34">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="O56" s="6">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="34">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="34">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="O57" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="1">
-        <f t="shared" ref="C56:J56" si="23">C54+C55</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="38">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="38">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="38">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="33">
-        <f t="shared" si="23"/>
+      <c r="C58" s="6">
+        <f>SUM(C54:C57)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="34">
+        <f>SUM(D54:D57)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <f>SUM(E54:E57)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="34">
+        <f>SUM(F54:F57)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <f>SUM(G54:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="34">
+        <f>SUM(H54:H57)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <f>SUM(I54:I57)</f>
         <v>56.704000000000001</v>
       </c>
-      <c r="J56" s="38">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="33">
-        <f>K54+K55</f>
+      <c r="J58" s="34">
+        <f>SUM(J54:J57)</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <f>SUM(K54:K57)</f>
         <v>28.531999999999996</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
+      <c r="N58" s="6">
+        <f t="shared" ref="N58" si="25">SUM(N54:N57)</f>
+        <v>12.166</v>
+      </c>
+      <c r="O58" s="6">
+        <f>SUM(O54:O57)</f>
+        <v>14.242999999999999</v>
+      </c>
+      <c r="P58" s="6">
+        <f t="shared" ref="P58:S58" si="26">SUM(P54:P57)</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="6">
+        <f t="shared" si="26"/>
+        <v>42.313000000000002</v>
+      </c>
+      <c r="S58" s="6">
+        <f t="shared" si="26"/>
+        <v>30.173999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="32">
+      <c r="D59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="29">
         <v>171.18199999999999</v>
       </c>
-      <c r="J57" s="37"/>
-      <c r="K57" s="32">
+      <c r="J59" s="33"/>
+      <c r="K59" s="29">
         <v>189.98699999999999</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
+      <c r="N59" s="29">
+        <v>13.157999999999999</v>
+      </c>
+      <c r="O59" s="29">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="R59" s="29">
+        <v>171.024</v>
+      </c>
+      <c r="S59" s="29">
+        <v>192.833</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I58" s="33">
+      <c r="I60" s="6">
         <v>1.5820000000000001</v>
       </c>
-      <c r="K58" s="33">
+      <c r="K60" s="6">
         <v>2.274</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+      <c r="N60" s="6">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="O60" s="6">
+        <v>1.726</v>
+      </c>
+      <c r="R60" s="6">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="S60" s="6">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="34">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="6">
+        <v>42.435000000000002</v>
+      </c>
+      <c r="O61" s="6">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="34">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
+        <f>0.442+1.577</f>
+        <v>2.0190000000000001</v>
+      </c>
+      <c r="O62" s="6">
+        <f>0.361+0.233</f>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="1">
-        <f t="shared" ref="C59:J59" si="24">C56+SUM(C57:C58)</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="38">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="38">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="38">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="33">
-        <f t="shared" si="24"/>
+      <c r="C63" s="6">
+        <f>SUM(C58:C62)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="34">
+        <f>SUM(D58:D62)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <f>SUM(E58:E62)</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="34">
+        <f>SUM(F58:F62)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <f>SUM(G58:G62)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="34">
+        <f>SUM(H58:H62)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <f>SUM(I58:I62)</f>
         <v>229.46799999999999</v>
       </c>
-      <c r="J59" s="38">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="33">
-        <f>K56+SUM(K57:K58)</f>
+      <c r="J63" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="K63" s="6">
+        <f>SUM(K58:K62)</f>
         <v>220.79300000000001</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I60" s="33"/>
-      <c r="K60" s="33"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+      <c r="N63" s="6">
+        <f t="shared" ref="N63:S63" si="27">SUM(N58:N62)</f>
+        <v>71.289000000000001</v>
+      </c>
+      <c r="O63" s="6">
+        <f t="shared" si="27"/>
+        <v>18.806999999999999</v>
+      </c>
+      <c r="P63" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="6">
+        <f t="shared" si="27"/>
+        <v>214.91899999999998</v>
+      </c>
+      <c r="S63" s="6">
+        <f t="shared" si="27"/>
+        <v>225.27700000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="S64" s="6"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I65" s="6">
         <v>21.117000000000001</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K65" s="6">
         <v>52.609000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+      <c r="N65" s="6">
+        <v>4.0430000000000001</v>
+      </c>
+      <c r="O65" s="6">
+        <v>53.192999999999998</v>
+      </c>
+      <c r="R65" s="6">
+        <v>29.809000000000001</v>
+      </c>
+      <c r="S65" s="6">
+        <v>34.063000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I62" s="33">
-        <f>I61+I59</f>
+      <c r="I66" s="6">
+        <f>I65+I63</f>
         <v>250.58499999999998</v>
       </c>
-      <c r="K62" s="33">
-        <f>K61+K59</f>
+      <c r="K66" s="6">
+        <f>K65+K63</f>
         <v>273.40199999999999</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+      <c r="N66" s="6">
+        <f>N65+N63</f>
+        <v>75.332000000000008</v>
+      </c>
+      <c r="O66" s="6">
+        <f>O65+O63</f>
+        <v>72</v>
+      </c>
+      <c r="R66" s="6">
+        <f>R65+R63</f>
+        <v>244.72799999999998</v>
+      </c>
+      <c r="S66" s="6">
+        <f>S65+S63</f>
+        <v>259.34000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I64" s="33">
-        <f>I52-I59</f>
+      <c r="I68" s="6">
+        <f>I52-I63</f>
         <v>21.11699999999999</v>
       </c>
-      <c r="K64" s="33">
-        <f>K52-K59</f>
+      <c r="K68" s="6">
+        <f>K52-K63</f>
         <v>52.60899999999998</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+      <c r="N68" s="6">
+        <f t="shared" ref="N68:O68" si="28">N52-N63</f>
+        <v>4.0430000000000064</v>
+      </c>
+      <c r="O68" s="6">
+        <f t="shared" si="28"/>
+        <v>53.192999999999998</v>
+      </c>
+      <c r="R68" s="6">
+        <f t="shared" ref="R68" si="29">R52-R63</f>
+        <v>29.612000000000023</v>
+      </c>
+      <c r="S68" s="6">
+        <f>S52-S63</f>
+        <v>34.063000000000017</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="1">
-        <f>I64/I21</f>
+      <c r="I69" s="1">
+        <f>I68/I21</f>
         <v>0.30895933798398789</v>
       </c>
-      <c r="K65" s="1">
-        <f>K64/K21</f>
+      <c r="K69" s="1">
+        <f>K68/K21</f>
         <v>0.7693455551191799</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="43" t="s">
+      <c r="N69" s="1">
+        <f t="shared" ref="N69:O69" si="30">N68/N21</f>
+        <v>6.2200000000000095E-2</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" ref="O69:R69" si="31">O68/O21</f>
+        <v>0.8183538461538461</v>
+      </c>
+      <c r="R69" s="1">
+        <f t="shared" si="31"/>
+        <v>0.4382085280067668</v>
+      </c>
+      <c r="S69" s="1">
+        <f>S68/S21</f>
+        <v>0.49830114900085032</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="45">
+      <c r="D71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="41">
         <f>I50</f>
         <v>17.103000000000002</v>
       </c>
-      <c r="J67" s="44"/>
-      <c r="K67" s="45">
+      <c r="J71" s="40"/>
+      <c r="K71" s="41">
         <f>K50</f>
         <v>7.734</v>
       </c>
-    </row>
-    <row r="68" spans="2:18" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="43" t="s">
+      <c r="N71" s="41">
+        <f t="shared" ref="N71:O71" si="32">N50</f>
+        <v>10.185</v>
+      </c>
+      <c r="O71" s="41">
+        <f t="shared" si="32"/>
+        <v>5.5709999999999997</v>
+      </c>
+      <c r="R71" s="41">
+        <f t="shared" ref="R71" si="33">R50</f>
+        <v>2.302</v>
+      </c>
+      <c r="S71" s="41">
+        <f>S50</f>
+        <v>11.510999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="45">
-        <f>+I54+I57</f>
+      <c r="D72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="41">
+        <f>+I54+I59</f>
         <v>215.053</v>
       </c>
-      <c r="J68" s="44"/>
-      <c r="K68" s="45">
-        <f>+K54+K57</f>
+      <c r="J72" s="40"/>
+      <c r="K72" s="41">
+        <f>+K54+K59</f>
         <v>207.95099999999999</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+      <c r="N72" s="41">
+        <f t="shared" ref="N72:O72" si="34">+N54+N59</f>
+        <v>17.268999999999998</v>
+      </c>
+      <c r="O72" s="41">
+        <f t="shared" si="34"/>
+        <v>10.09</v>
+      </c>
+      <c r="R72" s="41">
+        <f t="shared" ref="R72" si="35">+R54+R59</f>
+        <v>205.05500000000001</v>
+      </c>
+      <c r="S72" s="41">
+        <f>+S54+S59</f>
+        <v>209.494</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I69" s="33">
-        <f>I67-I68</f>
+      <c r="I73" s="6">
+        <f>I71-I72</f>
         <v>-197.95</v>
       </c>
-      <c r="K69" s="33">
-        <f>K67-K68</f>
+      <c r="K73" s="6">
+        <f>K71-K72</f>
         <v>-200.21699999999998</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="28" t="s">
+      <c r="N73" s="6">
+        <f t="shared" ref="N73:O73" si="36">N71-N72</f>
+        <v>-7.0839999999999979</v>
+      </c>
+      <c r="O73" s="6">
+        <f t="shared" si="36"/>
+        <v>-4.5190000000000001</v>
+      </c>
+      <c r="R73" s="6">
+        <f t="shared" ref="R73" si="37">R71-R72</f>
+        <v>-202.75300000000001</v>
+      </c>
+      <c r="S73" s="6">
+        <f>S71-S72</f>
+        <v>-197.983</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="39">
-        <f>O71</f>
+      <c r="D75" s="35">
+        <f>P75</f>
         <v>2.1429</v>
       </c>
-      <c r="F71" s="39">
-        <f>P71</f>
+      <c r="F75" s="35">
+        <f>Q75</f>
         <v>2.968</v>
       </c>
-      <c r="H71" s="39">
-        <f>Q71</f>
+      <c r="H75" s="35">
+        <f>R75</f>
         <v>2.0017</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I75" s="26">
         <v>2.3468</v>
       </c>
-      <c r="J71" s="39">
-        <f>R71</f>
+      <c r="J75" s="35">
+        <f>S75</f>
         <v>2.3468</v>
       </c>
-      <c r="K71" s="28">
+      <c r="K75" s="26">
         <v>2.0657999999999999</v>
       </c>
-      <c r="O71" s="28">
+      <c r="N75" s="26">
+        <v>1.65</v>
+      </c>
+      <c r="O75" s="26">
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="P75" s="26">
         <v>2.1429</v>
       </c>
-      <c r="P71" s="28">
+      <c r="Q75" s="26">
         <v>2.968</v>
       </c>
-      <c r="Q71" s="28">
+      <c r="R75" s="26">
         <v>2.0017</v>
       </c>
-      <c r="R71" s="28">
+      <c r="S75" s="26">
         <v>2.3468</v>
       </c>
     </row>
-    <row r="72" spans="2:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="33" t="s">
+    <row r="76" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="33">
-        <f>I71*I21</f>
+      <c r="D76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="6">
+        <f>I75*I21</f>
         <v>160.40096384</v>
       </c>
-      <c r="J72" s="48"/>
-      <c r="K72" s="33">
-        <f>K71*K21</f>
+      <c r="J76" s="44"/>
+      <c r="K76" s="6">
+        <f>K75*K21</f>
         <v>141.26249443679998</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="33" t="s">
+      <c r="N76" s="6">
+        <f t="shared" ref="N76:O76" si="38">N75*N21</f>
+        <v>107.25</v>
+      </c>
+      <c r="O76" s="6">
+        <f t="shared" si="38"/>
+        <v>160.61500000000001</v>
+      </c>
+      <c r="R76" s="6">
+        <f t="shared" ref="R76" si="39">R75*R21</f>
+        <v>135.26514572780002</v>
+      </c>
+      <c r="S76" s="6">
+        <f>S75*S21</f>
+        <v>160.42316691479999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="33">
-        <f>I72-I69</f>
+      <c r="D77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="6">
+        <f>I76-I73</f>
         <v>358.35096383999996</v>
       </c>
-      <c r="J73" s="48"/>
-      <c r="K73" s="33">
-        <f>K72-K69</f>
+      <c r="J77" s="44"/>
+      <c r="K77" s="6">
+        <f>K76-K73</f>
         <v>341.4794944368</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="74" t="s">
+      <c r="N77" s="6">
+        <f t="shared" ref="N77:O77" si="40">N76-N73</f>
+        <v>114.334</v>
+      </c>
+      <c r="O77" s="6">
+        <f t="shared" si="40"/>
+        <v>165.13400000000001</v>
+      </c>
+      <c r="R77" s="6">
+        <f t="shared" ref="R77" si="41">R76-R73</f>
+        <v>338.01814572780006</v>
+      </c>
+      <c r="S77" s="6">
+        <f>S76-S73</f>
+        <v>358.4061669148</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="75"/>
-      <c r="F75" s="75"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="74">
-        <f>I71/I65</f>
+      <c r="D79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="57">
+        <f>I75/I69</f>
         <v>7.5958215579864596</v>
       </c>
-      <c r="J75" s="75"/>
-      <c r="K75" s="74">
-        <f>K71/K65</f>
+      <c r="J79" s="58"/>
+      <c r="K79" s="57">
+        <f>K75/K69</f>
         <v>2.6851393190670807</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+      <c r="N79" s="57">
+        <f t="shared" ref="N79:O79" si="42">N75/N69</f>
+        <v>26.527331189710569</v>
+      </c>
+      <c r="O79" s="57">
+        <f t="shared" si="42"/>
+        <v>3.0194762468745893</v>
+      </c>
+      <c r="R79" s="57">
+        <f t="shared" ref="R79" si="43">R75/R69</f>
+        <v>4.5679165786775604</v>
+      </c>
+      <c r="S79" s="57">
+        <f>S75/S69</f>
+        <v>4.7096018235269916</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K76" s="74">
-        <f>K72/SUM(J8:K8)</f>
+      <c r="K80" s="57">
+        <f>K76/SUM(J8:K8)</f>
         <v>1.175727591880082</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+      <c r="N80" s="57">
+        <f t="shared" ref="N80:O80" si="44">N76/N8</f>
+        <v>1.5931609203939452</v>
+      </c>
+      <c r="O80" s="57">
+        <f t="shared" si="44"/>
+        <v>2.2609093468468466</v>
+      </c>
+      <c r="P80" s="57"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="57">
+        <f t="shared" ref="R80" si="45">R76/R8</f>
+        <v>3.7294975248228521</v>
+      </c>
+      <c r="S80" s="57">
+        <f>S76/S8</f>
+        <v>2.3759003408539563</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K77" s="74">
-        <f>K73/SUM(J8:K8)</f>
+      <c r="K81" s="57">
+        <f>K77/SUM(J8:K8)</f>
         <v>2.8421334712465356</v>
       </c>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+      <c r="N81" s="57">
+        <f t="shared" ref="N81:O81" si="46">N77/N8</f>
+        <v>1.6983912416999658</v>
+      </c>
+      <c r="O81" s="57">
+        <f t="shared" si="46"/>
+        <v>2.3245213963963964</v>
+      </c>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="57">
+        <f t="shared" ref="R81" si="47">R77/R8</f>
+        <v>9.3197536664313905</v>
+      </c>
+      <c r="S81" s="57">
+        <f>S77/S8</f>
+        <v>5.3080695919017788</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K78" s="74">
-        <f>K71/SUM(J20:K20)</f>
+      <c r="K82" s="57">
+        <f>K75/SUM(J20:K20)</f>
         <v>4.5418588938941094</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+      <c r="N82" s="57">
+        <f t="shared" ref="N82:O82" si="48">N75/N20</f>
+        <v>29.537317543376421</v>
+      </c>
+      <c r="O82" s="57">
+        <f t="shared" si="48"/>
+        <v>31.000772051727438</v>
+      </c>
+      <c r="P82" s="57"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="57">
+        <f t="shared" ref="R82" si="49">R75/R20</f>
+        <v>-7.6218597919535709</v>
+      </c>
+      <c r="S82" s="57">
+        <f>S75/S20</f>
+        <v>40.0557220761048</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K79" s="74">
-        <f>K73/SUM(J19:K19)</f>
+      <c r="K83" s="57">
+        <f>K77/SUM(J19:K19)</f>
         <v>10.980754210457265</v>
       </c>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="26" t="s">
+      <c r="N83" s="57">
+        <f t="shared" ref="N83:O83" si="50">N77/N19</f>
+        <v>31.488295235472258</v>
+      </c>
+      <c r="O83" s="57">
+        <f t="shared" si="50"/>
+        <v>31.87299749083186</v>
+      </c>
+      <c r="P83" s="57"/>
+      <c r="Q83" s="57"/>
+      <c r="R83" s="57">
+        <f t="shared" ref="R83" si="51">R77/R19</f>
+        <v>-19.046494941556322</v>
+      </c>
+      <c r="S83" s="57">
+        <f>S77/S19</f>
+        <v>89.48967962916339</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B86" s="24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I83" s="33">
+      <c r="I87" s="6">
         <v>5.2080000000000002</v>
       </c>
-      <c r="J83" s="48">
-        <f>R83-I83</f>
+      <c r="J87" s="44">
+        <f>S87-I87</f>
         <v>25.619</v>
       </c>
-      <c r="K83" s="33">
+      <c r="K87" s="6">
         <v>31.850999999999999</v>
       </c>
-      <c r="O83" s="33">
+      <c r="N87" s="1">
+        <v>14.754</v>
+      </c>
+      <c r="O87" s="27">
+        <v>13.302</v>
+      </c>
+      <c r="P87" s="6">
         <v>20.846</v>
       </c>
-      <c r="P83" s="33">
+      <c r="Q87" s="6">
         <v>23.917000000000002</v>
       </c>
-      <c r="Q83" s="33">
+      <c r="R87" s="6">
         <v>4.4800000000000004</v>
       </c>
-      <c r="R83" s="33">
+      <c r="S87" s="6">
         <v>30.827000000000002</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I84" s="33">
+      <c r="I88" s="6">
         <v>2.2919999999999998</v>
       </c>
-      <c r="J84" s="48">
-        <f t="shared" ref="J84:J85" si="25">R84-I84</f>
-        <v>0</v>
-      </c>
-      <c r="K84" s="33">
+      <c r="J88" s="44">
+        <f t="shared" ref="J88:J89" si="52">S88-I88</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="6">
         <v>-2.8780000000000001</v>
       </c>
-      <c r="O84" s="33">
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
+      <c r="O88" s="27">
+        <v>-1.861</v>
+      </c>
+      <c r="P88" s="6">
         <v>-2.472</v>
       </c>
-      <c r="P84" s="33">
+      <c r="Q88" s="6">
         <v>-2.6160000000000001</v>
       </c>
-      <c r="Q84" s="33">
+      <c r="R88" s="6">
         <v>-0.71499999999999997</v>
       </c>
-      <c r="R84" s="33">
+      <c r="S88" s="6">
         <v>2.2919999999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I85" s="33">
+      <c r="I89" s="6">
         <v>-2.6509999999999998</v>
       </c>
-      <c r="J85" s="48">
-        <f t="shared" si="25"/>
+      <c r="J89" s="44">
+        <f t="shared" si="52"/>
         <v>-3.0350000000000001</v>
       </c>
-      <c r="K85" s="33">
+      <c r="K89" s="6">
         <v>-3.4740000000000002</v>
       </c>
-      <c r="O85" s="33">
+      <c r="N89" s="1">
+        <v>-0.97699999999999998</v>
+      </c>
+      <c r="O89" s="27">
+        <v>-0.621</v>
+      </c>
+      <c r="P89" s="6">
         <v>-0.61899999999999999</v>
       </c>
-      <c r="P85" s="33">
+      <c r="Q89" s="6">
         <v>-0.68100000000000005</v>
       </c>
-      <c r="Q85" s="33">
+      <c r="R89" s="6">
         <v>-5.766</v>
       </c>
-      <c r="R85" s="33">
+      <c r="S89" s="6">
         <v>-5.6859999999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="3" t="s">
+    <row r="90" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="32">
-        <f>SUM(I83:I85)</f>
+      <c r="D90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="29">
+        <f>SUM(I87:I89)</f>
         <v>4.8490000000000002</v>
       </c>
-      <c r="J86" s="49">
-        <f>SUM(J83:J85)</f>
+      <c r="J90" s="45">
+        <f>SUM(J87:J89)</f>
         <v>22.584</v>
       </c>
-      <c r="K86" s="32">
-        <f>SUM(K83:K85)</f>
+      <c r="K90" s="29">
+        <f>SUM(K87:K89)</f>
         <v>25.498999999999999</v>
       </c>
-      <c r="O86" s="32">
-        <f t="shared" ref="O86:Q86" si="26">SUM(O83:O85)</f>
+      <c r="N90" s="72">
+        <f t="shared" ref="N90:R90" si="53">SUM(N87:N89)</f>
+        <v>13.776999999999999</v>
+      </c>
+      <c r="O90" s="72">
+        <f t="shared" si="53"/>
+        <v>10.819999999999999</v>
+      </c>
+      <c r="P90" s="29">
+        <f t="shared" si="53"/>
         <v>17.754999999999999</v>
       </c>
-      <c r="P86" s="32">
-        <f t="shared" si="26"/>
+      <c r="Q90" s="29">
+        <f t="shared" si="53"/>
         <v>20.62</v>
       </c>
-      <c r="Q86" s="32">
-        <f t="shared" si="26"/>
+      <c r="R90" s="29">
+        <f t="shared" si="53"/>
         <v>-2.0009999999999994</v>
       </c>
-      <c r="R86" s="32">
-        <f>SUM(R83:R85)</f>
+      <c r="S90" s="29">
+        <f>SUM(S87:S89)</f>
         <v>27.433</v>
       </c>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I87" s="33"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="33"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33"/>
-      <c r="R87" s="33"/>
-    </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I91" s="6"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I88" s="33">
-        <v>0</v>
-      </c>
-      <c r="J88" s="48">
-        <v>0</v>
-      </c>
-      <c r="K88" s="33">
-        <v>0</v>
-      </c>
-      <c r="O88" s="33">
-        <v>0</v>
-      </c>
-      <c r="P88" s="33">
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="44">
+        <v>0</v>
+      </c>
+      <c r="K92" s="6">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+      <c r="O92" s="6">
+        <v>0</v>
+      </c>
+      <c r="P92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="6">
         <v>-0.3</v>
       </c>
-      <c r="Q88" s="33">
-        <v>0</v>
-      </c>
-      <c r="R88" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
+      <c r="R92" s="6">
+        <v>0</v>
+      </c>
+      <c r="S92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I89" s="33">
-        <v>0</v>
-      </c>
-      <c r="J89" s="48">
-        <f t="shared" ref="J89:J91" si="27">R89-I89</f>
-        <v>0</v>
-      </c>
-      <c r="K89" s="33">
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="44">
+        <f t="shared" ref="J93:J95" si="54">S93-I93</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="6">
         <v>-0.45400000000000001</v>
       </c>
-      <c r="O89" s="33">
+      <c r="N93" s="1">
+        <v>-2.3220000000000001</v>
+      </c>
+      <c r="O93" s="6">
+        <v>-2.5939999999999999</v>
+      </c>
+      <c r="P93" s="6">
         <v>-3.9079999999999999</v>
       </c>
-      <c r="P89" s="33">
+      <c r="Q93" s="6">
         <v>-1.4</v>
       </c>
-      <c r="Q89" s="33">
-        <v>0</v>
-      </c>
-      <c r="R89" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
+      <c r="R93" s="6">
+        <v>0</v>
+      </c>
+      <c r="S93" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I90" s="33">
+      <c r="I94" s="6">
         <v>-0.20499999999999999</v>
       </c>
-      <c r="J90" s="48">
-        <f t="shared" si="27"/>
+      <c r="J94" s="44">
+        <f t="shared" si="54"/>
         <v>-6.9029999999999996</v>
       </c>
-      <c r="K90" s="33">
+      <c r="K94" s="6">
         <v>-16.632000000000001</v>
       </c>
-      <c r="O90" s="33">
+      <c r="N94" s="1">
+        <v>-2.4550000000000001</v>
+      </c>
+      <c r="O94" s="6">
+        <v>-3.4630000000000001</v>
+      </c>
+      <c r="P94" s="6">
         <v>-8.7080000000000002</v>
       </c>
-      <c r="P90" s="33">
+      <c r="Q94" s="6">
         <v>-8.5559999999999992</v>
       </c>
-      <c r="Q90" s="33">
+      <c r="R94" s="6">
         <v>-6.0439999999999996</v>
       </c>
-      <c r="R90" s="33">
+      <c r="S94" s="6">
         <v>-7.1079999999999997</v>
       </c>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I91" s="33">
-        <v>0</v>
-      </c>
-      <c r="J91" s="48">
-        <f t="shared" si="27"/>
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
+      <c r="J95" s="44">
+        <f t="shared" si="54"/>
         <v>-2.4E-2</v>
       </c>
-      <c r="K91" s="33">
+      <c r="K95" s="6">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="O91" s="33">
+      <c r="N95" s="1">
+        <v>-0.57499999999999996</v>
+      </c>
+      <c r="O95" s="6">
+        <v>-0.16</v>
+      </c>
+      <c r="P95" s="6">
         <v>-0.19</v>
       </c>
-      <c r="P91" s="33">
+      <c r="Q95" s="6">
         <v>-0.21199999999999999</v>
       </c>
-      <c r="Q91" s="33">
+      <c r="R95" s="6">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="R91" s="33">
+      <c r="S95" s="6">
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="3" t="s">
+    <row r="96" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="32">
-        <f t="shared" ref="I92" si="28">SUM(I88:I91)</f>
+      <c r="D96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="29">
+        <f t="shared" ref="I96" si="55">SUM(I92:I95)</f>
         <v>-0.20499999999999999</v>
       </c>
-      <c r="J92" s="49">
-        <f t="shared" ref="J92" si="29">SUM(J88:J91)</f>
+      <c r="J96" s="45">
+        <f t="shared" ref="J96" si="56">SUM(J92:J95)</f>
         <v>-6.9269999999999996</v>
       </c>
-      <c r="K92" s="32">
-        <f t="shared" ref="K92" si="30">SUM(K88:K91)</f>
+      <c r="K96" s="29">
+        <f t="shared" ref="K96" si="57">SUM(K92:K95)</f>
         <v>-17.099000000000004</v>
       </c>
-      <c r="O92" s="32">
-        <f t="shared" ref="O92" si="31">SUM(O88:O91)</f>
+      <c r="N96" s="29">
+        <f t="shared" ref="N96:P96" si="58">SUM(N92:N95)</f>
+        <v>-5.3520000000000003</v>
+      </c>
+      <c r="O96" s="29">
+        <f t="shared" si="58"/>
+        <v>-6.2170000000000005</v>
+      </c>
+      <c r="P96" s="29">
+        <f t="shared" si="58"/>
         <v>-12.805999999999999</v>
       </c>
-      <c r="P92" s="32">
-        <f t="shared" ref="P92" si="32">SUM(P88:P91)</f>
+      <c r="Q96" s="29">
+        <f t="shared" ref="Q96" si="59">SUM(Q92:Q95)</f>
         <v>-10.467999999999998</v>
       </c>
-      <c r="Q92" s="32">
-        <f t="shared" ref="Q92" si="33">SUM(Q88:Q91)</f>
+      <c r="R96" s="29">
+        <f t="shared" ref="R96" si="60">SUM(R92:R95)</f>
         <v>-6.1629999999999994</v>
       </c>
-      <c r="R92" s="32">
-        <f t="shared" ref="R92" si="34">SUM(R88:R91)</f>
+      <c r="S96" s="29">
+        <f t="shared" ref="S96" si="61">SUM(S92:S95)</f>
         <v>-7.1319999999999997</v>
       </c>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I93" s="33"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="33"/>
-      <c r="O93" s="33"/>
-      <c r="Q93" s="33"/>
-      <c r="R93" s="33"/>
-    </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
+    <row r="97" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I97" s="6"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I94" s="33">
-        <v>0</v>
-      </c>
-      <c r="J94" s="48">
-        <v>0</v>
-      </c>
-      <c r="K94" s="33">
-        <v>0</v>
-      </c>
-      <c r="O94" s="33">
-        <v>0</v>
-      </c>
-      <c r="P94" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="33">
+      <c r="I98" s="6">
+        <v>0</v>
+      </c>
+      <c r="J98" s="44">
+        <v>0</v>
+      </c>
+      <c r="K98" s="6">
+        <v>0</v>
+      </c>
+      <c r="N98" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O98" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="P98" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="6">
+        <v>0</v>
+      </c>
+      <c r="R98" s="6">
         <v>5.0380000000000003</v>
       </c>
-      <c r="R94" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
+      <c r="S98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I95" s="33">
-        <v>0</v>
-      </c>
-      <c r="J95" s="48">
-        <v>0</v>
-      </c>
-      <c r="K95" s="33">
-        <v>0</v>
-      </c>
-      <c r="O95" s="33">
-        <v>0</v>
-      </c>
-      <c r="P95" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="33">
+      <c r="I99" s="6">
+        <v>0</v>
+      </c>
+      <c r="J99" s="44">
+        <v>0</v>
+      </c>
+      <c r="K99" s="6">
+        <v>0</v>
+      </c>
+      <c r="N99" s="6">
+        <v>0</v>
+      </c>
+      <c r="O99" s="6">
+        <v>0</v>
+      </c>
+      <c r="P99" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="6">
+        <v>0</v>
+      </c>
+      <c r="R99" s="6">
         <v>-0.16</v>
       </c>
-      <c r="R95" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="1" t="s">
+      <c r="S99" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I96" s="33">
-        <v>0</v>
-      </c>
-      <c r="J96" s="48">
-        <v>0</v>
-      </c>
-      <c r="K96" s="33">
-        <v>0</v>
-      </c>
-      <c r="O96" s="33">
-        <v>0</v>
-      </c>
-      <c r="P96" s="33">
+      <c r="I100" s="6">
+        <v>0</v>
+      </c>
+      <c r="J100" s="44">
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <v>0</v>
+      </c>
+      <c r="N100" s="6">
+        <v>0</v>
+      </c>
+      <c r="O100" s="6">
+        <v>0</v>
+      </c>
+      <c r="P100" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="6">
         <v>-0.153</v>
       </c>
-      <c r="Q96" s="33">
-        <v>0</v>
-      </c>
-      <c r="R96" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="1" t="s">
+      <c r="R100" s="6">
+        <v>0</v>
+      </c>
+      <c r="S100" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I97" s="33">
+      <c r="I101" s="6">
         <v>-2.9350000000000001</v>
       </c>
-      <c r="J97" s="48">
-        <f t="shared" ref="J97:J100" si="35">R97-I97</f>
+      <c r="J101" s="44">
+        <f t="shared" ref="J101:J104" si="62">S101-I101</f>
         <v>-7.0670000000000002</v>
       </c>
-      <c r="K97" s="33">
+      <c r="K101" s="6">
         <v>-5.1769999999999996</v>
       </c>
-      <c r="O97" s="33">
+      <c r="N101" s="6">
+        <v>-1.4710000000000001</v>
+      </c>
+      <c r="O101" s="6">
+        <v>-2.3119999999999998</v>
+      </c>
+      <c r="P101" s="6">
         <v>-2.222</v>
       </c>
-      <c r="P97" s="33">
+      <c r="Q101" s="6">
         <v>-2.7090000000000001</v>
       </c>
-      <c r="Q97" s="33">
+      <c r="R101" s="6">
         <v>-2.8530000000000002</v>
       </c>
-      <c r="R97" s="33">
+      <c r="S101" s="6">
         <v>-10.002000000000001</v>
       </c>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="1" t="s">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I98" s="33">
-        <v>0</v>
-      </c>
-      <c r="J98" s="48">
-        <v>0</v>
-      </c>
-      <c r="K98" s="33">
-        <v>0</v>
-      </c>
-      <c r="O98" s="33">
+      <c r="I102" s="6">
+        <v>0</v>
+      </c>
+      <c r="J102" s="44">
+        <v>0</v>
+      </c>
+      <c r="K102" s="6">
+        <v>0</v>
+      </c>
+      <c r="N102" s="6">
+        <v>0</v>
+      </c>
+      <c r="O102" s="6">
+        <v>0</v>
+      </c>
+      <c r="P102" s="6">
         <v>-6.5</v>
       </c>
-      <c r="P98" s="33">
+      <c r="Q102" s="6">
         <v>-7.15</v>
       </c>
-      <c r="Q98" s="33">
+      <c r="R102" s="6">
         <v>-2.4049999999999998</v>
       </c>
-      <c r="R98" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="1" t="s">
+      <c r="S102" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I99" s="33">
+      <c r="I103" s="6">
         <v>18</v>
       </c>
-      <c r="J99" s="48">
-        <f t="shared" si="35"/>
+      <c r="J103" s="44">
+        <f t="shared" si="62"/>
         <v>4</v>
       </c>
-      <c r="K99" s="33">
-        <v>0</v>
-      </c>
-      <c r="O99" s="33">
+      <c r="K103" s="6">
+        <v>0</v>
+      </c>
+      <c r="N103" s="6">
+        <v>0</v>
+      </c>
+      <c r="O103" s="6">
+        <v>6</v>
+      </c>
+      <c r="P103" s="6">
         <v>8.5</v>
       </c>
-      <c r="P99" s="33">
+      <c r="Q103" s="6">
         <v>17</v>
       </c>
-      <c r="Q99" s="33">
+      <c r="R103" s="6">
         <v>18.350000000000001</v>
       </c>
-      <c r="R99" s="33">
+      <c r="S103" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="1" t="s">
+    <row r="104" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I100" s="33">
+      <c r="I104" s="6">
         <v>-10</v>
       </c>
-      <c r="J100" s="48">
-        <f t="shared" si="35"/>
+      <c r="J104" s="44">
+        <f t="shared" si="62"/>
         <v>-18</v>
       </c>
-      <c r="K100" s="33">
+      <c r="K104" s="6">
         <v>-7</v>
       </c>
-      <c r="O100" s="33">
+      <c r="N104" s="6">
+        <v>-3.5939999999999999</v>
+      </c>
+      <c r="O104" s="6">
+        <v>-12.906000000000001</v>
+      </c>
+      <c r="P104" s="6">
         <v>-5</v>
       </c>
-      <c r="P100" s="33">
+      <c r="Q104" s="6">
         <v>-20.25</v>
       </c>
-      <c r="Q100" s="33">
+      <c r="R104" s="6">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="R100" s="33">
+      <c r="S104" s="6">
         <v>-28</v>
       </c>
     </row>
-    <row r="101" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="3" t="s">
+    <row r="105" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="32">
-        <f t="shared" ref="I101" si="36">SUM(I94:I100)</f>
+      <c r="D105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="29">
+        <f t="shared" ref="I105" si="63">SUM(I98:I104)</f>
         <v>5.0649999999999995</v>
       </c>
-      <c r="J101" s="49">
-        <f t="shared" ref="J101" si="37">SUM(J94:J100)</f>
+      <c r="J105" s="45">
+        <f t="shared" ref="J105" si="64">SUM(J98:J104)</f>
         <v>-21.067</v>
       </c>
-      <c r="K101" s="32">
-        <f t="shared" ref="K101" si="38">SUM(K94:K100)</f>
+      <c r="K105" s="29">
+        <f t="shared" ref="K105" si="65">SUM(K98:K104)</f>
         <v>-12.177</v>
       </c>
-      <c r="O101" s="32">
-        <f t="shared" ref="O101" si="39">SUM(O94:O100)</f>
+      <c r="N105" s="29">
+        <f t="shared" ref="N105:P105" si="66">SUM(N98:N104)</f>
+        <v>-5.0609999999999999</v>
+      </c>
+      <c r="O105" s="29">
+        <f t="shared" si="66"/>
+        <v>-9.2170000000000005</v>
+      </c>
+      <c r="P105" s="29">
+        <f t="shared" si="66"/>
         <v>-5.2219999999999995</v>
       </c>
-      <c r="P101" s="32">
-        <f>SUM(P94:P100)</f>
+      <c r="Q105" s="29">
+        <f>SUM(Q98:Q104)</f>
         <v>-13.262</v>
       </c>
-      <c r="Q101" s="32">
-        <f t="shared" ref="Q101:R101" si="40">SUM(Q94:Q100)</f>
+      <c r="R105" s="29">
+        <f t="shared" ref="R105:S105" si="67">SUM(R98:R104)</f>
         <v>13.370000000000003</v>
       </c>
-      <c r="R101" s="32">
-        <f t="shared" si="40"/>
+      <c r="S105" s="29">
+        <f t="shared" si="67"/>
         <v>-16.002000000000002</v>
       </c>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="Q102" s="33"/>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="1" t="s">
+    <row r="106" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R106" s="6"/>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I103" s="33">
-        <f>+I89+I90+I91</f>
+      <c r="I107" s="6">
+        <f>+I93+I94+I95</f>
         <v>-0.20499999999999999</v>
       </c>
-      <c r="J103" s="48">
-        <f>+J89+J90+J91</f>
+      <c r="J107" s="44">
+        <f>+J93+J94+J95</f>
         <v>-6.9269999999999996</v>
       </c>
-      <c r="K103" s="33">
-        <f>+K89+K90+K91</f>
+      <c r="K107" s="6">
+        <f>+K93+K94+K95</f>
         <v>-17.099000000000004</v>
       </c>
-      <c r="O103" s="33">
-        <f t="shared" ref="O103:P103" si="41">+O89+O90+O91</f>
+      <c r="N107" s="6">
+        <f t="shared" ref="N107:O107" si="68">+N93+N94+N95</f>
+        <v>-5.3520000000000003</v>
+      </c>
+      <c r="O107" s="6">
+        <f t="shared" ref="O107:P107" si="69">+O93+O94+O95</f>
+        <v>-6.2170000000000005</v>
+      </c>
+      <c r="P107" s="6">
+        <f t="shared" si="69"/>
         <v>-12.805999999999999</v>
       </c>
-      <c r="P103" s="33">
-        <f t="shared" ref="P103:Q103" si="42">+P89+P90+P91</f>
+      <c r="Q107" s="6">
+        <f t="shared" ref="Q107:R107" si="70">+Q93+Q94+Q95</f>
         <v>-10.167999999999999</v>
       </c>
-      <c r="Q103" s="33">
-        <f t="shared" si="42"/>
+      <c r="R107" s="6">
+        <f t="shared" si="70"/>
         <v>-6.1629999999999994</v>
       </c>
-      <c r="R103" s="33">
-        <f>+R89+R90+R91</f>
+      <c r="S107" s="6">
+        <f>+S93+S94+S95</f>
         <v>-7.1319999999999997</v>
       </c>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="1" t="s">
+    <row r="108" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I104" s="33">
-        <f>+I86+I103</f>
+      <c r="D108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="29">
+        <f>+I90+I107</f>
         <v>4.6440000000000001</v>
       </c>
-      <c r="J104" s="48">
-        <f>+J86+J103</f>
+      <c r="J108" s="45">
+        <f>+J90+J107</f>
         <v>15.657</v>
       </c>
-      <c r="K104" s="33">
-        <f>+K86+K103</f>
+      <c r="K108" s="29">
+        <f>+K90+K107</f>
         <v>8.399999999999995</v>
       </c>
-      <c r="O104" s="33">
-        <f t="shared" ref="O104:P104" si="43">+O86+O103</f>
+      <c r="N108" s="29">
+        <f t="shared" ref="N108:O108" si="71">+N90+N107</f>
+        <v>8.4249999999999989</v>
+      </c>
+      <c r="O108" s="29">
+        <f t="shared" ref="O108:P108" si="72">+O90+O107</f>
+        <v>4.602999999999998</v>
+      </c>
+      <c r="P108" s="29">
+        <f t="shared" si="72"/>
         <v>4.9489999999999998</v>
       </c>
-      <c r="P104" s="33">
-        <f t="shared" ref="P104:Q104" si="44">+P86+P103</f>
+      <c r="Q108" s="29">
+        <f t="shared" ref="Q108:R108" si="73">+Q90+Q107</f>
         <v>10.452000000000002</v>
       </c>
-      <c r="Q104" s="33">
-        <f t="shared" si="44"/>
+      <c r="R108" s="29">
+        <f t="shared" si="73"/>
         <v>-8.1639999999999979</v>
       </c>
-      <c r="R104" s="33">
-        <f>+R86+R103</f>
+      <c r="S108" s="29">
+        <f>+S90+S107</f>
         <v>20.301000000000002</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K1" r:id="rId1" xr:uid="{4AF70136-1990-41FC-9821-A532866EF9F7}"/>
-    <hyperlink ref="R1" r:id="rId2" xr:uid="{554E5D0D-5054-42D6-BF8F-B3F5BCA52C04}"/>
-    <hyperlink ref="P1" r:id="rId3" xr:uid="{216FF58D-FA70-405C-A407-B5B577849372}"/>
-    <hyperlink ref="G1" r:id="rId4" xr:uid="{20DB45A5-5C67-486B-8291-3D46BC1B644A}"/>
+    <hyperlink ref="S1" r:id="rId2" xr:uid="{554E5D0D-5054-42D6-BF8F-B3F5BCA52C04}"/>
+    <hyperlink ref="Q1" r:id="rId3" xr:uid="{216FF58D-FA70-405C-A407-B5B577849372}"/>
+    <hyperlink ref="O1" r:id="rId4" xr:uid="{6E36EA97-7B8A-43C0-B9ED-837CF2901242}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
   <ignoredErrors>
-    <ignoredError sqref="J10 J15:J18 H5:H7 H10 H17 H15 F10 F15 F17 F19 F8 J8 H8" formula="1"/>
-    <ignoredError sqref="Q97:Q100 P8 R8 O38:R38 Q94:Q95 E8 K8" formulaRange="1"/>
-    <ignoredError sqref="I8 G8" formula="1" formulaRange="1"/>
+    <ignoredError sqref="J10 J15:J18" formula="1"/>
+    <ignoredError sqref="R101:R104 Q8 S8 Q38:S38 R98:R99 N38:P38" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId6"/>
 </worksheet>

--- a/£TEG.xlsx
+++ b/£TEG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38ADEF1-D3F4-4DE2-9D12-09736E661B91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6B21D8-3632-494B-B7AA-9559342E858B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="825" windowWidth="31320" windowHeight="18585" activeTab="1" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
+    <workbookView xWindow="1440" yWindow="825" windowWidth="31320" windowHeight="18585" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="140">
   <si>
     <t>£TEG</t>
   </si>
@@ -655,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,7 +787,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1278,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904FFB80-2819-4CCA-9F78-6AC8529FFC68}">
   <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1327,17 +1331,17 @@
         <v>2.7210000000000001</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="G6" s="11">
+      <c r="G6" s="8">
         <v>2023</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="10"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="9"/>
       <c r="S6" s="10"/>
@@ -1354,6 +1358,13 @@
         <f>$C$28</f>
         <v>H122</v>
       </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="10"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="9"/>
       <c r="S7" s="10"/>
@@ -1367,6 +1378,13 @@
         <v>186.06605061600001</v>
       </c>
       <c r="D8" s="15"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="10"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="9"/>
       <c r="S8" s="10"/>
@@ -1383,6 +1401,13 @@
         <f t="shared" ref="D9:D10" si="0">$C$28</f>
         <v>H122</v>
       </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="10"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="9"/>
       <c r="S9" s="10"/>
@@ -1399,6 +1424,13 @@
         <f t="shared" si="0"/>
         <v>H122</v>
       </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="10"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="9"/>
       <c r="S10" s="10"/>
@@ -1412,6 +1444,13 @@
         <v>-200.21699999999998</v>
       </c>
       <c r="D11" s="15"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="10"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="9"/>
       <c r="S11" s="10"/>
@@ -1425,16 +1464,37 @@
         <v>386.28305061599997</v>
       </c>
       <c r="D12" s="16"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="10"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="9"/>
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="G13" s="8"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="10"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="9"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="G14" s="8"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="10"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="9"/>
       <c r="S14" s="10"/>
@@ -1445,6 +1505,13 @@
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="67"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="10"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="9"/>
       <c r="S15" s="10"/>
@@ -1457,6 +1524,13 @@
         <v>18</v>
       </c>
       <c r="D16" s="71"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="10"/>
       <c r="Q16" s="46"/>
       <c r="R16" s="13"/>
       <c r="S16" s="14"/>
@@ -1469,6 +1543,13 @@
         <v>20</v>
       </c>
       <c r="D17" s="71"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="42" t="s">
@@ -1478,6 +1559,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="71"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="43"/>
@@ -1555,10 +1643,10 @@
       <c r="B27" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="73">
-        <v>42837</v>
-      </c>
-      <c r="D27" s="71"/>
+      <c r="C27" s="74">
+        <v>2017</v>
+      </c>
+      <c r="D27" s="75"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
@@ -1682,11 +1770,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C83F-EC03-4F38-8C2B-BF6F054B4FFD}">
   <dimension ref="B1:AE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O107" sqref="N107:O108"/>
+      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2505,6 +2593,9 @@
         <f>K8/I8-1</f>
         <v>4.9602262016965133</v>
       </c>
+      <c r="N23" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="O23" s="23">
         <f t="shared" ref="O23:R23" si="8">O8/N8-1</f>
         <v>5.5274142515486124E-2</v>
@@ -2737,11 +2828,23 @@
       <c r="B34" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="D34" s="34">
+        <f>P34</f>
+        <v>43</v>
+      </c>
       <c r="E34" s="1">
         <v>44</v>
       </c>
+      <c r="F34" s="34">
+        <f>Q34</f>
+        <v>45</v>
+      </c>
       <c r="G34" s="1">
         <v>45</v>
+      </c>
+      <c r="H34" s="34">
+        <f>R34</f>
+        <v>46</v>
       </c>
       <c r="I34" s="1">
         <v>46</v>

--- a/£TEG.xlsx
+++ b/£TEG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6B21D8-3632-494B-B7AA-9559342E858B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1789452-1C43-4ECE-91AD-BE00D22382F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="825" windowWidth="31320" windowHeight="18585" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
+    <workbookView xWindow="1440" yWindow="825" windowWidth="31320" windowHeight="18585" activeTab="1" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
   <si>
     <t>£TEG</t>
   </si>
@@ -457,7 +457,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +526,14 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -655,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -747,6 +755,8 @@
     <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,25 +784,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1282,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904FFB80-2819-4CCA-9F78-6AC8529FFC68}">
   <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1303,25 +1315,25 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="G5" s="65" t="s">
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="G5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="67"/>
-      <c r="Q5" s="65" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="Q5" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1334,13 +1346,13 @@
       <c r="G6" s="8">
         <v>2023</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="10"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="9"/>
@@ -1359,11 +1371,11 @@
         <v>H122</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
       <c r="M7" s="10"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="9"/>
@@ -1379,11 +1391,11 @@
       </c>
       <c r="D8" s="15"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
       <c r="M8" s="10"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="9"/>
@@ -1402,11 +1414,11 @@
         <v>H122</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
       <c r="M9" s="10"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="9"/>
@@ -1425,11 +1437,11 @@
         <v>H122</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
       <c r="M10" s="10"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="9"/>
@@ -1445,11 +1457,11 @@
       </c>
       <c r="D11" s="15"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
       <c r="M11" s="10"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="9"/>
@@ -1465,11 +1477,11 @@
       </c>
       <c r="D12" s="16"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
       <c r="M12" s="10"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="9"/>
@@ -1477,11 +1489,11 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="G13" s="8"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="10"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="9"/>
@@ -1489,28 +1501,28 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="G14" s="8"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="10"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="9"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
       <c r="M15" s="10"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="9"/>
@@ -1525,11 +1537,11 @@
       </c>
       <c r="D16" s="71"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="10"/>
       <c r="Q16" s="46"/>
       <c r="R16" s="13"/>
@@ -1544,11 +1556,11 @@
       </c>
       <c r="D17" s="71"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
@@ -1569,13 +1581,13 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="43"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="Q19" s="65" t="s">
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="Q19" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="66"/>
-      <c r="S19" s="67"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="69"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q20" s="37" t="s">
@@ -1592,11 +1604,11 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
       <c r="Q22" s="30"/>
       <c r="R22" s="13"/>
       <c r="S22" s="14"/>
@@ -1633,20 +1645,20 @@
       <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="74">
         <f>'Financial Model'!K38</f>
         <v>1500</v>
       </c>
-      <c r="D26" s="69"/>
+      <c r="D26" s="75"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="72">
         <v>2017</v>
       </c>
-      <c r="D27" s="75"/>
+      <c r="D27" s="73"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
@@ -1665,98 +1677,98 @@
       <c r="B29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="64"/>
+      <c r="D29" s="66"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="63">
         <f>C6/'Financial Model'!K69</f>
         <v>3.5367722369936718</v>
       </c>
-      <c r="D33" s="62"/>
+      <c r="D33" s="64"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="63">
         <f>C8/SUM('Financial Model'!J8:K8)</f>
         <v>1.5486275426012701</v>
       </c>
-      <c r="D34" s="62"/>
+      <c r="D34" s="64"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="63">
         <f>C12/SUM('Financial Model'!J8:K8)</f>
         <v>3.215033421967723</v>
       </c>
-      <c r="D35" s="62"/>
+      <c r="D35" s="64"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="63">
         <f>C6/SUM('Financial Model'!J20:K20)</f>
         <v>5.9823787638134727</v>
       </c>
-      <c r="D36" s="62"/>
+      <c r="D36" s="64"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="63">
         <f>C12/SUM('Financial Model'!J19:K19)</f>
         <v>12.421475677406907</v>
       </c>
-      <c r="D37" s="62"/>
+      <c r="D37" s="64"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{872569F1-2E0E-45DC-998D-58DC741E9E51}"/>
@@ -1768,18 +1780,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C83F-EC03-4F38-8C2B-BF6F054B4FFD}">
-  <dimension ref="B1:AE108"/>
+  <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="N4:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.140625" style="34"/>
@@ -1952,6 +1964,12 @@
       <c r="K4" s="41">
         <v>28.266999999999999</v>
       </c>
+      <c r="N4" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="77" t="s">
+        <v>118</v>
+      </c>
       <c r="P4" s="41">
         <v>36.578000000000003</v>
       </c>
@@ -1982,6 +2000,12 @@
       <c r="K5" s="41">
         <v>17.276</v>
       </c>
+      <c r="N5" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="77" t="s">
+        <v>118</v>
+      </c>
       <c r="P5" s="41">
         <v>19.811</v>
       </c>
@@ -2012,6 +2036,12 @@
       <c r="K6" s="41">
         <v>15.143000000000001</v>
       </c>
+      <c r="N6" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="77" t="s">
+        <v>118</v>
+      </c>
       <c r="P6" s="41">
         <v>16.986999999999998</v>
       </c>
@@ -2041,6 +2071,12 @@
       </c>
       <c r="K7" s="41">
         <v>2.552</v>
+      </c>
+      <c r="N7" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="77" t="s">
+        <v>118</v>
       </c>
       <c r="P7" s="41">
         <v>2.9740000000000002</v>
@@ -2668,7 +2704,7 @@
         <v>0.68836775356589386</v>
       </c>
       <c r="N26" s="25">
-        <f t="shared" ref="N26:P26" si="9">N10/N8</f>
+        <f t="shared" ref="N26:O26" si="9">N10/N8</f>
         <v>0.69341493486237171</v>
       </c>
       <c r="O26" s="25">
@@ -2709,7 +2745,7 @@
         <v>0.38816850627787092</v>
       </c>
       <c r="N27" s="25">
-        <f t="shared" ref="N27:P27" si="12">N15/N8</f>
+        <f t="shared" ref="N27:O27" si="12">N15/N8</f>
         <v>0.14492193882856261</v>
       </c>
       <c r="O27" s="25">
@@ -2750,7 +2786,7 @@
         <v>0.2892880862772384</v>
       </c>
       <c r="N28" s="25">
-        <f t="shared" ref="N28:P28" si="15">N19/N8</f>
+        <f t="shared" ref="N28:O28" si="15">N19/N8</f>
         <v>5.3937224260610039E-2</v>
       </c>
       <c r="O28" s="25">
@@ -3032,6 +3068,14 @@
         <f>25.171+1.49</f>
         <v>26.660999999999998</v>
       </c>
+      <c r="P42" s="6">
+        <f>28.045+0.969</f>
+        <v>29.014000000000003</v>
+      </c>
+      <c r="Q42" s="6">
+        <f>29.35+0.653</f>
+        <v>30.003</v>
+      </c>
       <c r="R42" s="6">
         <f>29.35+0.279</f>
         <v>29.629000000000001</v>
@@ -3057,6 +3101,12 @@
       <c r="O43" s="27">
         <v>0</v>
       </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>0.31</v>
+      </c>
       <c r="R43" s="6">
         <v>0.31</v>
       </c>
@@ -3080,6 +3130,12 @@
       <c r="O44" s="27">
         <v>34.890999999999998</v>
       </c>
+      <c r="P44" s="6">
+        <v>41.716999999999999</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>47.247999999999998</v>
+      </c>
       <c r="R44" s="6">
         <v>41.453000000000003</v>
       </c>
@@ -3103,6 +3159,12 @@
       <c r="O45" s="27">
         <v>0</v>
       </c>
+      <c r="P45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>0</v>
+      </c>
       <c r="R45" s="6">
         <v>157.14500000000001</v>
       </c>
@@ -3126,6 +3188,12 @@
       <c r="O46" s="27">
         <v>0</v>
       </c>
+      <c r="P46" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>0</v>
+      </c>
       <c r="R46" s="6">
         <v>4.1180000000000003</v>
       </c>
@@ -3183,11 +3251,11 @@
       </c>
       <c r="P47" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>70.730999999999995</v>
       </c>
       <c r="Q47" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>77.560999999999993</v>
       </c>
       <c r="R47" s="6">
         <f t="shared" si="22"/>
@@ -3215,8 +3283,14 @@
       <c r="N48" s="29">
         <v>1.339</v>
       </c>
-      <c r="O48" s="72">
+      <c r="O48" s="59">
         <v>1.3560000000000001</v>
+      </c>
+      <c r="P48" s="29">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="Q48" s="29">
+        <v>1.2969999999999999</v>
       </c>
       <c r="R48" s="29">
         <v>0.50800000000000001</v>
@@ -3240,6 +3314,12 @@
       </c>
       <c r="O49" s="27">
         <v>3.5209999999999999</v>
+      </c>
+      <c r="P49" s="6">
+        <v>4.3070000000000004</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>4.9290000000000003</v>
       </c>
       <c r="R49" s="6">
         <v>1.6719999999999999</v>
@@ -3265,8 +3345,14 @@
       <c r="N50" s="29">
         <v>10.185</v>
       </c>
-      <c r="O50" s="72">
+      <c r="O50" s="59">
         <v>5.5709999999999997</v>
+      </c>
+      <c r="P50" s="29">
+        <v>5.298</v>
+      </c>
+      <c r="Q50" s="29">
+        <v>2.1880000000000002</v>
       </c>
       <c r="R50" s="29">
         <v>2.302</v>
@@ -3291,6 +3377,12 @@
       <c r="O51" s="27">
         <v>0</v>
       </c>
+      <c r="P51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>0</v>
+      </c>
       <c r="R51" s="6">
         <v>7.3940000000000001</v>
       </c>
@@ -3348,11 +3440,11 @@
       </c>
       <c r="P52" s="6">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>81.840999999999994</v>
       </c>
       <c r="Q52" s="6">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>85.974999999999994</v>
       </c>
       <c r="R52" s="6">
         <f t="shared" si="24"/>
@@ -3366,6 +3458,7 @@
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="I53" s="6"/>
       <c r="K53" s="6"/>
+      <c r="P53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
     </row>
@@ -3389,6 +3482,12 @@
       <c r="O54" s="29">
         <v>7.8460000000000001</v>
       </c>
+      <c r="P54" s="29">
+        <v>11.476000000000001</v>
+      </c>
+      <c r="Q54" s="29">
+        <v>9.2270000000000003</v>
+      </c>
       <c r="R54" s="29">
         <v>34.030999999999999</v>
       </c>
@@ -3412,6 +3511,12 @@
       <c r="O55" s="6">
         <v>5.5019999999999998</v>
       </c>
+      <c r="P55" s="6">
+        <v>7.3540000000000001</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>9.8190000000000008</v>
+      </c>
       <c r="R55" s="6">
         <v>8.282</v>
       </c>
@@ -3444,6 +3549,12 @@
       <c r="O56" s="6">
         <v>0.82499999999999996</v>
       </c>
+      <c r="P56" s="6">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>0.90700000000000003</v>
+      </c>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
     </row>
@@ -3472,6 +3583,12 @@
       <c r="O57" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="P57" s="6">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>9.0999999999999998E-2</v>
+      </c>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
     </row>
@@ -3480,43 +3597,43 @@
         <v>87</v>
       </c>
       <c r="C58" s="6">
-        <f>SUM(C54:C57)</f>
+        <f t="shared" ref="C58:K58" si="25">SUM(C54:C57)</f>
         <v>0</v>
       </c>
       <c r="D58" s="34">
-        <f>SUM(D54:D57)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E58" s="6">
-        <f>SUM(E54:E57)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F58" s="34">
-        <f>SUM(F54:F57)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G58" s="6">
-        <f>SUM(G54:G57)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H58" s="34">
-        <f>SUM(H54:H57)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I58" s="6">
-        <f>SUM(I54:I57)</f>
+        <f t="shared" si="25"/>
         <v>56.704000000000001</v>
       </c>
       <c r="J58" s="34">
-        <f>SUM(J54:J57)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K58" s="6">
-        <f>SUM(K54:K57)</f>
+        <f t="shared" si="25"/>
         <v>28.531999999999996</v>
       </c>
       <c r="N58" s="6">
-        <f t="shared" ref="N58" si="25">SUM(N54:N57)</f>
+        <f t="shared" ref="N58" si="26">SUM(N54:N57)</f>
         <v>12.166</v>
       </c>
       <c r="O58" s="6">
@@ -3524,19 +3641,19 @@
         <v>14.242999999999999</v>
       </c>
       <c r="P58" s="6">
-        <f t="shared" ref="P58:S58" si="26">SUM(P54:P57)</f>
-        <v>0</v>
+        <f t="shared" ref="P58:S58" si="27">SUM(P54:P57)</f>
+        <v>19.612000000000002</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>20.044</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>42.313000000000002</v>
       </c>
       <c r="S58" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>30.173999999999999</v>
       </c>
     </row>
@@ -3560,6 +3677,12 @@
       <c r="O59" s="29">
         <v>2.2440000000000002</v>
       </c>
+      <c r="P59" s="29">
+        <v>4.4029999999999996</v>
+      </c>
+      <c r="Q59" s="29">
+        <v>4.9909999999999997</v>
+      </c>
       <c r="R59" s="29">
         <v>171.024</v>
       </c>
@@ -3583,6 +3706,12 @@
       <c r="O60" s="6">
         <v>1.726</v>
       </c>
+      <c r="P60" s="6">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>2.0569999999999999</v>
+      </c>
       <c r="R60" s="6">
         <v>1.5820000000000001</v>
       </c>
@@ -3609,10 +3738,10 @@
       <c r="O61" s="6">
         <v>0</v>
       </c>
-      <c r="P61" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="1">
+      <c r="P61" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="6">
         <v>0</v>
       </c>
       <c r="R61" s="1">
@@ -3643,11 +3772,13 @@
         <f>0.361+0.233</f>
         <v>0.59399999999999997</v>
       </c>
-      <c r="P62" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>0</v>
+      <c r="P62" s="6">
+        <f>0.481+0.35</f>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="Q62" s="6">
+        <f>1.284+0.688</f>
+        <v>1.972</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -3661,31 +3792,31 @@
         <v>88</v>
       </c>
       <c r="C63" s="6">
-        <f>SUM(C58:C62)</f>
+        <f t="shared" ref="C63:I63" si="28">SUM(C58:C62)</f>
         <v>0</v>
       </c>
       <c r="D63" s="34">
-        <f>SUM(D58:D62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E63" s="6">
-        <f>SUM(E58:E62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F63" s="34">
-        <f>SUM(F58:F62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G63" s="6">
-        <f>SUM(G58:G62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H63" s="34">
-        <f>SUM(H58:H62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I63" s="6">
-        <f>SUM(I58:I62)</f>
+        <f t="shared" si="28"/>
         <v>229.46799999999999</v>
       </c>
       <c r="J63" s="34" t="s">
@@ -3696,27 +3827,27 @@
         <v>220.79300000000001</v>
       </c>
       <c r="N63" s="6">
-        <f t="shared" ref="N63:S63" si="27">SUM(N58:N62)</f>
+        <f t="shared" ref="N63:S63" si="29">SUM(N58:N62)</f>
         <v>71.289000000000001</v>
       </c>
       <c r="O63" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>18.806999999999999</v>
       </c>
       <c r="P63" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>26.933</v>
       </c>
       <c r="Q63" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>29.064</v>
       </c>
       <c r="R63" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>214.91899999999998</v>
       </c>
       <c r="S63" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>225.27700000000002</v>
       </c>
     </row>
@@ -3724,9 +3855,10 @@
       <c r="I64" s="6"/>
       <c r="K64" s="6"/>
       <c r="N64" s="6"/>
+      <c r="P64" s="6"/>
       <c r="S64" s="6"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>89</v>
       </c>
@@ -3742,6 +3874,12 @@
       <c r="O65" s="6">
         <v>53.192999999999998</v>
       </c>
+      <c r="P65" s="6">
+        <v>54.908000000000001</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>29.809000000000001</v>
+      </c>
       <c r="R65" s="6">
         <v>29.809000000000001</v>
       </c>
@@ -3749,7 +3887,7 @@
         <v>34.063000000000002</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
@@ -3769,6 +3907,14 @@
         <f>O65+O63</f>
         <v>72</v>
       </c>
+      <c r="P66" s="6">
+        <f t="shared" ref="P66" si="30">P65+P63</f>
+        <v>81.841000000000008</v>
+      </c>
+      <c r="Q66" s="6">
+        <f t="shared" ref="Q66" si="31">Q65+Q63</f>
+        <v>58.873000000000005</v>
+      </c>
       <c r="R66" s="6">
         <f>R65+R63</f>
         <v>244.72799999999998</v>
@@ -3778,7 +3924,7 @@
         <v>259.34000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>91</v>
       </c>
@@ -3791,15 +3937,23 @@
         <v>52.60899999999998</v>
       </c>
       <c r="N68" s="6">
-        <f t="shared" ref="N68:O68" si="28">N52-N63</f>
+        <f t="shared" ref="N68:P68" si="32">N52-N63</f>
         <v>4.0430000000000064</v>
       </c>
       <c r="O68" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>53.192999999999998</v>
       </c>
+      <c r="P68" s="6">
+        <f t="shared" si="32"/>
+        <v>54.907999999999994</v>
+      </c>
+      <c r="Q68" s="6">
+        <f t="shared" ref="Q68:R68" si="33">Q52-Q63</f>
+        <v>56.910999999999994</v>
+      </c>
       <c r="R68" s="6">
-        <f t="shared" ref="R68" si="29">R52-R63</f>
+        <f t="shared" si="33"/>
         <v>29.612000000000023</v>
       </c>
       <c r="S68" s="6">
@@ -3807,7 +3961,7 @@
         <v>34.063000000000017</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>92</v>
       </c>
@@ -3820,15 +3974,23 @@
         <v>0.7693455551191799</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" ref="N69:O69" si="30">N68/N21</f>
+        <f t="shared" ref="N69" si="34">N68/N21</f>
         <v>6.2200000000000095E-2</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" ref="O69:R69" si="31">O68/O21</f>
+        <f t="shared" ref="O69:R69" si="35">O68/O21</f>
         <v>0.8183538461538461</v>
       </c>
+      <c r="P69" s="1">
+        <f t="shared" si="35"/>
+        <v>0.84473846153846144</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" ref="Q69:R69" si="36">Q68/Q21</f>
+        <v>0.87555384615384602</v>
+      </c>
       <c r="R69" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.4382085280067668</v>
       </c>
       <c r="S69" s="1">
@@ -3836,7 +3998,7 @@
         <v>0.49830114900085032</v>
       </c>
     </row>
-    <row r="71" spans="2:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="39" t="s">
         <v>6</v>
       </c>
@@ -3853,15 +4015,23 @@
         <v>7.734</v>
       </c>
       <c r="N71" s="41">
-        <f t="shared" ref="N71:O71" si="32">N50</f>
+        <f t="shared" ref="N71:O71" si="37">N50</f>
         <v>10.185</v>
       </c>
       <c r="O71" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>5.5709999999999997</v>
       </c>
+      <c r="P71" s="41">
+        <f t="shared" ref="P71:R71" si="38">P50</f>
+        <v>5.298</v>
+      </c>
+      <c r="Q71" s="41">
+        <f t="shared" si="38"/>
+        <v>2.1880000000000002</v>
+      </c>
       <c r="R71" s="41">
-        <f t="shared" ref="R71" si="33">R50</f>
+        <f t="shared" si="38"/>
         <v>2.302</v>
       </c>
       <c r="S71" s="41">
@@ -3869,7 +4039,7 @@
         <v>11.510999999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="39" t="s">
         <v>7</v>
       </c>
@@ -3886,15 +4056,23 @@
         <v>207.95099999999999</v>
       </c>
       <c r="N72" s="41">
-        <f t="shared" ref="N72:O72" si="34">+N54+N59</f>
+        <f t="shared" ref="N72:O72" si="39">+N54+N59</f>
         <v>17.268999999999998</v>
       </c>
       <c r="O72" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>10.09</v>
       </c>
+      <c r="P72" s="41">
+        <f t="shared" ref="P72:R72" si="40">+P54+P59</f>
+        <v>15.879000000000001</v>
+      </c>
+      <c r="Q72" s="41">
+        <f t="shared" si="40"/>
+        <v>14.218</v>
+      </c>
       <c r="R72" s="41">
-        <f t="shared" ref="R72" si="35">+R54+R59</f>
+        <f t="shared" si="40"/>
         <v>205.05500000000001</v>
       </c>
       <c r="S72" s="41">
@@ -3902,7 +4080,7 @@
         <v>209.494</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
@@ -3915,15 +4093,23 @@
         <v>-200.21699999999998</v>
       </c>
       <c r="N73" s="6">
-        <f t="shared" ref="N73:O73" si="36">N71-N72</f>
+        <f t="shared" ref="N73:O73" si="41">N71-N72</f>
         <v>-7.0839999999999979</v>
       </c>
       <c r="O73" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>-4.5190000000000001</v>
       </c>
+      <c r="P73" s="6">
+        <f t="shared" ref="P73:R73" si="42">P71-P72</f>
+        <v>-10.581000000000001</v>
+      </c>
+      <c r="Q73" s="6">
+        <f t="shared" si="42"/>
+        <v>-12.03</v>
+      </c>
       <c r="R73" s="6">
-        <f t="shared" ref="R73" si="37">R71-R72</f>
+        <f t="shared" si="42"/>
         <v>-202.75300000000001</v>
       </c>
       <c r="S73" s="6">
@@ -3931,7 +4117,7 @@
         <v>-197.983</v>
       </c>
     </row>
-    <row r="75" spans="2:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="26" t="s">
         <v>93</v>
       </c>
@@ -3976,7 +4162,7 @@
         <v>2.3468</v>
       </c>
     </row>
-    <row r="76" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>5</v>
       </c>
@@ -3993,15 +4179,23 @@
         <v>141.26249443679998</v>
       </c>
       <c r="N76" s="6">
-        <f t="shared" ref="N76:O76" si="38">N75*N21</f>
+        <f t="shared" ref="N76:O76" si="43">N75*N21</f>
         <v>107.25</v>
       </c>
       <c r="O76" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>160.61500000000001</v>
       </c>
+      <c r="P76" s="6">
+        <f t="shared" ref="P76:R76" si="44">P75*P21</f>
+        <v>139.2885</v>
+      </c>
+      <c r="Q76" s="6">
+        <f t="shared" si="44"/>
+        <v>192.92</v>
+      </c>
       <c r="R76" s="6">
-        <f t="shared" ref="R76" si="39">R75*R21</f>
+        <f t="shared" si="44"/>
         <v>135.26514572780002</v>
       </c>
       <c r="S76" s="6">
@@ -4009,7 +4203,7 @@
         <v>160.42316691479999</v>
       </c>
     </row>
-    <row r="77" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
         <v>9</v>
       </c>
@@ -4026,15 +4220,23 @@
         <v>341.4794944368</v>
       </c>
       <c r="N77" s="6">
-        <f t="shared" ref="N77:O77" si="40">N76-N73</f>
+        <f t="shared" ref="N77:O77" si="45">N76-N73</f>
         <v>114.334</v>
       </c>
       <c r="O77" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>165.13400000000001</v>
       </c>
+      <c r="P77" s="6">
+        <f t="shared" ref="P77:R77" si="46">P76-P73</f>
+        <v>149.86949999999999</v>
+      </c>
+      <c r="Q77" s="6">
+        <f t="shared" si="46"/>
+        <v>204.95</v>
+      </c>
       <c r="R77" s="6">
-        <f t="shared" ref="R77" si="41">R76-R73</f>
+        <f t="shared" si="46"/>
         <v>338.01814572780006</v>
       </c>
       <c r="S77" s="6">
@@ -4042,7 +4244,11 @@
         <v>358.4061669148</v>
       </c>
     </row>
-    <row r="79" spans="2:19" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="76">
+        <f>AVERAGE(O79:S79)</f>
+        <v>3.6447220949978716</v>
+      </c>
       <c r="B79" s="57" t="s">
         <v>28</v>
       </c>
@@ -4059,15 +4265,23 @@
         <v>2.6851393190670807</v>
       </c>
       <c r="N79" s="57">
-        <f t="shared" ref="N79:O79" si="42">N75/N69</f>
+        <f t="shared" ref="N79:O79" si="47">N75/N69</f>
         <v>26.527331189710569</v>
       </c>
       <c r="O79" s="57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>3.0194762468745893</v>
       </c>
+      <c r="P79" s="57">
+        <f t="shared" ref="P79:R79" si="48">P75/P69</f>
+        <v>2.5367614919501715</v>
+      </c>
+      <c r="Q79" s="57">
+        <f t="shared" si="48"/>
+        <v>3.3898543339600433</v>
+      </c>
       <c r="R79" s="57">
-        <f t="shared" ref="R79" si="43">R75/R69</f>
+        <f t="shared" si="48"/>
         <v>4.5679165786775604</v>
       </c>
       <c r="S79" s="57">
@@ -4075,7 +4289,11 @@
         <v>4.7096018235269916</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" s="76">
+        <f t="shared" ref="A80:A83" si="49">AVERAGE(O80:S80)</f>
+        <v>2.496796985722928</v>
+      </c>
       <c r="B80" s="1" t="s">
         <v>29</v>
       </c>
@@ -4084,17 +4302,23 @@
         <v>1.175727591880082</v>
       </c>
       <c r="N80" s="57">
-        <f t="shared" ref="N80:O80" si="44">N76/N8</f>
+        <f t="shared" ref="N80:O80" si="50">N76/N8</f>
         <v>1.5931609203939452</v>
       </c>
       <c r="O80" s="57">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>2.2609093468468466</v>
       </c>
-      <c r="P80" s="57"/>
-      <c r="Q80" s="57"/>
+      <c r="P80" s="57">
+        <f t="shared" ref="P80:R80" si="51">P76/P8</f>
+        <v>1.8243418467583494</v>
+      </c>
+      <c r="Q80" s="57">
+        <f t="shared" si="51"/>
+        <v>2.293335869332636</v>
+      </c>
       <c r="R80" s="57">
-        <f t="shared" ref="R80" si="45">R76/R8</f>
+        <f t="shared" si="51"/>
         <v>3.7294975248228521</v>
       </c>
       <c r="S80" s="57">
@@ -4102,7 +4326,11 @@
         <v>2.3759003408539563</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" s="76">
+        <f t="shared" si="49"/>
+        <v>4.2703228836366645</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>30</v>
       </c>
@@ -4111,17 +4339,23 @@
         <v>2.8421334712465356</v>
       </c>
       <c r="N81" s="57">
-        <f t="shared" ref="N81:O81" si="46">N77/N8</f>
+        <f t="shared" ref="N81:O81" si="52">N77/N8</f>
         <v>1.6983912416999658</v>
       </c>
       <c r="O81" s="57">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2.3245213963963964</v>
       </c>
-      <c r="P81" s="57"/>
-      <c r="Q81" s="57"/>
+      <c r="P81" s="57">
+        <f t="shared" ref="P81:R81" si="53">P77/P8</f>
+        <v>1.9629273084479368</v>
+      </c>
+      <c r="Q81" s="57">
+        <f t="shared" si="53"/>
+        <v>2.4363424550058248</v>
+      </c>
       <c r="R81" s="57">
-        <f t="shared" ref="R81" si="47">R77/R8</f>
+        <f t="shared" si="53"/>
         <v>9.3197536664313905</v>
       </c>
       <c r="S81" s="57">
@@ -4129,7 +4363,11 @@
         <v>5.3080695919017788</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" s="76">
+        <f t="shared" si="49"/>
+        <v>20.377966557521056</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>31</v>
       </c>
@@ -4138,17 +4376,23 @@
         <v>4.5418588938941094</v>
       </c>
       <c r="N82" s="57">
-        <f t="shared" ref="N82:O82" si="48">N75/N20</f>
+        <f t="shared" ref="N82:O82" si="54">N75/N20</f>
         <v>29.537317543376421</v>
       </c>
       <c r="O82" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>31.000772051727438</v>
       </c>
-      <c r="P82" s="57"/>
-      <c r="Q82" s="57"/>
+      <c r="P82" s="57">
+        <f t="shared" ref="P82:R82" si="55">P75/P20</f>
+        <v>17.107406042741321</v>
+      </c>
+      <c r="Q82" s="57">
+        <f t="shared" si="55"/>
+        <v>21.347792408985285</v>
+      </c>
       <c r="R82" s="57">
-        <f t="shared" ref="R82" si="49">R75/R20</f>
+        <f t="shared" si="55"/>
         <v>-7.6218597919535709</v>
       </c>
       <c r="S82" s="57">
@@ -4156,7 +4400,11 @@
         <v>40.0557220761048</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" s="76">
+        <f t="shared" si="49"/>
+        <v>28.680426491732657</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>32</v>
       </c>
@@ -4165,17 +4413,23 @@
         <v>10.980754210457265</v>
       </c>
       <c r="N83" s="57">
-        <f t="shared" ref="N83:O83" si="50">N77/N19</f>
+        <f t="shared" ref="N83:O83" si="56">N77/N19</f>
         <v>31.488295235472258</v>
       </c>
       <c r="O83" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>31.87299749083186</v>
       </c>
-      <c r="P83" s="57"/>
-      <c r="Q83" s="57"/>
+      <c r="P83" s="57">
+        <f t="shared" ref="P83:R83" si="57">P77/P19</f>
+        <v>18.406963890935863</v>
+      </c>
+      <c r="Q83" s="57">
+        <f t="shared" si="57"/>
+        <v>22.678986389288482</v>
+      </c>
       <c r="R83" s="57">
-        <f t="shared" ref="R83" si="51">R77/R19</f>
+        <f t="shared" si="57"/>
         <v>-19.046494941556322</v>
       </c>
       <c r="S83" s="57">
@@ -4183,12 +4437,12 @@
         <v>89.48967962916339</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B86" s="24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4221,7 +4475,7 @@
         <v>30.827000000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>96</v>
       </c>
@@ -4229,7 +4483,7 @@
         <v>2.2919999999999998</v>
       </c>
       <c r="J88" s="44">
-        <f t="shared" ref="J88:J89" si="52">S88-I88</f>
+        <f t="shared" ref="J88:J89" si="58">S88-I88</f>
         <v>0</v>
       </c>
       <c r="K88" s="6">
@@ -4254,7 +4508,7 @@
         <v>2.2919999999999998</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>97</v>
       </c>
@@ -4262,7 +4516,7 @@
         <v>-2.6509999999999998</v>
       </c>
       <c r="J89" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>-3.0350000000000001</v>
       </c>
       <c r="K89" s="6">
@@ -4287,7 +4541,7 @@
         <v>-5.6859999999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>98</v>
       </c>
@@ -4306,24 +4560,24 @@
         <f>SUM(K87:K89)</f>
         <v>25.498999999999999</v>
       </c>
-      <c r="N90" s="72">
-        <f t="shared" ref="N90:R90" si="53">SUM(N87:N89)</f>
+      <c r="N90" s="59">
+        <f t="shared" ref="N90:R90" si="59">SUM(N87:N89)</f>
         <v>13.776999999999999</v>
       </c>
-      <c r="O90" s="72">
-        <f t="shared" si="53"/>
+      <c r="O90" s="59">
+        <f t="shared" si="59"/>
         <v>10.819999999999999</v>
       </c>
       <c r="P90" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>17.754999999999999</v>
       </c>
       <c r="Q90" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>20.62</v>
       </c>
       <c r="R90" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>-2.0009999999999994</v>
       </c>
       <c r="S90" s="29">
@@ -4331,7 +4585,7 @@
         <v>27.433</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I91" s="6"/>
       <c r="J91" s="44"/>
       <c r="K91" s="6"/>
@@ -4340,7 +4594,7 @@
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>130</v>
       </c>
@@ -4372,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>99</v>
       </c>
@@ -4380,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="44">
-        <f t="shared" ref="J93:J95" si="54">S93-I93</f>
+        <f t="shared" ref="J93:J95" si="60">S93-I93</f>
         <v>0</v>
       </c>
       <c r="K93" s="6">
@@ -4405,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>100</v>
       </c>
@@ -4413,7 +4667,7 @@
         <v>-0.20499999999999999</v>
       </c>
       <c r="J94" s="44">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>-6.9029999999999996</v>
       </c>
       <c r="K94" s="6">
@@ -4438,7 +4692,7 @@
         <v>-7.1079999999999997</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>101</v>
       </c>
@@ -4446,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="44">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>-2.4E-2</v>
       </c>
       <c r="K95" s="6">
@@ -4471,7 +4725,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>102</v>
       </c>
@@ -4479,39 +4733,39 @@
       <c r="F96" s="33"/>
       <c r="H96" s="33"/>
       <c r="I96" s="29">
-        <f t="shared" ref="I96" si="55">SUM(I92:I95)</f>
+        <f t="shared" ref="I96" si="61">SUM(I92:I95)</f>
         <v>-0.20499999999999999</v>
       </c>
       <c r="J96" s="45">
-        <f t="shared" ref="J96" si="56">SUM(J92:J95)</f>
+        <f t="shared" ref="J96" si="62">SUM(J92:J95)</f>
         <v>-6.9269999999999996</v>
       </c>
       <c r="K96" s="29">
-        <f t="shared" ref="K96" si="57">SUM(K92:K95)</f>
+        <f t="shared" ref="K96" si="63">SUM(K92:K95)</f>
         <v>-17.099000000000004</v>
       </c>
       <c r="N96" s="29">
-        <f t="shared" ref="N96:P96" si="58">SUM(N92:N95)</f>
+        <f t="shared" ref="N96:P96" si="64">SUM(N92:N95)</f>
         <v>-5.3520000000000003</v>
       </c>
       <c r="O96" s="29">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>-6.2170000000000005</v>
       </c>
       <c r="P96" s="29">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>-12.805999999999999</v>
       </c>
       <c r="Q96" s="29">
-        <f t="shared" ref="Q96" si="59">SUM(Q92:Q95)</f>
+        <f t="shared" ref="Q96" si="65">SUM(Q92:Q95)</f>
         <v>-10.467999999999998</v>
       </c>
       <c r="R96" s="29">
-        <f t="shared" ref="R96" si="60">SUM(R92:R95)</f>
+        <f t="shared" ref="R96" si="66">SUM(R92:R95)</f>
         <v>-6.1629999999999994</v>
       </c>
       <c r="S96" s="29">
-        <f t="shared" ref="S96" si="61">SUM(S92:S95)</f>
+        <f t="shared" ref="S96" si="67">SUM(S92:S95)</f>
         <v>-7.1319999999999997</v>
       </c>
     </row>
@@ -4627,7 +4881,7 @@
         <v>-2.9350000000000001</v>
       </c>
       <c r="J101" s="44">
-        <f t="shared" ref="J101:J104" si="62">S101-I101</f>
+        <f t="shared" ref="J101:J104" si="68">S101-I101</f>
         <v>-7.0670000000000002</v>
       </c>
       <c r="K101" s="6">
@@ -4692,7 +4946,7 @@
         <v>18</v>
       </c>
       <c r="J103" s="44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>4</v>
       </c>
       <c r="K103" s="6">
@@ -4725,7 +4979,7 @@
         <v>-10</v>
       </c>
       <c r="J104" s="44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>-18</v>
       </c>
       <c r="K104" s="6">
@@ -4758,27 +5012,27 @@
       <c r="F105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="29">
-        <f t="shared" ref="I105" si="63">SUM(I98:I104)</f>
+        <f t="shared" ref="I105" si="69">SUM(I98:I104)</f>
         <v>5.0649999999999995</v>
       </c>
       <c r="J105" s="45">
-        <f t="shared" ref="J105" si="64">SUM(J98:J104)</f>
+        <f t="shared" ref="J105" si="70">SUM(J98:J104)</f>
         <v>-21.067</v>
       </c>
       <c r="K105" s="29">
-        <f t="shared" ref="K105" si="65">SUM(K98:K104)</f>
+        <f t="shared" ref="K105" si="71">SUM(K98:K104)</f>
         <v>-12.177</v>
       </c>
       <c r="N105" s="29">
-        <f t="shared" ref="N105:P105" si="66">SUM(N98:N104)</f>
+        <f t="shared" ref="N105:P105" si="72">SUM(N98:N104)</f>
         <v>-5.0609999999999999</v>
       </c>
       <c r="O105" s="29">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>-9.2170000000000005</v>
       </c>
       <c r="P105" s="29">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>-5.2219999999999995</v>
       </c>
       <c r="Q105" s="29">
@@ -4786,11 +5040,11 @@
         <v>-13.262</v>
       </c>
       <c r="R105" s="29">
-        <f t="shared" ref="R105:S105" si="67">SUM(R98:R104)</f>
+        <f t="shared" ref="R105:S105" si="73">SUM(R98:R104)</f>
         <v>13.370000000000003</v>
       </c>
       <c r="S105" s="29">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>-16.002000000000002</v>
       </c>
     </row>
@@ -4814,23 +5068,23 @@
         <v>-17.099000000000004</v>
       </c>
       <c r="N107" s="6">
-        <f t="shared" ref="N107:O107" si="68">+N93+N94+N95</f>
+        <f t="shared" ref="N107" si="74">+N93+N94+N95</f>
         <v>-5.3520000000000003</v>
       </c>
       <c r="O107" s="6">
-        <f t="shared" ref="O107:P107" si="69">+O93+O94+O95</f>
+        <f t="shared" ref="O107:P107" si="75">+O93+O94+O95</f>
         <v>-6.2170000000000005</v>
       </c>
       <c r="P107" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-12.805999999999999</v>
       </c>
       <c r="Q107" s="6">
-        <f t="shared" ref="Q107:R107" si="70">+Q93+Q94+Q95</f>
+        <f t="shared" ref="Q107:R107" si="76">+Q93+Q94+Q95</f>
         <v>-10.167999999999999</v>
       </c>
       <c r="R107" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-6.1629999999999994</v>
       </c>
       <c r="S107" s="6">
@@ -4858,23 +5112,23 @@
         <v>8.399999999999995</v>
       </c>
       <c r="N108" s="29">
-        <f t="shared" ref="N108:O108" si="71">+N90+N107</f>
+        <f t="shared" ref="N108" si="77">+N90+N107</f>
         <v>8.4249999999999989</v>
       </c>
       <c r="O108" s="29">
-        <f t="shared" ref="O108:P108" si="72">+O90+O107</f>
+        <f t="shared" ref="O108:P108" si="78">+O90+O107</f>
         <v>4.602999999999998</v>
       </c>
       <c r="P108" s="29">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>4.9489999999999998</v>
       </c>
       <c r="Q108" s="29">
-        <f t="shared" ref="Q108:R108" si="73">+Q90+Q107</f>
+        <f t="shared" ref="Q108:R108" si="79">+Q90+Q107</f>
         <v>10.452000000000002</v>
       </c>
       <c r="R108" s="29">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-8.1639999999999979</v>
       </c>
       <c r="S108" s="29">

--- a/£TEG.xlsx
+++ b/£TEG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1789452-1C43-4ECE-91AD-BE00D22382F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0F2C4C-CC7A-49D5-AC6C-BEFD5B8496DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="825" windowWidth="31320" windowHeight="18585" activeTab="1" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
   <si>
     <t>£TEG</t>
   </si>
@@ -446,6 +455,18 @@
   </si>
   <si>
     <t>IPO</t>
+  </si>
+  <si>
+    <t>H222</t>
+  </si>
+  <si>
+    <t>H123</t>
+  </si>
+  <si>
+    <t>H223</t>
+  </si>
+  <si>
+    <t>• Bowling prices still frozen at 2019 levels to maintain attractive proposition</t>
   </si>
 </sst>
 </file>
@@ -457,7 +478,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +555,12 @@
       <i/>
       <sz val="8"/>
       <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -756,7 +783,37 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -775,37 +832,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -894,14 +921,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>127</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -918,8 +945,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7115175" y="0"/>
-          <a:ext cx="0" cy="18078450"/>
+          <a:off x="9010650" y="0"/>
+          <a:ext cx="0" cy="20669250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -944,13 +971,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>127</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -1294,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904FFB80-2819-4CCA-9F78-6AC8529FFC68}">
   <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C35:D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1315,44 +1342,40 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="G5" s="67" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="G5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="69"/>
-      <c r="Q5" s="67" t="s">
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="Q5" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="64"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>2.7210000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="G6" s="8">
-        <v>2023</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="10"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="9"/>
@@ -1363,19 +1386,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="27">
-        <f>'Financial Model'!K21</f>
-        <v>68.381495999999999</v>
+        <f>'Financial Model'!M21</f>
+        <v>68.496117999999996</v>
       </c>
       <c r="D7" s="15" t="str">
         <f>$C$28</f>
-        <v>H122</v>
+        <v>H123</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="10"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="9"/>
@@ -1387,15 +1410,15 @@
       </c>
       <c r="C8" s="6">
         <f>C6*C7</f>
-        <v>186.06605061600001</v>
+        <v>188.36432449999998</v>
       </c>
       <c r="D8" s="15"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="10"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="9"/>
@@ -1406,19 +1429,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="6">
-        <f>'Financial Model'!K71</f>
-        <v>7.734</v>
+        <f>'Financial Model'!M71</f>
+        <v>5.1369999999999996</v>
       </c>
       <c r="D9" s="15" t="str">
         <f t="shared" ref="D9:D10" si="0">$C$28</f>
-        <v>H122</v>
+        <v>H123</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="10"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="9"/>
@@ -1429,19 +1452,23 @@
         <v>7</v>
       </c>
       <c r="C10" s="6">
-        <f>'Financial Model'!K72</f>
-        <v>207.95099999999999</v>
+        <f>'Financial Model'!M72</f>
+        <v>206.92000000000002</v>
       </c>
       <c r="D10" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>H122</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
+        <v>H123</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="10"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="9"/>
@@ -1453,15 +1480,15 @@
       </c>
       <c r="C11" s="6">
         <f>C9-C10</f>
-        <v>-200.21699999999998</v>
+        <v>-201.78300000000002</v>
       </c>
       <c r="D11" s="15"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="10"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="9"/>
@@ -1473,15 +1500,15 @@
       </c>
       <c r="C12" s="7">
         <f>C8-C11</f>
-        <v>386.28305061599997</v>
+        <v>390.14732449999997</v>
       </c>
       <c r="D12" s="16"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="10"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="9"/>
@@ -1489,11 +1516,11 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="G13" s="8"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="10"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="9"/>
@@ -1501,28 +1528,28 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="G14" s="8"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="10"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="9"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="10"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="9"/>
@@ -1532,16 +1559,16 @@
       <c r="B16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="71"/>
+      <c r="D16" s="68"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="10"/>
       <c r="Q16" s="46"/>
       <c r="R16" s="13"/>
@@ -1551,26 +1578,26 @@
       <c r="B17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="71"/>
+      <c r="D17" s="68"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="71"/>
+      <c r="D18" s="68"/>
       <c r="G18" s="11"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -1581,13 +1608,13 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="43"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="Q19" s="67" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="Q19" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="68"/>
-      <c r="S19" s="69"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="64"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q20" s="37" t="s">
@@ -1604,11 +1631,11 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="Q22" s="30"/>
       <c r="R22" s="13"/>
       <c r="S22" s="14"/>
@@ -1617,135 +1644,143 @@
       <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="71"/>
+      <c r="D23" s="68"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="67">
         <v>2009</v>
       </c>
-      <c r="D24" s="71"/>
+      <c r="D24" s="68"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="70">
-        <f>'Financial Model'!T34</f>
-        <v>48</v>
-      </c>
-      <c r="D25" s="71"/>
+      <c r="C25" s="67">
+        <f>'Financial Model'!M34</f>
+        <v>51</v>
+      </c>
+      <c r="D25" s="68"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="65">
         <f>'Financial Model'!K38</f>
         <v>1500</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="66"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="69">
         <v>2017</v>
       </c>
-      <c r="D27" s="73"/>
+      <c r="D27" s="70"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="12" t="str">
-        <f>'Financial Model'!K1</f>
-        <v>H122</v>
+      <c r="C28" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="D28" s="28">
-        <f>'Financial Model'!K3</f>
-        <v>45190</v>
+        <v>45189</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="66"/>
+      <c r="D29" s="76"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="63">
-        <f>C6/'Financial Model'!K69</f>
-        <v>3.5367722369936718</v>
-      </c>
-      <c r="D33" s="64"/>
+      <c r="C33" s="73">
+        <f>C6/'Financial Model'!M69</f>
+        <v>2.8119534312627823</v>
+      </c>
+      <c r="D33" s="74"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="63">
+      <c r="C34" s="73">
         <f>C8/SUM('Financial Model'!J8:K8)</f>
-        <v>1.5486275426012701</v>
-      </c>
-      <c r="D34" s="64"/>
+        <v>1.5677560737084784</v>
+      </c>
+      <c r="D34" s="74"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="63">
+      <c r="C35" s="73">
         <f>C12/SUM('Financial Model'!J8:K8)</f>
-        <v>3.215033421967723</v>
-      </c>
-      <c r="D35" s="64"/>
+        <v>3.2471957694196369</v>
+      </c>
+      <c r="D35" s="74"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="73">
         <f>C6/SUM('Financial Model'!J20:K20)</f>
-        <v>5.9823787638134727</v>
-      </c>
-      <c r="D36" s="64"/>
+        <v>6.046138037665215</v>
+      </c>
+      <c r="D36" s="74"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="63">
+      <c r="C37" s="73">
         <f>C12/SUM('Financial Model'!J19:K19)</f>
-        <v>12.421475677406907</v>
-      </c>
-      <c r="D37" s="64"/>
+        <v>12.545736848028811</v>
+      </c>
+      <c r="D37" s="74"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="C26:D26"/>
@@ -1762,13 +1797,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{872569F1-2E0E-45DC-998D-58DC741E9E51}"/>
@@ -1780,13 +1808,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C83F-EC03-4F38-8C2B-BF6F054B4FFD}">
-  <dimension ref="A1:AE108"/>
+  <dimension ref="A1:AG108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="N4:O7"/>
+      <selection pane="bottomRight" activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1801,10 +1829,14 @@
     <col min="8" max="8" width="9.140625" style="34"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="9.140625" style="34"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="34"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="34"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="17" t="s">
         <v>114</v>
       </c>
@@ -1832,62 +1864,71 @@
       <c r="K1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="L1" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="AA1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AB1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AC1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="2:31" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="20"/>
       <c r="D2" s="32"/>
       <c r="E2" s="22">
@@ -1902,32 +1943,37 @@
         <v>44374</v>
       </c>
       <c r="J2" s="47">
-        <f>S2</f>
+        <f>U2</f>
         <v>44556</v>
       </c>
       <c r="K2" s="22">
         <v>44738</v>
       </c>
-      <c r="N2" s="22">
+      <c r="L2" s="32"/>
+      <c r="M2" s="22">
+        <v>45109</v>
+      </c>
+      <c r="N2" s="32"/>
+      <c r="P2" s="22">
         <v>42736</v>
       </c>
-      <c r="O2" s="22">
+      <c r="Q2" s="22">
         <v>43100</v>
       </c>
-      <c r="P2" s="22">
+      <c r="R2" s="22">
         <v>43464</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="S2" s="22">
         <v>43828</v>
       </c>
-      <c r="R2" s="22">
+      <c r="T2" s="22">
         <v>44192</v>
       </c>
-      <c r="S2" s="22">
+      <c r="U2" s="22">
         <v>44556</v>
       </c>
     </row>
-    <row r="3" spans="2:31" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="D3" s="32"/>
       <c r="F3" s="32"/>
@@ -1936,18 +1982,23 @@
       <c r="K3" s="19">
         <v>45190</v>
       </c>
-      <c r="O3" s="19">
+      <c r="L3" s="32"/>
+      <c r="M3" s="19">
+        <v>45189</v>
+      </c>
+      <c r="N3" s="32"/>
+      <c r="Q3" s="19">
         <v>45006</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="S3" s="19">
         <v>45059</v>
       </c>
-      <c r="S3" s="19">
+      <c r="U3" s="19">
         <v>45014</v>
       </c>
-      <c r="T3" s="19"/>
-    </row>
-    <row r="4" spans="2:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="2:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
         <v>126</v>
       </c>
@@ -1958,32 +2009,37 @@
         <v>4.8330000000000002</v>
       </c>
       <c r="J4" s="56">
-        <f>S4-I4</f>
+        <f>U4-I4</f>
         <v>24.942999999999998</v>
       </c>
       <c r="K4" s="41">
         <v>28.266999999999999</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="L4" s="56"/>
+      <c r="M4" s="41">
+        <v>27.588999999999999</v>
+      </c>
+      <c r="N4" s="56"/>
+      <c r="P4" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="Q4" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="P4" s="41">
+      <c r="R4" s="41">
         <v>36.578000000000003</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="S4" s="41">
         <v>39.911999999999999</v>
       </c>
-      <c r="R4" s="41">
+      <c r="T4" s="41">
         <v>16.829999999999998</v>
       </c>
-      <c r="S4" s="41">
+      <c r="U4" s="41">
         <v>29.776</v>
       </c>
     </row>
-    <row r="5" spans="2:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="55" t="s">
         <v>127</v>
       </c>
@@ -1994,32 +2050,37 @@
         <v>2.875</v>
       </c>
       <c r="J5" s="56">
-        <f t="shared" ref="J5:J7" si="0">S5-I5</f>
+        <f t="shared" ref="J5:J7" si="0">U5-I5</f>
         <v>16.219000000000001</v>
       </c>
       <c r="K5" s="41">
         <v>17.276</v>
       </c>
-      <c r="N5" s="77" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="41">
+        <v>18.145</v>
+      </c>
+      <c r="N5" s="56"/>
+      <c r="P5" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="O5" s="77" t="s">
+      <c r="Q5" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="P5" s="41">
+      <c r="R5" s="41">
         <v>19.811</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="S5" s="41">
         <v>21.425999999999998</v>
       </c>
-      <c r="R5" s="41">
+      <c r="T5" s="41">
         <v>9.8979999999999997</v>
       </c>
-      <c r="S5" s="41">
+      <c r="U5" s="41">
         <v>19.094000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="55" t="s">
         <v>128</v>
       </c>
@@ -2036,26 +2097,31 @@
       <c r="K6" s="41">
         <v>15.143000000000001</v>
       </c>
-      <c r="N6" s="77" t="s">
+      <c r="L6" s="56"/>
+      <c r="M6" s="41">
+        <v>16.762</v>
+      </c>
+      <c r="N6" s="56"/>
+      <c r="P6" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="O6" s="77" t="s">
+      <c r="Q6" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="P6" s="41">
+      <c r="R6" s="41">
         <v>16.986999999999998</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="S6" s="41">
         <v>19.649000000000001</v>
       </c>
-      <c r="R6" s="41">
+      <c r="T6" s="41">
         <v>8.298</v>
       </c>
-      <c r="S6" s="41">
+      <c r="U6" s="41">
         <v>16.28</v>
       </c>
     </row>
-    <row r="7" spans="2:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="55" t="s">
         <v>129</v>
       </c>
@@ -2072,26 +2138,31 @@
       <c r="K7" s="41">
         <v>2.552</v>
       </c>
-      <c r="N7" s="77" t="s">
+      <c r="L7" s="56"/>
+      <c r="M7" s="41">
+        <v>2.8</v>
+      </c>
+      <c r="N7" s="56"/>
+      <c r="P7" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="77" t="s">
+      <c r="Q7" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="P7" s="41">
+      <c r="R7" s="41">
         <v>2.9740000000000002</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="S7" s="41">
         <v>3.1349999999999998</v>
       </c>
-      <c r="R7" s="41">
+      <c r="T7" s="41">
         <v>1.2430000000000001</v>
       </c>
-      <c r="S7" s="41">
+      <c r="U7" s="41">
         <v>2.371</v>
       </c>
     </row>
-    <row r="8" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
@@ -2102,36 +2173,42 @@
         <v>10.61</v>
       </c>
       <c r="J8" s="45">
-        <f>S8-I8</f>
+        <f>U8-I8</f>
         <v>56.911000000000001</v>
       </c>
       <c r="K8" s="29">
         <v>63.238</v>
       </c>
-      <c r="N8" s="29">
+      <c r="L8" s="33"/>
+      <c r="M8" s="29">
+        <f>SUM(M4:M7)</f>
+        <v>65.295999999999992</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="P8" s="29">
         <v>67.319000000000003</v>
       </c>
-      <c r="O8" s="29">
+      <c r="Q8" s="29">
         <v>71.040000000000006</v>
-      </c>
-      <c r="P8" s="29">
-        <f>SUM(P4:P7)</f>
-        <v>76.350000000000009</v>
-      </c>
-      <c r="Q8" s="29">
-        <f>SUM(Q4:Q7)</f>
-        <v>84.122</v>
       </c>
       <c r="R8" s="29">
         <f>SUM(R4:R7)</f>
-        <v>36.268999999999998</v>
+        <v>76.350000000000009</v>
       </c>
       <c r="S8" s="29">
         <f>SUM(S4:S7)</f>
+        <v>84.122</v>
+      </c>
+      <c r="T8" s="29">
+        <f>SUM(T4:T7)</f>
+        <v>36.268999999999998</v>
+      </c>
+      <c r="U8" s="29">
+        <f>SUM(U4:U7)</f>
         <v>67.521000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2139,32 +2216,35 @@
         <v>4.1539999999999999</v>
       </c>
       <c r="J9" s="44">
-        <f>S9-I9</f>
+        <f>U9-I9</f>
         <v>18.356999999999999</v>
       </c>
       <c r="K9" s="6">
         <v>19.707000000000001</v>
       </c>
-      <c r="N9" s="6">
+      <c r="M9" s="6">
+        <v>21.207999999999998</v>
+      </c>
+      <c r="P9" s="6">
         <v>20.638999999999999</v>
       </c>
-      <c r="O9" s="6">
+      <c r="Q9" s="6">
         <v>21.478000000000002</v>
       </c>
-      <c r="P9" s="6">
+      <c r="R9" s="6">
         <v>22.422999999999998</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="S9" s="6">
         <v>24.93</v>
       </c>
-      <c r="R9" s="6">
+      <c r="T9" s="6">
         <v>14.095000000000001</v>
       </c>
-      <c r="S9" s="6">
+      <c r="U9" s="6">
         <v>22.510999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
@@ -2183,32 +2263,38 @@
         <f>K8-K9</f>
         <v>43.530999999999999</v>
       </c>
-      <c r="N10" s="29">
-        <f t="shared" ref="N10:R10" si="1">N8-N9</f>
+      <c r="L10" s="33"/>
+      <c r="M10" s="29">
+        <f>M8-M9</f>
+        <v>44.087999999999994</v>
+      </c>
+      <c r="N10" s="33"/>
+      <c r="P10" s="29">
+        <f t="shared" ref="P10:T10" si="1">P8-P9</f>
         <v>46.680000000000007</v>
       </c>
-      <c r="O10" s="29">
+      <c r="Q10" s="29">
         <f t="shared" si="1"/>
         <v>49.562000000000005</v>
       </c>
-      <c r="P10" s="29">
+      <c r="R10" s="29">
         <f t="shared" si="1"/>
         <v>53.927000000000007</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="S10" s="29">
         <f t="shared" si="1"/>
         <v>59.192</v>
       </c>
-      <c r="R10" s="29">
+      <c r="T10" s="29">
         <f t="shared" si="1"/>
         <v>22.173999999999999</v>
       </c>
-      <c r="S10" s="29">
-        <f>S8-S9</f>
+      <c r="U10" s="29">
+        <f>U8-U9</f>
         <v>45.010000000000005</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
@@ -2216,32 +2302,35 @@
         <v>14.558999999999999</v>
       </c>
       <c r="J11" s="44">
-        <f t="shared" ref="J11:J18" si="2">S11-I11</f>
+        <f t="shared" ref="J11:J18" si="2">U11-I11</f>
         <v>21.152000000000001</v>
       </c>
       <c r="K11" s="6">
         <v>24.021999999999998</v>
       </c>
-      <c r="N11" s="6">
+      <c r="M11" s="6">
+        <v>24.757999999999999</v>
+      </c>
+      <c r="P11" s="6">
         <v>36.923999999999999</v>
       </c>
-      <c r="O11" s="6">
+      <c r="Q11" s="6">
         <v>39.64</v>
       </c>
-      <c r="P11" s="6">
+      <c r="R11" s="6">
         <v>42.564999999999998</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="S11" s="6">
         <v>46.609000000000002</v>
       </c>
-      <c r="R11" s="6">
+      <c r="T11" s="6">
         <v>35.503999999999998</v>
       </c>
-      <c r="S11" s="6">
+      <c r="U11" s="6">
         <v>35.710999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -2255,10 +2344,7 @@
       <c r="K12" s="6">
         <v>0.31</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
+      <c r="M12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
@@ -2273,8 +2359,14 @@
       <c r="S12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2288,10 +2380,7 @@
       <c r="K13" s="6">
         <v>0.747</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
+      <c r="M13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
@@ -2301,13 +2390,19 @@
         <v>0</v>
       </c>
       <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
         <v>-2.5209999999999999</v>
       </c>
-      <c r="S13" s="6">
+      <c r="U13" s="6">
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2321,10 +2416,7 @@
       <c r="K14" s="6">
         <v>4.601</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
+      <c r="M14" s="6">
         <v>0</v>
       </c>
       <c r="P14" s="6">
@@ -2339,8 +2431,14 @@
       <c r="S14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
@@ -2359,32 +2457,38 @@
         <f>K10-K11-K12+K13+K14</f>
         <v>24.547000000000001</v>
       </c>
-      <c r="N15" s="29">
-        <f t="shared" ref="N15:R15" si="3">N10-N11-N12+N13+N14</f>
+      <c r="L15" s="33"/>
+      <c r="M15" s="29">
+        <f>M10-M11-M12+M13+M14</f>
+        <v>19.329999999999995</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="P15" s="29">
+        <f t="shared" ref="P15:T15" si="3">P10-P11-P12+P13+P14</f>
         <v>9.7560000000000073</v>
       </c>
-      <c r="O15" s="29">
+      <c r="Q15" s="29">
         <f t="shared" si="3"/>
         <v>9.9220000000000041</v>
       </c>
-      <c r="P15" s="29">
+      <c r="R15" s="29">
         <f t="shared" si="3"/>
         <v>11.362000000000009</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="S15" s="29">
         <f t="shared" si="3"/>
         <v>12.582999999999998</v>
       </c>
-      <c r="R15" s="29">
+      <c r="T15" s="29">
         <f t="shared" si="3"/>
         <v>-15.850999999999999</v>
       </c>
-      <c r="S15" s="29">
-        <f>S10-S11-S12+S13+S14</f>
+      <c r="U15" s="29">
+        <f>U10-U11-U12+U13+U14</f>
         <v>10.423000000000007</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2398,28 +2502,31 @@
       <c r="K16" s="6">
         <v>-3.532</v>
       </c>
-      <c r="N16" s="6">
+      <c r="M16" s="6">
+        <v>-3.5760000000000001</v>
+      </c>
+      <c r="P16" s="6">
         <f>0.904-5.224</f>
         <v>-4.32</v>
       </c>
-      <c r="O16" s="6">
+      <c r="Q16" s="6">
         <f>-0.703-1.927</f>
         <v>-2.63</v>
       </c>
-      <c r="P16" s="6">
+      <c r="R16" s="6">
         <v>-0.69299999999999995</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="S16" s="6">
         <v>-0.78800000000000003</v>
       </c>
-      <c r="R16" s="6">
+      <c r="T16" s="6">
         <v>-5.8150000000000004</v>
       </c>
-      <c r="S16" s="6">
+      <c r="U16" s="6">
         <v>-5.9859999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
@@ -2435,32 +2542,36 @@
         <f>K15+K16</f>
         <v>21.015000000000001</v>
       </c>
-      <c r="N17" s="6">
-        <f t="shared" ref="N17:P17" si="4">N15+N16</f>
+      <c r="M17" s="6">
+        <f>M15+M16</f>
+        <v>15.753999999999994</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" ref="P17:R17" si="4">P15+P16</f>
         <v>5.436000000000007</v>
       </c>
-      <c r="O17" s="6">
+      <c r="Q17" s="6">
         <f t="shared" si="4"/>
         <v>7.2920000000000043</v>
       </c>
-      <c r="P17" s="6">
+      <c r="R17" s="6">
         <f t="shared" si="4"/>
         <v>10.669000000000009</v>
       </c>
-      <c r="Q17" s="6">
-        <f t="shared" ref="Q17" si="5">Q15+Q16</f>
+      <c r="S17" s="6">
+        <f t="shared" ref="S17" si="5">S15+S16</f>
         <v>11.794999999999998</v>
       </c>
-      <c r="R17" s="6">
-        <f>R15+R16</f>
+      <c r="T17" s="6">
+        <f>T15+T16</f>
         <v>-21.666</v>
       </c>
-      <c r="S17" s="6">
-        <f>S15+S16</f>
+      <c r="U17" s="6">
+        <f>U15+U16</f>
         <v>4.4370000000000074</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
@@ -2474,26 +2585,29 @@
       <c r="K18" s="6">
         <v>2.7210000000000001</v>
       </c>
-      <c r="N18" s="6">
+      <c r="M18" s="6">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="P18" s="6">
         <v>1.8049999999999999</v>
       </c>
-      <c r="O18" s="6">
+      <c r="Q18" s="6">
         <v>2.1110000000000002</v>
       </c>
-      <c r="P18" s="6">
+      <c r="R18" s="6">
         <v>2.5270000000000001</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="S18" s="6">
         <v>2.758</v>
       </c>
-      <c r="R18" s="6">
+      <c r="T18" s="6">
         <v>-3.919</v>
       </c>
-      <c r="S18" s="6">
+      <c r="U18" s="6">
         <v>0.432</v>
       </c>
     </row>
-    <row r="19" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
@@ -2512,32 +2626,38 @@
         <f>K17-K18</f>
         <v>18.294</v>
       </c>
-      <c r="N19" s="29">
-        <f t="shared" ref="N19:R19" si="6">N17-N18</f>
+      <c r="L19" s="33"/>
+      <c r="M19" s="29">
+        <f>M17-M18</f>
+        <v>12.300999999999995</v>
+      </c>
+      <c r="N19" s="33"/>
+      <c r="P19" s="29">
+        <f t="shared" ref="P19:T19" si="6">P17-P18</f>
         <v>3.6310000000000073</v>
       </c>
-      <c r="O19" s="29">
+      <c r="Q19" s="29">
         <f t="shared" si="6"/>
         <v>5.1810000000000045</v>
       </c>
-      <c r="P19" s="29">
+      <c r="R19" s="29">
         <f t="shared" si="6"/>
         <v>8.1420000000000101</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="S19" s="29">
         <f t="shared" si="6"/>
         <v>9.036999999999999</v>
       </c>
-      <c r="R19" s="29">
+      <c r="T19" s="29">
         <f t="shared" si="6"/>
         <v>-17.747</v>
       </c>
-      <c r="S19" s="29">
-        <f>S17-S18</f>
+      <c r="U19" s="29">
+        <f>U17-U18</f>
         <v>4.005000000000007</v>
       </c>
     </row>
-    <row r="20" spans="2:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="26" t="s">
         <v>46</v>
       </c>
@@ -2556,32 +2676,38 @@
         <f>K19/K21</f>
         <v>0.26752851385409882</v>
       </c>
-      <c r="N20" s="26">
-        <f t="shared" ref="N20:Q20" si="7">N19/N21</f>
+      <c r="L20" s="35"/>
+      <c r="M20" s="26">
+        <f>M19/M21</f>
+        <v>0.17958681979612326</v>
+      </c>
+      <c r="N20" s="35"/>
+      <c r="P20" s="26">
+        <f t="shared" ref="P20:S20" si="7">P19/P21</f>
         <v>5.5861538461538573E-2</v>
       </c>
-      <c r="O20" s="26">
+      <c r="Q20" s="26">
         <f t="shared" si="7"/>
         <v>7.9707692307692382E-2</v>
       </c>
-      <c r="P20" s="26">
+      <c r="R20" s="26">
         <f t="shared" si="7"/>
         <v>0.12526153846153862</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="S20" s="26">
         <f t="shared" si="7"/>
         <v>0.13903076923076921</v>
       </c>
-      <c r="R20" s="26">
-        <f>R19/R21</f>
+      <c r="T20" s="26">
+        <f>T19/T21</f>
         <v>-0.26262619027880874</v>
       </c>
-      <c r="S20" s="26">
-        <f>S19/S21</f>
+      <c r="U20" s="26">
+        <f>U19/U21</f>
         <v>5.8588383341115234E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
         <v>4</v>
       </c>
@@ -2592,18 +2718,17 @@
         <v>68.348799999999997</v>
       </c>
       <c r="J21" s="36">
-        <f>S21</f>
+        <f>U21</f>
         <v>68.358260999999999</v>
       </c>
       <c r="K21" s="27">
         <v>68.381495999999999</v>
       </c>
-      <c r="N21" s="27">
-        <v>65</v>
-      </c>
-      <c r="O21" s="27">
-        <v>65</v>
-      </c>
+      <c r="L21" s="36"/>
+      <c r="M21" s="6">
+        <v>68.496117999999996</v>
+      </c>
+      <c r="N21" s="36"/>
       <c r="P21" s="27">
         <v>65</v>
       </c>
@@ -2611,13 +2736,19 @@
         <v>65</v>
       </c>
       <c r="R21" s="27">
+        <v>65</v>
+      </c>
+      <c r="S21" s="27">
+        <v>65</v>
+      </c>
+      <c r="T21" s="27">
         <v>67.575134000000006</v>
       </c>
-      <c r="S21" s="27">
+      <c r="U21" s="27">
         <v>68.358260999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
@@ -2629,31 +2760,37 @@
         <f>K8/I8-1</f>
         <v>4.9602262016965133</v>
       </c>
-      <c r="N23" s="49" t="s">
+      <c r="L23" s="33"/>
+      <c r="M23" s="23">
+        <f>M8/K8-1</f>
+        <v>3.254372371042713E-2</v>
+      </c>
+      <c r="N23" s="33"/>
+      <c r="P23" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="O23" s="23">
-        <f t="shared" ref="O23:R23" si="8">O8/N8-1</f>
+      <c r="Q23" s="23">
+        <f t="shared" ref="Q23:T23" si="8">Q8/P8-1</f>
         <v>5.5274142515486124E-2</v>
       </c>
-      <c r="P23" s="23">
+      <c r="R23" s="23">
         <f t="shared" si="8"/>
         <v>7.4746621621621712E-2</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="S23" s="23">
         <f t="shared" si="8"/>
         <v>0.10179436804191222</v>
       </c>
-      <c r="R23" s="23">
+      <c r="T23" s="23">
         <f t="shared" si="8"/>
         <v>-0.56885238106559521</v>
       </c>
-      <c r="S23" s="23">
-        <f>S8/R8-1</f>
+      <c r="U23" s="23">
+        <f>U8/T8-1</f>
         <v>0.86167250268824636</v>
       </c>
     </row>
-    <row r="24" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
         <v>49</v>
       </c>
@@ -2668,12 +2805,8 @@
         <f>K8/J8-1</f>
         <v>0.11117358682855683</v>
       </c>
-      <c r="N24" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="O24" s="49" t="s">
-        <v>118</v>
-      </c>
+      <c r="L24" s="48"/>
+      <c r="N24" s="48"/>
       <c r="P24" s="49" t="s">
         <v>118</v>
       </c>
@@ -2686,8 +2819,14 @@
       <c r="S24" s="49" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="U24" s="49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2703,32 +2842,36 @@
         <f>K10/K8</f>
         <v>0.68836775356589386</v>
       </c>
-      <c r="N26" s="25">
-        <f t="shared" ref="N26:O26" si="9">N10/N8</f>
+      <c r="M26" s="25">
+        <f>M10/M8</f>
+        <v>0.67520215633423175</v>
+      </c>
+      <c r="P26" s="25">
+        <f t="shared" ref="P26:Q26" si="9">P10/P8</f>
         <v>0.69341493486237171</v>
       </c>
-      <c r="O26" s="25">
+      <c r="Q26" s="25">
         <f t="shared" si="9"/>
         <v>0.69766328828828827</v>
       </c>
-      <c r="P26" s="25">
-        <f t="shared" ref="P26:Q26" si="10">P10/P8</f>
+      <c r="R26" s="25">
+        <f t="shared" ref="R26:S26" si="10">R10/R8</f>
         <v>0.70631303208906349</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="S26" s="25">
         <f t="shared" si="10"/>
         <v>0.70364470649770572</v>
       </c>
-      <c r="R26" s="25">
-        <f t="shared" ref="R26" si="11">R10/R8</f>
+      <c r="T26" s="25">
+        <f t="shared" ref="T26" si="11">T10/T8</f>
         <v>0.61137610631668915</v>
       </c>
-      <c r="S26" s="25">
-        <f>S10/S8</f>
+      <c r="U26" s="25">
+        <f>U10/U8</f>
         <v>0.66660742583788757</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
@@ -2744,32 +2887,36 @@
         <f>K15/K8</f>
         <v>0.38816850627787092</v>
       </c>
-      <c r="N27" s="25">
-        <f t="shared" ref="N27:O27" si="12">N15/N8</f>
+      <c r="M27" s="25">
+        <f>M15/M8</f>
+        <v>0.2960365106591521</v>
+      </c>
+      <c r="P27" s="25">
+        <f t="shared" ref="P27:Q27" si="12">P15/P8</f>
         <v>0.14492193882856261</v>
       </c>
-      <c r="O27" s="25">
+      <c r="Q27" s="25">
         <f t="shared" si="12"/>
         <v>0.13966779279279284</v>
       </c>
-      <c r="P27" s="25">
-        <f t="shared" ref="P27:Q27" si="13">P15/P8</f>
+      <c r="R27" s="25">
+        <f t="shared" ref="R27:S27" si="13">R15/R8</f>
         <v>0.14881466928618214</v>
       </c>
-      <c r="Q27" s="25">
+      <c r="S27" s="25">
         <f t="shared" si="13"/>
         <v>0.14958037136539787</v>
       </c>
-      <c r="R27" s="25">
-        <f t="shared" ref="R27" si="14">R15/R8</f>
+      <c r="T27" s="25">
+        <f t="shared" ref="T27" si="14">T15/T8</f>
         <v>-0.43703989633019935</v>
       </c>
-      <c r="S27" s="25">
-        <f>S15/S8</f>
+      <c r="U27" s="25">
+        <f>U15/U8</f>
         <v>0.1543667895913865</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
@@ -2785,32 +2932,36 @@
         <f>K19/K8</f>
         <v>0.2892880862772384</v>
       </c>
-      <c r="N28" s="25">
-        <f t="shared" ref="N28:O28" si="15">N19/N8</f>
+      <c r="M28" s="25">
+        <f>M19/M8</f>
+        <v>0.18838826268071546</v>
+      </c>
+      <c r="P28" s="25">
+        <f t="shared" ref="P28:Q28" si="15">P19/P8</f>
         <v>5.3937224260610039E-2</v>
       </c>
-      <c r="O28" s="25">
+      <c r="Q28" s="25">
         <f t="shared" si="15"/>
         <v>7.2930743243243307E-2</v>
       </c>
-      <c r="P28" s="25">
-        <f t="shared" ref="P28:Q28" si="16">P19/P8</f>
+      <c r="R28" s="25">
+        <f t="shared" ref="R28:S28" si="16">R19/R8</f>
         <v>0.10664047151277026</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="S28" s="25">
         <f t="shared" si="16"/>
         <v>0.1074273079574903</v>
       </c>
-      <c r="R28" s="25">
-        <f t="shared" ref="R28" si="17">R19/R8</f>
+      <c r="T28" s="25">
+        <f t="shared" ref="T28" si="17">T19/T8</f>
         <v>-0.48931594474620199</v>
       </c>
-      <c r="S28" s="25">
-        <f>S19/S8</f>
+      <c r="U28" s="25">
+        <f>U19/U8</f>
         <v>5.9314879815168718E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
@@ -2826,32 +2977,36 @@
         <f>K28/K18/K17</f>
         <v>5.0590924103622523E-3</v>
       </c>
-      <c r="N29" s="25">
-        <f t="shared" ref="N29:O29" si="18">N28/N18/N17</f>
+      <c r="M29" s="25">
+        <f>M28/M18/M17</f>
+        <v>3.4631110778390712E-3</v>
+      </c>
+      <c r="P29" s="25">
+        <f t="shared" ref="P29:Q29" si="18">P28/P18/P17</f>
         <v>5.497078495941693E-3</v>
       </c>
-      <c r="O29" s="25">
+      <c r="Q29" s="25">
         <f t="shared" si="18"/>
         <v>4.7377893376233451E-3</v>
       </c>
-      <c r="P29" s="25">
-        <f>P28/P18/P17</f>
-        <v>3.9554245032928335E-3</v>
-      </c>
-      <c r="Q29" s="25">
-        <f>Q28/Q18/Q17</f>
-        <v>3.3023453282151893E-3</v>
-      </c>
       <c r="R29" s="25">
         <f>R28/R18/R17</f>
-        <v>-5.7628241241057991E-3</v>
+        <v>3.9554245032928335E-3</v>
       </c>
       <c r="S29" s="25">
         <f>S28/S18/S17</f>
+        <v>3.3023453282151893E-3</v>
+      </c>
+      <c r="T29" s="25">
+        <f>T28/T18/T17</f>
+        <v>-5.7628241241057991E-3</v>
+      </c>
+      <c r="U29" s="25">
+        <f>U28/U18/U17</f>
         <v>3.0944999444469812E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>54</v>
       </c>
@@ -2859,62 +3014,67 @@
       <c r="F33" s="33"/>
       <c r="H33" s="33"/>
       <c r="J33" s="33"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L33" s="33"/>
+      <c r="N33" s="33"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D34" s="34">
-        <f>P34</f>
+        <f>R34</f>
         <v>43</v>
       </c>
       <c r="E34" s="1">
         <v>44</v>
       </c>
       <c r="F34" s="34">
-        <f>Q34</f>
+        <f>S34</f>
         <v>45</v>
       </c>
       <c r="G34" s="1">
         <v>45</v>
       </c>
       <c r="H34" s="34">
-        <f>R34</f>
+        <f>T34</f>
         <v>46</v>
       </c>
       <c r="I34" s="1">
         <v>46</v>
       </c>
       <c r="J34" s="34">
-        <f>S34</f>
+        <f>U34</f>
         <v>46</v>
       </c>
       <c r="K34" s="1">
         <v>47</v>
       </c>
-      <c r="N34" s="1">
+      <c r="M34" s="1">
+        <v>51</v>
+      </c>
+      <c r="P34" s="1">
         <v>38</v>
       </c>
-      <c r="O34" s="1">
+      <c r="Q34" s="1">
         <v>40</v>
       </c>
-      <c r="P34" s="1">
+      <c r="R34" s="1">
         <v>43</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="S34" s="1">
         <v>45</v>
       </c>
-      <c r="R34" s="1">
+      <c r="T34" s="1">
         <v>46</v>
       </c>
-      <c r="S34" s="1">
+      <c r="U34" s="1">
         <v>46</v>
       </c>
-      <c r="T34" s="1">
+      <c r="V34" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:22" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="50" t="s">
         <v>120</v>
       </c>
@@ -2922,29 +3082,31 @@
       <c r="F35" s="52"/>
       <c r="H35" s="52"/>
       <c r="J35" s="52">
-        <f t="shared" ref="J35:J36" si="19">S35</f>
+        <f t="shared" ref="J35:J36" si="19">U35</f>
         <v>1275</v>
       </c>
-      <c r="N35" s="51">
+      <c r="L35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="P35" s="51">
         <v>812</v>
       </c>
-      <c r="O35" s="51">
+      <c r="Q35" s="51">
         <v>953</v>
       </c>
-      <c r="P35" s="51">
+      <c r="R35" s="51">
         <v>899</v>
       </c>
-      <c r="Q35" s="51">
+      <c r="S35" s="51">
         <v>978</v>
       </c>
-      <c r="R35" s="51">
+      <c r="T35" s="51">
         <v>931</v>
       </c>
-      <c r="S35" s="51">
+      <c r="U35" s="51">
         <v>1275</v>
       </c>
     </row>
-    <row r="36" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:22" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="50" t="s">
         <v>121</v>
       </c>
@@ -2955,26 +3117,28 @@
         <f t="shared" si="19"/>
         <v>58</v>
       </c>
-      <c r="N36" s="51">
+      <c r="L36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="P36" s="51">
         <v>38</v>
       </c>
-      <c r="O36" s="51">
+      <c r="Q36" s="51">
         <v>47</v>
       </c>
-      <c r="P36" s="51">
+      <c r="R36" s="51">
         <v>56</v>
       </c>
-      <c r="Q36" s="51">
+      <c r="S36" s="51">
         <v>56</v>
       </c>
-      <c r="R36" s="51">
+      <c r="T36" s="51">
         <v>45</v>
       </c>
-      <c r="S36" s="51">
+      <c r="U36" s="51">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="50" t="s">
         <v>122</v>
       </c>
@@ -2982,29 +3146,31 @@
       <c r="F37" s="52"/>
       <c r="H37" s="52"/>
       <c r="J37" s="52">
-        <f>S37</f>
+        <f>U37</f>
         <v>157</v>
       </c>
-      <c r="N37" s="51">
+      <c r="L37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="P37" s="51">
         <v>210</v>
       </c>
-      <c r="O37" s="51">
+      <c r="Q37" s="51">
         <v>134</v>
       </c>
-      <c r="P37" s="51">
+      <c r="R37" s="51">
         <v>127</v>
       </c>
-      <c r="Q37" s="51">
+      <c r="S37" s="51">
         <v>153</v>
       </c>
-      <c r="R37" s="51">
+      <c r="T37" s="51">
         <v>150</v>
       </c>
-      <c r="S37" s="51">
+      <c r="U37" s="51">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="2:20" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="53" t="s">
         <v>117</v>
       </c>
@@ -3012,43 +3178,45 @@
       <c r="F38" s="54"/>
       <c r="H38" s="54"/>
       <c r="J38" s="54">
-        <f>S38</f>
+        <f>U38</f>
         <v>1490</v>
       </c>
       <c r="K38" s="53">
         <v>1500</v>
       </c>
-      <c r="N38" s="53">
-        <f t="shared" ref="N38:Q38" si="20">SUM(N35:N37)</f>
+      <c r="L38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="P38" s="53">
+        <f t="shared" ref="P38:S38" si="20">SUM(P35:P37)</f>
         <v>1060</v>
       </c>
-      <c r="O38" s="53">
+      <c r="Q38" s="53">
         <f t="shared" si="20"/>
         <v>1134</v>
       </c>
-      <c r="P38" s="53">
+      <c r="R38" s="53">
         <f t="shared" si="20"/>
         <v>1082</v>
       </c>
-      <c r="Q38" s="53">
+      <c r="S38" s="53">
         <f t="shared" si="20"/>
         <v>1187</v>
       </c>
-      <c r="R38" s="53">
-        <f>SUM(R35:R37)</f>
+      <c r="T38" s="53">
+        <f>SUM(T35:T37)</f>
         <v>1126</v>
       </c>
-      <c r="S38" s="53">
-        <f>SUM(S35:S37)</f>
+      <c r="U38" s="53">
+        <f>SUM(U35:U37)</f>
         <v>1490</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B41" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>76</v>
       </c>
@@ -3060,32 +3228,36 @@
         <f>29.74+0.195</f>
         <v>29.934999999999999</v>
       </c>
-      <c r="N42" s="6">
+      <c r="M42" s="6">
+        <f>29.74+0.07</f>
+        <v>29.81</v>
+      </c>
+      <c r="P42" s="6">
         <f>23.552+2.19</f>
         <v>25.742000000000001</v>
       </c>
-      <c r="O42" s="27">
+      <c r="Q42" s="27">
         <f>25.171+1.49</f>
         <v>26.660999999999998</v>
       </c>
-      <c r="P42" s="6">
+      <c r="R42" s="6">
         <f>28.045+0.969</f>
         <v>29.014000000000003</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="S42" s="6">
         <f>29.35+0.653</f>
         <v>30.003</v>
       </c>
-      <c r="R42" s="6">
+      <c r="T42" s="6">
         <f>29.35+0.279</f>
         <v>29.629000000000001</v>
       </c>
-      <c r="S42" s="6">
+      <c r="U42" s="6">
         <f>29.35+0.279</f>
         <v>29.629000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
@@ -3095,26 +3267,29 @@
       <c r="K43" s="6">
         <v>0</v>
       </c>
-      <c r="N43" s="6">
-        <v>0</v>
-      </c>
-      <c r="O43" s="27">
+      <c r="M43" s="6">
         <v>0</v>
       </c>
       <c r="P43" s="6">
         <v>0</v>
       </c>
-      <c r="Q43" s="6">
-        <v>0.31</v>
+      <c r="Q43" s="27">
+        <v>0</v>
       </c>
       <c r="R43" s="6">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="S43" s="6">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T43" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="U43" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>78</v>
       </c>
@@ -3124,26 +3299,29 @@
       <c r="K44" s="6">
         <v>42.151000000000003</v>
       </c>
-      <c r="N44" s="6">
+      <c r="M44" s="6">
+        <v>68.204999999999998</v>
+      </c>
+      <c r="P44" s="6">
         <v>34.72</v>
       </c>
-      <c r="O44" s="27">
+      <c r="Q44" s="27">
         <v>34.890999999999998</v>
       </c>
-      <c r="P44" s="6">
+      <c r="R44" s="6">
         <v>41.716999999999999</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="S44" s="6">
         <v>47.247999999999998</v>
       </c>
-      <c r="R44" s="6">
+      <c r="T44" s="6">
         <v>41.453000000000003</v>
       </c>
-      <c r="S44" s="6">
+      <c r="U44" s="6">
         <v>39.53</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
@@ -3153,26 +3331,29 @@
       <c r="K45" s="6">
         <v>173.00899999999999</v>
       </c>
-      <c r="N45" s="6">
-        <v>0</v>
-      </c>
-      <c r="O45" s="27">
-        <v>0</v>
+      <c r="M45" s="6">
+        <v>177.53800000000001</v>
       </c>
       <c r="P45" s="6">
         <v>0</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="Q45" s="27">
         <v>0</v>
       </c>
       <c r="R45" s="6">
+        <v>0</v>
+      </c>
+      <c r="S45" s="6">
+        <v>0</v>
+      </c>
+      <c r="T45" s="6">
         <v>157.14500000000001</v>
       </c>
-      <c r="S45" s="6">
+      <c r="U45" s="6">
         <v>167.32400000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>80</v>
       </c>
@@ -3182,26 +3363,29 @@
       <c r="K46" s="6">
         <v>4.2320000000000002</v>
       </c>
-      <c r="N46" s="6">
-        <v>0</v>
-      </c>
-      <c r="O46" s="27">
+      <c r="M46" s="6">
         <v>0</v>
       </c>
       <c r="P46" s="6">
         <v>0</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q46" s="27">
         <v>0</v>
       </c>
       <c r="R46" s="6">
+        <v>0</v>
+      </c>
+      <c r="S46" s="6">
+        <v>0</v>
+      </c>
+      <c r="T46" s="6">
         <v>4.1180000000000003</v>
       </c>
-      <c r="S46" s="6">
+      <c r="U46" s="6">
         <v>4.3739999999999997</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>81</v>
       </c>
@@ -3241,32 +3425,36 @@
         <f>SUM(K42:K46)</f>
         <v>249.32699999999997</v>
       </c>
-      <c r="N47" s="6">
-        <f t="shared" ref="N47:R47" si="22">SUM(N42:N46)</f>
+      <c r="M47" s="6">
+        <f>SUM(M42:M46)</f>
+        <v>275.553</v>
+      </c>
+      <c r="P47" s="6">
+        <f t="shared" ref="P47:T47" si="22">SUM(P42:P46)</f>
         <v>60.462000000000003</v>
       </c>
-      <c r="O47" s="27">
+      <c r="Q47" s="27">
         <f t="shared" si="22"/>
         <v>61.551999999999992</v>
       </c>
-      <c r="P47" s="6">
+      <c r="R47" s="6">
         <f t="shared" si="22"/>
         <v>70.730999999999995</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="S47" s="6">
         <f t="shared" si="22"/>
         <v>77.560999999999993</v>
       </c>
-      <c r="R47" s="6">
+      <c r="T47" s="6">
         <f t="shared" si="22"/>
         <v>232.655</v>
       </c>
-      <c r="S47" s="6">
-        <f>SUM(S42:S46)</f>
+      <c r="U47" s="6">
+        <f>SUM(U42:U46)</f>
         <v>241.167</v>
       </c>
     </row>
-    <row r="48" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
@@ -3280,26 +3468,31 @@
       <c r="K48" s="29">
         <v>1.25</v>
       </c>
-      <c r="N48" s="29">
+      <c r="L48" s="33"/>
+      <c r="M48" s="29">
+        <v>1.462</v>
+      </c>
+      <c r="N48" s="33"/>
+      <c r="P48" s="29">
         <v>1.339</v>
       </c>
-      <c r="O48" s="59">
+      <c r="Q48" s="59">
         <v>1.3560000000000001</v>
       </c>
-      <c r="P48" s="29">
+      <c r="R48" s="29">
         <v>1.5049999999999999</v>
       </c>
-      <c r="Q48" s="29">
+      <c r="S48" s="29">
         <v>1.2969999999999999</v>
       </c>
-      <c r="R48" s="29">
+      <c r="T48" s="29">
         <v>0.50800000000000001</v>
       </c>
-      <c r="S48" s="29">
+      <c r="U48" s="29">
         <v>1.226</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>83</v>
       </c>
@@ -3309,26 +3502,29 @@
       <c r="K49" s="6">
         <v>14.776999999999999</v>
       </c>
-      <c r="N49" s="6">
+      <c r="M49" s="6">
+        <v>3.2829999999999999</v>
+      </c>
+      <c r="P49" s="6">
         <v>3.3460000000000001</v>
       </c>
-      <c r="O49" s="27">
+      <c r="Q49" s="27">
         <v>3.5209999999999999</v>
       </c>
-      <c r="P49" s="6">
+      <c r="R49" s="6">
         <v>4.3070000000000004</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="S49" s="6">
         <v>4.9290000000000003</v>
       </c>
-      <c r="R49" s="6">
+      <c r="T49" s="6">
         <v>1.6719999999999999</v>
       </c>
-      <c r="S49" s="6">
+      <c r="U49" s="6">
         <v>5.4260000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>6</v>
       </c>
@@ -3342,26 +3538,31 @@
       <c r="K50" s="29">
         <v>7.734</v>
       </c>
-      <c r="N50" s="29">
+      <c r="L50" s="33"/>
+      <c r="M50" s="29">
+        <v>5.1369999999999996</v>
+      </c>
+      <c r="N50" s="33"/>
+      <c r="P50" s="29">
         <v>10.185</v>
       </c>
-      <c r="O50" s="59">
+      <c r="Q50" s="59">
         <v>5.5709999999999997</v>
       </c>
-      <c r="P50" s="29">
+      <c r="R50" s="29">
         <v>5.298</v>
       </c>
-      <c r="Q50" s="29">
+      <c r="S50" s="29">
         <v>2.1880000000000002</v>
       </c>
-      <c r="R50" s="29">
+      <c r="T50" s="29">
         <v>2.302</v>
       </c>
-      <c r="S50" s="29">
+      <c r="U50" s="29">
         <v>11.510999999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>84</v>
       </c>
@@ -3371,26 +3572,29 @@
       <c r="K51" s="6">
         <v>0.314</v>
       </c>
-      <c r="N51" s="6">
-        <v>0</v>
-      </c>
-      <c r="O51" s="27">
+      <c r="M51" s="6">
         <v>0</v>
       </c>
       <c r="P51" s="6">
         <v>0</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="Q51" s="27">
         <v>0</v>
       </c>
       <c r="R51" s="6">
+        <v>0</v>
+      </c>
+      <c r="S51" s="6">
+        <v>0</v>
+      </c>
+      <c r="T51" s="6">
         <v>7.3940000000000001</v>
       </c>
-      <c r="S51" s="6">
+      <c r="U51" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>85</v>
       </c>
@@ -3430,39 +3634,43 @@
         <f>K47+SUM(K48:K51)</f>
         <v>273.40199999999999</v>
       </c>
-      <c r="N52" s="6">
-        <f t="shared" ref="N52:S52" si="24">N47+SUM(N48:N51)</f>
+      <c r="M52" s="6">
+        <f>M47+SUM(M48:M51)</f>
+        <v>285.435</v>
+      </c>
+      <c r="P52" s="6">
+        <f t="shared" ref="P52:U52" si="24">P47+SUM(P48:P51)</f>
         <v>75.332000000000008</v>
       </c>
-      <c r="O52" s="27">
+      <c r="Q52" s="27">
         <f t="shared" si="24"/>
         <v>72</v>
       </c>
-      <c r="P52" s="6">
+      <c r="R52" s="6">
         <f t="shared" si="24"/>
         <v>81.840999999999994</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="S52" s="6">
         <f t="shared" si="24"/>
         <v>85.974999999999994</v>
       </c>
-      <c r="R52" s="6">
+      <c r="T52" s="6">
         <f t="shared" si="24"/>
         <v>244.53100000000001</v>
       </c>
-      <c r="S52" s="6">
+      <c r="U52" s="6">
         <f t="shared" si="24"/>
         <v>259.34000000000003</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="P53" s="6"/>
       <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-    </row>
-    <row r="54" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+    </row>
+    <row r="54" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>109</v>
       </c>
@@ -3476,26 +3684,31 @@
       <c r="K54" s="29">
         <v>17.963999999999999</v>
       </c>
-      <c r="N54" s="29">
+      <c r="L54" s="33"/>
+      <c r="M54" s="29">
+        <v>9.4130000000000003</v>
+      </c>
+      <c r="N54" s="33"/>
+      <c r="P54" s="29">
         <v>4.1109999999999998</v>
       </c>
-      <c r="O54" s="29">
+      <c r="Q54" s="29">
         <v>7.8460000000000001</v>
       </c>
-      <c r="P54" s="29">
+      <c r="R54" s="29">
         <v>11.476000000000001</v>
       </c>
-      <c r="Q54" s="29">
+      <c r="S54" s="29">
         <v>9.2270000000000003</v>
       </c>
-      <c r="R54" s="29">
+      <c r="T54" s="29">
         <v>34.030999999999999</v>
       </c>
-      <c r="S54" s="29">
+      <c r="U54" s="29">
         <v>16.661000000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>86</v>
       </c>
@@ -3505,26 +3718,29 @@
       <c r="K55" s="6">
         <v>10.568</v>
       </c>
-      <c r="N55" s="6">
+      <c r="M55" s="6">
+        <v>9.2409999999999997</v>
+      </c>
+      <c r="P55" s="6">
         <v>7.093</v>
       </c>
-      <c r="O55" s="6">
+      <c r="Q55" s="6">
         <v>5.5019999999999998</v>
       </c>
-      <c r="P55" s="6">
+      <c r="R55" s="6">
         <v>7.3540000000000001</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="S55" s="6">
         <v>9.8190000000000008</v>
       </c>
-      <c r="R55" s="6">
+      <c r="T55" s="6">
         <v>8.282</v>
       </c>
-      <c r="S55" s="6">
+      <c r="U55" s="6">
         <v>13.513</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>134</v>
       </c>
@@ -3543,22 +3759,25 @@
       <c r="K56" s="1">
         <v>0</v>
       </c>
-      <c r="N56" s="6">
+      <c r="M56" s="6">
+        <v>1.04</v>
+      </c>
+      <c r="P56" s="6">
         <v>0.66900000000000004</v>
       </c>
-      <c r="O56" s="6">
+      <c r="Q56" s="6">
         <v>0.82499999999999996</v>
       </c>
-      <c r="P56" s="6">
+      <c r="R56" s="6">
         <v>0.71899999999999997</v>
       </c>
-      <c r="Q56" s="6">
+      <c r="S56" s="6">
         <v>0.90700000000000003</v>
       </c>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>135</v>
       </c>
@@ -3577,27 +3796,30 @@
       <c r="K57" s="1">
         <v>0</v>
       </c>
-      <c r="N57" s="6">
+      <c r="M57" s="6">
+        <v>0</v>
+      </c>
+      <c r="P57" s="6">
         <v>0.29299999999999998</v>
       </c>
-      <c r="O57" s="6">
+      <c r="Q57" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P57" s="6">
+      <c r="R57" s="6">
         <v>6.3E-2</v>
       </c>
-      <c r="Q57" s="6">
+      <c r="S57" s="6">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C58" s="6">
-        <f t="shared" ref="C58:K58" si="25">SUM(C54:C57)</f>
+        <f t="shared" ref="C58:M58" si="25">SUM(C54:C57)</f>
         <v>0</v>
       </c>
       <c r="D58" s="34">
@@ -3632,32 +3854,36 @@
         <f t="shared" si="25"/>
         <v>28.531999999999996</v>
       </c>
-      <c r="N58" s="6">
-        <f t="shared" ref="N58" si="26">SUM(N54:N57)</f>
+      <c r="M58" s="6">
+        <f t="shared" si="25"/>
+        <v>19.693999999999999</v>
+      </c>
+      <c r="P58" s="6">
+        <f t="shared" ref="P58" si="26">SUM(P54:P57)</f>
         <v>12.166</v>
       </c>
-      <c r="O58" s="6">
-        <f>SUM(O54:O57)</f>
+      <c r="Q58" s="6">
+        <f>SUM(Q54:Q57)</f>
         <v>14.242999999999999</v>
       </c>
-      <c r="P58" s="6">
-        <f t="shared" ref="P58:S58" si="27">SUM(P54:P57)</f>
+      <c r="R58" s="6">
+        <f t="shared" ref="R58:U58" si="27">SUM(R54:R57)</f>
         <v>19.612000000000002</v>
       </c>
-      <c r="Q58" s="6">
+      <c r="S58" s="6">
         <f t="shared" si="27"/>
         <v>20.044</v>
       </c>
-      <c r="R58" s="6">
+      <c r="T58" s="6">
         <f t="shared" si="27"/>
         <v>42.313000000000002</v>
       </c>
-      <c r="S58" s="6">
+      <c r="U58" s="6">
         <f t="shared" si="27"/>
         <v>30.173999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>109</v>
       </c>
@@ -3671,26 +3897,31 @@
       <c r="K59" s="29">
         <v>189.98699999999999</v>
       </c>
-      <c r="N59" s="29">
+      <c r="L59" s="33"/>
+      <c r="M59" s="29">
+        <v>197.50700000000001</v>
+      </c>
+      <c r="N59" s="33"/>
+      <c r="P59" s="29">
         <v>13.157999999999999</v>
       </c>
-      <c r="O59" s="29">
+      <c r="Q59" s="29">
         <v>2.2440000000000002</v>
       </c>
-      <c r="P59" s="29">
+      <c r="R59" s="29">
         <v>4.4029999999999996</v>
       </c>
-      <c r="Q59" s="29">
+      <c r="S59" s="29">
         <v>4.9909999999999997</v>
       </c>
-      <c r="R59" s="29">
+      <c r="T59" s="29">
         <v>171.024</v>
       </c>
-      <c r="S59" s="29">
+      <c r="U59" s="29">
         <v>192.833</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>80</v>
       </c>
@@ -3700,26 +3931,29 @@
       <c r="K60" s="6">
         <v>2.274</v>
       </c>
-      <c r="N60" s="6">
+      <c r="M60" s="6">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="P60" s="6">
         <v>1.5109999999999999</v>
       </c>
-      <c r="O60" s="6">
+      <c r="Q60" s="6">
         <v>1.726</v>
       </c>
-      <c r="P60" s="6">
+      <c r="R60" s="6">
         <v>2.0870000000000002</v>
       </c>
-      <c r="Q60" s="6">
+      <c r="S60" s="6">
         <v>2.0569999999999999</v>
       </c>
-      <c r="R60" s="6">
+      <c r="T60" s="6">
         <v>1.5820000000000001</v>
       </c>
-      <c r="S60" s="6">
+      <c r="U60" s="6">
         <v>2.27</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>137</v>
       </c>
@@ -3732,26 +3966,29 @@
       <c r="K61" s="1">
         <v>0</v>
       </c>
-      <c r="N61" s="6">
+      <c r="M61" s="6">
+        <v>0</v>
+      </c>
+      <c r="P61" s="6">
         <v>42.435000000000002</v>
       </c>
-      <c r="O61" s="6">
-        <v>0</v>
-      </c>
-      <c r="P61" s="6">
-        <v>0</v>
-      </c>
       <c r="Q61" s="6">
         <v>0</v>
       </c>
-      <c r="R61" s="1">
-        <v>0</v>
-      </c>
-      <c r="S61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R61" s="6">
+        <v>0</v>
+      </c>
+      <c r="S61" s="6">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>136</v>
       </c>
@@ -3764,30 +4001,33 @@
       <c r="K62" s="1">
         <v>0</v>
       </c>
-      <c r="N62" s="6">
+      <c r="M62" s="6">
+        <v>0</v>
+      </c>
+      <c r="P62" s="6">
         <f>0.442+1.577</f>
         <v>2.0190000000000001</v>
       </c>
-      <c r="O62" s="6">
+      <c r="Q62" s="6">
         <f>0.361+0.233</f>
         <v>0.59399999999999997</v>
       </c>
-      <c r="P62" s="6">
+      <c r="R62" s="6">
         <f>0.481+0.35</f>
         <v>0.83099999999999996</v>
       </c>
-      <c r="Q62" s="6">
+      <c r="S62" s="6">
         <f>1.284+0.688</f>
         <v>1.972</v>
       </c>
-      <c r="R62" s="1">
-        <v>0</v>
-      </c>
-      <c r="S62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="1">
+        <v>0</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>88</v>
       </c>
@@ -3826,39 +4066,43 @@
         <f>SUM(K58:K62)</f>
         <v>220.79300000000001</v>
       </c>
-      <c r="N63" s="6">
-        <f t="shared" ref="N63:S63" si="29">SUM(N58:N62)</f>
+      <c r="M63" s="6">
+        <f>SUM(M58:M62)</f>
+        <v>218.44800000000001</v>
+      </c>
+      <c r="P63" s="6">
+        <f t="shared" ref="P63:U63" si="29">SUM(P58:P62)</f>
         <v>71.289000000000001</v>
       </c>
-      <c r="O63" s="6">
+      <c r="Q63" s="6">
         <f t="shared" si="29"/>
         <v>18.806999999999999</v>
       </c>
-      <c r="P63" s="6">
+      <c r="R63" s="6">
         <f t="shared" si="29"/>
         <v>26.933</v>
       </c>
-      <c r="Q63" s="6">
+      <c r="S63" s="6">
         <f t="shared" si="29"/>
         <v>29.064</v>
       </c>
-      <c r="R63" s="6">
+      <c r="T63" s="6">
         <f t="shared" si="29"/>
         <v>214.91899999999998</v>
       </c>
-      <c r="S63" s="6">
+      <c r="U63" s="6">
         <f t="shared" si="29"/>
         <v>225.27700000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I64" s="6"/>
       <c r="K64" s="6"/>
-      <c r="N64" s="6"/>
       <c r="P64" s="6"/>
-      <c r="S64" s="6"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R64" s="6"/>
+      <c r="U64" s="6"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>89</v>
       </c>
@@ -3868,26 +4112,29 @@
       <c r="K65" s="6">
         <v>52.609000000000002</v>
       </c>
-      <c r="N65" s="6">
+      <c r="M65" s="1">
+        <v>66.986999999999995</v>
+      </c>
+      <c r="P65" s="6">
         <v>4.0430000000000001</v>
       </c>
-      <c r="O65" s="6">
+      <c r="Q65" s="6">
         <v>53.192999999999998</v>
       </c>
-      <c r="P65" s="6">
+      <c r="R65" s="6">
         <v>54.908000000000001</v>
       </c>
-      <c r="Q65" s="6">
+      <c r="S65" s="6">
         <v>29.809000000000001</v>
       </c>
-      <c r="R65" s="6">
+      <c r="T65" s="6">
         <v>29.809000000000001</v>
       </c>
-      <c r="S65" s="6">
+      <c r="U65" s="6">
         <v>34.063000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
@@ -3899,32 +4146,36 @@
         <f>K65+K63</f>
         <v>273.40199999999999</v>
       </c>
-      <c r="N66" s="6">
-        <f>N65+N63</f>
+      <c r="M66" s="6">
+        <f>M65+M63</f>
+        <v>285.435</v>
+      </c>
+      <c r="P66" s="6">
+        <f>P65+P63</f>
         <v>75.332000000000008</v>
       </c>
-      <c r="O66" s="6">
-        <f>O65+O63</f>
+      <c r="Q66" s="6">
+        <f>Q65+Q63</f>
         <v>72</v>
       </c>
-      <c r="P66" s="6">
-        <f t="shared" ref="P66" si="30">P65+P63</f>
+      <c r="R66" s="6">
+        <f t="shared" ref="R66" si="30">R65+R63</f>
         <v>81.841000000000008</v>
       </c>
-      <c r="Q66" s="6">
-        <f t="shared" ref="Q66" si="31">Q65+Q63</f>
+      <c r="S66" s="6">
+        <f t="shared" ref="S66" si="31">S65+S63</f>
         <v>58.873000000000005</v>
       </c>
-      <c r="R66" s="6">
-        <f>R65+R63</f>
+      <c r="T66" s="6">
+        <f>T65+T63</f>
         <v>244.72799999999998</v>
       </c>
-      <c r="S66" s="6">
-        <f>S65+S63</f>
+      <c r="U66" s="6">
+        <f>U65+U63</f>
         <v>259.34000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>91</v>
       </c>
@@ -3936,32 +4187,36 @@
         <f>K52-K63</f>
         <v>52.60899999999998</v>
       </c>
-      <c r="N68" s="6">
-        <f t="shared" ref="N68:P68" si="32">N52-N63</f>
+      <c r="M68" s="6">
+        <f>M52-M63</f>
+        <v>66.986999999999995</v>
+      </c>
+      <c r="P68" s="6">
+        <f t="shared" ref="P68:R68" si="32">P52-P63</f>
         <v>4.0430000000000064</v>
       </c>
-      <c r="O68" s="6">
+      <c r="Q68" s="6">
         <f t="shared" si="32"/>
         <v>53.192999999999998</v>
       </c>
-      <c r="P68" s="6">
+      <c r="R68" s="6">
         <f t="shared" si="32"/>
         <v>54.907999999999994</v>
       </c>
-      <c r="Q68" s="6">
-        <f t="shared" ref="Q68:R68" si="33">Q52-Q63</f>
+      <c r="S68" s="6">
+        <f t="shared" ref="S68:T68" si="33">S52-S63</f>
         <v>56.910999999999994</v>
       </c>
-      <c r="R68" s="6">
+      <c r="T68" s="6">
         <f t="shared" si="33"/>
         <v>29.612000000000023</v>
       </c>
-      <c r="S68" s="6">
-        <f>S52-S63</f>
+      <c r="U68" s="6">
+        <f>U52-U63</f>
         <v>34.063000000000017</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>92</v>
       </c>
@@ -3973,32 +4228,36 @@
         <f>K68/K21</f>
         <v>0.7693455551191799</v>
       </c>
-      <c r="N69" s="1">
-        <f t="shared" ref="N69" si="34">N68/N21</f>
+      <c r="M69" s="1">
+        <f>M68/M21</f>
+        <v>0.97796783169522106</v>
+      </c>
+      <c r="P69" s="1">
+        <f t="shared" ref="P69" si="34">P68/P21</f>
         <v>6.2200000000000095E-2</v>
       </c>
-      <c r="O69" s="1">
-        <f t="shared" ref="O69:R69" si="35">O68/O21</f>
+      <c r="Q69" s="1">
+        <f t="shared" ref="Q69:T69" si="35">Q68/Q21</f>
         <v>0.8183538461538461</v>
       </c>
-      <c r="P69" s="1">
+      <c r="R69" s="1">
         <f t="shared" si="35"/>
         <v>0.84473846153846144</v>
       </c>
-      <c r="Q69" s="1">
-        <f t="shared" ref="Q69:R69" si="36">Q68/Q21</f>
+      <c r="S69" s="1">
+        <f t="shared" ref="S69" si="36">S68/S21</f>
         <v>0.87555384615384602</v>
       </c>
-      <c r="R69" s="1">
+      <c r="T69" s="1">
         <f t="shared" si="35"/>
         <v>0.4382085280067668</v>
       </c>
-      <c r="S69" s="1">
-        <f>S68/S21</f>
+      <c r="U69" s="1">
+        <f>U68/U21</f>
         <v>0.49830114900085032</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="39" t="s">
         <v>6</v>
       </c>
@@ -4014,32 +4273,38 @@
         <f>K50</f>
         <v>7.734</v>
       </c>
-      <c r="N71" s="41">
-        <f t="shared" ref="N71:O71" si="37">N50</f>
+      <c r="L71" s="40"/>
+      <c r="M71" s="41">
+        <f>M50</f>
+        <v>5.1369999999999996</v>
+      </c>
+      <c r="N71" s="40"/>
+      <c r="P71" s="41">
+        <f t="shared" ref="P71:Q71" si="37">P50</f>
         <v>10.185</v>
       </c>
-      <c r="O71" s="41">
+      <c r="Q71" s="41">
         <f t="shared" si="37"/>
         <v>5.5709999999999997</v>
       </c>
-      <c r="P71" s="41">
-        <f t="shared" ref="P71:R71" si="38">P50</f>
+      <c r="R71" s="41">
+        <f t="shared" ref="R71:T71" si="38">R50</f>
         <v>5.298</v>
       </c>
-      <c r="Q71" s="41">
+      <c r="S71" s="41">
         <f t="shared" si="38"/>
         <v>2.1880000000000002</v>
       </c>
-      <c r="R71" s="41">
+      <c r="T71" s="41">
         <f t="shared" si="38"/>
         <v>2.302</v>
       </c>
-      <c r="S71" s="41">
-        <f>S50</f>
+      <c r="U71" s="41">
+        <f>U50</f>
         <v>11.510999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="39" t="s">
         <v>7</v>
       </c>
@@ -4055,32 +4320,38 @@
         <f>+K54+K59</f>
         <v>207.95099999999999</v>
       </c>
-      <c r="N72" s="41">
-        <f t="shared" ref="N72:O72" si="39">+N54+N59</f>
+      <c r="L72" s="40"/>
+      <c r="M72" s="41">
+        <f>+M54+M59</f>
+        <v>206.92000000000002</v>
+      </c>
+      <c r="N72" s="40"/>
+      <c r="P72" s="41">
+        <f t="shared" ref="P72:Q72" si="39">+P54+P59</f>
         <v>17.268999999999998</v>
       </c>
-      <c r="O72" s="41">
+      <c r="Q72" s="41">
         <f t="shared" si="39"/>
         <v>10.09</v>
       </c>
-      <c r="P72" s="41">
-        <f t="shared" ref="P72:R72" si="40">+P54+P59</f>
+      <c r="R72" s="41">
+        <f t="shared" ref="R72:T72" si="40">+R54+R59</f>
         <v>15.879000000000001</v>
       </c>
-      <c r="Q72" s="41">
+      <c r="S72" s="41">
         <f t="shared" si="40"/>
         <v>14.218</v>
       </c>
-      <c r="R72" s="41">
+      <c r="T72" s="41">
         <f t="shared" si="40"/>
         <v>205.05500000000001</v>
       </c>
-      <c r="S72" s="41">
-        <f>+S54+S59</f>
+      <c r="U72" s="41">
+        <f>+U54+U59</f>
         <v>209.494</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
@@ -4092,77 +4363,86 @@
         <f>K71-K72</f>
         <v>-200.21699999999998</v>
       </c>
-      <c r="N73" s="6">
-        <f t="shared" ref="N73:O73" si="41">N71-N72</f>
+      <c r="M73" s="6">
+        <f>M71-M72</f>
+        <v>-201.78300000000002</v>
+      </c>
+      <c r="P73" s="6">
+        <f t="shared" ref="P73:Q73" si="41">P71-P72</f>
         <v>-7.0839999999999979</v>
       </c>
-      <c r="O73" s="6">
+      <c r="Q73" s="6">
         <f t="shared" si="41"/>
         <v>-4.5190000000000001</v>
       </c>
-      <c r="P73" s="6">
-        <f t="shared" ref="P73:R73" si="42">P71-P72</f>
+      <c r="R73" s="6">
+        <f t="shared" ref="R73:T73" si="42">R71-R72</f>
         <v>-10.581000000000001</v>
       </c>
-      <c r="Q73" s="6">
+      <c r="S73" s="6">
         <f t="shared" si="42"/>
         <v>-12.03</v>
       </c>
-      <c r="R73" s="6">
+      <c r="T73" s="6">
         <f t="shared" si="42"/>
         <v>-202.75300000000001</v>
       </c>
-      <c r="S73" s="6">
-        <f>S71-S72</f>
+      <c r="U73" s="6">
+        <f>U71-U72</f>
         <v>-197.983</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="26" t="s">
         <v>93</v>
       </c>
       <c r="D75" s="35">
-        <f>P75</f>
+        <f>R75</f>
         <v>2.1429</v>
       </c>
       <c r="F75" s="35">
-        <f>Q75</f>
+        <f>S75</f>
         <v>2.968</v>
       </c>
       <c r="H75" s="35">
-        <f>R75</f>
+        <f>T75</f>
         <v>2.0017</v>
       </c>
       <c r="I75" s="26">
         <v>2.3468</v>
       </c>
       <c r="J75" s="35">
-        <f>S75</f>
+        <f>U75</f>
         <v>2.3468</v>
       </c>
       <c r="K75" s="26">
         <v>2.0657999999999999</v>
       </c>
-      <c r="N75" s="26">
+      <c r="L75" s="35"/>
+      <c r="M75" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="N75" s="35"/>
+      <c r="P75" s="26">
         <v>1.65</v>
       </c>
-      <c r="O75" s="26">
+      <c r="Q75" s="26">
         <v>2.4710000000000001</v>
       </c>
-      <c r="P75" s="26">
+      <c r="R75" s="26">
         <v>2.1429</v>
       </c>
-      <c r="Q75" s="26">
+      <c r="S75" s="26">
         <v>2.968</v>
       </c>
-      <c r="R75" s="26">
+      <c r="T75" s="26">
         <v>2.0017</v>
       </c>
-      <c r="S75" s="26">
+      <c r="U75" s="26">
         <v>2.3468</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>5</v>
       </c>
@@ -4178,32 +4458,38 @@
         <f>K75*K21</f>
         <v>141.26249443679998</v>
       </c>
-      <c r="N76" s="6">
-        <f t="shared" ref="N76:O76" si="43">N75*N21</f>
+      <c r="L76" s="44"/>
+      <c r="M76" s="6">
+        <f>M75*M21</f>
+        <v>191.78913039999998</v>
+      </c>
+      <c r="N76" s="44"/>
+      <c r="P76" s="6">
+        <f t="shared" ref="P76:Q76" si="43">P75*P21</f>
         <v>107.25</v>
       </c>
-      <c r="O76" s="6">
+      <c r="Q76" s="6">
         <f t="shared" si="43"/>
         <v>160.61500000000001</v>
       </c>
-      <c r="P76" s="6">
-        <f t="shared" ref="P76:R76" si="44">P75*P21</f>
+      <c r="R76" s="6">
+        <f t="shared" ref="R76:T76" si="44">R75*R21</f>
         <v>139.2885</v>
       </c>
-      <c r="Q76" s="6">
+      <c r="S76" s="6">
         <f t="shared" si="44"/>
         <v>192.92</v>
       </c>
-      <c r="R76" s="6">
+      <c r="T76" s="6">
         <f t="shared" si="44"/>
         <v>135.26514572780002</v>
       </c>
-      <c r="S76" s="6">
-        <f>S75*S21</f>
+      <c r="U76" s="6">
+        <f>U75*U21</f>
         <v>160.42316691479999</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
         <v>9</v>
       </c>
@@ -4219,34 +4505,40 @@
         <f>K76-K73</f>
         <v>341.4794944368</v>
       </c>
-      <c r="N77" s="6">
-        <f t="shared" ref="N77:O77" si="45">N76-N73</f>
+      <c r="L77" s="44"/>
+      <c r="M77" s="6">
+        <f>M76-M73</f>
+        <v>393.57213039999999</v>
+      </c>
+      <c r="N77" s="44"/>
+      <c r="P77" s="6">
+        <f t="shared" ref="P77:Q77" si="45">P76-P73</f>
         <v>114.334</v>
       </c>
-      <c r="O77" s="6">
+      <c r="Q77" s="6">
         <f t="shared" si="45"/>
         <v>165.13400000000001</v>
       </c>
-      <c r="P77" s="6">
-        <f t="shared" ref="P77:R77" si="46">P76-P73</f>
+      <c r="R77" s="6">
+        <f t="shared" ref="R77:T77" si="46">R76-R73</f>
         <v>149.86949999999999</v>
       </c>
-      <c r="Q77" s="6">
+      <c r="S77" s="6">
         <f t="shared" si="46"/>
         <v>204.95</v>
       </c>
-      <c r="R77" s="6">
+      <c r="T77" s="6">
         <f t="shared" si="46"/>
         <v>338.01814572780006</v>
       </c>
-      <c r="S77" s="6">
-        <f>S76-S73</f>
+      <c r="U77" s="6">
+        <f>U76-U73</f>
         <v>358.4061669148</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="76">
-        <f>AVERAGE(O79:S79)</f>
+    <row r="79" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="60">
+        <f>AVERAGE(Q79:U79)</f>
         <v>3.6447220949978716</v>
       </c>
       <c r="B79" s="57" t="s">
@@ -4264,34 +4556,40 @@
         <f>K75/K69</f>
         <v>2.6851393190670807</v>
       </c>
-      <c r="N79" s="57">
-        <f t="shared" ref="N79:O79" si="47">N75/N69</f>
+      <c r="L79" s="58"/>
+      <c r="M79" s="57">
+        <f>M75/M69</f>
+        <v>2.8630798572857419</v>
+      </c>
+      <c r="N79" s="58"/>
+      <c r="P79" s="57">
+        <f t="shared" ref="P79:Q79" si="47">P75/P69</f>
         <v>26.527331189710569</v>
       </c>
-      <c r="O79" s="57">
+      <c r="Q79" s="57">
         <f t="shared" si="47"/>
         <v>3.0194762468745893</v>
       </c>
-      <c r="P79" s="57">
-        <f t="shared" ref="P79:R79" si="48">P75/P69</f>
+      <c r="R79" s="57">
+        <f t="shared" ref="R79:T79" si="48">R75/R69</f>
         <v>2.5367614919501715</v>
       </c>
-      <c r="Q79" s="57">
+      <c r="S79" s="57">
         <f t="shared" si="48"/>
         <v>3.3898543339600433</v>
       </c>
-      <c r="R79" s="57">
+      <c r="T79" s="57">
         <f t="shared" si="48"/>
         <v>4.5679165786775604</v>
       </c>
-      <c r="S79" s="57">
-        <f>S75/S69</f>
+      <c r="U79" s="57">
+        <f>U75/U69</f>
         <v>4.7096018235269916</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="76">
-        <f t="shared" ref="A80:A83" si="49">AVERAGE(O80:S80)</f>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A80" s="60">
+        <f t="shared" ref="A80:A83" si="49">AVERAGE(Q80:U80)</f>
         <v>2.496796985722928</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -4301,33 +4599,33 @@
         <f>K76/SUM(J8:K8)</f>
         <v>1.175727591880082</v>
       </c>
-      <c r="N80" s="57">
-        <f t="shared" ref="N80:O80" si="50">N76/N8</f>
+      <c r="P80" s="57">
+        <f t="shared" ref="P80:Q80" si="50">P76/P8</f>
         <v>1.5931609203939452</v>
       </c>
-      <c r="O80" s="57">
+      <c r="Q80" s="57">
         <f t="shared" si="50"/>
         <v>2.2609093468468466</v>
       </c>
-      <c r="P80" s="57">
-        <f t="shared" ref="P80:R80" si="51">P76/P8</f>
+      <c r="R80" s="57">
+        <f t="shared" ref="R80:T80" si="51">R76/R8</f>
         <v>1.8243418467583494</v>
       </c>
-      <c r="Q80" s="57">
+      <c r="S80" s="57">
         <f t="shared" si="51"/>
         <v>2.293335869332636</v>
       </c>
-      <c r="R80" s="57">
+      <c r="T80" s="57">
         <f t="shared" si="51"/>
         <v>3.7294975248228521</v>
       </c>
-      <c r="S80" s="57">
-        <f>S76/S8</f>
+      <c r="U80" s="57">
+        <f>U76/U8</f>
         <v>2.3759003408539563</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" s="76">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A81" s="60">
         <f t="shared" si="49"/>
         <v>4.2703228836366645</v>
       </c>
@@ -4338,33 +4636,33 @@
         <f>K77/SUM(J8:K8)</f>
         <v>2.8421334712465356</v>
       </c>
-      <c r="N81" s="57">
-        <f t="shared" ref="N81:O81" si="52">N77/N8</f>
+      <c r="P81" s="57">
+        <f t="shared" ref="P81:Q81" si="52">P77/P8</f>
         <v>1.6983912416999658</v>
       </c>
-      <c r="O81" s="57">
+      <c r="Q81" s="57">
         <f t="shared" si="52"/>
         <v>2.3245213963963964</v>
       </c>
-      <c r="P81" s="57">
-        <f t="shared" ref="P81:R81" si="53">P77/P8</f>
+      <c r="R81" s="57">
+        <f t="shared" ref="R81:T81" si="53">R77/R8</f>
         <v>1.9629273084479368</v>
       </c>
-      <c r="Q81" s="57">
+      <c r="S81" s="57">
         <f t="shared" si="53"/>
         <v>2.4363424550058248</v>
       </c>
-      <c r="R81" s="57">
+      <c r="T81" s="57">
         <f t="shared" si="53"/>
         <v>9.3197536664313905</v>
       </c>
-      <c r="S81" s="57">
-        <f>S77/S8</f>
+      <c r="U81" s="57">
+        <f>U77/U8</f>
         <v>5.3080695919017788</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="76">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A82" s="60">
         <f t="shared" si="49"/>
         <v>20.377966557521056</v>
       </c>
@@ -4375,33 +4673,33 @@
         <f>K75/SUM(J20:K20)</f>
         <v>4.5418588938941094</v>
       </c>
-      <c r="N82" s="57">
-        <f t="shared" ref="N82:O82" si="54">N75/N20</f>
+      <c r="P82" s="57">
+        <f t="shared" ref="P82:Q82" si="54">P75/P20</f>
         <v>29.537317543376421</v>
       </c>
-      <c r="O82" s="57">
+      <c r="Q82" s="57">
         <f t="shared" si="54"/>
         <v>31.000772051727438</v>
       </c>
-      <c r="P82" s="57">
-        <f t="shared" ref="P82:R82" si="55">P75/P20</f>
+      <c r="R82" s="57">
+        <f t="shared" ref="R82:T82" si="55">R75/R20</f>
         <v>17.107406042741321</v>
       </c>
-      <c r="Q82" s="57">
+      <c r="S82" s="57">
         <f t="shared" si="55"/>
         <v>21.347792408985285</v>
       </c>
-      <c r="R82" s="57">
+      <c r="T82" s="57">
         <f t="shared" si="55"/>
         <v>-7.6218597919535709</v>
       </c>
-      <c r="S82" s="57">
-        <f>S75/S20</f>
+      <c r="U82" s="57">
+        <f>U75/U20</f>
         <v>40.0557220761048</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" s="76">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A83" s="60">
         <f t="shared" si="49"/>
         <v>28.680426491732657</v>
       </c>
@@ -4412,37 +4710,37 @@
         <f>K77/SUM(J19:K19)</f>
         <v>10.980754210457265</v>
       </c>
-      <c r="N83" s="57">
-        <f t="shared" ref="N83:O83" si="56">N77/N19</f>
+      <c r="P83" s="57">
+        <f t="shared" ref="P83:Q83" si="56">P77/P19</f>
         <v>31.488295235472258</v>
       </c>
-      <c r="O83" s="57">
+      <c r="Q83" s="57">
         <f t="shared" si="56"/>
         <v>31.87299749083186</v>
       </c>
-      <c r="P83" s="57">
-        <f t="shared" ref="P83:R83" si="57">P77/P19</f>
+      <c r="R83" s="57">
+        <f t="shared" ref="R83:T83" si="57">R77/R19</f>
         <v>18.406963890935863</v>
       </c>
-      <c r="Q83" s="57">
+      <c r="S83" s="57">
         <f t="shared" si="57"/>
         <v>22.678986389288482</v>
       </c>
-      <c r="R83" s="57">
+      <c r="T83" s="57">
         <f t="shared" si="57"/>
         <v>-19.046494941556322</v>
       </c>
-      <c r="S83" s="57">
-        <f>S77/S19</f>
+      <c r="U83" s="57">
+        <f>U77/U19</f>
         <v>89.48967962916339</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B86" s="24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4450,32 +4748,32 @@
         <v>5.2080000000000002</v>
       </c>
       <c r="J87" s="44">
-        <f>S87-I87</f>
+        <f>U87-I87</f>
         <v>25.619</v>
       </c>
       <c r="K87" s="6">
         <v>31.850999999999999</v>
       </c>
-      <c r="N87" s="1">
+      <c r="P87" s="1">
         <v>14.754</v>
       </c>
-      <c r="O87" s="27">
+      <c r="Q87" s="27">
         <v>13.302</v>
       </c>
-      <c r="P87" s="6">
+      <c r="R87" s="6">
         <v>20.846</v>
       </c>
-      <c r="Q87" s="6">
+      <c r="S87" s="6">
         <v>23.917000000000002</v>
       </c>
-      <c r="R87" s="6">
+      <c r="T87" s="6">
         <v>4.4800000000000004</v>
       </c>
-      <c r="S87" s="6">
+      <c r="U87" s="6">
         <v>30.827000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>96</v>
       </c>
@@ -4483,32 +4781,32 @@
         <v>2.2919999999999998</v>
       </c>
       <c r="J88" s="44">
-        <f t="shared" ref="J88:J89" si="58">S88-I88</f>
+        <f t="shared" ref="J88:J89" si="58">U88-I88</f>
         <v>0</v>
       </c>
       <c r="K88" s="6">
         <v>-2.8780000000000001</v>
       </c>
-      <c r="N88" s="1">
-        <v>0</v>
-      </c>
-      <c r="O88" s="27">
+      <c r="P88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="27">
         <v>-1.861</v>
       </c>
-      <c r="P88" s="6">
+      <c r="R88" s="6">
         <v>-2.472</v>
       </c>
-      <c r="Q88" s="6">
+      <c r="S88" s="6">
         <v>-2.6160000000000001</v>
       </c>
-      <c r="R88" s="6">
+      <c r="T88" s="6">
         <v>-0.71499999999999997</v>
       </c>
-      <c r="S88" s="6">
+      <c r="U88" s="6">
         <v>2.2919999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>97</v>
       </c>
@@ -4522,26 +4820,26 @@
       <c r="K89" s="6">
         <v>-3.4740000000000002</v>
       </c>
-      <c r="N89" s="1">
+      <c r="P89" s="1">
         <v>-0.97699999999999998</v>
       </c>
-      <c r="O89" s="27">
+      <c r="Q89" s="27">
         <v>-0.621</v>
       </c>
-      <c r="P89" s="6">
+      <c r="R89" s="6">
         <v>-0.61899999999999999</v>
       </c>
-      <c r="Q89" s="6">
+      <c r="S89" s="6">
         <v>-0.68100000000000005</v>
       </c>
-      <c r="R89" s="6">
+      <c r="T89" s="6">
         <v>-5.766</v>
       </c>
-      <c r="S89" s="6">
+      <c r="U89" s="6">
         <v>-5.6859999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>98</v>
       </c>
@@ -4560,41 +4858,43 @@
         <f>SUM(K87:K89)</f>
         <v>25.498999999999999</v>
       </c>
-      <c r="N90" s="59">
-        <f t="shared" ref="N90:R90" si="59">SUM(N87:N89)</f>
+      <c r="L90" s="33"/>
+      <c r="N90" s="33"/>
+      <c r="P90" s="59">
+        <f t="shared" ref="P90:T90" si="59">SUM(P87:P89)</f>
         <v>13.776999999999999</v>
       </c>
-      <c r="O90" s="59">
+      <c r="Q90" s="59">
         <f t="shared" si="59"/>
         <v>10.819999999999999</v>
       </c>
-      <c r="P90" s="29">
+      <c r="R90" s="29">
         <f t="shared" si="59"/>
         <v>17.754999999999999</v>
       </c>
-      <c r="Q90" s="29">
+      <c r="S90" s="29">
         <f t="shared" si="59"/>
         <v>20.62</v>
       </c>
-      <c r="R90" s="29">
+      <c r="T90" s="29">
         <f t="shared" si="59"/>
         <v>-2.0009999999999994</v>
       </c>
-      <c r="S90" s="29">
-        <f>SUM(S87:S89)</f>
+      <c r="U90" s="29">
+        <f>SUM(U87:U89)</f>
         <v>27.433</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I91" s="6"/>
       <c r="J91" s="44"/>
       <c r="K91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>130</v>
       </c>
@@ -4607,26 +4907,26 @@
       <c r="K92" s="6">
         <v>0</v>
       </c>
-      <c r="N92" s="1">
-        <v>0</v>
-      </c>
-      <c r="O92" s="6">
-        <v>0</v>
-      </c>
-      <c r="P92" s="6">
+      <c r="P92" s="1">
         <v>0</v>
       </c>
       <c r="Q92" s="6">
+        <v>0</v>
+      </c>
+      <c r="R92" s="6">
+        <v>0</v>
+      </c>
+      <c r="S92" s="6">
         <v>-0.3</v>
       </c>
-      <c r="R92" s="6">
-        <v>0</v>
-      </c>
-      <c r="S92" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="6">
+        <v>0</v>
+      </c>
+      <c r="U92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>99</v>
       </c>
@@ -4634,32 +4934,32 @@
         <v>0</v>
       </c>
       <c r="J93" s="44">
-        <f t="shared" ref="J93:J95" si="60">S93-I93</f>
+        <f t="shared" ref="J93:J95" si="60">U93-I93</f>
         <v>0</v>
       </c>
       <c r="K93" s="6">
         <v>-0.45400000000000001</v>
       </c>
-      <c r="N93" s="1">
+      <c r="P93" s="1">
         <v>-2.3220000000000001</v>
       </c>
-      <c r="O93" s="6">
+      <c r="Q93" s="6">
         <v>-2.5939999999999999</v>
       </c>
-      <c r="P93" s="6">
+      <c r="R93" s="6">
         <v>-3.9079999999999999</v>
       </c>
-      <c r="Q93" s="6">
+      <c r="S93" s="6">
         <v>-1.4</v>
       </c>
-      <c r="R93" s="6">
-        <v>0</v>
-      </c>
-      <c r="S93" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="6">
+        <v>0</v>
+      </c>
+      <c r="U93" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>100</v>
       </c>
@@ -4673,26 +4973,26 @@
       <c r="K94" s="6">
         <v>-16.632000000000001</v>
       </c>
-      <c r="N94" s="1">
+      <c r="P94" s="1">
         <v>-2.4550000000000001</v>
       </c>
-      <c r="O94" s="6">
+      <c r="Q94" s="6">
         <v>-3.4630000000000001</v>
       </c>
-      <c r="P94" s="6">
+      <c r="R94" s="6">
         <v>-8.7080000000000002</v>
       </c>
-      <c r="Q94" s="6">
+      <c r="S94" s="6">
         <v>-8.5559999999999992</v>
       </c>
-      <c r="R94" s="6">
+      <c r="T94" s="6">
         <v>-6.0439999999999996</v>
       </c>
-      <c r="S94" s="6">
+      <c r="U94" s="6">
         <v>-7.1079999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>101</v>
       </c>
@@ -4706,26 +5006,26 @@
       <c r="K95" s="6">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="N95" s="1">
+      <c r="P95" s="1">
         <v>-0.57499999999999996</v>
       </c>
-      <c r="O95" s="6">
+      <c r="Q95" s="6">
         <v>-0.16</v>
       </c>
-      <c r="P95" s="6">
+      <c r="R95" s="6">
         <v>-0.19</v>
       </c>
-      <c r="Q95" s="6">
+      <c r="S95" s="6">
         <v>-0.21199999999999999</v>
       </c>
-      <c r="R95" s="6">
+      <c r="T95" s="6">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="S95" s="6">
+      <c r="U95" s="6">
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>102</v>
       </c>
@@ -4744,40 +5044,42 @@
         <f t="shared" ref="K96" si="63">SUM(K92:K95)</f>
         <v>-17.099000000000004</v>
       </c>
-      <c r="N96" s="29">
-        <f t="shared" ref="N96:P96" si="64">SUM(N92:N95)</f>
+      <c r="L96" s="33"/>
+      <c r="N96" s="33"/>
+      <c r="P96" s="29">
+        <f t="shared" ref="P96:R96" si="64">SUM(P92:P95)</f>
         <v>-5.3520000000000003</v>
       </c>
-      <c r="O96" s="29">
+      <c r="Q96" s="29">
         <f t="shared" si="64"/>
         <v>-6.2170000000000005</v>
       </c>
-      <c r="P96" s="29">
+      <c r="R96" s="29">
         <f t="shared" si="64"/>
         <v>-12.805999999999999</v>
       </c>
-      <c r="Q96" s="29">
-        <f t="shared" ref="Q96" si="65">SUM(Q92:Q95)</f>
+      <c r="S96" s="29">
+        <f t="shared" ref="S96" si="65">SUM(S92:S95)</f>
         <v>-10.467999999999998</v>
       </c>
-      <c r="R96" s="29">
-        <f t="shared" ref="R96" si="66">SUM(R92:R95)</f>
+      <c r="T96" s="29">
+        <f t="shared" ref="T96" si="66">SUM(T92:T95)</f>
         <v>-6.1629999999999994</v>
       </c>
-      <c r="S96" s="29">
-        <f t="shared" ref="S96" si="67">SUM(S92:S95)</f>
+      <c r="U96" s="29">
+        <f t="shared" ref="U96" si="67">SUM(U92:U95)</f>
         <v>-7.1319999999999997</v>
       </c>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I97" s="6"/>
       <c r="J97" s="44"/>
       <c r="K97" s="6"/>
-      <c r="P97" s="6"/>
       <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-    </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>123</v>
       </c>
@@ -4790,26 +5092,26 @@
       <c r="K98" s="6">
         <v>0</v>
       </c>
-      <c r="N98" s="6">
+      <c r="P98" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="O98" s="6">
+      <c r="Q98" s="6">
         <v>1E-3</v>
       </c>
-      <c r="P98" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="6">
-        <v>0</v>
-      </c>
       <c r="R98" s="6">
+        <v>0</v>
+      </c>
+      <c r="S98" s="6">
+        <v>0</v>
+      </c>
+      <c r="T98" s="6">
         <v>5.0380000000000003</v>
       </c>
-      <c r="S98" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>124</v>
       </c>
@@ -4822,12 +5124,6 @@
       <c r="K99" s="6">
         <v>0</v>
       </c>
-      <c r="N99" s="6">
-        <v>0</v>
-      </c>
-      <c r="O99" s="6">
-        <v>0</v>
-      </c>
       <c r="P99" s="6">
         <v>0</v>
       </c>
@@ -4835,13 +5131,19 @@
         <v>0</v>
       </c>
       <c r="R99" s="6">
+        <v>0</v>
+      </c>
+      <c r="S99" s="6">
+        <v>0</v>
+      </c>
+      <c r="T99" s="6">
         <v>-0.16</v>
       </c>
-      <c r="S99" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U99" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -4854,26 +5156,26 @@
       <c r="K100" s="6">
         <v>0</v>
       </c>
-      <c r="N100" s="6">
-        <v>0</v>
-      </c>
-      <c r="O100" s="6">
-        <v>0</v>
-      </c>
       <c r="P100" s="6">
         <v>0</v>
       </c>
       <c r="Q100" s="6">
+        <v>0</v>
+      </c>
+      <c r="R100" s="6">
+        <v>0</v>
+      </c>
+      <c r="S100" s="6">
         <v>-0.153</v>
       </c>
-      <c r="R100" s="6">
-        <v>0</v>
-      </c>
-      <c r="S100" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="6">
+        <v>0</v>
+      </c>
+      <c r="U100" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>103</v>
       </c>
@@ -4881,32 +5183,32 @@
         <v>-2.9350000000000001</v>
       </c>
       <c r="J101" s="44">
-        <f t="shared" ref="J101:J104" si="68">S101-I101</f>
+        <f t="shared" ref="J101:J104" si="68">U101-I101</f>
         <v>-7.0670000000000002</v>
       </c>
       <c r="K101" s="6">
         <v>-5.1769999999999996</v>
       </c>
-      <c r="N101" s="6">
+      <c r="P101" s="6">
         <v>-1.4710000000000001</v>
       </c>
-      <c r="O101" s="6">
+      <c r="Q101" s="6">
         <v>-2.3119999999999998</v>
       </c>
-      <c r="P101" s="6">
+      <c r="R101" s="6">
         <v>-2.222</v>
       </c>
-      <c r="Q101" s="6">
+      <c r="S101" s="6">
         <v>-2.7090000000000001</v>
       </c>
-      <c r="R101" s="6">
+      <c r="T101" s="6">
         <v>-2.8530000000000002</v>
       </c>
-      <c r="S101" s="6">
+      <c r="U101" s="6">
         <v>-10.002000000000001</v>
       </c>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>125</v>
       </c>
@@ -4919,26 +5221,26 @@
       <c r="K102" s="6">
         <v>0</v>
       </c>
-      <c r="N102" s="6">
-        <v>0</v>
-      </c>
-      <c r="O102" s="6">
-        <v>0</v>
-      </c>
       <c r="P102" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="6">
+        <v>0</v>
+      </c>
+      <c r="R102" s="6">
         <v>-6.5</v>
       </c>
-      <c r="Q102" s="6">
+      <c r="S102" s="6">
         <v>-7.15</v>
       </c>
-      <c r="R102" s="6">
+      <c r="T102" s="6">
         <v>-2.4049999999999998</v>
       </c>
-      <c r="S102" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U102" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
         <v>104</v>
       </c>
@@ -4952,26 +5254,26 @@
       <c r="K103" s="6">
         <v>0</v>
       </c>
-      <c r="N103" s="6">
-        <v>0</v>
-      </c>
-      <c r="O103" s="6">
+      <c r="P103" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="6">
         <v>6</v>
       </c>
-      <c r="P103" s="6">
+      <c r="R103" s="6">
         <v>8.5</v>
       </c>
-      <c r="Q103" s="6">
+      <c r="S103" s="6">
         <v>17</v>
       </c>
-      <c r="R103" s="6">
+      <c r="T103" s="6">
         <v>18.350000000000001</v>
       </c>
-      <c r="S103" s="6">
+      <c r="U103" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>105</v>
       </c>
@@ -4985,26 +5287,26 @@
       <c r="K104" s="6">
         <v>-7</v>
       </c>
-      <c r="N104" s="6">
+      <c r="P104" s="6">
         <v>-3.5939999999999999</v>
       </c>
-      <c r="O104" s="6">
+      <c r="Q104" s="6">
         <v>-12.906000000000001</v>
       </c>
-      <c r="P104" s="6">
+      <c r="R104" s="6">
         <v>-5</v>
       </c>
-      <c r="Q104" s="6">
+      <c r="S104" s="6">
         <v>-20.25</v>
       </c>
-      <c r="R104" s="6">
+      <c r="T104" s="6">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="S104" s="6">
+      <c r="U104" s="6">
         <v>-28</v>
       </c>
     </row>
-    <row r="105" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>106</v>
       </c>
@@ -5023,35 +5325,37 @@
         <f t="shared" ref="K105" si="71">SUM(K98:K104)</f>
         <v>-12.177</v>
       </c>
-      <c r="N105" s="29">
-        <f t="shared" ref="N105:P105" si="72">SUM(N98:N104)</f>
+      <c r="L105" s="33"/>
+      <c r="N105" s="33"/>
+      <c r="P105" s="29">
+        <f t="shared" ref="P105:R105" si="72">SUM(P98:P104)</f>
         <v>-5.0609999999999999</v>
       </c>
-      <c r="O105" s="29">
+      <c r="Q105" s="29">
         <f t="shared" si="72"/>
         <v>-9.2170000000000005</v>
       </c>
-      <c r="P105" s="29">
+      <c r="R105" s="29">
         <f t="shared" si="72"/>
         <v>-5.2219999999999995</v>
       </c>
-      <c r="Q105" s="29">
-        <f>SUM(Q98:Q104)</f>
+      <c r="S105" s="29">
+        <f>SUM(S98:S104)</f>
         <v>-13.262</v>
       </c>
-      <c r="R105" s="29">
-        <f t="shared" ref="R105:S105" si="73">SUM(R98:R104)</f>
+      <c r="T105" s="29">
+        <f t="shared" ref="T105:U105" si="73">SUM(T98:T104)</f>
         <v>13.370000000000003</v>
       </c>
-      <c r="S105" s="29">
+      <c r="U105" s="29">
         <f t="shared" si="73"/>
         <v>-16.002000000000002</v>
       </c>
     </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="R106" s="6"/>
-    </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T106" s="6"/>
+    </row>
+    <row r="107" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
@@ -5067,32 +5371,32 @@
         <f>+K93+K94+K95</f>
         <v>-17.099000000000004</v>
       </c>
-      <c r="N107" s="6">
-        <f t="shared" ref="N107" si="74">+N93+N94+N95</f>
+      <c r="P107" s="6">
+        <f t="shared" ref="P107" si="74">+P93+P94+P95</f>
         <v>-5.3520000000000003</v>
       </c>
-      <c r="O107" s="6">
-        <f t="shared" ref="O107:P107" si="75">+O93+O94+O95</f>
+      <c r="Q107" s="6">
+        <f t="shared" ref="Q107:R107" si="75">+Q93+Q94+Q95</f>
         <v>-6.2170000000000005</v>
       </c>
-      <c r="P107" s="6">
+      <c r="R107" s="6">
         <f t="shared" si="75"/>
         <v>-12.805999999999999</v>
       </c>
-      <c r="Q107" s="6">
-        <f t="shared" ref="Q107:R107" si="76">+Q93+Q94+Q95</f>
+      <c r="S107" s="6">
+        <f t="shared" ref="S107:T107" si="76">+S93+S94+S95</f>
         <v>-10.167999999999999</v>
       </c>
-      <c r="R107" s="6">
+      <c r="T107" s="6">
         <f t="shared" si="76"/>
         <v>-6.1629999999999994</v>
       </c>
-      <c r="S107" s="6">
-        <f>+S93+S94+S95</f>
+      <c r="U107" s="6">
+        <f>+U93+U94+U95</f>
         <v>-7.1319999999999997</v>
       </c>
     </row>
-    <row r="108" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>108</v>
       </c>
@@ -5111,44 +5415,47 @@
         <f>+K90+K107</f>
         <v>8.399999999999995</v>
       </c>
-      <c r="N108" s="29">
-        <f t="shared" ref="N108" si="77">+N90+N107</f>
+      <c r="L108" s="33"/>
+      <c r="N108" s="33"/>
+      <c r="P108" s="29">
+        <f t="shared" ref="P108" si="77">+P90+P107</f>
         <v>8.4249999999999989</v>
       </c>
-      <c r="O108" s="29">
-        <f t="shared" ref="O108:P108" si="78">+O90+O107</f>
+      <c r="Q108" s="29">
+        <f t="shared" ref="Q108:R108" si="78">+Q90+Q107</f>
         <v>4.602999999999998</v>
       </c>
-      <c r="P108" s="29">
+      <c r="R108" s="29">
         <f t="shared" si="78"/>
         <v>4.9489999999999998</v>
       </c>
-      <c r="Q108" s="29">
-        <f t="shared" ref="Q108:R108" si="79">+Q90+Q107</f>
+      <c r="S108" s="29">
+        <f t="shared" ref="S108:T108" si="79">+S90+S107</f>
         <v>10.452000000000002</v>
       </c>
-      <c r="R108" s="29">
+      <c r="T108" s="29">
         <f t="shared" si="79"/>
         <v>-8.1639999999999979</v>
       </c>
-      <c r="S108" s="29">
-        <f>+S90+S107</f>
+      <c r="U108" s="29">
+        <f>+U90+U107</f>
         <v>20.301000000000002</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K1" r:id="rId1" xr:uid="{4AF70136-1990-41FC-9821-A532866EF9F7}"/>
-    <hyperlink ref="S1" r:id="rId2" xr:uid="{554E5D0D-5054-42D6-BF8F-B3F5BCA52C04}"/>
-    <hyperlink ref="Q1" r:id="rId3" xr:uid="{216FF58D-FA70-405C-A407-B5B577849372}"/>
-    <hyperlink ref="O1" r:id="rId4" xr:uid="{6E36EA97-7B8A-43C0-B9ED-837CF2901242}"/>
+    <hyperlink ref="U1" r:id="rId2" xr:uid="{554E5D0D-5054-42D6-BF8F-B3F5BCA52C04}"/>
+    <hyperlink ref="S1" r:id="rId3" xr:uid="{216FF58D-FA70-405C-A407-B5B577849372}"/>
+    <hyperlink ref="Q1" r:id="rId4" xr:uid="{6E36EA97-7B8A-43C0-B9ED-837CF2901242}"/>
+    <hyperlink ref="M1" r:id="rId5" xr:uid="{C87CAFEE-4614-48BA-8BDA-B7A005A169D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
   <ignoredErrors>
     <ignoredError sqref="J10 J15:J18" formula="1"/>
-    <ignoredError sqref="R101:R104 Q8 S8 Q38:S38 R98:R99 N38:P38" formulaRange="1"/>
+    <ignoredError sqref="T101:T104 S8 U8 S38:U38 T98:T99 P38:R38 M8" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/£TEG.xlsx
+++ b/£TEG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0F2C4C-CC7A-49D5-AC6C-BEFD5B8496DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6FA3C9-28EA-4018-8708-D2A1571C42D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="146">
   <si>
     <t>£TEG</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>• Bowling prices still frozen at 2019 levels to maintain attractive proposition</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>(EST)</t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +599,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -833,6 +845,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -971,14 +1003,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>127</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -995,8 +1027,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11372850" y="0"/>
-          <a:ext cx="0" cy="18078450"/>
+          <a:off x="14516100" y="0"/>
+          <a:ext cx="0" cy="20669250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1321,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904FFB80-2819-4CCA-9F78-6AC8529FFC68}">
   <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1732,8 +1764,8 @@
         <v>29</v>
       </c>
       <c r="C34" s="73">
-        <f>C8/SUM('Financial Model'!J8:K8)</f>
-        <v>1.5677560737084784</v>
+        <f>C8/SUM('Financial Model'!L8:M8)</f>
+        <v>1.4632398140308083</v>
       </c>
       <c r="D34" s="74"/>
     </row>
@@ -1742,8 +1774,8 @@
         <v>30</v>
       </c>
       <c r="C35" s="73">
-        <f>C12/SUM('Financial Model'!J8:K8)</f>
-        <v>3.2471957694196369</v>
+        <f>C12/SUM('Financial Model'!L8:M8)</f>
+        <v>3.0307177331023607</v>
       </c>
       <c r="D35" s="74"/>
     </row>
@@ -1752,8 +1784,8 @@
         <v>31</v>
       </c>
       <c r="C36" s="73">
-        <f>C6/SUM('Financial Model'!J20:K20)</f>
-        <v>6.046138037665215</v>
+        <f>C6/SUM('Financial Model'!L20:M20)</f>
+        <v>9.1425678056593718</v>
       </c>
       <c r="D36" s="74"/>
     </row>
@@ -1762,8 +1794,8 @@
         <v>32</v>
       </c>
       <c r="C37" s="73">
-        <f>C12/SUM('Financial Model'!J19:K19)</f>
-        <v>12.545736848028811</v>
+        <f>C12/SUM('Financial Model'!L19:M19)</f>
+        <v>18.93643277678008</v>
       </c>
       <c r="D37" s="74"/>
     </row>
@@ -1810,11 +1842,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C83F-EC03-4F38-8C2B-BF6F054B4FFD}">
   <dimension ref="A1:AG108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M79" sqref="M79"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1832,8 +1864,10 @@
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.140625" style="34"/>
     <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="34"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="84"/>
+    <col min="15" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="84"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -1870,7 +1904,7 @@
       <c r="M1" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="80" t="s">
         <v>142</v>
       </c>
       <c r="P1" s="17" t="s">
@@ -1891,10 +1925,10 @@
       <c r="U1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="17" t="s">
+      <c r="V1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="W1" s="80" t="s">
         <v>62</v>
       </c>
       <c r="X1" s="17" t="s">
@@ -1949,11 +1983,16 @@
       <c r="K2" s="22">
         <v>44738</v>
       </c>
-      <c r="L2" s="32"/>
+      <c r="L2" s="47">
+        <f>V2</f>
+        <v>44927</v>
+      </c>
       <c r="M2" s="22">
         <v>45109</v>
       </c>
-      <c r="N2" s="32"/>
+      <c r="N2" s="93" t="s">
+        <v>145</v>
+      </c>
       <c r="P2" s="22">
         <v>42736</v>
       </c>
@@ -1971,6 +2010,12 @@
       </c>
       <c r="U2" s="22">
         <v>44556</v>
+      </c>
+      <c r="V2" s="22">
+        <v>44927</v>
+      </c>
+      <c r="W2" s="93" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -1982,11 +2027,14 @@
       <c r="K3" s="19">
         <v>45190</v>
       </c>
-      <c r="L3" s="32"/>
+      <c r="L3" s="79">
+        <f>V3</f>
+        <v>45007</v>
+      </c>
       <c r="M3" s="19">
         <v>45189</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="93"/>
       <c r="Q3" s="19">
         <v>45006</v>
       </c>
@@ -1996,7 +2044,10 @@
       <c r="U3" s="19">
         <v>45014</v>
       </c>
-      <c r="V3" s="19"/>
+      <c r="V3" s="19">
+        <v>45007</v>
+      </c>
+      <c r="W3" s="81"/>
     </row>
     <row r="4" spans="2:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
@@ -2015,11 +2066,14 @@
       <c r="K4" s="41">
         <v>28.266999999999999</v>
       </c>
-      <c r="L4" s="56"/>
+      <c r="L4" s="56">
+        <f>V4-K4</f>
+        <v>27.462</v>
+      </c>
       <c r="M4" s="41">
         <v>27.588999999999999</v>
       </c>
-      <c r="N4" s="56"/>
+      <c r="N4" s="82"/>
       <c r="P4" s="61" t="s">
         <v>118</v>
       </c>
@@ -2038,6 +2092,10 @@
       <c r="U4" s="41">
         <v>29.776</v>
       </c>
+      <c r="V4" s="41">
+        <v>55.728999999999999</v>
+      </c>
+      <c r="W4" s="82"/>
     </row>
     <row r="5" spans="2:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="55" t="s">
@@ -2056,11 +2114,14 @@
       <c r="K5" s="41">
         <v>17.276</v>
       </c>
-      <c r="L5" s="56"/>
+      <c r="L5" s="56">
+        <f>V5-K5</f>
+        <v>18.050999999999998</v>
+      </c>
       <c r="M5" s="41">
         <v>18.145</v>
       </c>
-      <c r="N5" s="56"/>
+      <c r="N5" s="82"/>
       <c r="P5" s="61" t="s">
         <v>118</v>
       </c>
@@ -2079,6 +2140,10 @@
       <c r="U5" s="41">
         <v>19.094000000000001</v>
       </c>
+      <c r="V5" s="41">
+        <v>35.326999999999998</v>
+      </c>
+      <c r="W5" s="82"/>
     </row>
     <row r="6" spans="2:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="55" t="s">
@@ -2097,11 +2162,14 @@
       <c r="K6" s="41">
         <v>15.143000000000001</v>
       </c>
-      <c r="L6" s="56"/>
+      <c r="L6" s="56">
+        <f>V6-K6</f>
+        <v>15.332000000000001</v>
+      </c>
       <c r="M6" s="41">
         <v>16.762</v>
       </c>
-      <c r="N6" s="56"/>
+      <c r="N6" s="82"/>
       <c r="P6" s="61" t="s">
         <v>118</v>
       </c>
@@ -2120,6 +2188,10 @@
       <c r="U6" s="41">
         <v>16.28</v>
       </c>
+      <c r="V6" s="41">
+        <v>30.475000000000001</v>
+      </c>
+      <c r="W6" s="82"/>
     </row>
     <row r="7" spans="2:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="55" t="s">
@@ -2138,11 +2210,14 @@
       <c r="K7" s="41">
         <v>2.552</v>
       </c>
-      <c r="L7" s="56"/>
+      <c r="L7" s="56">
+        <f>V7-K7</f>
+        <v>2.5900000000000003</v>
+      </c>
       <c r="M7" s="41">
         <v>2.8</v>
       </c>
-      <c r="N7" s="56"/>
+      <c r="N7" s="82"/>
       <c r="P7" s="61" t="s">
         <v>118</v>
       </c>
@@ -2161,6 +2236,10 @@
       <c r="U7" s="41">
         <v>2.371</v>
       </c>
+      <c r="V7" s="41">
+        <v>5.1420000000000003</v>
+      </c>
+      <c r="W7" s="82"/>
     </row>
     <row r="8" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -2179,12 +2258,15 @@
       <c r="K8" s="29">
         <v>63.238</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="45">
+        <f>V8-K8</f>
+        <v>63.435000000000002</v>
+      </c>
       <c r="M8" s="29">
         <f>SUM(M4:M7)</f>
         <v>65.295999999999992</v>
       </c>
-      <c r="N8" s="33"/>
+      <c r="N8" s="83"/>
       <c r="P8" s="29">
         <v>67.319000000000003</v>
       </c>
@@ -2207,6 +2289,11 @@
         <f>SUM(U4:U7)</f>
         <v>67.521000000000001</v>
       </c>
+      <c r="V8" s="29">
+        <f>SUM(V4:V7)</f>
+        <v>126.673</v>
+      </c>
+      <c r="W8" s="83"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -2222,6 +2309,10 @@
       <c r="K9" s="6">
         <v>19.707000000000001</v>
       </c>
+      <c r="L9" s="44">
+        <f>V9-K9</f>
+        <v>21.207999999999998</v>
+      </c>
       <c r="M9" s="6">
         <v>21.207999999999998</v>
       </c>
@@ -2242,6 +2333,9 @@
       </c>
       <c r="U9" s="6">
         <v>22.510999999999999</v>
+      </c>
+      <c r="V9" s="6">
+        <v>40.914999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2263,12 +2357,15 @@
         <f>K8-K9</f>
         <v>43.530999999999999</v>
       </c>
-      <c r="L10" s="33"/>
+      <c r="L10" s="45">
+        <f>L8-L9</f>
+        <v>42.227000000000004</v>
+      </c>
       <c r="M10" s="29">
         <f>M8-M9</f>
         <v>44.087999999999994</v>
       </c>
-      <c r="N10" s="33"/>
+      <c r="N10" s="83"/>
       <c r="P10" s="29">
         <f t="shared" ref="P10:T10" si="1">P8-P9</f>
         <v>46.680000000000007</v>
@@ -2293,6 +2390,11 @@
         <f>U8-U9</f>
         <v>45.010000000000005</v>
       </c>
+      <c r="V10" s="29">
+        <f>V8-V9</f>
+        <v>85.75800000000001</v>
+      </c>
+      <c r="W10" s="83"/>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -2308,6 +2410,10 @@
       <c r="K11" s="6">
         <v>24.021999999999998</v>
       </c>
+      <c r="L11" s="44">
+        <f t="shared" ref="L11:L14" si="3">V11-K11</f>
+        <v>28.119</v>
+      </c>
       <c r="M11" s="6">
         <v>24.757999999999999</v>
       </c>
@@ -2328,6 +2434,9 @@
       </c>
       <c r="U11" s="6">
         <v>35.710999999999999</v>
+      </c>
+      <c r="V11" s="6">
+        <v>52.140999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.2">
@@ -2344,6 +2453,10 @@
       <c r="K12" s="6">
         <v>0.31</v>
       </c>
+      <c r="L12" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M12" s="6">
         <v>0</v>
       </c>
@@ -2364,6 +2477,9 @@
       </c>
       <c r="U12" s="6">
         <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0.31</v>
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.2">
@@ -2380,6 +2496,10 @@
       <c r="K13" s="6">
         <v>0.747</v>
       </c>
+      <c r="L13" s="44">
+        <f t="shared" si="3"/>
+        <v>-0.11599999999999999</v>
+      </c>
       <c r="M13" s="6">
         <v>0</v>
       </c>
@@ -2400,6 +2520,9 @@
       </c>
       <c r="U13" s="6">
         <v>1.1240000000000001</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.2">
@@ -2416,6 +2539,10 @@
       <c r="K14" s="6">
         <v>4.601</v>
       </c>
+      <c r="L14" s="44">
+        <f t="shared" si="3"/>
+        <v>2.6619999999999999</v>
+      </c>
       <c r="M14" s="6">
         <v>0</v>
       </c>
@@ -2436,6 +2563,9 @@
       </c>
       <c r="U14" s="6">
         <v>0</v>
+      </c>
+      <c r="V14" s="6">
+        <v>7.2629999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2457,36 +2587,44 @@
         <f>K10-K11-K12+K13+K14</f>
         <v>24.547000000000001</v>
       </c>
-      <c r="L15" s="33"/>
+      <c r="L15" s="45">
+        <f>L10-L11-L12+L13+L14</f>
+        <v>16.654000000000003</v>
+      </c>
       <c r="M15" s="29">
         <f>M10-M11-M12+M13+M14</f>
         <v>19.329999999999995</v>
       </c>
-      <c r="N15" s="33"/>
+      <c r="N15" s="83"/>
       <c r="P15" s="29">
-        <f t="shared" ref="P15:T15" si="3">P10-P11-P12+P13+P14</f>
+        <f t="shared" ref="P15:T15" si="4">P10-P11-P12+P13+P14</f>
         <v>9.7560000000000073</v>
       </c>
       <c r="Q15" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9220000000000041</v>
       </c>
       <c r="R15" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.362000000000009</v>
       </c>
       <c r="S15" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.582999999999998</v>
       </c>
       <c r="T15" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-15.850999999999999</v>
       </c>
       <c r="U15" s="29">
         <f>U10-U11-U12+U13+U14</f>
         <v>10.423000000000007</v>
       </c>
+      <c r="V15" s="29">
+        <f>V10-V11-V12+V13+V14</f>
+        <v>41.201000000000008</v>
+      </c>
+      <c r="W15" s="83"/>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
@@ -2502,6 +2640,10 @@
       <c r="K16" s="6">
         <v>-3.532</v>
       </c>
+      <c r="L16" s="44">
+        <f>V16-K16</f>
+        <v>-3.6740000000000004</v>
+      </c>
       <c r="M16" s="6">
         <v>-3.5760000000000001</v>
       </c>
@@ -2525,8 +2667,11 @@
       <c r="U16" s="6">
         <v>-5.9859999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="6">
+        <v>-7.2060000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
@@ -2542,24 +2687,28 @@
         <f>K15+K16</f>
         <v>21.015000000000001</v>
       </c>
+      <c r="L17" s="44">
+        <f>L15+L16</f>
+        <v>12.980000000000004</v>
+      </c>
       <c r="M17" s="6">
         <f>M15+M16</f>
         <v>15.753999999999994</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" ref="P17:R17" si="4">P15+P16</f>
+        <f t="shared" ref="P17:R17" si="5">P15+P16</f>
         <v>5.436000000000007</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2920000000000043</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.669000000000009</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" ref="S17" si="5">S15+S16</f>
+        <f t="shared" ref="S17" si="6">S15+S16</f>
         <v>11.794999999999998</v>
       </c>
       <c r="T17" s="6">
@@ -2570,8 +2719,12 @@
         <f>U15+U16</f>
         <v>4.4370000000000074</v>
       </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="6">
+        <f>V15+V16</f>
+        <v>33.995000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
@@ -2585,6 +2738,10 @@
       <c r="K18" s="6">
         <v>2.7210000000000001</v>
       </c>
+      <c r="L18" s="44">
+        <f>V18-K18</f>
+        <v>4.6779999999999999</v>
+      </c>
       <c r="M18" s="6">
         <v>3.4529999999999998</v>
       </c>
@@ -2606,8 +2763,11 @@
       <c r="U18" s="6">
         <v>0.432</v>
       </c>
-    </row>
-    <row r="19" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V18" s="6">
+        <v>7.399</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
@@ -2626,38 +2786,46 @@
         <f>K17-K18</f>
         <v>18.294</v>
       </c>
-      <c r="L19" s="33"/>
+      <c r="L19" s="45">
+        <f>L17-L18</f>
+        <v>8.3020000000000032</v>
+      </c>
       <c r="M19" s="29">
         <f>M17-M18</f>
         <v>12.300999999999995</v>
       </c>
-      <c r="N19" s="33"/>
+      <c r="N19" s="83"/>
       <c r="P19" s="29">
-        <f t="shared" ref="P19:T19" si="6">P17-P18</f>
+        <f t="shared" ref="P19:T19" si="7">P17-P18</f>
         <v>3.6310000000000073</v>
       </c>
       <c r="Q19" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.1810000000000045</v>
       </c>
       <c r="R19" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.1420000000000101</v>
       </c>
       <c r="S19" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.036999999999999</v>
       </c>
       <c r="T19" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-17.747</v>
       </c>
       <c r="U19" s="29">
         <f>U17-U18</f>
         <v>4.005000000000007</v>
       </c>
-    </row>
-    <row r="20" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V19" s="29">
+        <f>V17-V18</f>
+        <v>26.596000000000004</v>
+      </c>
+      <c r="W19" s="83"/>
+    </row>
+    <row r="20" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="26" t="s">
         <v>46</v>
       </c>
@@ -2676,26 +2844,29 @@
         <f>K19/K21</f>
         <v>0.26752851385409882</v>
       </c>
-      <c r="L20" s="35"/>
+      <c r="L20" s="35">
+        <f>L19/L21</f>
+        <v>0.12120394910555374</v>
+      </c>
       <c r="M20" s="26">
         <f>M19/M21</f>
         <v>0.17958681979612326</v>
       </c>
-      <c r="N20" s="35"/>
+      <c r="N20" s="85"/>
       <c r="P20" s="26">
-        <f t="shared" ref="P20:S20" si="7">P19/P21</f>
+        <f t="shared" ref="P20:S20" si="8">P19/P21</f>
         <v>5.5861538461538573E-2</v>
       </c>
       <c r="Q20" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.9707692307692382E-2</v>
       </c>
       <c r="R20" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12526153846153862</v>
       </c>
       <c r="S20" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13903076923076921</v>
       </c>
       <c r="T20" s="26">
@@ -2706,8 +2877,13 @@
         <f>U19/U21</f>
         <v>5.8588383341115234E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:21" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V20" s="26">
+        <f>V19/V21</f>
+        <v>0.38828477841620168</v>
+      </c>
+      <c r="W20" s="85"/>
+    </row>
+    <row r="21" spans="2:23" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
         <v>4</v>
       </c>
@@ -2724,11 +2900,14 @@
       <c r="K21" s="27">
         <v>68.381495999999999</v>
       </c>
-      <c r="L21" s="36"/>
+      <c r="L21" s="36">
+        <f>V21</f>
+        <v>68.496117999999996</v>
+      </c>
       <c r="M21" s="6">
         <v>68.496117999999996</v>
       </c>
-      <c r="N21" s="36"/>
+      <c r="N21" s="86"/>
       <c r="P21" s="27">
         <v>65</v>
       </c>
@@ -2747,8 +2926,12 @@
       <c r="U21" s="27">
         <v>68.358260999999999</v>
       </c>
-    </row>
-    <row r="23" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V21" s="27">
+        <v>68.496117999999996</v>
+      </c>
+      <c r="W21" s="86"/>
+    </row>
+    <row r="23" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
@@ -2760,37 +2943,45 @@
         <f>K8/I8-1</f>
         <v>4.9602262016965133</v>
       </c>
-      <c r="L23" s="33"/>
+      <c r="L23" s="78">
+        <f>L8/J8-1</f>
+        <v>0.1146351320482859</v>
+      </c>
       <c r="M23" s="23">
         <f>M8/K8-1</f>
         <v>3.254372371042713E-2</v>
       </c>
-      <c r="N23" s="33"/>
+      <c r="N23" s="83"/>
       <c r="P23" s="49" t="s">
         <v>118</v>
       </c>
       <c r="Q23" s="23">
-        <f t="shared" ref="Q23:T23" si="8">Q8/P8-1</f>
+        <f t="shared" ref="Q23:T23" si="9">Q8/P8-1</f>
         <v>5.5274142515486124E-2</v>
       </c>
       <c r="R23" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.4746621621621712E-2</v>
       </c>
       <c r="S23" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10179436804191222</v>
       </c>
       <c r="T23" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.56885238106559521</v>
       </c>
       <c r="U23" s="23">
         <f>U8/T8-1</f>
         <v>0.86167250268824636</v>
       </c>
-    </row>
-    <row r="24" spans="2:21" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V23" s="23">
+        <f t="shared" ref="V23" si="10">V8/U8-1</f>
+        <v>0.87605337598673017</v>
+      </c>
+      <c r="W23" s="83"/>
+    </row>
+    <row r="24" spans="2:23" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
         <v>49</v>
       </c>
@@ -2805,8 +2996,15 @@
         <f>K8/J8-1</f>
         <v>0.11117358682855683</v>
       </c>
-      <c r="L24" s="48"/>
-      <c r="N24" s="48"/>
+      <c r="L24" s="48">
+        <f>L8/K8-1</f>
+        <v>3.1152155349631894E-3</v>
+      </c>
+      <c r="M24" s="25">
+        <f>M8/L8-1</f>
+        <v>2.9337116733664237E-2</v>
+      </c>
+      <c r="N24" s="87"/>
       <c r="P24" s="49" t="s">
         <v>118</v>
       </c>
@@ -2825,8 +3023,12 @@
       <c r="U24" s="49" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="W24" s="87"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2842,36 +3044,44 @@
         <f>K10/K8</f>
         <v>0.68836775356589386</v>
       </c>
+      <c r="L26" s="48">
+        <f>L10/L8</f>
+        <v>0.66567352407976677</v>
+      </c>
       <c r="M26" s="25">
         <f>M10/M8</f>
         <v>0.67520215633423175</v>
       </c>
       <c r="P26" s="25">
-        <f t="shared" ref="P26:Q26" si="9">P10/P8</f>
+        <f t="shared" ref="P26:Q26" si="11">P10/P8</f>
         <v>0.69341493486237171</v>
       </c>
       <c r="Q26" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.69766328828828827</v>
       </c>
       <c r="R26" s="25">
-        <f t="shared" ref="R26:S26" si="10">R10/R8</f>
+        <f t="shared" ref="R26:S26" si="12">R10/R8</f>
         <v>0.70631303208906349</v>
       </c>
       <c r="S26" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.70364470649770572</v>
       </c>
       <c r="T26" s="25">
-        <f t="shared" ref="T26" si="11">T10/T8</f>
+        <f t="shared" ref="T26" si="13">T10/T8</f>
         <v>0.61137610631668915</v>
       </c>
       <c r="U26" s="25">
         <f>U10/U8</f>
         <v>0.66660742583788757</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="25">
+        <f t="shared" ref="V26" si="14">V10/V8</f>
+        <v>0.67700299195566549</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
@@ -2887,36 +3097,44 @@
         <f>K15/K8</f>
         <v>0.38816850627787092</v>
       </c>
+      <c r="L27" s="48">
+        <f>L15/L8</f>
+        <v>0.26253645463860648</v>
+      </c>
       <c r="M27" s="25">
         <f>M15/M8</f>
         <v>0.2960365106591521</v>
       </c>
       <c r="P27" s="25">
-        <f t="shared" ref="P27:Q27" si="12">P15/P8</f>
+        <f t="shared" ref="P27:Q27" si="15">P15/P8</f>
         <v>0.14492193882856261</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.13966779279279284</v>
       </c>
       <c r="R27" s="25">
-        <f t="shared" ref="R27:S27" si="13">R15/R8</f>
+        <f t="shared" ref="R27:S27" si="16">R15/R8</f>
         <v>0.14881466928618214</v>
       </c>
       <c r="S27" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.14958037136539787</v>
       </c>
       <c r="T27" s="25">
-        <f t="shared" ref="T27" si="14">T15/T8</f>
+        <f t="shared" ref="T27" si="17">T15/T8</f>
         <v>-0.43703989633019935</v>
       </c>
       <c r="U27" s="25">
         <f>U15/U8</f>
         <v>0.1543667895913865</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="25">
+        <f t="shared" ref="V27" si="18">V15/V8</f>
+        <v>0.32525478989208439</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
@@ -2932,36 +3150,44 @@
         <f>K19/K8</f>
         <v>0.2892880862772384</v>
       </c>
+      <c r="L28" s="48">
+        <f>L19/L8</f>
+        <v>0.1308741231181525</v>
+      </c>
       <c r="M28" s="25">
         <f>M19/M8</f>
         <v>0.18838826268071546</v>
       </c>
       <c r="P28" s="25">
-        <f t="shared" ref="P28:Q28" si="15">P19/P8</f>
+        <f t="shared" ref="P28:Q28" si="19">P19/P8</f>
         <v>5.3937224260610039E-2</v>
       </c>
       <c r="Q28" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>7.2930743243243307E-2</v>
       </c>
       <c r="R28" s="25">
-        <f t="shared" ref="R28:S28" si="16">R19/R8</f>
+        <f t="shared" ref="R28:S28" si="20">R19/R8</f>
         <v>0.10664047151277026</v>
       </c>
       <c r="S28" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.1074273079574903</v>
       </c>
       <c r="T28" s="25">
-        <f t="shared" ref="T28" si="17">T19/T8</f>
+        <f t="shared" ref="T28" si="21">T19/T8</f>
         <v>-0.48931594474620199</v>
       </c>
       <c r="U28" s="25">
         <f>U19/U8</f>
         <v>5.9314879815168718E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="25">
+        <f t="shared" ref="V28" si="22">V19/V8</f>
+        <v>0.20995792315647377</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
@@ -2977,16 +3203,20 @@
         <f>K28/K18/K17</f>
         <v>5.0590924103622523E-3</v>
       </c>
+      <c r="L29" s="48">
+        <f>L28/L18/L17</f>
+        <v>2.1553553155766402E-3</v>
+      </c>
       <c r="M29" s="25">
         <f>M28/M18/M17</f>
         <v>3.4631110778390712E-3</v>
       </c>
       <c r="P29" s="25">
-        <f t="shared" ref="P29:Q29" si="18">P28/P18/P17</f>
+        <f t="shared" ref="P29:Q29" si="23">P28/P18/P17</f>
         <v>5.497078495941693E-3</v>
       </c>
       <c r="Q29" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>4.7377893376233451E-3</v>
       </c>
       <c r="R29" s="25">
@@ -3005,8 +3235,12 @@
         <f>U28/U18/U17</f>
         <v>3.0944999444469812E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V29" s="25">
+        <f t="shared" ref="V29" si="24">V28/V18/V17</f>
+        <v>8.34726488726315E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>54</v>
       </c>
@@ -3015,9 +3249,10 @@
       <c r="H33" s="33"/>
       <c r="J33" s="33"/>
       <c r="L33" s="33"/>
-      <c r="N33" s="33"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="N33" s="83"/>
+      <c r="W33" s="83"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>119</v>
       </c>
@@ -3049,6 +3284,10 @@
       <c r="K34" s="1">
         <v>47</v>
       </c>
+      <c r="L34" s="34">
+        <f>V34</f>
+        <v>48</v>
+      </c>
       <c r="M34" s="1">
         <v>51</v>
       </c>
@@ -3074,7 +3313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:22" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="50" t="s">
         <v>120</v>
       </c>
@@ -3082,11 +3321,14 @@
       <c r="F35" s="52"/>
       <c r="H35" s="52"/>
       <c r="J35" s="52">
-        <f t="shared" ref="J35:J36" si="19">U35</f>
+        <f t="shared" ref="J35:J36" si="25">U35</f>
         <v>1275</v>
       </c>
-      <c r="L35" s="52"/>
-      <c r="N35" s="52"/>
+      <c r="L35" s="52">
+        <f>V35</f>
+        <v>1449</v>
+      </c>
+      <c r="N35" s="88"/>
       <c r="P35" s="51">
         <v>812</v>
       </c>
@@ -3105,8 +3347,12 @@
       <c r="U35" s="51">
         <v>1275</v>
       </c>
-    </row>
-    <row r="36" spans="2:22" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V35" s="51">
+        <v>1449</v>
+      </c>
+      <c r="W35" s="88"/>
+    </row>
+    <row r="36" spans="2:23" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="50" t="s">
         <v>121</v>
       </c>
@@ -3114,11 +3360,14 @@
       <c r="F36" s="52"/>
       <c r="H36" s="52"/>
       <c r="J36" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>58</v>
       </c>
-      <c r="L36" s="52"/>
-      <c r="N36" s="52"/>
+      <c r="L36" s="52">
+        <f>V36</f>
+        <v>65</v>
+      </c>
+      <c r="N36" s="88"/>
       <c r="P36" s="51">
         <v>38</v>
       </c>
@@ -3137,8 +3386,12 @@
       <c r="U36" s="51">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V36" s="51">
+        <v>65</v>
+      </c>
+      <c r="W36" s="88"/>
+    </row>
+    <row r="37" spans="2:23" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="50" t="s">
         <v>122</v>
       </c>
@@ -3149,8 +3402,11 @@
         <f>U37</f>
         <v>157</v>
       </c>
-      <c r="L37" s="52"/>
-      <c r="N37" s="52"/>
+      <c r="L37" s="52">
+        <f>V37</f>
+        <v>159</v>
+      </c>
+      <c r="N37" s="88"/>
       <c r="P37" s="51">
         <v>210</v>
       </c>
@@ -3169,8 +3425,12 @@
       <c r="U37" s="51">
         <v>157</v>
       </c>
-    </row>
-    <row r="38" spans="2:22" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V37" s="51">
+        <v>159</v>
+      </c>
+      <c r="W37" s="88"/>
+    </row>
+    <row r="38" spans="2:23" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="53" t="s">
         <v>117</v>
       </c>
@@ -3184,22 +3444,25 @@
       <c r="K38" s="53">
         <v>1500</v>
       </c>
-      <c r="L38" s="54"/>
-      <c r="N38" s="54"/>
+      <c r="L38" s="54">
+        <f>V38</f>
+        <v>1673</v>
+      </c>
+      <c r="N38" s="89"/>
       <c r="P38" s="53">
-        <f t="shared" ref="P38:S38" si="20">SUM(P35:P37)</f>
+        <f t="shared" ref="P38:S38" si="26">SUM(P35:P37)</f>
         <v>1060</v>
       </c>
       <c r="Q38" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1134</v>
       </c>
       <c r="R38" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1082</v>
       </c>
       <c r="S38" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1187</v>
       </c>
       <c r="T38" s="53">
@@ -3210,13 +3473,18 @@
         <f>SUM(U35:U37)</f>
         <v>1490</v>
       </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V38" s="53">
+        <f>SUM(V35:V37)</f>
+        <v>1673</v>
+      </c>
+      <c r="W38" s="89"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>76</v>
       </c>
@@ -3257,7 +3525,7 @@
         <v>29.629000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
@@ -3289,7 +3557,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>78</v>
       </c>
@@ -3321,7 +3589,7 @@
         <v>39.53</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
@@ -3353,7 +3621,7 @@
         <v>167.32400000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>80</v>
       </c>
@@ -3385,40 +3653,40 @@
         <v>4.3739999999999997</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" ref="C47:J47" si="21">SUM(C42:C46)</f>
+        <f t="shared" ref="C47:J47" si="27">SUM(C42:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F47" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H47" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>231.22799999999998</v>
       </c>
       <c r="J47" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K47" s="6">
@@ -3430,31 +3698,35 @@
         <v>275.553</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" ref="P47:T47" si="22">SUM(P42:P46)</f>
+        <f t="shared" ref="P47:T47" si="28">SUM(P42:P46)</f>
         <v>60.462000000000003</v>
       </c>
       <c r="Q47" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>61.551999999999992</v>
       </c>
       <c r="R47" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>70.730999999999995</v>
       </c>
       <c r="S47" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>77.560999999999993</v>
       </c>
       <c r="T47" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>232.655</v>
       </c>
       <c r="U47" s="6">
         <f>SUM(U42:U46)</f>
         <v>241.167</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V47" s="6">
+        <f>SUM(V42:V46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
@@ -3472,7 +3744,7 @@
       <c r="M48" s="29">
         <v>1.462</v>
       </c>
-      <c r="N48" s="33"/>
+      <c r="N48" s="83"/>
       <c r="P48" s="29">
         <v>1.339</v>
       </c>
@@ -3491,8 +3763,9 @@
       <c r="U48" s="29">
         <v>1.226</v>
       </c>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W48" s="83"/>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>83</v>
       </c>
@@ -3524,7 +3797,7 @@
         <v>5.4260000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>6</v>
       </c>
@@ -3542,7 +3815,7 @@
       <c r="M50" s="29">
         <v>5.1369999999999996</v>
       </c>
-      <c r="N50" s="33"/>
+      <c r="N50" s="83"/>
       <c r="P50" s="29">
         <v>10.185</v>
       </c>
@@ -3561,8 +3834,9 @@
       <c r="U50" s="29">
         <v>11.510999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W50" s="83"/>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>84</v>
       </c>
@@ -3594,40 +3868,40 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" ref="C52:J52" si="23">C47+SUM(C48:C51)</f>
+        <f t="shared" ref="C52:J52" si="29">C47+SUM(C48:C51)</f>
         <v>0</v>
       </c>
       <c r="D52" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F52" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H52" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>250.58499999999998</v>
       </c>
       <c r="J52" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K52" s="6">
@@ -3639,38 +3913,42 @@
         <v>285.435</v>
       </c>
       <c r="P52" s="6">
-        <f t="shared" ref="P52:U52" si="24">P47+SUM(P48:P51)</f>
+        <f t="shared" ref="P52:V52" si="30">P47+SUM(P48:P51)</f>
         <v>75.332000000000008</v>
       </c>
       <c r="Q52" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>72</v>
       </c>
       <c r="R52" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>81.840999999999994</v>
       </c>
       <c r="S52" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>85.974999999999994</v>
       </c>
       <c r="T52" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>244.53100000000001</v>
       </c>
       <c r="U52" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>259.34000000000003</v>
       </c>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I53" s="6"/>
       <c r="K53" s="6"/>
       <c r="R53" s="6"/>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
     </row>
-    <row r="54" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>109</v>
       </c>
@@ -3688,7 +3966,7 @@
       <c r="M54" s="29">
         <v>9.4130000000000003</v>
       </c>
-      <c r="N54" s="33"/>
+      <c r="N54" s="83"/>
       <c r="P54" s="29">
         <v>4.1109999999999998</v>
       </c>
@@ -3707,8 +3985,9 @@
       <c r="U54" s="29">
         <v>16.661000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W54" s="83"/>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>86</v>
       </c>
@@ -3740,7 +4019,7 @@
         <v>13.513</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>134</v>
       </c>
@@ -3777,7 +4056,7 @@
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>135</v>
       </c>
@@ -3814,52 +4093,52 @@
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C58" s="6">
-        <f t="shared" ref="C58:M58" si="25">SUM(C54:C57)</f>
+        <f t="shared" ref="C58:M58" si="31">SUM(C54:C57)</f>
         <v>0</v>
       </c>
       <c r="D58" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E58" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F58" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H58" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I58" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>56.704000000000001</v>
       </c>
       <c r="J58" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>28.531999999999996</v>
       </c>
       <c r="M58" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>19.693999999999999</v>
       </c>
       <c r="P58" s="6">
-        <f t="shared" ref="P58" si="26">SUM(P54:P57)</f>
+        <f t="shared" ref="P58" si="32">SUM(P54:P57)</f>
         <v>12.166</v>
       </c>
       <c r="Q58" s="6">
@@ -3867,23 +4146,27 @@
         <v>14.242999999999999</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" ref="R58:U58" si="27">SUM(R54:R57)</f>
+        <f t="shared" ref="R58:V58" si="33">SUM(R54:R57)</f>
         <v>19.612000000000002</v>
       </c>
       <c r="S58" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>20.044</v>
       </c>
       <c r="T58" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>42.313000000000002</v>
       </c>
       <c r="U58" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>30.173999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V58" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>109</v>
       </c>
@@ -3901,7 +4184,7 @@
       <c r="M59" s="29">
         <v>197.50700000000001</v>
       </c>
-      <c r="N59" s="33"/>
+      <c r="N59" s="83"/>
       <c r="P59" s="29">
         <v>13.157999999999999</v>
       </c>
@@ -3920,8 +4203,9 @@
       <c r="U59" s="29">
         <v>192.833</v>
       </c>
-    </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W59" s="83"/>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>80</v>
       </c>
@@ -3953,7 +4237,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>137</v>
       </c>
@@ -3988,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>136</v>
       </c>
@@ -4027,36 +4311,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C63" s="6">
-        <f t="shared" ref="C63:I63" si="28">SUM(C58:C62)</f>
+        <f t="shared" ref="C63:I63" si="34">SUM(C58:C62)</f>
         <v>0</v>
       </c>
       <c r="D63" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="E63" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F63" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H63" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>229.46799999999999</v>
       </c>
       <c r="J63" s="34" t="s">
@@ -4071,38 +4355,42 @@
         <v>218.44800000000001</v>
       </c>
       <c r="P63" s="6">
-        <f t="shared" ref="P63:U63" si="29">SUM(P58:P62)</f>
+        <f t="shared" ref="P63:V63" si="35">SUM(P58:P62)</f>
         <v>71.289000000000001</v>
       </c>
       <c r="Q63" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>18.806999999999999</v>
       </c>
       <c r="R63" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>26.933</v>
       </c>
       <c r="S63" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>29.064</v>
       </c>
       <c r="T63" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>214.91899999999998</v>
       </c>
       <c r="U63" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>225.27700000000002</v>
       </c>
-    </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="6">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I64" s="6"/>
       <c r="K64" s="6"/>
       <c r="P64" s="6"/>
       <c r="R64" s="6"/>
       <c r="U64" s="6"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>89</v>
       </c>
@@ -4134,7 +4422,7 @@
         <v>34.063000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,11 +4447,11 @@
         <v>72</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" ref="R66" si="30">R65+R63</f>
+        <f t="shared" ref="R66" si="36">R65+R63</f>
         <v>81.841000000000008</v>
       </c>
       <c r="S66" s="6">
-        <f t="shared" ref="S66" si="31">S65+S63</f>
+        <f t="shared" ref="S66" si="37">S65+S63</f>
         <v>58.873000000000005</v>
       </c>
       <c r="T66" s="6">
@@ -4175,7 +4463,7 @@
         <v>259.34000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>91</v>
       </c>
@@ -4192,23 +4480,23 @@
         <v>66.986999999999995</v>
       </c>
       <c r="P68" s="6">
-        <f t="shared" ref="P68:R68" si="32">P52-P63</f>
+        <f t="shared" ref="P68:R68" si="38">P52-P63</f>
         <v>4.0430000000000064</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>53.192999999999998</v>
       </c>
       <c r="R68" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>54.907999999999994</v>
       </c>
       <c r="S68" s="6">
-        <f t="shared" ref="S68:T68" si="33">S52-S63</f>
+        <f t="shared" ref="S68:T68" si="39">S52-S63</f>
         <v>56.910999999999994</v>
       </c>
       <c r="T68" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>29.612000000000023</v>
       </c>
       <c r="U68" s="6">
@@ -4216,7 +4504,7 @@
         <v>34.063000000000017</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>92</v>
       </c>
@@ -4233,23 +4521,23 @@
         <v>0.97796783169522106</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" ref="P69" si="34">P68/P21</f>
+        <f t="shared" ref="P69" si="40">P68/P21</f>
         <v>6.2200000000000095E-2</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" ref="Q69:T69" si="35">Q68/Q21</f>
+        <f t="shared" ref="Q69:T69" si="41">Q68/Q21</f>
         <v>0.8183538461538461</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.84473846153846144</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" ref="S69" si="36">S68/S21</f>
+        <f t="shared" ref="S69" si="42">S68/S21</f>
         <v>0.87555384615384602</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.4382085280067668</v>
       </c>
       <c r="U69" s="1">
@@ -4257,7 +4545,7 @@
         <v>0.49830114900085032</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="39" t="s">
         <v>6</v>
       </c>
@@ -4278,33 +4566,34 @@
         <f>M50</f>
         <v>5.1369999999999996</v>
       </c>
-      <c r="N71" s="40"/>
+      <c r="N71" s="90"/>
       <c r="P71" s="41">
-        <f t="shared" ref="P71:Q71" si="37">P50</f>
+        <f t="shared" ref="P71:Q71" si="43">P50</f>
         <v>10.185</v>
       </c>
       <c r="Q71" s="41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>5.5709999999999997</v>
       </c>
       <c r="R71" s="41">
-        <f t="shared" ref="R71:T71" si="38">R50</f>
+        <f t="shared" ref="R71:T71" si="44">R50</f>
         <v>5.298</v>
       </c>
       <c r="S71" s="41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.1880000000000002</v>
       </c>
       <c r="T71" s="41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.302</v>
       </c>
       <c r="U71" s="41">
         <f>U50</f>
         <v>11.510999999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W71" s="90"/>
+    </row>
+    <row r="72" spans="1:23" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="39" t="s">
         <v>7</v>
       </c>
@@ -4325,33 +4614,34 @@
         <f>+M54+M59</f>
         <v>206.92000000000002</v>
       </c>
-      <c r="N72" s="40"/>
+      <c r="N72" s="90"/>
       <c r="P72" s="41">
-        <f t="shared" ref="P72:Q72" si="39">+P54+P59</f>
+        <f t="shared" ref="P72:Q72" si="45">+P54+P59</f>
         <v>17.268999999999998</v>
       </c>
       <c r="Q72" s="41">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>10.09</v>
       </c>
       <c r="R72" s="41">
-        <f t="shared" ref="R72:T72" si="40">+R54+R59</f>
+        <f t="shared" ref="R72:T72" si="46">+R54+R59</f>
         <v>15.879000000000001</v>
       </c>
       <c r="S72" s="41">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>14.218</v>
       </c>
       <c r="T72" s="41">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>205.05500000000001</v>
       </c>
       <c r="U72" s="41">
         <f>+U54+U59</f>
         <v>209.494</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W72" s="90"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
@@ -4368,23 +4658,23 @@
         <v>-201.78300000000002</v>
       </c>
       <c r="P73" s="6">
-        <f t="shared" ref="P73:Q73" si="41">P71-P72</f>
+        <f t="shared" ref="P73:Q73" si="47">P71-P72</f>
         <v>-7.0839999999999979</v>
       </c>
       <c r="Q73" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-4.5190000000000001</v>
       </c>
       <c r="R73" s="6">
-        <f t="shared" ref="R73:T73" si="42">R71-R72</f>
+        <f t="shared" ref="R73:T73" si="48">R71-R72</f>
         <v>-10.581000000000001</v>
       </c>
       <c r="S73" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>-12.03</v>
       </c>
       <c r="T73" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>-202.75300000000001</v>
       </c>
       <c r="U73" s="6">
@@ -4392,7 +4682,7 @@
         <v>-197.983</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="26" t="s">
         <v>93</v>
       </c>
@@ -4422,7 +4712,7 @@
       <c r="M75" s="26">
         <v>2.8</v>
       </c>
-      <c r="N75" s="35"/>
+      <c r="N75" s="85"/>
       <c r="P75" s="26">
         <v>1.65</v>
       </c>
@@ -4441,8 +4731,9 @@
       <c r="U75" s="26">
         <v>2.3468</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W75" s="85"/>
+    </row>
+    <row r="76" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>5</v>
       </c>
@@ -4463,33 +4754,34 @@
         <f>M75*M21</f>
         <v>191.78913039999998</v>
       </c>
-      <c r="N76" s="44"/>
+      <c r="N76" s="91"/>
       <c r="P76" s="6">
-        <f t="shared" ref="P76:Q76" si="43">P75*P21</f>
+        <f t="shared" ref="P76:Q76" si="49">P75*P21</f>
         <v>107.25</v>
       </c>
       <c r="Q76" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>160.61500000000001</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" ref="R76:T76" si="44">R75*R21</f>
+        <f t="shared" ref="R76:T76" si="50">R75*R21</f>
         <v>139.2885</v>
       </c>
       <c r="S76" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>192.92</v>
       </c>
       <c r="T76" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>135.26514572780002</v>
       </c>
       <c r="U76" s="6">
         <f>U75*U21</f>
         <v>160.42316691479999</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W76" s="91"/>
+    </row>
+    <row r="77" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
         <v>9</v>
       </c>
@@ -4510,33 +4802,34 @@
         <f>M76-M73</f>
         <v>393.57213039999999</v>
       </c>
-      <c r="N77" s="44"/>
+      <c r="N77" s="91"/>
       <c r="P77" s="6">
-        <f t="shared" ref="P77:Q77" si="45">P76-P73</f>
+        <f t="shared" ref="P77:Q77" si="51">P76-P73</f>
         <v>114.334</v>
       </c>
       <c r="Q77" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>165.13400000000001</v>
       </c>
       <c r="R77" s="6">
-        <f t="shared" ref="R77:T77" si="46">R76-R73</f>
+        <f t="shared" ref="R77:T77" si="52">R76-R73</f>
         <v>149.86949999999999</v>
       </c>
       <c r="S77" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>204.95</v>
       </c>
       <c r="T77" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>338.01814572780006</v>
       </c>
       <c r="U77" s="6">
         <f>U76-U73</f>
         <v>358.4061669148</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W77" s="91"/>
+    </row>
+    <row r="79" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="60">
         <f>AVERAGE(Q79:U79)</f>
         <v>3.6447220949978716</v>
@@ -4561,35 +4854,36 @@
         <f>M75/M69</f>
         <v>2.8630798572857419</v>
       </c>
-      <c r="N79" s="58"/>
+      <c r="N79" s="92"/>
       <c r="P79" s="57">
-        <f t="shared" ref="P79:Q79" si="47">P75/P69</f>
+        <f t="shared" ref="P79:Q79" si="53">P75/P69</f>
         <v>26.527331189710569</v>
       </c>
       <c r="Q79" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>3.0194762468745893</v>
       </c>
       <c r="R79" s="57">
-        <f t="shared" ref="R79:T79" si="48">R75/R69</f>
+        <f t="shared" ref="R79:T79" si="54">R75/R69</f>
         <v>2.5367614919501715</v>
       </c>
       <c r="S79" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>3.3898543339600433</v>
       </c>
       <c r="T79" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>4.5679165786775604</v>
       </c>
       <c r="U79" s="57">
         <f>U75/U69</f>
         <v>4.7096018235269916</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W79" s="92"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="60">
-        <f t="shared" ref="A80:A83" si="49">AVERAGE(Q80:U80)</f>
+        <f t="shared" ref="A80:A83" si="55">AVERAGE(Q80:U80)</f>
         <v>2.496796985722928</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -4600,23 +4894,23 @@
         <v>1.175727591880082</v>
       </c>
       <c r="P80" s="57">
-        <f t="shared" ref="P80:Q80" si="50">P76/P8</f>
+        <f t="shared" ref="P80:Q80" si="56">P76/P8</f>
         <v>1.5931609203939452</v>
       </c>
       <c r="Q80" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>2.2609093468468466</v>
       </c>
       <c r="R80" s="57">
-        <f t="shared" ref="R80:T80" si="51">R76/R8</f>
+        <f t="shared" ref="R80:T80" si="57">R76/R8</f>
         <v>1.8243418467583494</v>
       </c>
       <c r="S80" s="57">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2.293335869332636</v>
       </c>
       <c r="T80" s="57">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>3.7294975248228521</v>
       </c>
       <c r="U80" s="57">
@@ -4624,9 +4918,9 @@
         <v>2.3759003408539563</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="60">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>4.2703228836366645</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -4637,23 +4931,23 @@
         <v>2.8421334712465356</v>
       </c>
       <c r="P81" s="57">
-        <f t="shared" ref="P81:Q81" si="52">P77/P8</f>
+        <f t="shared" ref="P81:Q81" si="58">P77/P8</f>
         <v>1.6983912416999658</v>
       </c>
       <c r="Q81" s="57">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2.3245213963963964</v>
       </c>
       <c r="R81" s="57">
-        <f t="shared" ref="R81:T81" si="53">R77/R8</f>
+        <f t="shared" ref="R81:T81" si="59">R77/R8</f>
         <v>1.9629273084479368</v>
       </c>
       <c r="S81" s="57">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>2.4363424550058248</v>
       </c>
       <c r="T81" s="57">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>9.3197536664313905</v>
       </c>
       <c r="U81" s="57">
@@ -4661,9 +4955,9 @@
         <v>5.3080695919017788</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="60">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>20.377966557521056</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -4674,23 +4968,23 @@
         <v>4.5418588938941094</v>
       </c>
       <c r="P82" s="57">
-        <f t="shared" ref="P82:Q82" si="54">P75/P20</f>
+        <f t="shared" ref="P82:Q82" si="60">P75/P20</f>
         <v>29.537317543376421</v>
       </c>
       <c r="Q82" s="57">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>31.000772051727438</v>
       </c>
       <c r="R82" s="57">
-        <f t="shared" ref="R82:T82" si="55">R75/R20</f>
+        <f t="shared" ref="R82:T82" si="61">R75/R20</f>
         <v>17.107406042741321</v>
       </c>
       <c r="S82" s="57">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>21.347792408985285</v>
       </c>
       <c r="T82" s="57">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>-7.6218597919535709</v>
       </c>
       <c r="U82" s="57">
@@ -4698,9 +4992,9 @@
         <v>40.0557220761048</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="60">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>28.680426491732657</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -4711,23 +5005,23 @@
         <v>10.980754210457265</v>
       </c>
       <c r="P83" s="57">
-        <f t="shared" ref="P83:Q83" si="56">P77/P19</f>
+        <f t="shared" ref="P83:Q83" si="62">P77/P19</f>
         <v>31.488295235472258</v>
       </c>
       <c r="Q83" s="57">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>31.87299749083186</v>
       </c>
       <c r="R83" s="57">
-        <f t="shared" ref="R83:T83" si="57">R77/R19</f>
+        <f t="shared" ref="R83:T83" si="63">R77/R19</f>
         <v>18.406963890935863</v>
       </c>
       <c r="S83" s="57">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>22.678986389288482</v>
       </c>
       <c r="T83" s="57">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>-19.046494941556322</v>
       </c>
       <c r="U83" s="57">
@@ -4735,12 +5029,12 @@
         <v>89.48967962916339</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B86" s="24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4773,7 +5067,7 @@
         <v>30.827000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>96</v>
       </c>
@@ -4781,7 +5075,7 @@
         <v>2.2919999999999998</v>
       </c>
       <c r="J88" s="44">
-        <f t="shared" ref="J88:J89" si="58">U88-I88</f>
+        <f t="shared" ref="J88:J89" si="64">U88-I88</f>
         <v>0</v>
       </c>
       <c r="K88" s="6">
@@ -4806,7 +5100,7 @@
         <v>2.2919999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>97</v>
       </c>
@@ -4814,7 +5108,7 @@
         <v>-2.6509999999999998</v>
       </c>
       <c r="J89" s="44">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>-3.0350000000000001</v>
       </c>
       <c r="K89" s="6">
@@ -4839,7 +5133,7 @@
         <v>-5.6859999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>98</v>
       </c>
@@ -4859,33 +5153,34 @@
         <v>25.498999999999999</v>
       </c>
       <c r="L90" s="33"/>
-      <c r="N90" s="33"/>
+      <c r="N90" s="83"/>
       <c r="P90" s="59">
-        <f t="shared" ref="P90:T90" si="59">SUM(P87:P89)</f>
+        <f t="shared" ref="P90:T90" si="65">SUM(P87:P89)</f>
         <v>13.776999999999999</v>
       </c>
       <c r="Q90" s="59">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>10.819999999999999</v>
       </c>
       <c r="R90" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>17.754999999999999</v>
       </c>
       <c r="S90" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>20.62</v>
       </c>
       <c r="T90" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>-2.0009999999999994</v>
       </c>
       <c r="U90" s="29">
         <f>SUM(U87:U89)</f>
         <v>27.433</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W90" s="83"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I91" s="6"/>
       <c r="J91" s="44"/>
       <c r="K91" s="6"/>
@@ -4894,7 +5189,7 @@
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>130</v>
       </c>
@@ -4926,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>99</v>
       </c>
@@ -4934,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="44">
-        <f t="shared" ref="J93:J95" si="60">U93-I93</f>
+        <f t="shared" ref="J93:J95" si="66">U93-I93</f>
         <v>0</v>
       </c>
       <c r="K93" s="6">
@@ -4959,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>100</v>
       </c>
@@ -4967,7 +5262,7 @@
         <v>-0.20499999999999999</v>
       </c>
       <c r="J94" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>-6.9029999999999996</v>
       </c>
       <c r="K94" s="6">
@@ -4992,7 +5287,7 @@
         <v>-7.1079999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>101</v>
       </c>
@@ -5000,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>-2.4E-2</v>
       </c>
       <c r="K95" s="6">
@@ -5025,7 +5320,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>102</v>
       </c>
@@ -5033,45 +5328,46 @@
       <c r="F96" s="33"/>
       <c r="H96" s="33"/>
       <c r="I96" s="29">
-        <f t="shared" ref="I96" si="61">SUM(I92:I95)</f>
+        <f t="shared" ref="I96" si="67">SUM(I92:I95)</f>
         <v>-0.20499999999999999</v>
       </c>
       <c r="J96" s="45">
-        <f t="shared" ref="J96" si="62">SUM(J92:J95)</f>
+        <f t="shared" ref="J96" si="68">SUM(J92:J95)</f>
         <v>-6.9269999999999996</v>
       </c>
       <c r="K96" s="29">
-        <f t="shared" ref="K96" si="63">SUM(K92:K95)</f>
+        <f t="shared" ref="K96" si="69">SUM(K92:K95)</f>
         <v>-17.099000000000004</v>
       </c>
       <c r="L96" s="33"/>
-      <c r="N96" s="33"/>
+      <c r="N96" s="83"/>
       <c r="P96" s="29">
-        <f t="shared" ref="P96:R96" si="64">SUM(P92:P95)</f>
+        <f t="shared" ref="P96:R96" si="70">SUM(P92:P95)</f>
         <v>-5.3520000000000003</v>
       </c>
       <c r="Q96" s="29">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>-6.2170000000000005</v>
       </c>
       <c r="R96" s="29">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>-12.805999999999999</v>
       </c>
       <c r="S96" s="29">
-        <f t="shared" ref="S96" si="65">SUM(S92:S95)</f>
+        <f t="shared" ref="S96" si="71">SUM(S92:S95)</f>
         <v>-10.467999999999998</v>
       </c>
       <c r="T96" s="29">
-        <f t="shared" ref="T96" si="66">SUM(T92:T95)</f>
+        <f t="shared" ref="T96" si="72">SUM(T92:T95)</f>
         <v>-6.1629999999999994</v>
       </c>
       <c r="U96" s="29">
-        <f t="shared" ref="U96" si="67">SUM(U92:U95)</f>
+        <f t="shared" ref="U96" si="73">SUM(U92:U95)</f>
         <v>-7.1319999999999997</v>
       </c>
-    </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W96" s="83"/>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I97" s="6"/>
       <c r="J97" s="44"/>
       <c r="K97" s="6"/>
@@ -5079,7 +5375,7 @@
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>123</v>
       </c>
@@ -5111,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>124</v>
       </c>
@@ -5143,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -5175,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>103</v>
       </c>
@@ -5183,7 +5479,7 @@
         <v>-2.9350000000000001</v>
       </c>
       <c r="J101" s="44">
-        <f t="shared" ref="J101:J104" si="68">U101-I101</f>
+        <f t="shared" ref="J101:J104" si="74">U101-I101</f>
         <v>-7.0670000000000002</v>
       </c>
       <c r="K101" s="6">
@@ -5208,7 +5504,7 @@
         <v>-10.002000000000001</v>
       </c>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>125</v>
       </c>
@@ -5240,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
         <v>104</v>
       </c>
@@ -5248,7 +5544,7 @@
         <v>18</v>
       </c>
       <c r="J103" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>4</v>
       </c>
       <c r="K103" s="6">
@@ -5273,7 +5569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>105</v>
       </c>
@@ -5281,7 +5577,7 @@
         <v>-10</v>
       </c>
       <c r="J104" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>-18</v>
       </c>
       <c r="K104" s="6">
@@ -5306,7 +5602,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="105" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>106</v>
       </c>
@@ -5314,29 +5610,29 @@
       <c r="F105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="29">
-        <f t="shared" ref="I105" si="69">SUM(I98:I104)</f>
+        <f t="shared" ref="I105" si="75">SUM(I98:I104)</f>
         <v>5.0649999999999995</v>
       </c>
       <c r="J105" s="45">
-        <f t="shared" ref="J105" si="70">SUM(J98:J104)</f>
+        <f t="shared" ref="J105" si="76">SUM(J98:J104)</f>
         <v>-21.067</v>
       </c>
       <c r="K105" s="29">
-        <f t="shared" ref="K105" si="71">SUM(K98:K104)</f>
+        <f t="shared" ref="K105" si="77">SUM(K98:K104)</f>
         <v>-12.177</v>
       </c>
       <c r="L105" s="33"/>
-      <c r="N105" s="33"/>
+      <c r="N105" s="83"/>
       <c r="P105" s="29">
-        <f t="shared" ref="P105:R105" si="72">SUM(P98:P104)</f>
+        <f t="shared" ref="P105:R105" si="78">SUM(P98:P104)</f>
         <v>-5.0609999999999999</v>
       </c>
       <c r="Q105" s="29">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>-9.2170000000000005</v>
       </c>
       <c r="R105" s="29">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>-5.2219999999999995</v>
       </c>
       <c r="S105" s="29">
@@ -5344,18 +5640,19 @@
         <v>-13.262</v>
       </c>
       <c r="T105" s="29">
-        <f t="shared" ref="T105:U105" si="73">SUM(T98:T104)</f>
+        <f t="shared" ref="T105:U105" si="79">SUM(T98:T104)</f>
         <v>13.370000000000003</v>
       </c>
       <c r="U105" s="29">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-16.002000000000002</v>
       </c>
-    </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W105" s="83"/>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.2">
       <c r="T106" s="6"/>
     </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
@@ -5372,23 +5669,23 @@
         <v>-17.099000000000004</v>
       </c>
       <c r="P107" s="6">
-        <f t="shared" ref="P107" si="74">+P93+P94+P95</f>
+        <f t="shared" ref="P107" si="80">+P93+P94+P95</f>
         <v>-5.3520000000000003</v>
       </c>
       <c r="Q107" s="6">
-        <f t="shared" ref="Q107:R107" si="75">+Q93+Q94+Q95</f>
+        <f t="shared" ref="Q107:R107" si="81">+Q93+Q94+Q95</f>
         <v>-6.2170000000000005</v>
       </c>
       <c r="R107" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>-12.805999999999999</v>
       </c>
       <c r="S107" s="6">
-        <f t="shared" ref="S107:T107" si="76">+S93+S94+S95</f>
+        <f t="shared" ref="S107:T107" si="82">+S93+S94+S95</f>
         <v>-10.167999999999999</v>
       </c>
       <c r="T107" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>-6.1629999999999994</v>
       </c>
       <c r="U107" s="6">
@@ -5396,7 +5693,7 @@
         <v>-7.1319999999999997</v>
       </c>
     </row>
-    <row r="108" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>108</v>
       </c>
@@ -5416,31 +5713,32 @@
         <v>8.399999999999995</v>
       </c>
       <c r="L108" s="33"/>
-      <c r="N108" s="33"/>
+      <c r="N108" s="83"/>
       <c r="P108" s="29">
-        <f t="shared" ref="P108" si="77">+P90+P107</f>
+        <f t="shared" ref="P108" si="83">+P90+P107</f>
         <v>8.4249999999999989</v>
       </c>
       <c r="Q108" s="29">
-        <f t="shared" ref="Q108:R108" si="78">+Q90+Q107</f>
+        <f t="shared" ref="Q108:R108" si="84">+Q90+Q107</f>
         <v>4.602999999999998</v>
       </c>
       <c r="R108" s="29">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>4.9489999999999998</v>
       </c>
       <c r="S108" s="29">
-        <f t="shared" ref="S108:T108" si="79">+S90+S107</f>
+        <f t="shared" ref="S108:T108" si="85">+S90+S107</f>
         <v>10.452000000000002</v>
       </c>
       <c r="T108" s="29">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>-8.1639999999999979</v>
       </c>
       <c r="U108" s="29">
         <f>+U90+U107</f>
         <v>20.301000000000002</v>
       </c>
+      <c r="W108" s="83"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5449,13 +5747,14 @@
     <hyperlink ref="S1" r:id="rId3" xr:uid="{216FF58D-FA70-405C-A407-B5B577849372}"/>
     <hyperlink ref="Q1" r:id="rId4" xr:uid="{6E36EA97-7B8A-43C0-B9ED-837CF2901242}"/>
     <hyperlink ref="M1" r:id="rId5" xr:uid="{C87CAFEE-4614-48BA-8BDA-B7A005A169D3}"/>
+    <hyperlink ref="V1" r:id="rId6" xr:uid="{A24A9CA2-1A05-44EA-9933-57F44C51F91A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
   <ignoredErrors>
-    <ignoredError sqref="J10 J15:J18" formula="1"/>
-    <ignoredError sqref="T101:T104 S8 U8 S38:U38 T98:T99 P38:R38 M8" formulaRange="1"/>
+    <ignoredError sqref="J10 J15:J18 L10:L18" formula="1"/>
+    <ignoredError sqref="T101:T104 S8 U8:V8 S38:V38 T98:T99 P38:R38 M8" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/£TEG.xlsx
+++ b/£TEG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6FA3C9-28EA-4018-8708-D2A1571C42D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76836FA-5481-4743-A0B0-FFA04A166F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="146">
   <si>
     <t>£TEG</t>
   </si>
@@ -799,6 +799,45 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,45 +864,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904FFB80-2819-4CCA-9F78-6AC8529FFC68}">
   <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1374,25 +1374,25 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="G5" s="62" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="G5" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="64"/>
-      <c r="Q5" s="62" t="s">
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="Q5" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1571,11 +1571,11 @@
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1591,10 +1591,10 @@
       <c r="B16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="68"/>
+      <c r="D16" s="91"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1610,10 +1610,10 @@
       <c r="B17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="68"/>
+      <c r="D17" s="91"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1626,10 +1626,10 @@
       <c r="B18" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="91"/>
       <c r="G18" s="11"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -1640,13 +1640,13 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="43"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
-      <c r="Q19" s="62" t="s">
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="Q19" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="63"/>
-      <c r="S19" s="64"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="87"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q20" s="37" t="s">
@@ -1663,11 +1663,14 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="G22" s="62" t="s">
+        <v>143</v>
+      </c>
       <c r="Q22" s="30"/>
       <c r="R22" s="13"/>
       <c r="S22" s="14"/>
@@ -1676,48 +1679,48 @@
       <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="91"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="90">
         <v>2009</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="91"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="90">
         <f>'Financial Model'!M34</f>
         <v>51</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="91"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="88">
         <f>'Financial Model'!K38</f>
         <v>1500</v>
       </c>
-      <c r="D26" s="66"/>
+      <c r="D26" s="89"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="92">
         <v>2017</v>
       </c>
-      <c r="D27" s="70"/>
+      <c r="D27" s="93"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
@@ -1729,90 +1732,80 @@
       <c r="D28" s="28">
         <v>45189</v>
       </c>
-      <c r="H28" s="77" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="76"/>
+      <c r="D29" s="84"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="81">
         <f>C6/'Financial Model'!M69</f>
         <v>2.8119534312627823</v>
       </c>
-      <c r="D33" s="74"/>
+      <c r="D33" s="82"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="81">
         <f>C8/SUM('Financial Model'!L8:M8)</f>
         <v>1.4632398140308083</v>
       </c>
-      <c r="D34" s="74"/>
+      <c r="D34" s="82"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="81">
         <f>C12/SUM('Financial Model'!L8:M8)</f>
         <v>3.0307177331023607</v>
       </c>
-      <c r="D35" s="74"/>
+      <c r="D35" s="82"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="73">
+      <c r="C36" s="81">
         <f>C6/SUM('Financial Model'!L20:M20)</f>
         <v>9.1425678056593718</v>
       </c>
-      <c r="D36" s="74"/>
+      <c r="D36" s="82"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="81">
         <f>C12/SUM('Financial Model'!L19:M19)</f>
         <v>18.93643277678008</v>
       </c>
-      <c r="D37" s="74"/>
+      <c r="D37" s="82"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="72"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="C26:D26"/>
@@ -1829,6 +1822,13 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{872569F1-2E0E-45DC-998D-58DC741E9E51}"/>
@@ -1842,11 +1842,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C83F-EC03-4F38-8C2B-BF6F054B4FFD}">
   <dimension ref="A1:AG108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1864,9 +1864,9 @@
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.140625" style="34"/>
     <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="84"/>
+    <col min="14" max="14" width="9.140625" style="69"/>
     <col min="15" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="9.140625" style="84"/>
+    <col min="23" max="23" width="9.140625" style="69"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1904,7 +1904,7 @@
       <c r="M1" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="80" t="s">
+      <c r="N1" s="65" t="s">
         <v>142</v>
       </c>
       <c r="P1" s="17" t="s">
@@ -1928,7 +1928,7 @@
       <c r="V1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="80" t="s">
+      <c r="W1" s="65" t="s">
         <v>62</v>
       </c>
       <c r="X1" s="17" t="s">
@@ -1964,15 +1964,24 @@
     </row>
     <row r="2" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="20"/>
-      <c r="D2" s="32"/>
+      <c r="D2" s="47">
+        <f>R2</f>
+        <v>43464</v>
+      </c>
       <c r="E2" s="22">
         <v>43645</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="47">
+        <f>S2</f>
+        <v>43828</v>
+      </c>
       <c r="G2" s="22">
         <v>44010</v>
       </c>
-      <c r="H2" s="32"/>
+      <c r="H2" s="47">
+        <f>T2</f>
+        <v>44192</v>
+      </c>
       <c r="I2" s="22">
         <v>44374</v>
       </c>
@@ -1990,7 +1999,7 @@
       <c r="M2" s="22">
         <v>45109</v>
       </c>
-      <c r="N2" s="93" t="s">
+      <c r="N2" s="78" t="s">
         <v>145</v>
       </c>
       <c r="P2" s="22">
@@ -2014,27 +2023,30 @@
       <c r="V2" s="22">
         <v>44927</v>
       </c>
-      <c r="W2" s="93" t="s">
+      <c r="W2" s="78" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="D3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="F3" s="64">
+        <f>S3</f>
+        <v>45059</v>
+      </c>
       <c r="H3" s="32"/>
       <c r="J3" s="32"/>
       <c r="K3" s="19">
         <v>45190</v>
       </c>
-      <c r="L3" s="79">
+      <c r="L3" s="64">
         <f>V3</f>
         <v>45007</v>
       </c>
       <c r="M3" s="19">
         <v>45189</v>
       </c>
-      <c r="N3" s="93"/>
+      <c r="N3" s="78"/>
       <c r="Q3" s="19">
         <v>45006</v>
       </c>
@@ -2047,7 +2059,7 @@
       <c r="V3" s="19">
         <v>45007</v>
       </c>
-      <c r="W3" s="81"/>
+      <c r="W3" s="66"/>
     </row>
     <row r="4" spans="2:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
@@ -2067,13 +2079,13 @@
         <v>28.266999999999999</v>
       </c>
       <c r="L4" s="56">
-        <f>V4-K4</f>
+        <f t="shared" ref="L4:L9" si="0">V4-K4</f>
         <v>27.462</v>
       </c>
       <c r="M4" s="41">
         <v>27.588999999999999</v>
       </c>
-      <c r="N4" s="82"/>
+      <c r="N4" s="67"/>
       <c r="P4" s="61" t="s">
         <v>118</v>
       </c>
@@ -2095,7 +2107,7 @@
       <c r="V4" s="41">
         <v>55.728999999999999</v>
       </c>
-      <c r="W4" s="82"/>
+      <c r="W4" s="67"/>
     </row>
     <row r="5" spans="2:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="55" t="s">
@@ -2108,20 +2120,20 @@
         <v>2.875</v>
       </c>
       <c r="J5" s="56">
-        <f t="shared" ref="J5:J7" si="0">U5-I5</f>
+        <f t="shared" ref="J5:J7" si="1">U5-I5</f>
         <v>16.219000000000001</v>
       </c>
       <c r="K5" s="41">
         <v>17.276</v>
       </c>
       <c r="L5" s="56">
-        <f>V5-K5</f>
+        <f t="shared" si="0"/>
         <v>18.050999999999998</v>
       </c>
       <c r="M5" s="41">
         <v>18.145</v>
       </c>
-      <c r="N5" s="82"/>
+      <c r="N5" s="67"/>
       <c r="P5" s="61" t="s">
         <v>118</v>
       </c>
@@ -2143,7 +2155,7 @@
       <c r="V5" s="41">
         <v>35.326999999999998</v>
       </c>
-      <c r="W5" s="82"/>
+      <c r="W5" s="67"/>
     </row>
     <row r="6" spans="2:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="55" t="s">
@@ -2156,20 +2168,20 @@
         <v>2.5790000000000002</v>
       </c>
       <c r="J6" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.701000000000001</v>
       </c>
       <c r="K6" s="41">
         <v>15.143000000000001</v>
       </c>
       <c r="L6" s="56">
-        <f>V6-K6</f>
+        <f t="shared" si="0"/>
         <v>15.332000000000001</v>
       </c>
       <c r="M6" s="41">
         <v>16.762</v>
       </c>
-      <c r="N6" s="82"/>
+      <c r="N6" s="67"/>
       <c r="P6" s="61" t="s">
         <v>118</v>
       </c>
@@ -2191,7 +2203,7 @@
       <c r="V6" s="41">
         <v>30.475000000000001</v>
       </c>
-      <c r="W6" s="82"/>
+      <c r="W6" s="67"/>
     </row>
     <row r="7" spans="2:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="55" t="s">
@@ -2204,20 +2216,20 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="J7" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.048</v>
       </c>
       <c r="K7" s="41">
         <v>2.552</v>
       </c>
       <c r="L7" s="56">
-        <f>V7-K7</f>
+        <f t="shared" si="0"/>
         <v>2.5900000000000003</v>
       </c>
       <c r="M7" s="41">
         <v>2.8</v>
       </c>
-      <c r="N7" s="82"/>
+      <c r="N7" s="67"/>
       <c r="P7" s="61" t="s">
         <v>118</v>
       </c>
@@ -2239,7 +2251,7 @@
       <c r="V7" s="41">
         <v>5.1420000000000003</v>
       </c>
-      <c r="W7" s="82"/>
+      <c r="W7" s="67"/>
     </row>
     <row r="8" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -2259,14 +2271,14 @@
         <v>63.238</v>
       </c>
       <c r="L8" s="45">
-        <f>V8-K8</f>
+        <f t="shared" si="0"/>
         <v>63.435000000000002</v>
       </c>
       <c r="M8" s="29">
         <f>SUM(M4:M7)</f>
         <v>65.295999999999992</v>
       </c>
-      <c r="N8" s="83"/>
+      <c r="N8" s="68"/>
       <c r="P8" s="29">
         <v>67.319000000000003</v>
       </c>
@@ -2293,7 +2305,7 @@
         <f>SUM(V4:V7)</f>
         <v>126.673</v>
       </c>
-      <c r="W8" s="83"/>
+      <c r="W8" s="68"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -2310,7 +2322,7 @@
         <v>19.707000000000001</v>
       </c>
       <c r="L9" s="44">
-        <f>V9-K9</f>
+        <f t="shared" si="0"/>
         <v>21.207999999999998</v>
       </c>
       <c r="M9" s="6">
@@ -2365,25 +2377,25 @@
         <f>M8-M9</f>
         <v>44.087999999999994</v>
       </c>
-      <c r="N10" s="83"/>
+      <c r="N10" s="68"/>
       <c r="P10" s="29">
-        <f t="shared" ref="P10:T10" si="1">P8-P9</f>
+        <f t="shared" ref="P10:T10" si="2">P8-P9</f>
         <v>46.680000000000007</v>
       </c>
       <c r="Q10" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49.562000000000005</v>
       </c>
       <c r="R10" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53.927000000000007</v>
       </c>
       <c r="S10" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.192</v>
       </c>
       <c r="T10" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.173999999999999</v>
       </c>
       <c r="U10" s="29">
@@ -2394,7 +2406,7 @@
         <f>V8-V9</f>
         <v>85.75800000000001</v>
       </c>
-      <c r="W10" s="83"/>
+      <c r="W10" s="68"/>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -2404,14 +2416,14 @@
         <v>14.558999999999999</v>
       </c>
       <c r="J11" s="44">
-        <f t="shared" ref="J11:J18" si="2">U11-I11</f>
+        <f t="shared" ref="J11:J18" si="3">U11-I11</f>
         <v>21.152000000000001</v>
       </c>
       <c r="K11" s="6">
         <v>24.021999999999998</v>
       </c>
       <c r="L11" s="44">
-        <f t="shared" ref="L11:L14" si="3">V11-K11</f>
+        <f t="shared" ref="L11:L14" si="4">V11-K11</f>
         <v>28.119</v>
       </c>
       <c r="M11" s="6">
@@ -2447,14 +2459,14 @@
         <v>0</v>
       </c>
       <c r="J12" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="6">
         <v>0.31</v>
       </c>
       <c r="L12" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M12" s="6">
@@ -2490,14 +2502,14 @@
         <v>0</v>
       </c>
       <c r="J13" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1240000000000001</v>
       </c>
       <c r="K13" s="6">
         <v>0.747</v>
       </c>
       <c r="L13" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.11599999999999999</v>
       </c>
       <c r="M13" s="6">
@@ -2533,14 +2545,14 @@
         <v>0</v>
       </c>
       <c r="J14" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14" s="6">
         <v>4.601</v>
       </c>
       <c r="L14" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6619999999999999</v>
       </c>
       <c r="M14" s="6">
@@ -2595,25 +2607,25 @@
         <f>M10-M11-M12+M13+M14</f>
         <v>19.329999999999995</v>
       </c>
-      <c r="N15" s="83"/>
+      <c r="N15" s="68"/>
       <c r="P15" s="29">
-        <f t="shared" ref="P15:T15" si="4">P10-P11-P12+P13+P14</f>
+        <f t="shared" ref="P15:T15" si="5">P10-P11-P12+P13+P14</f>
         <v>9.7560000000000073</v>
       </c>
       <c r="Q15" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9220000000000041</v>
       </c>
       <c r="R15" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.362000000000009</v>
       </c>
       <c r="S15" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.582999999999998</v>
       </c>
       <c r="T15" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-15.850999999999999</v>
       </c>
       <c r="U15" s="29">
@@ -2624,7 +2636,7 @@
         <f>V10-V11-V12+V13+V14</f>
         <v>41.201000000000008</v>
       </c>
-      <c r="W15" s="83"/>
+      <c r="W15" s="68"/>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
@@ -2634,7 +2646,7 @@
         <v>-2.6659999999999999</v>
       </c>
       <c r="J16" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.32</v>
       </c>
       <c r="K16" s="6">
@@ -2696,19 +2708,19 @@
         <v>15.753999999999994</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" ref="P17:R17" si="5">P15+P16</f>
+        <f t="shared" ref="P17:R17" si="6">P15+P16</f>
         <v>5.436000000000007</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2920000000000043</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.669000000000009</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" ref="S17" si="6">S15+S16</f>
+        <f t="shared" ref="S17" si="7">S15+S16</f>
         <v>11.794999999999998</v>
       </c>
       <c r="T17" s="6">
@@ -2732,7 +2744,7 @@
         <v>-1.97</v>
       </c>
       <c r="J18" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4020000000000001</v>
       </c>
       <c r="K18" s="6">
@@ -2794,25 +2806,25 @@
         <f>M17-M18</f>
         <v>12.300999999999995</v>
       </c>
-      <c r="N19" s="83"/>
+      <c r="N19" s="68"/>
       <c r="P19" s="29">
-        <f t="shared" ref="P19:T19" si="7">P17-P18</f>
+        <f t="shared" ref="P19:T19" si="8">P17-P18</f>
         <v>3.6310000000000073</v>
       </c>
       <c r="Q19" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.1810000000000045</v>
       </c>
       <c r="R19" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.1420000000000101</v>
       </c>
       <c r="S19" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.036999999999999</v>
       </c>
       <c r="T19" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-17.747</v>
       </c>
       <c r="U19" s="29">
@@ -2823,7 +2835,7 @@
         <f>V17-V18</f>
         <v>26.596000000000004</v>
       </c>
-      <c r="W19" s="83"/>
+      <c r="W19" s="68"/>
     </row>
     <row r="20" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="26" t="s">
@@ -2852,21 +2864,21 @@
         <f>M19/M21</f>
         <v>0.17958681979612326</v>
       </c>
-      <c r="N20" s="85"/>
+      <c r="N20" s="70"/>
       <c r="P20" s="26">
-        <f t="shared" ref="P20:S20" si="8">P19/P21</f>
+        <f t="shared" ref="P20:S20" si="9">P19/P21</f>
         <v>5.5861538461538573E-2</v>
       </c>
       <c r="Q20" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.9707692307692382E-2</v>
       </c>
       <c r="R20" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12526153846153862</v>
       </c>
       <c r="S20" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13903076923076921</v>
       </c>
       <c r="T20" s="26">
@@ -2881,7 +2893,7 @@
         <f>V19/V21</f>
         <v>0.38828477841620168</v>
       </c>
-      <c r="W20" s="85"/>
+      <c r="W20" s="70"/>
     </row>
     <row r="21" spans="2:23" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
@@ -2907,7 +2919,7 @@
       <c r="M21" s="6">
         <v>68.496117999999996</v>
       </c>
-      <c r="N21" s="86"/>
+      <c r="N21" s="71"/>
       <c r="P21" s="27">
         <v>65</v>
       </c>
@@ -2929,7 +2941,7 @@
       <c r="V21" s="27">
         <v>68.496117999999996</v>
       </c>
-      <c r="W21" s="86"/>
+      <c r="W21" s="71"/>
     </row>
     <row r="23" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
@@ -2938,12 +2950,17 @@
       <c r="D23" s="33"/>
       <c r="F23" s="33"/>
       <c r="H23" s="33"/>
-      <c r="J23" s="33"/>
+      <c r="I23" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="K23" s="23">
         <f>K8/I8-1</f>
         <v>4.9602262016965133</v>
       </c>
-      <c r="L23" s="78">
+      <c r="L23" s="63">
         <f>L8/J8-1</f>
         <v>0.1146351320482859</v>
       </c>
@@ -2951,24 +2968,24 @@
         <f>M8/K8-1</f>
         <v>3.254372371042713E-2</v>
       </c>
-      <c r="N23" s="83"/>
+      <c r="N23" s="68"/>
       <c r="P23" s="49" t="s">
         <v>118</v>
       </c>
       <c r="Q23" s="23">
-        <f t="shared" ref="Q23:T23" si="9">Q8/P8-1</f>
+        <f t="shared" ref="Q23:T23" si="10">Q8/P8-1</f>
         <v>5.5274142515486124E-2</v>
       </c>
       <c r="R23" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.4746621621621712E-2</v>
       </c>
       <c r="S23" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10179436804191222</v>
       </c>
       <c r="T23" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.56885238106559521</v>
       </c>
       <c r="U23" s="23">
@@ -2976,10 +2993,10 @@
         <v>0.86167250268824636</v>
       </c>
       <c r="V23" s="23">
-        <f t="shared" ref="V23" si="10">V8/U8-1</f>
+        <f t="shared" ref="V23" si="11">V8/U8-1</f>
         <v>0.87605337598673017</v>
       </c>
-      <c r="W23" s="83"/>
+      <c r="W23" s="68"/>
     </row>
     <row r="24" spans="2:23" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
@@ -2988,6 +3005,9 @@
       <c r="D24" s="48"/>
       <c r="F24" s="48"/>
       <c r="H24" s="48"/>
+      <c r="I24" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="J24" s="48">
         <f>J8/I8-1</f>
         <v>4.3639019792648446</v>
@@ -3004,7 +3024,7 @@
         <f>M8/L8-1</f>
         <v>2.9337116733664237E-2</v>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="72"/>
       <c r="P24" s="49" t="s">
         <v>118</v>
       </c>
@@ -3026,7 +3046,7 @@
       <c r="V24" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="W24" s="87"/>
+      <c r="W24" s="72"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
@@ -3053,23 +3073,23 @@
         <v>0.67520215633423175</v>
       </c>
       <c r="P26" s="25">
-        <f t="shared" ref="P26:Q26" si="11">P10/P8</f>
+        <f t="shared" ref="P26:Q26" si="12">P10/P8</f>
         <v>0.69341493486237171</v>
       </c>
       <c r="Q26" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.69766328828828827</v>
       </c>
       <c r="R26" s="25">
-        <f t="shared" ref="R26:S26" si="12">R10/R8</f>
+        <f t="shared" ref="R26:S26" si="13">R10/R8</f>
         <v>0.70631303208906349</v>
       </c>
       <c r="S26" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.70364470649770572</v>
       </c>
       <c r="T26" s="25">
-        <f t="shared" ref="T26" si="13">T10/T8</f>
+        <f t="shared" ref="T26" si="14">T10/T8</f>
         <v>0.61137610631668915</v>
       </c>
       <c r="U26" s="25">
@@ -3077,7 +3097,7 @@
         <v>0.66660742583788757</v>
       </c>
       <c r="V26" s="25">
-        <f t="shared" ref="V26" si="14">V10/V8</f>
+        <f t="shared" ref="V26" si="15">V10/V8</f>
         <v>0.67700299195566549</v>
       </c>
     </row>
@@ -3106,23 +3126,23 @@
         <v>0.2960365106591521</v>
       </c>
       <c r="P27" s="25">
-        <f t="shared" ref="P27:Q27" si="15">P15/P8</f>
+        <f t="shared" ref="P27:Q27" si="16">P15/P8</f>
         <v>0.14492193882856261</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.13966779279279284</v>
       </c>
       <c r="R27" s="25">
-        <f t="shared" ref="R27:S27" si="16">R15/R8</f>
+        <f t="shared" ref="R27:S27" si="17">R15/R8</f>
         <v>0.14881466928618214</v>
       </c>
       <c r="S27" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14958037136539787</v>
       </c>
       <c r="T27" s="25">
-        <f t="shared" ref="T27" si="17">T15/T8</f>
+        <f t="shared" ref="T27" si="18">T15/T8</f>
         <v>-0.43703989633019935</v>
       </c>
       <c r="U27" s="25">
@@ -3130,7 +3150,7 @@
         <v>0.1543667895913865</v>
       </c>
       <c r="V27" s="25">
-        <f t="shared" ref="V27" si="18">V15/V8</f>
+        <f t="shared" ref="V27" si="19">V15/V8</f>
         <v>0.32525478989208439</v>
       </c>
     </row>
@@ -3159,23 +3179,23 @@
         <v>0.18838826268071546</v>
       </c>
       <c r="P28" s="25">
-        <f t="shared" ref="P28:Q28" si="19">P19/P8</f>
+        <f t="shared" ref="P28:Q28" si="20">P19/P8</f>
         <v>5.3937224260610039E-2</v>
       </c>
       <c r="Q28" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.2930743243243307E-2</v>
       </c>
       <c r="R28" s="25">
-        <f t="shared" ref="R28:S28" si="20">R19/R8</f>
+        <f t="shared" ref="R28:S28" si="21">R19/R8</f>
         <v>0.10664047151277026</v>
       </c>
       <c r="S28" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.1074273079574903</v>
       </c>
       <c r="T28" s="25">
-        <f t="shared" ref="T28" si="21">T19/T8</f>
+        <f t="shared" ref="T28" si="22">T19/T8</f>
         <v>-0.48931594474620199</v>
       </c>
       <c r="U28" s="25">
@@ -3183,7 +3203,7 @@
         <v>5.9314879815168718E-2</v>
       </c>
       <c r="V28" s="25">
-        <f t="shared" ref="V28" si="22">V19/V8</f>
+        <f t="shared" ref="V28" si="23">V19/V8</f>
         <v>0.20995792315647377</v>
       </c>
     </row>
@@ -3212,11 +3232,11 @@
         <v>3.4631110778390712E-3</v>
       </c>
       <c r="P29" s="25">
-        <f t="shared" ref="P29:Q29" si="23">P28/P18/P17</f>
+        <f t="shared" ref="P29:Q29" si="24">P28/P18/P17</f>
         <v>5.497078495941693E-3</v>
       </c>
       <c r="Q29" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.7377893376233451E-3</v>
       </c>
       <c r="R29" s="25">
@@ -3236,7 +3256,7 @@
         <v>3.0944999444469812E-2</v>
       </c>
       <c r="V29" s="25">
-        <f t="shared" ref="V29" si="24">V28/V18/V17</f>
+        <f t="shared" ref="V29" si="25">V28/V18/V17</f>
         <v>8.34726488726315E-4</v>
       </c>
     </row>
@@ -3249,8 +3269,8 @@
       <c r="H33" s="33"/>
       <c r="J33" s="33"/>
       <c r="L33" s="33"/>
-      <c r="N33" s="83"/>
-      <c r="W33" s="83"/>
+      <c r="N33" s="68"/>
+      <c r="W33" s="68"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
@@ -3321,14 +3341,14 @@
       <c r="F35" s="52"/>
       <c r="H35" s="52"/>
       <c r="J35" s="52">
-        <f t="shared" ref="J35:J36" si="25">U35</f>
+        <f t="shared" ref="J35:J36" si="26">U35</f>
         <v>1275</v>
       </c>
       <c r="L35" s="52">
         <f>V35</f>
         <v>1449</v>
       </c>
-      <c r="N35" s="88"/>
+      <c r="N35" s="73"/>
       <c r="P35" s="51">
         <v>812</v>
       </c>
@@ -3350,7 +3370,7 @@
       <c r="V35" s="51">
         <v>1449</v>
       </c>
-      <c r="W35" s="88"/>
+      <c r="W35" s="73"/>
     </row>
     <row r="36" spans="2:23" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="50" t="s">
@@ -3360,14 +3380,14 @@
       <c r="F36" s="52"/>
       <c r="H36" s="52"/>
       <c r="J36" s="52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>58</v>
       </c>
       <c r="L36" s="52">
         <f>V36</f>
         <v>65</v>
       </c>
-      <c r="N36" s="88"/>
+      <c r="N36" s="73"/>
       <c r="P36" s="51">
         <v>38</v>
       </c>
@@ -3389,7 +3409,7 @@
       <c r="V36" s="51">
         <v>65</v>
       </c>
-      <c r="W36" s="88"/>
+      <c r="W36" s="73"/>
     </row>
     <row r="37" spans="2:23" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="50" t="s">
@@ -3406,7 +3426,7 @@
         <f>V37</f>
         <v>159</v>
       </c>
-      <c r="N37" s="88"/>
+      <c r="N37" s="73"/>
       <c r="P37" s="51">
         <v>210</v>
       </c>
@@ -3428,7 +3448,7 @@
       <c r="V37" s="51">
         <v>159</v>
       </c>
-      <c r="W37" s="88"/>
+      <c r="W37" s="73"/>
     </row>
     <row r="38" spans="2:23" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="53" t="s">
@@ -3448,21 +3468,21 @@
         <f>V38</f>
         <v>1673</v>
       </c>
-      <c r="N38" s="89"/>
+      <c r="N38" s="74"/>
       <c r="P38" s="53">
-        <f t="shared" ref="P38:S38" si="26">SUM(P35:P37)</f>
+        <f t="shared" ref="P38:S38" si="27">SUM(P35:P37)</f>
         <v>1060</v>
       </c>
       <c r="Q38" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1134</v>
       </c>
       <c r="R38" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1082</v>
       </c>
       <c r="S38" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1187</v>
       </c>
       <c r="T38" s="53">
@@ -3477,7 +3497,7 @@
         <f>SUM(V35:V37)</f>
         <v>1673</v>
       </c>
-      <c r="W38" s="89"/>
+      <c r="W38" s="74"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="24" t="s">
@@ -3658,35 +3678,35 @@
         <v>81</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" ref="C47:J47" si="27">SUM(C42:C46)</f>
+        <f t="shared" ref="C47:J47" si="28">SUM(C42:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F47" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H47" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>231.22799999999998</v>
       </c>
       <c r="J47" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K47" s="6">
@@ -3698,23 +3718,23 @@
         <v>275.553</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" ref="P47:T47" si="28">SUM(P42:P46)</f>
+        <f t="shared" ref="P47:T47" si="29">SUM(P42:P46)</f>
         <v>60.462000000000003</v>
       </c>
       <c r="Q47" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>61.551999999999992</v>
       </c>
       <c r="R47" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>70.730999999999995</v>
       </c>
       <c r="S47" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>77.560999999999993</v>
       </c>
       <c r="T47" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>232.655</v>
       </c>
       <c r="U47" s="6">
@@ -3744,7 +3764,7 @@
       <c r="M48" s="29">
         <v>1.462</v>
       </c>
-      <c r="N48" s="83"/>
+      <c r="N48" s="68"/>
       <c r="P48" s="29">
         <v>1.339</v>
       </c>
@@ -3763,7 +3783,7 @@
       <c r="U48" s="29">
         <v>1.226</v>
       </c>
-      <c r="W48" s="83"/>
+      <c r="W48" s="68"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
@@ -3815,7 +3835,7 @@
       <c r="M50" s="29">
         <v>5.1369999999999996</v>
       </c>
-      <c r="N50" s="83"/>
+      <c r="N50" s="68"/>
       <c r="P50" s="29">
         <v>10.185</v>
       </c>
@@ -3834,7 +3854,7 @@
       <c r="U50" s="29">
         <v>11.510999999999999</v>
       </c>
-      <c r="W50" s="83"/>
+      <c r="W50" s="68"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
@@ -3873,35 +3893,35 @@
         <v>85</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" ref="C52:J52" si="29">C47+SUM(C48:C51)</f>
+        <f t="shared" ref="C52:J52" si="30">C47+SUM(C48:C51)</f>
         <v>0</v>
       </c>
       <c r="D52" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F52" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H52" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>250.58499999999998</v>
       </c>
       <c r="J52" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K52" s="6">
@@ -3913,31 +3933,31 @@
         <v>285.435</v>
       </c>
       <c r="P52" s="6">
-        <f t="shared" ref="P52:V52" si="30">P47+SUM(P48:P51)</f>
+        <f t="shared" ref="P52:V52" si="31">P47+SUM(P48:P51)</f>
         <v>75.332000000000008</v>
       </c>
       <c r="Q52" s="27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>72</v>
       </c>
       <c r="R52" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>81.840999999999994</v>
       </c>
       <c r="S52" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>85.974999999999994</v>
       </c>
       <c r="T52" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>244.53100000000001</v>
       </c>
       <c r="U52" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>259.34000000000003</v>
       </c>
       <c r="V52" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -3966,7 +3986,7 @@
       <c r="M54" s="29">
         <v>9.4130000000000003</v>
       </c>
-      <c r="N54" s="83"/>
+      <c r="N54" s="68"/>
       <c r="P54" s="29">
         <v>4.1109999999999998</v>
       </c>
@@ -3985,7 +4005,7 @@
       <c r="U54" s="29">
         <v>16.661000000000001</v>
       </c>
-      <c r="W54" s="83"/>
+      <c r="W54" s="68"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
@@ -4098,47 +4118,47 @@
         <v>87</v>
       </c>
       <c r="C58" s="6">
-        <f t="shared" ref="C58:M58" si="31">SUM(C54:C57)</f>
+        <f t="shared" ref="C58:M58" si="32">SUM(C54:C57)</f>
         <v>0</v>
       </c>
       <c r="D58" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="E58" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F58" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H58" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I58" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>56.704000000000001</v>
       </c>
       <c r="J58" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>28.531999999999996</v>
       </c>
       <c r="M58" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>19.693999999999999</v>
       </c>
       <c r="P58" s="6">
-        <f t="shared" ref="P58" si="32">SUM(P54:P57)</f>
+        <f t="shared" ref="P58" si="33">SUM(P54:P57)</f>
         <v>12.166</v>
       </c>
       <c r="Q58" s="6">
@@ -4146,23 +4166,23 @@
         <v>14.242999999999999</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" ref="R58:V58" si="33">SUM(R54:R57)</f>
+        <f t="shared" ref="R58:V58" si="34">SUM(R54:R57)</f>
         <v>19.612000000000002</v>
       </c>
       <c r="S58" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>20.044</v>
       </c>
       <c r="T58" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>42.313000000000002</v>
       </c>
       <c r="U58" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>30.173999999999999</v>
       </c>
       <c r="V58" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -4184,7 +4204,7 @@
       <c r="M59" s="29">
         <v>197.50700000000001</v>
       </c>
-      <c r="N59" s="83"/>
+      <c r="N59" s="68"/>
       <c r="P59" s="29">
         <v>13.157999999999999</v>
       </c>
@@ -4203,7 +4223,7 @@
       <c r="U59" s="29">
         <v>192.833</v>
       </c>
-      <c r="W59" s="83"/>
+      <c r="W59" s="68"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
@@ -4316,31 +4336,31 @@
         <v>88</v>
       </c>
       <c r="C63" s="6">
-        <f t="shared" ref="C63:I63" si="34">SUM(C58:C62)</f>
+        <f t="shared" ref="C63:I63" si="35">SUM(C58:C62)</f>
         <v>0</v>
       </c>
       <c r="D63" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="E63" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F63" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H63" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>229.46799999999999</v>
       </c>
       <c r="J63" s="34" t="s">
@@ -4355,31 +4375,31 @@
         <v>218.44800000000001</v>
       </c>
       <c r="P63" s="6">
-        <f t="shared" ref="P63:V63" si="35">SUM(P58:P62)</f>
+        <f t="shared" ref="P63:V63" si="36">SUM(P58:P62)</f>
         <v>71.289000000000001</v>
       </c>
       <c r="Q63" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>18.806999999999999</v>
       </c>
       <c r="R63" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>26.933</v>
       </c>
       <c r="S63" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>29.064</v>
       </c>
       <c r="T63" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>214.91899999999998</v>
       </c>
       <c r="U63" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>225.27700000000002</v>
       </c>
       <c r="V63" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -4447,11 +4467,11 @@
         <v>72</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" ref="R66" si="36">R65+R63</f>
+        <f t="shared" ref="R66" si="37">R65+R63</f>
         <v>81.841000000000008</v>
       </c>
       <c r="S66" s="6">
-        <f t="shared" ref="S66" si="37">S65+S63</f>
+        <f t="shared" ref="S66" si="38">S65+S63</f>
         <v>58.873000000000005</v>
       </c>
       <c r="T66" s="6">
@@ -4480,23 +4500,23 @@
         <v>66.986999999999995</v>
       </c>
       <c r="P68" s="6">
-        <f t="shared" ref="P68:R68" si="38">P52-P63</f>
+        <f t="shared" ref="P68:R68" si="39">P52-P63</f>
         <v>4.0430000000000064</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>53.192999999999998</v>
       </c>
       <c r="R68" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>54.907999999999994</v>
       </c>
       <c r="S68" s="6">
-        <f t="shared" ref="S68:T68" si="39">S52-S63</f>
+        <f t="shared" ref="S68:T68" si="40">S52-S63</f>
         <v>56.910999999999994</v>
       </c>
       <c r="T68" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>29.612000000000023</v>
       </c>
       <c r="U68" s="6">
@@ -4521,23 +4541,23 @@
         <v>0.97796783169522106</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" ref="P69" si="40">P68/P21</f>
+        <f t="shared" ref="P69" si="41">P68/P21</f>
         <v>6.2200000000000095E-2</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" ref="Q69:T69" si="41">Q68/Q21</f>
+        <f t="shared" ref="Q69:T69" si="42">Q68/Q21</f>
         <v>0.8183538461538461</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.84473846153846144</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" ref="S69" si="42">S68/S21</f>
+        <f t="shared" ref="S69" si="43">S68/S21</f>
         <v>0.87555384615384602</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.4382085280067668</v>
       </c>
       <c r="U69" s="1">
@@ -4566,32 +4586,32 @@
         <f>M50</f>
         <v>5.1369999999999996</v>
       </c>
-      <c r="N71" s="90"/>
+      <c r="N71" s="75"/>
       <c r="P71" s="41">
-        <f t="shared" ref="P71:Q71" si="43">P50</f>
+        <f t="shared" ref="P71:Q71" si="44">P50</f>
         <v>10.185</v>
       </c>
       <c r="Q71" s="41">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>5.5709999999999997</v>
       </c>
       <c r="R71" s="41">
-        <f t="shared" ref="R71:T71" si="44">R50</f>
+        <f t="shared" ref="R71:T71" si="45">R50</f>
         <v>5.298</v>
       </c>
       <c r="S71" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2.1880000000000002</v>
       </c>
       <c r="T71" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2.302</v>
       </c>
       <c r="U71" s="41">
         <f>U50</f>
         <v>11.510999999999999</v>
       </c>
-      <c r="W71" s="90"/>
+      <c r="W71" s="75"/>
     </row>
     <row r="72" spans="1:23" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="39" t="s">
@@ -4614,32 +4634,32 @@
         <f>+M54+M59</f>
         <v>206.92000000000002</v>
       </c>
-      <c r="N72" s="90"/>
+      <c r="N72" s="75"/>
       <c r="P72" s="41">
-        <f t="shared" ref="P72:Q72" si="45">+P54+P59</f>
+        <f t="shared" ref="P72:Q72" si="46">+P54+P59</f>
         <v>17.268999999999998</v>
       </c>
       <c r="Q72" s="41">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>10.09</v>
       </c>
       <c r="R72" s="41">
-        <f t="shared" ref="R72:T72" si="46">+R54+R59</f>
+        <f t="shared" ref="R72:T72" si="47">+R54+R59</f>
         <v>15.879000000000001</v>
       </c>
       <c r="S72" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>14.218</v>
       </c>
       <c r="T72" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>205.05500000000001</v>
       </c>
       <c r="U72" s="41">
         <f>+U54+U59</f>
         <v>209.494</v>
       </c>
-      <c r="W72" s="90"/>
+      <c r="W72" s="75"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
@@ -4658,23 +4678,23 @@
         <v>-201.78300000000002</v>
       </c>
       <c r="P73" s="6">
-        <f t="shared" ref="P73:Q73" si="47">P71-P72</f>
+        <f t="shared" ref="P73:Q73" si="48">P71-P72</f>
         <v>-7.0839999999999979</v>
       </c>
       <c r="Q73" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-4.5190000000000001</v>
       </c>
       <c r="R73" s="6">
-        <f t="shared" ref="R73:T73" si="48">R71-R72</f>
+        <f t="shared" ref="R73:T73" si="49">R71-R72</f>
         <v>-10.581000000000001</v>
       </c>
       <c r="S73" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-12.03</v>
       </c>
       <c r="T73" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-202.75300000000001</v>
       </c>
       <c r="U73" s="6">
@@ -4712,7 +4732,7 @@
       <c r="M75" s="26">
         <v>2.8</v>
       </c>
-      <c r="N75" s="85"/>
+      <c r="N75" s="70"/>
       <c r="P75" s="26">
         <v>1.65</v>
       </c>
@@ -4731,7 +4751,7 @@
       <c r="U75" s="26">
         <v>2.3468</v>
       </c>
-      <c r="W75" s="85"/>
+      <c r="W75" s="70"/>
     </row>
     <row r="76" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
@@ -4754,32 +4774,32 @@
         <f>M75*M21</f>
         <v>191.78913039999998</v>
       </c>
-      <c r="N76" s="91"/>
+      <c r="N76" s="76"/>
       <c r="P76" s="6">
-        <f t="shared" ref="P76:Q76" si="49">P75*P21</f>
+        <f t="shared" ref="P76:Q76" si="50">P75*P21</f>
         <v>107.25</v>
       </c>
       <c r="Q76" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>160.61500000000001</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" ref="R76:T76" si="50">R75*R21</f>
+        <f t="shared" ref="R76:T76" si="51">R75*R21</f>
         <v>139.2885</v>
       </c>
       <c r="S76" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>192.92</v>
       </c>
       <c r="T76" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>135.26514572780002</v>
       </c>
       <c r="U76" s="6">
         <f>U75*U21</f>
         <v>160.42316691479999</v>
       </c>
-      <c r="W76" s="91"/>
+      <c r="W76" s="76"/>
     </row>
     <row r="77" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
@@ -4802,32 +4822,32 @@
         <f>M76-M73</f>
         <v>393.57213039999999</v>
       </c>
-      <c r="N77" s="91"/>
+      <c r="N77" s="76"/>
       <c r="P77" s="6">
-        <f t="shared" ref="P77:Q77" si="51">P76-P73</f>
+        <f t="shared" ref="P77:Q77" si="52">P76-P73</f>
         <v>114.334</v>
       </c>
       <c r="Q77" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>165.13400000000001</v>
       </c>
       <c r="R77" s="6">
-        <f t="shared" ref="R77:T77" si="52">R76-R73</f>
+        <f t="shared" ref="R77:T77" si="53">R76-R73</f>
         <v>149.86949999999999</v>
       </c>
       <c r="S77" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>204.95</v>
       </c>
       <c r="T77" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>338.01814572780006</v>
       </c>
       <c r="U77" s="6">
         <f>U76-U73</f>
         <v>358.4061669148</v>
       </c>
-      <c r="W77" s="91"/>
+      <c r="W77" s="76"/>
     </row>
     <row r="79" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="60">
@@ -4854,36 +4874,36 @@
         <f>M75/M69</f>
         <v>2.8630798572857419</v>
       </c>
-      <c r="N79" s="92"/>
+      <c r="N79" s="77"/>
       <c r="P79" s="57">
-        <f t="shared" ref="P79:Q79" si="53">P75/P69</f>
+        <f t="shared" ref="P79:Q79" si="54">P75/P69</f>
         <v>26.527331189710569</v>
       </c>
       <c r="Q79" s="57">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.0194762468745893</v>
       </c>
       <c r="R79" s="57">
-        <f t="shared" ref="R79:T79" si="54">R75/R69</f>
+        <f t="shared" ref="R79:T79" si="55">R75/R69</f>
         <v>2.5367614919501715</v>
       </c>
       <c r="S79" s="57">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3.3898543339600433</v>
       </c>
       <c r="T79" s="57">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>4.5679165786775604</v>
       </c>
       <c r="U79" s="57">
         <f>U75/U69</f>
         <v>4.7096018235269916</v>
       </c>
-      <c r="W79" s="92"/>
+      <c r="W79" s="77"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="60">
-        <f t="shared" ref="A80:A83" si="55">AVERAGE(Q80:U80)</f>
+        <f t="shared" ref="A80:A83" si="56">AVERAGE(Q80:U80)</f>
         <v>2.496796985722928</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -4894,23 +4914,23 @@
         <v>1.175727591880082</v>
       </c>
       <c r="P80" s="57">
-        <f t="shared" ref="P80:Q80" si="56">P76/P8</f>
+        <f t="shared" ref="P80:Q80" si="57">P76/P8</f>
         <v>1.5931609203939452</v>
       </c>
       <c r="Q80" s="57">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>2.2609093468468466</v>
       </c>
       <c r="R80" s="57">
-        <f t="shared" ref="R80:T80" si="57">R76/R8</f>
+        <f t="shared" ref="R80:T80" si="58">R76/R8</f>
         <v>1.8243418467583494</v>
       </c>
       <c r="S80" s="57">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2.293335869332636</v>
       </c>
       <c r="T80" s="57">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3.7294975248228521</v>
       </c>
       <c r="U80" s="57">
@@ -4920,7 +4940,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4.2703228836366645</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -4931,23 +4951,23 @@
         <v>2.8421334712465356</v>
       </c>
       <c r="P81" s="57">
-        <f t="shared" ref="P81:Q81" si="58">P77/P8</f>
+        <f t="shared" ref="P81:Q81" si="59">P77/P8</f>
         <v>1.6983912416999658</v>
       </c>
       <c r="Q81" s="57">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2.3245213963963964</v>
       </c>
       <c r="R81" s="57">
-        <f t="shared" ref="R81:T81" si="59">R77/R8</f>
+        <f t="shared" ref="R81:T81" si="60">R77/R8</f>
         <v>1.9629273084479368</v>
       </c>
       <c r="S81" s="57">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>2.4363424550058248</v>
       </c>
       <c r="T81" s="57">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>9.3197536664313905</v>
       </c>
       <c r="U81" s="57">
@@ -4957,7 +4977,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>20.377966557521056</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -4968,23 +4988,23 @@
         <v>4.5418588938941094</v>
       </c>
       <c r="P82" s="57">
-        <f t="shared" ref="P82:Q82" si="60">P75/P20</f>
+        <f t="shared" ref="P82:Q82" si="61">P75/P20</f>
         <v>29.537317543376421</v>
       </c>
       <c r="Q82" s="57">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>31.000772051727438</v>
       </c>
       <c r="R82" s="57">
-        <f t="shared" ref="R82:T82" si="61">R75/R20</f>
+        <f t="shared" ref="R82:T82" si="62">R75/R20</f>
         <v>17.107406042741321</v>
       </c>
       <c r="S82" s="57">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>21.347792408985285</v>
       </c>
       <c r="T82" s="57">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-7.6218597919535709</v>
       </c>
       <c r="U82" s="57">
@@ -4994,7 +5014,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>28.680426491732657</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -5005,23 +5025,23 @@
         <v>10.980754210457265</v>
       </c>
       <c r="P83" s="57">
-        <f t="shared" ref="P83:Q83" si="62">P77/P19</f>
+        <f t="shared" ref="P83:Q83" si="63">P77/P19</f>
         <v>31.488295235472258</v>
       </c>
       <c r="Q83" s="57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>31.87299749083186</v>
       </c>
       <c r="R83" s="57">
-        <f t="shared" ref="R83:T83" si="63">R77/R19</f>
+        <f t="shared" ref="R83:T83" si="64">R77/R19</f>
         <v>18.406963890935863</v>
       </c>
       <c r="S83" s="57">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>22.678986389288482</v>
       </c>
       <c r="T83" s="57">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-19.046494941556322</v>
       </c>
       <c r="U83" s="57">
@@ -5075,7 +5095,7 @@
         <v>2.2919999999999998</v>
       </c>
       <c r="J88" s="44">
-        <f t="shared" ref="J88:J89" si="64">U88-I88</f>
+        <f t="shared" ref="J88:J89" si="65">U88-I88</f>
         <v>0</v>
       </c>
       <c r="K88" s="6">
@@ -5108,7 +5128,7 @@
         <v>-2.6509999999999998</v>
       </c>
       <c r="J89" s="44">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-3.0350000000000001</v>
       </c>
       <c r="K89" s="6">
@@ -5153,32 +5173,32 @@
         <v>25.498999999999999</v>
       </c>
       <c r="L90" s="33"/>
-      <c r="N90" s="83"/>
+      <c r="N90" s="68"/>
       <c r="P90" s="59">
-        <f t="shared" ref="P90:T90" si="65">SUM(P87:P89)</f>
+        <f t="shared" ref="P90:T90" si="66">SUM(P87:P89)</f>
         <v>13.776999999999999</v>
       </c>
       <c r="Q90" s="59">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>10.819999999999999</v>
       </c>
       <c r="R90" s="29">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>17.754999999999999</v>
       </c>
       <c r="S90" s="29">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>20.62</v>
       </c>
       <c r="T90" s="29">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-2.0009999999999994</v>
       </c>
       <c r="U90" s="29">
         <f>SUM(U87:U89)</f>
         <v>27.433</v>
       </c>
-      <c r="W90" s="83"/>
+      <c r="W90" s="68"/>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I91" s="6"/>
@@ -5229,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="44">
-        <f t="shared" ref="J93:J95" si="66">U93-I93</f>
+        <f t="shared" ref="J93:J95" si="67">U93-I93</f>
         <v>0</v>
       </c>
       <c r="K93" s="6">
@@ -5262,7 +5282,7 @@
         <v>-0.20499999999999999</v>
       </c>
       <c r="J94" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-6.9029999999999996</v>
       </c>
       <c r="K94" s="6">
@@ -5295,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-2.4E-2</v>
       </c>
       <c r="K95" s="6">
@@ -5328,44 +5348,44 @@
       <c r="F96" s="33"/>
       <c r="H96" s="33"/>
       <c r="I96" s="29">
-        <f t="shared" ref="I96" si="67">SUM(I92:I95)</f>
+        <f t="shared" ref="I96" si="68">SUM(I92:I95)</f>
         <v>-0.20499999999999999</v>
       </c>
       <c r="J96" s="45">
-        <f t="shared" ref="J96" si="68">SUM(J92:J95)</f>
+        <f t="shared" ref="J96" si="69">SUM(J92:J95)</f>
         <v>-6.9269999999999996</v>
       </c>
       <c r="K96" s="29">
-        <f t="shared" ref="K96" si="69">SUM(K92:K95)</f>
+        <f t="shared" ref="K96" si="70">SUM(K92:K95)</f>
         <v>-17.099000000000004</v>
       </c>
       <c r="L96" s="33"/>
-      <c r="N96" s="83"/>
+      <c r="N96" s="68"/>
       <c r="P96" s="29">
-        <f t="shared" ref="P96:R96" si="70">SUM(P92:P95)</f>
+        <f t="shared" ref="P96:R96" si="71">SUM(P92:P95)</f>
         <v>-5.3520000000000003</v>
       </c>
       <c r="Q96" s="29">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-6.2170000000000005</v>
       </c>
       <c r="R96" s="29">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-12.805999999999999</v>
       </c>
       <c r="S96" s="29">
-        <f t="shared" ref="S96" si="71">SUM(S92:S95)</f>
+        <f t="shared" ref="S96" si="72">SUM(S92:S95)</f>
         <v>-10.467999999999998</v>
       </c>
       <c r="T96" s="29">
-        <f t="shared" ref="T96" si="72">SUM(T92:T95)</f>
+        <f t="shared" ref="T96" si="73">SUM(T92:T95)</f>
         <v>-6.1629999999999994</v>
       </c>
       <c r="U96" s="29">
-        <f t="shared" ref="U96" si="73">SUM(U92:U95)</f>
+        <f t="shared" ref="U96" si="74">SUM(U92:U95)</f>
         <v>-7.1319999999999997</v>
       </c>
-      <c r="W96" s="83"/>
+      <c r="W96" s="68"/>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I97" s="6"/>
@@ -5479,7 +5499,7 @@
         <v>-2.9350000000000001</v>
       </c>
       <c r="J101" s="44">
-        <f t="shared" ref="J101:J104" si="74">U101-I101</f>
+        <f t="shared" ref="J101:J104" si="75">U101-I101</f>
         <v>-7.0670000000000002</v>
       </c>
       <c r="K101" s="6">
@@ -5544,7 +5564,7 @@
         <v>18</v>
       </c>
       <c r="J103" s="44">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4</v>
       </c>
       <c r="K103" s="6">
@@ -5577,7 +5597,7 @@
         <v>-10</v>
       </c>
       <c r="J104" s="44">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-18</v>
       </c>
       <c r="K104" s="6">
@@ -5610,29 +5630,29 @@
       <c r="F105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="29">
-        <f t="shared" ref="I105" si="75">SUM(I98:I104)</f>
+        <f t="shared" ref="I105" si="76">SUM(I98:I104)</f>
         <v>5.0649999999999995</v>
       </c>
       <c r="J105" s="45">
-        <f t="shared" ref="J105" si="76">SUM(J98:J104)</f>
+        <f t="shared" ref="J105" si="77">SUM(J98:J104)</f>
         <v>-21.067</v>
       </c>
       <c r="K105" s="29">
-        <f t="shared" ref="K105" si="77">SUM(K98:K104)</f>
+        <f t="shared" ref="K105" si="78">SUM(K98:K104)</f>
         <v>-12.177</v>
       </c>
       <c r="L105" s="33"/>
-      <c r="N105" s="83"/>
+      <c r="N105" s="68"/>
       <c r="P105" s="29">
-        <f t="shared" ref="P105:R105" si="78">SUM(P98:P104)</f>
+        <f t="shared" ref="P105:R105" si="79">SUM(P98:P104)</f>
         <v>-5.0609999999999999</v>
       </c>
       <c r="Q105" s="29">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-9.2170000000000005</v>
       </c>
       <c r="R105" s="29">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-5.2219999999999995</v>
       </c>
       <c r="S105" s="29">
@@ -5640,14 +5660,14 @@
         <v>-13.262</v>
       </c>
       <c r="T105" s="29">
-        <f t="shared" ref="T105:U105" si="79">SUM(T98:T104)</f>
+        <f t="shared" ref="T105:U105" si="80">SUM(T98:T104)</f>
         <v>13.370000000000003</v>
       </c>
       <c r="U105" s="29">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-16.002000000000002</v>
       </c>
-      <c r="W105" s="83"/>
+      <c r="W105" s="68"/>
     </row>
     <row r="106" spans="2:23" x14ac:dyDescent="0.2">
       <c r="T106" s="6"/>
@@ -5669,23 +5689,23 @@
         <v>-17.099000000000004</v>
       </c>
       <c r="P107" s="6">
-        <f t="shared" ref="P107" si="80">+P93+P94+P95</f>
+        <f t="shared" ref="P107" si="81">+P93+P94+P95</f>
         <v>-5.3520000000000003</v>
       </c>
       <c r="Q107" s="6">
-        <f t="shared" ref="Q107:R107" si="81">+Q93+Q94+Q95</f>
+        <f t="shared" ref="Q107:R107" si="82">+Q93+Q94+Q95</f>
         <v>-6.2170000000000005</v>
       </c>
       <c r="R107" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-12.805999999999999</v>
       </c>
       <c r="S107" s="6">
-        <f t="shared" ref="S107:T107" si="82">+S93+S94+S95</f>
+        <f t="shared" ref="S107:T107" si="83">+S93+S94+S95</f>
         <v>-10.167999999999999</v>
       </c>
       <c r="T107" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-6.1629999999999994</v>
       </c>
       <c r="U107" s="6">
@@ -5713,32 +5733,32 @@
         <v>8.399999999999995</v>
       </c>
       <c r="L108" s="33"/>
-      <c r="N108" s="83"/>
+      <c r="N108" s="68"/>
       <c r="P108" s="29">
-        <f t="shared" ref="P108" si="83">+P90+P107</f>
+        <f t="shared" ref="P108" si="84">+P90+P107</f>
         <v>8.4249999999999989</v>
       </c>
       <c r="Q108" s="29">
-        <f t="shared" ref="Q108:R108" si="84">+Q90+Q107</f>
+        <f t="shared" ref="Q108:R108" si="85">+Q90+Q107</f>
         <v>4.602999999999998</v>
       </c>
       <c r="R108" s="29">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>4.9489999999999998</v>
       </c>
       <c r="S108" s="29">
-        <f t="shared" ref="S108:T108" si="85">+S90+S107</f>
+        <f t="shared" ref="S108:T108" si="86">+S90+S107</f>
         <v>10.452000000000002</v>
       </c>
       <c r="T108" s="29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-8.1639999999999979</v>
       </c>
       <c r="U108" s="29">
         <f>+U90+U107</f>
         <v>20.301000000000002</v>
       </c>
-      <c r="W108" s="83"/>
+      <c r="W108" s="68"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/£TEG.xlsx
+++ b/£TEG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76836FA-5481-4743-A0B0-FFA04A166F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8772B08C-C715-4E56-93C6-925E14071656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18B12511-5A40-4110-901F-9E6EE9F0D34B}"/>
   </bookViews>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
   <si>
     <t>£TEG</t>
   </si>
@@ -473,6 +464,9 @@
   </si>
   <si>
     <t>(EST)</t>
+  </si>
+  <si>
+    <t>Trive Capital offer £300m bid to takeover TEG</t>
   </si>
 </sst>
 </file>
@@ -702,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -820,24 +814,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,6 +841,28 @@
     <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1354,7 +1352,7 @@
   <dimension ref="B2:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1374,32 +1372,32 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="G5" s="85" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="G5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-      <c r="Q5" s="85" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
+      <c r="Q5" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="D6" s="15"/>
       <c r="G6" s="8"/>
@@ -1425,8 +1423,12 @@
         <f>$C$28</f>
         <v>H123</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="94">
+        <v>45261</v>
+      </c>
+      <c r="H7" s="95" t="s">
+        <v>146</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1442,7 +1444,7 @@
       </c>
       <c r="C8" s="6">
         <f>C6*C7</f>
-        <v>188.36432449999998</v>
+        <v>212.33796580000001</v>
       </c>
       <c r="D8" s="15"/>
       <c r="G8" s="8"/>
@@ -1532,7 +1534,7 @@
       </c>
       <c r="C12" s="7">
         <f>C8-C11</f>
-        <v>390.14732449999997</v>
+        <v>414.12096580000002</v>
       </c>
       <c r="D12" s="16"/>
       <c r="G12" s="8"/>
@@ -1571,11 +1573,11 @@
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1591,10 +1593,10 @@
       <c r="B16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="85"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1610,10 +1612,10 @@
       <c r="B17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="91"/>
+      <c r="D17" s="85"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1626,10 +1628,10 @@
       <c r="B18" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="85"/>
       <c r="G18" s="11"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -1640,13 +1642,13 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="43"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="Q19" s="85" t="s">
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="Q19" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="86"/>
-      <c r="S19" s="87"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="81"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q20" s="37" t="s">
@@ -1663,11 +1665,11 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
       <c r="G22" s="62" t="s">
         <v>143</v>
       </c>
@@ -1679,48 +1681,48 @@
       <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="91"/>
+      <c r="D23" s="85"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="90">
+      <c r="C24" s="84">
         <v>2009</v>
       </c>
-      <c r="D24" s="91"/>
+      <c r="D24" s="85"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="84">
         <f>'Financial Model'!M34</f>
         <v>51</v>
       </c>
-      <c r="D25" s="91"/>
+      <c r="D25" s="85"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="88">
+      <c r="C26" s="82">
         <f>'Financial Model'!K38</f>
         <v>1500</v>
       </c>
-      <c r="D26" s="89"/>
+      <c r="D26" s="83"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="92">
+      <c r="C27" s="86">
         <v>2017</v>
       </c>
-      <c r="D27" s="93"/>
+      <c r="D27" s="87"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
@@ -1737,75 +1739,82 @@
       <c r="B29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="84"/>
+      <c r="D29" s="93"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="81">
+      <c r="C33" s="90">
         <f>C6/'Financial Model'!M69</f>
-        <v>2.8119534312627823</v>
-      </c>
-      <c r="D33" s="82"/>
+        <v>3.1698384134235003</v>
+      </c>
+      <c r="D33" s="91"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="81">
+      <c r="C34" s="90">
         <f>C8/SUM('Financial Model'!L8:M8)</f>
-        <v>1.4632398140308083</v>
-      </c>
-      <c r="D34" s="82"/>
+        <v>1.6494703358165479</v>
+      </c>
+      <c r="D34" s="91"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="81">
+      <c r="C35" s="90">
         <f>C12/SUM('Financial Model'!L8:M8)</f>
-        <v>3.0307177331023607</v>
-      </c>
-      <c r="D35" s="82"/>
+        <v>3.2169482548881003</v>
+      </c>
+      <c r="D35" s="91"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="81">
+      <c r="C36" s="90">
         <f>C6/SUM('Financial Model'!L20:M20)</f>
-        <v>9.1425678056593718</v>
-      </c>
-      <c r="D36" s="82"/>
+        <v>10.306167344561473</v>
+      </c>
+      <c r="D36" s="91"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="81">
+      <c r="C37" s="90">
         <f>C12/SUM('Financial Model'!L19:M19)</f>
-        <v>18.93643277678008</v>
-      </c>
-      <c r="D37" s="82"/>
+        <v>20.100032315682185</v>
+      </c>
+      <c r="D37" s="91"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="C26:D26"/>
@@ -1822,19 +1831,14 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{872569F1-2E0E-45DC-998D-58DC741E9E51}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{7A8E44BB-2CDB-4B29-A39D-CFD6D568260E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
